--- a/2025-02-03/Baseball_2025-02-03.xlsx
+++ b/2025-02-03/Baseball_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316174398976?_skw=PSA+10&amp;epid=25071752454&amp;hash=item499d767600:g:zxQAAOSw~elnirgi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlM8iF5pU5sG%2BU95J%2FdNwUhjHSg8AKpbyHp1xajY88jTQiydhiTrcVxx2JA4bt%2BNVG3%2FfnA%2BsxHrP8h42JXj1O84m7GtGereC%2FhuJXwA%2BndRdgWpJG7nOW6a5ocIR%2FATmKWI9qhMt5BZJ7lJM1X5Fe6sLjOO4CLukdl7F7lEDkJXuj1%2FT9xMuiC0Jump8%2BGLj4UyqJTaKGc3yQTGJ1A4Hj%2F7j2Wk6GQQOtiOb5lCMYQJwgoa%2F2BmlQ%2B4hBiNXTNBtY5uIc0Vf1EPjVNj%2BTOwKhq%7Ctkp%3ABk9SR8D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/316174398976?_skw=PSA+10&amp;epid=25071752454&amp;hash=item499d767600:g:zxQAAOSw~elnirgi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnq6aCtV6KJsrpn6FdpUjMdF%2FnpzRAVJpLtIr7CDaQPYb7Ggn%2BrUEUoBFewKVv6LxbvSTiuYnV5M7oR5YEBIOGly7nZLr1N7sZ1n8iQCisBYrH%2Bvxb3%2FHFjRzjFddQRtt8r17FiBZIfoA%2F299eduLTd6mMBSS%2FFMmRjMAP66cwq1NMk1WwQ6WUvMxV%2BBsX9KxjU3phvHRWXw3J7d%2Fes7HrYn0CDJ%2Beai%2Fco3FNNVmRWCA%3D%3D%7Ctkp%3ABk9SR8qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126906454214?_skw=PSA+10&amp;epid=2327048758&amp;hash=item1d8c36d0c6:g:2LUAAOSwUpdnmIFG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn2lo2du1STPdHodwJnqFuUKuuTKsK0Ht%2BJrjUG1qAAkXu6ZUIlxWo9iI5euZKxWQZOUZRPsSFJkE8DsDL9hsWMkbpeFrANNYRpBUZ4HIyMR2UngilVrZWT2bepNTIEHSG94K2GdYwrObVxaXTWTIJDS%2FwfCBIAaIuy1GphzByFOVyep0NOdzv9b5AFysX8KnaQ%2Fit1mXAHZUuTTN2IA%2FgovIbPw0%2FhUR7py3yEi%2FnVvA%3D%3D%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126906454214?_skw=PSA+10&amp;epid=2327048758&amp;hash=item1d8c36d0c6:g:2LUAAOSwUpdnmIFG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn2lo2du1STPdHodwJnqFuUKuuTKsK0Ht%2BJrjUG1qAAkaknZDsG24Eo9%2FYMmQPjDrkndSBqCcPFvLnmAnBZFr0rKcUcM3e7Mt%2ByBk3D1lOf3ipp6dbD7xJlS%2Fxiirk88iLKmrJgbdvB4Ztsojw%2FhX5bU3tjtlIR05uAKD33TYlBh841O1kqJ5%2FN8gV4Rx1PAEr1kTQQb27RkNI7u4f1NMOlnARVrqjy1HydP0M%2FR%2FCNQw%3D%3D%7Ctkp%3ABk9SR8qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116463182804?_skw=PSA+10&amp;epid=22055877467&amp;hash=item1b1dbf23d4:g:R84AAOSw5Q1nnTn8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmzD6VEiaeq2ddMxDO1ekzXsfItoX8RolIMzpENiMVoRR7MxKqeHP94%2F98jJeumaSdJKkfXzjl%2F6Ov2ayeogRZH%2BTRrF3hjxGqMAWmatn4x20YKjU2VntZ9PI9pI4Pk6nIBPjR6xuwhx1Y%2B%2FLjw1geaYzv7gjy%2BFTiouj6yBMYhNL6h3wPcxLc0PUJnX%2BHFTGnRi1hmIh1I%2FJho9gCrwLJcdFdGynSXgaYT8s5eJncTEBNjBhD6eAH%2F0R5Fwvumeno7Ta1nVh0ayr9PoIt1Fjc%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/116463182804?_skw=PSA+10&amp;epid=22055877467&amp;hash=item1b1dbf23d4:g:R84AAOSw5Q1nnTn8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmzD6VEiaeq2ddMxDO1ekzXsfItoX8RolIMzpENiMVoRR7MxKqeHP94%2F98jJeumaSdJKkfXzjl%2F6Ov2ayeogRZH%2BTRrF3hjxGqMAWmatn4x20YKjU2VntZ9PI9pI4Pk6lhpZFl2nOhNPJfbNWvXq%2Fvo4mcPJiPuHjOuw7JbpplKR14D7ymGtWe1KQipgH7yMC5BjuGw5GpB6LnN%2Bl%2Fv4nya%2FFaHj2qBUDxPa9v5u%2FzkBwQq4wrar3%2FR2PvSycDlr%2FFyr1E7JTDt1SC9i1VT6G7%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286222859604?_skw=PSA+10&amp;hash=item42a4363d54:g:rjUAAOSwwZdnZDzh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSthE9X%2FwD82Ts%2BAbpUYm0tJrWOoa1BaOHNgna70Z7x35JMPyfjvWZcTTlnl%2B453Tw%2BSGjPHXIQhTVIXwBgT4BHVeKYbIMgc21VAglkOJFZ0O9pdhnmLPNvTrVuYXjYuu8hpry2nc0XcWoYzoXxYtEbSAfSDHGPV0o5xkFMPuwwm0Y%2FcUwjaWl%2BKRdM14VdMqhiMLO5cxTXn9tPRXPWIYjjGgPrt%2BfAAXm6aiteMPdUz7IQWRpPDjhZajOwjyXwH5tEQlOQVkXqACvIZRn--Pt%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286222859604?_skw=PSA+10&amp;hash=item42a4363d54:g:rjUAAOSwwZdnZDzh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSthE9X%2FwD82Ts%2BAbpUYm0tJrWOoa1BaOHNgna70Z7x35JMPyfjvWZcTTlnl%2B453Tw%2BSGjPHXIQhTVIXwBgT4BHVeKYbIMgc21VAglkOJFZ0O9pdhnmLPNvTrVuYXjYuu0L%2FNkCOvshd8NEq3U3PLzBNMLux8uII8MzknuSJbXpONfm9WqlrIv915sqedWbB0zzV4pR3mCf3gRZ5RPfSzI6AcvWP%2FJi4SvSeYGXJJl5o38MKYGnJV93wJTqlIs%2FWYJrxy8HQjocH%2BFYje9wC92%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395772990492?_skw=PSA+10&amp;epid=5063854344&amp;hash=item5c25e8941c:g:VeIAAOSwvLFnBMaL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVfnVAQ%2FFo7b6%2BkMnWj24tf%2BtOW34OuTPc7jlBo0Ta7MJHg0tK7ehlTxAK%2BoHTbzULmkjHU76bf1Dgf5TBo9jEUfv77%2FT5fABzp%2BZ%2Fjq6Nj3TDckjk1eLu%2B0RG2ccqpienrHp3pvE1i1uaIw2r41FV607xmkkI1wgM3s8qVd2XLmWm5SNkd5tR3Te6BlYhbddh8iwqp0iPXpLfM%2FAOVGBuHU12O2MdVmAyFLVLRWw%2FCwSkIZHIh9BR0X9n5LrArxtJyJc71kF2Xnb2WbAbQpmI%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/395772990492?_skw=PSA+10&amp;epid=5063854344&amp;hash=item5c25e8941c:g:VeIAAOSwvLFnBMaL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlXEUCgIbTg02NF9x3x77GXBeDitEyy%2F24bWlnB52Xhu9mtsYFIKo2cmGGEb06gDn86emD0%2FtrJylWDc2ZqxDIkifnk%2BY7k%2FOKa3ai%2BdUjYT%2FwHZ1YNr0Nsvi%2BMPedNJsO3TB5zP6dQV7E74UFPn123OoEKI%2ByyIDc15UDjX2WYYmymSvF7nZVhsWhdR6Tpo41PaWN0GwoRYY1Xu5xjt26BPtIkHZrMkiA3m6zl4xMyaw%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126879062183?_skw=PSA+10&amp;epid=14055965694&amp;hash=item1d8a94d8a7:g:lK8AAOSwFS5ng5PP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk04NqDAqO%2BtgdW3bG6yzxHqGy7Z9%2FPZ9w9ddk0ssxZlylX3bmtXq7mLExKDrYsRW69SMy0VHefbbgRxL4%2BQf7mHbtdpdx4oFau3pssvxe90OjMSSsyg4yF4gNc5lNRtffKNDvFO3y9WKq%2BVq5dLvk3J3eKbkbiaGIJiT94Wo3lgrjVofoYKz8iR2DZLHtSmTaLKZqzUSzDvva5JXXXMODt1RdM1zeuh5JwPKbBLWxkaA%3D%3D%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126879062183?_skw=PSA+10&amp;epid=14055965694&amp;hash=item1d8a94d8a7:g:lK8AAOSwFS5ng5PP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk04NqDAqO%2BtgdW3bG6yzxHqGy7Z9%2FPZ9w9ddk0ssxZl7%2Fc6gemlpvkvUVdaX64vEduRwXoVfqLTm%2F5Ckv2joEXGkrbjXrZrCBNyzcn%2Fv9X4V4sxTU2zoESlTg8tRbjd2PB0MfxRGZnr1wh68O%2BLdZLTF20Ne9mdofnMZEigSjHkbQIs%2FiqCazleOKKa4ydSfV4Gs5dwS53ldpSWE68IrICkbWpidoz8zCL5xh7kqwNWA%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356426121947?_skw=PSA+10&amp;epid=14071895720&amp;hash=item52fca702db:g:bH4AAOSw02xndXG9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlCCoK%2FNfmwbKa%2F0paEvCcXlb7YHQaI0XKARUQ4X3y3rVQxTkjrN%2Br5UbqHoB5eUmypVCPrwYW7xClm4koWa2bhWS%2F59Av0pWgb0xJx3KBs%2BBPbQdPZyfwFkoLiONMKnlpXmNhHACkDt3wNKADbJxwkDMswRLuNEdCwFTKNhMYZOy%2FXcGxoh2rWUpH06nG5mP4HafehKWUN8ckTNUCD6yUxMbzZPUq90mXsdFT8PXMLwg%3D%3D%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/356426121947?_skw=PSA+10&amp;epid=14071895720&amp;hash=item52fca702db:g:bH4AAOSw02xndXG9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlCCoK%2FNfmwbKa%2F0paEvCcXlb7YHQaI0XKARUQ4X3y3rZ9V0DSgKOZrUeX9ruXSPT7gTkh0dVjzrllYCocoAWejkRu1JHeKu3lE910X6Q%2FSEd%2Fi6S8UEaIaKvkxGx1pmOffmz9Sp%2BZVh7WtjWLejxBsb0zaWDJKkUgt2WFjW1xSXG5olQWLsrGjp1ShdmU7oXiMVtHdgBwihJscOFtLK1tnhTaLTbNKlLtwRqBMoOUrYQ%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365345308846?_skw=PSA+10&amp;epid=16061694319&amp;hash=item55104700ae:g:90MAAOSwM~RniCJG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9k60WecmkQzKacSDI9NR8qj0NacnzBJb9Z6R%2BhWeAoXYJMnoX3k4ec0eEhnutBAe4nDY5Kg2o1u8jGnILZWWI5RKZBwuu5GDA6JU3KFHucuPDKMYmQzEYVbLc6e1WfhPL0lBmerjLqPbx%2BO0X04bfOsR%2FTQjZLm2qKFnYlvjkNdka1mtbROqFEGDLkdF49uith8VDmNWIX0sVcyZRmuDED8yXjGg8claDWMzY7PV3Su6P%2Frbh16HogPWU65fy3DEvhsQXiXM4d2cqtm9Zesbw%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365345308846?_skw=PSA+10&amp;epid=16061694319&amp;hash=item55104700ae:g:90MAAOSwM~RniCJG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9k60WecmkQzKacSDI9NR8qj0NacnzBJb9Z6R%2BhWeAoXYJMnoX3k4ec0eEhnutBAe4nDY5Kg2o1u8jGnILZWWI5RKZBwuu5GDA6JU3KFHucuPDKMYmQzEYVbLc6e1WfhMYGvXHU0IjQYfndv6EX3%2FGMwjL3bcdmiIhsQjXADkoG%2BxBB8tie5HsUJZUBYPQ2C%2FI%2F3CAhEj829ZA7r9BqLsrTqysm9pvR1UDraYbhhus0zZEv3l9dsukNFK9csvKbp9AYBmPNB8qE4eFpedKs126%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267138605250?_skw=PSA+10&amp;epid=24057228177&amp;hash=item3e32b3a0c2:g:fX4AAOSwjflnmQ8d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkYkwC6Zgxv1K8a2nqlEBjjP0ExavEcWUmo2b2yr76pEuE5tKtjfjZGxzZISVDvWT2lo8W9Zx6Kh%2BIkx93B9bzDXT02W41Gb3pUZW4UUZTanYAxexfaO%2Fp4umYZs0VqWl0%2FCn7z38HrJqNnBx1IX5kYvGEWTvUj1BopYSIeUAIanrHCMtBdclw31jX9dPtOAwd3kd4dFTUegyiE4OwiGbFC8NXG1NKIArliCCXJruez3A%3D%3D%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/267138605250?_skw=PSA+10&amp;epid=24057228177&amp;hash=item3e32b3a0c2:g:fX4AAOSwjflnmQ8d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkYkwC6Zgxv1K8a2nqlEBjjP0ExavEcWUmo2b2yr76pEhcxSto2tz%2FJW8hPJPY9QuOChPnyjAKYJ76F90LsvpG%2BkpcSogjmE9f6oymST%2FWPvynatzMDF4fX8hRD0ja5sngbOiWFsyD6mVgUD%2B051wAMWfKB%2BIzBHB7bEEbSQreqZAzXy3t5l%2FAAitvnAs%2FtPtJkCloDIjdD%2BCS%2FpPGmGrkvkEnuy%2FAtaf95gklhjhMY%2BA%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266903783431?_skw=PSA+10&amp;epid=14059581671&amp;hash=item3e24b48807:g:ZJcAAOSwe5dmkuQK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnOv11%2B6zFy7QMim8ISEJuAffr8V5i1Y6gjZQTIGJSwCImRlMRG8%2FDDAkMbOe4F3JWNnorToI%2FqORaVtgC9cJaXsAXgMUNri%2Fjr1qoCd0zDLY%2Bygk10G0wVrmpqYPacrYVKwM%2FBI3CyWYDBunZLQMSCmBgrISCT5pTcUkKfPDDWSDLmfQqy%2FNf0EPhLlClPbpYhdvvUt%2FhpKJ3hRwLA3fW%2FUuxCBrLPhcuNqpSiULOFrcsxfJMKqLETOgfLdYp5%2Bowz5T%2BbmuNhkS3o9lwRRaNY%7Ctkp%3ABk9SR8L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/266903783431?_skw=PSA+10&amp;epid=14059581671&amp;hash=item3e24b48807:g:ZJcAAOSwe5dmkuQK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmlik4msEwcHgGSeqEcToWvSEqE2H51y23jfh3UxqpoSdr5%2F2hxKoAUPjlo1U7ecRaPYTMqaWI0sZH0Qu7w1E9a5vtxyYfBou0l0LpdMoRCV8H%2FV0bq61vL8duFPVSOCisXQEL9gOgJW%2FU6wZwAVzgMtM6xXhsda1lVDh0aMFQ9Y2XYtGfnefX36A3WTSV7ChOAJjBbqjgV4SBDISftAe2fPIwk4dqnYbVe3WOnh026TQ%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396117845183?_skw=PSA+10&amp;hash=item5c3a76a4bf:g:~gIAAOSwuMJng0-v&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlJ8w0C4llPDsCBQoW5a%2F2q9KN3HgT6LEmxMCSuBDgcGJuImFvAGMYH3HI8BGXjxhNVSih28RTET96ueq3T0anqtVeXTNyCvfGTmSC6V8vSvkf4bZv7Kt19ySJNaXbhStY5FI7qYrQBq%2FeuUdPSxEdxujNj74knMrbo%2BKOh5rn5zrcjw9Te0iO9YpNqFI4dy0AkHsSKgsyZAPNnswkGvQP6DzlM6rOvjPiac8fA%2BXC3Sg%3D%3D%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/396117845183?_skw=PSA+10&amp;hash=item5c3a76a4bf:g:~gIAAOSwuMJng0-v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmla1xjCoF%2F4C4Abfzq3rnLpRVn%2BiTSYgxKwDo5KhHuFiiFSFQ%2BZ1h%2BOqmIlgfODv9s%2B5TP1yrMC%2B7%2FHl9Nw1zaO2srDwIBaPleMRC0TU6il5ftjowVXejd6SJRksWDyUntpKXpoqTD5VW1KGM%2FuH27q9ulJi6s58LdfqenLbLotuJuIBZHntJMLVswv9ecWCN5%2Fezj01%2FDSthzM3EJzzS9nHsdTkhILYTUYP3I6aYwtQULWfUJSFpUfge3mmJuNJ302mBsJrrxKr7hBQMd4fC0%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHdT4MtsxfuofLix9hi0nvLT23ZWkSozQtRBbtIb7kl1RkfphLn338UTAbm1%2BOr6KSNspA54LeVKIpaugpJ1QoTK30kNTrWVzDgZBZPK7G8FhBqSvp3TVWYn5Gq4YFpFL4b4EoYP4aBgQe7%2FsRSKG2eRgtfgr8EIZv%2BbMzKIBhnK%2BQM4EBwuAHjYIG6yWcpdBod483nnRgSiFNih4xU17Cv2uszcKLbMJLChS%2BJGfO7nXwPsosOs%2F3HzMUxFNPj6Lfy2qw2zMODhtb4ZZYq%2B9K%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7lpblo9X%2FNollTibfjxQvYRZPeZnmF7aovdfl1z4f%2FxJEFOgv6B9hSFE68z9tDzEE7kSyeTi3XEE1LfD9QHXjd1JEbu5ge2uFvVHzbg%2FAblaYxEo%2B0SnRuIYU5glviDvmwHQ%2FQuUXbjm89H%2FnsFBhMlElfrtqhwRXta777WBDN36zCv8mADLu8vz4ntWdA92NtCK0Ow57InDS8EBhA4NPwDWaHoXKP0jG7dyoXrUlng%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396089918742?_skw=PSA+10&amp;epid=23062864095&amp;hash=item5c38cc8516:g:AI8AAOSwV1FneVh7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlawpm2zXAM4hJ0AxmZVtKE2d%2FrrEZUOS7xR76XkNfE6GCJblbDpY%2Fe%2B%2BJwZtkUcECoqRlClnrhu3U2%2Bt9%2BfoFipTNidtZBHOt8uyEefvrp2drTZJ%2BrjNSyhJgbrnrTXCaqukTZQHhQ1DV34D3vvARWd3nhhl95r3aWNFTCdhIsGbfe0T9s7iu7uXn531oZZDvRwwFo%2BuWbgidSlSHS1hAmCHFcB8HgTT12pwF7ZwQziA%3D%3D%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/396089918742?_skw=PSA+10&amp;epid=23062864095&amp;hash=item5c38cc8516:g:AI8AAOSwV1FneVh7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlawpm2zXAM4hJ0AxmZVtKE2d%2FrrEZUOS7xR76XkNfE6GUVacywh24CwyqISMyElQZfxEy4pkKHLpj0vQMzkuLKf0t59wIbNBgZhWG5VJWNCCx7AInimbSLWXkmEOWWf%2F2dgP4XVlVZVLA2sFB0%2F1W%2Bplk1%2F4SW2%2B6Q5jqbYCU1HgSqPjA33ywuOi0KC3XE8%2B3iAnIlBUhl0uPs4HIKqon9yoGjpZQf%2Br6dt55I7EVUCw%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568970959?_skw=PSA+10&amp;hash=item34c09022cf:g:~eMAAOSwn7xnmGW9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnwZ8JbDbNjaUhoo8GfT6SdeS30sIBv4uQRuhxG4N2Sx8yvhhkweXg%2F3T%2FDE6GGlRuvPx5a5fjQg8lNMI3CS9iBou2BdpeMmBXWgYNOlaj3yFpdnfKFZAoKTWhFh9SSz%2BuBYuzNqE%2BAuSH5xSGvkIno0MkkGSzbR1KG7QB4uWkUQyo0lIrYeLfBItN%2FtuWg4PbsfKO%2F2bMwlB1RyQ9DJOR0YmzwBBLOxPtrJVdj01SCqw%3D%3D%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226568970959?_skw=PSA+10&amp;hash=item34c09022cf:g:~eMAAOSwn7xnmGW9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnwZ8JbDbNjaUhoo8GfT6SdeS30sIBv4uQRuhxG4N2Sx1E1YfLjZIA40Fby9d2DUcFGB4cCXoK6NBrBC7w5Koht8lNrMD6uByuxbqcsHMuDBhG6YqSTf6n%2B17nVs6aZp8wCBuHI19xoKyJXmRIwuM5Jk5FMOcKPcil1EvMnzrSigtP6yeaG5o7elo1ryC3OrI6dHpgWdEFkPAA7VwsShCWjY%2BsIvh898oX7WvqDuEZAQw%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568970634?_skw=PSA+10&amp;epid=5055865913&amp;hash=item34c090218a:g:vREAAOSwgjhnmGWX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn2EZPhd7CfOc9LAe6meLmGZ6oTuxx0yiet79Dl0%2Bhmbpu59LiZb7%2FncJU7Cp%2B8DYop9KMUkrvOd1fLIvn3E1AqwbMKWHBNsBrcRTU3HvgA%2Brohw6cTyJmtwt3uJEo7Rg1wZpa0stVB38Xu9KLLFtlMelGT0gpnmY3UwSjx9j4W7DV9Np7fTduKuOezUXQrguszR4ZvobZ2M4JYOi9yyudczoqceTXD8CA77mwU%2Br2v%2BC5IXTIPyeDHurud8f0T3DAkR%2BkNUCT2j1mKPd2M9DWG%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226568970634?_skw=PSA+10&amp;epid=5055865913&amp;hash=item34c090218a:g:vREAAOSwgjhnmGWX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl63iKNXTRfsEFYTtc%2BI%2FtyWINlyVRXmhcdusHFIRSzIs8BzzuCl7q4FJMDitrLUeX2HfhTN2XVGPvxiGvp3E7sLoLeinNCgx8%2BmEcPpsLHri0IijwoQX%2BcxyhONdEyd2%2FlHyjh9a5md7hvC0TvHF4j3OKBZRq6W41oXdAxSKz%2Ffv%2BRmhqM0R7ruMcKpQlKIYvdgPSU9rbbzc2Bl%2BTHlQGih%2B2uLfUuvgkd2dAWnTU1dQ%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361931868?_skw=PSA+10&amp;epid=24055994231&amp;hash=item551144a65c:g:Ih4AAOSw6-Rnk8ry&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHx91tZAWzhPxH50%2FmWm1z4PXQjqaiyyFTYFF6DcIKslb982XtN5h73AnPLuLX7VyGaS9ixsb2lLiw36eEijomkJW0AXcGNbti1ncg1B%2Bh6GXCvdBrgPh3BxHu8tNJcrgajMr1Fw1YQR4KA1NkPMiPfY545bFX60Loi84qxUmrR%2BeOT9yAmiqbVHzS%2F1xz4M7MFuINFrRIAkLDmq3RAAXz9Qgt8U4jr%2FIhz8XiifmVWyfFtJQBp5DWzJVBG%2BGxmrBjksoT1SqaSulxH1DJqUJu%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365361931868?_skw=PSA+10&amp;epid=24055994231&amp;hash=item551144a65c:g:Ih4AAOSw6-Rnk8ry&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlSgZA%2FzH3nJ3k7DZrUzu0P8UTLjyK2XZu6%2BZyai17DzBS0TKN7SHB%2B0KsXlJAV3oNOyMzgyO%2FBanHrlQPm3GYK2EPL4ic8voubyS8QEWsc0re6JhXeUq8r%2FExh%2F9lIRyry%2BvP984baRf1fn7l9WeMJoZLJ6uKFMdOrQQRIvwSA8TZXIhRVEP0IdT%2BR3WX0U5HhT0g%2BJjPlOMey3pxgDjQzeiuC7cqhWvdLAjmbGKqEyA%3D%3D%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366876824?_skw=PSA+10&amp;hash=item5511901a98:g:S48AAOSwRFpnl-pF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2Fuil3TnAk4ZkOv1oKtA7g2auc5jvepx1o7luVRUFeBqnmvmRIHwbLL13gSOxzyLWagKnBSN5DfCuiEuTNGa2UxgO1BapmeA8cQToua2m%2FYdol%2FeLqE9uKFnj%2FGBe8EBA33uiQVCvodoZ%2Fm%2FjHMGf%2Fo%2BRk4nTvXyay%2BEJHCdWda9hWGWOlxQXRRWqa6eT0XVkt3CQo7cqQqg687JIyXwyq%2BWKYV4bJNSNY3Nxie6mytUU5W0IKm%2FI1KrB6F%2FxQtfy4M%2BUcVR2vua5AqjPdwJ8H%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366876824?_skw=PSA+10&amp;hash=item5511901a98:g:S48AAOSwRFpnl-pF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2Fuil3TnAk4ZkOv1oKtA7g2auc5jvepx1o7luVRUFeBqnmvmRIHwbLL13gSOxzyLWagKnBSN5DfCuiEuTNGa2UxgO1BapmeA8cQToua2m%2FYdol%2FeLqE9uKFnj%2FGBe8EBDIBVBLs3tAGQMLnV68aKmJll28rOYKjExqqCEQd9vAtYb7N4dkIY%2BdK54PxBGWuyL8hjvI%2BCQYju1O%2BxwUM2l7h8NlXJNNyyNyZcTSHtrVaQeojsVJd5UKXFWbQjGRyqObwDtnhyoQJ6MG82p3U2aD%7Ctkp%3ABk9SR8yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947443995?_skw=PSA+10&amp;epid=10055962353&amp;hash=item578836bf1b:g:xrAAAOSwmCJnk8qc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUv%2BdarqmaplOauuY23wBCaG1%2B8c1c9U7S5rM%2BfddlXomavvzoD17%2FhRFMacuJNT6D3hVA0ZiITz5%2FGyrsgp1YZnDfgjFf0mKP3KMv2rfw71MVdok9Cr9vnCQ4at6bMPRe1USEhqhAdcmkcj5WwXBb8bpCqUN79WqJBgS2VnYa7Hu%2BqSQ19i4ajBxNVNN0S9bogY6KJpu7Hd%2BlzsyxjUg2Ovy2IOcfn%2BNcRmCRfbYBEBG5W7E7mFPpMfkdCNO5%2FtAxtscpVRg0UrGKshKCVCpL%7Ctkp%3ABk9SR8T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375947443995?_skw=PSA+10&amp;epid=10055962353&amp;hash=item578836bf1b:g:xrAAAOSwmCJnk8qc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUv%2BdarqmaplOauuY23wBCaG1%2B8c1c9U7S5rM%2BfddlXomavvzoD17%2FhRFMacuJNT6D3hVA0ZiITz5%2FGyrsgp1YZnDfgjFf0mKP3KMv2rfw71MVdok9Cr9vnCQ4at6bMPQQSyOABSeK7mnoRXFOVsVgJ79tchJXdsyInBd2mkzB88JMKEzy70RypnqpI1c6hfWOuz6hkqpAATGPPdwCbsaJAfGAZZJD5oQBpFHILpviOh%2BH3Fdmz2vs9n83f04BVuXWloUSdo6XNFr7SeJc06jp%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855748645?_skw=PSA+10&amp;epid=20055988937&amp;hash=item5a4e010e25:g:XoQAAOSwWRZnk8s4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlasqvgURa4M4G7iV6%2BkRZRuHjI77ByFc%2Bga2VzH2nh%2BKIAK7nI%2FiIDyVRR9RueEI39ccuB0Cs%2FAwzAL9QuZzRuV9A5UR6F7t6T1jQcV5Aqy7GVKHjW0XqHoDqNTgJZ8YZyZuoS%2FLV%2FXRJXQeRrSaejiepRFudm5AF69AvPXwHzpoBHZPcZ1UnPehjyIwHI3n6fcE2N2%2BBmmFKPJwqWPoTSMbcx69hLVhLF6UnnDsfvV28M28SjTuULnqEnjm9n54gbvtf2hdd%2BAAVj1Tc1vNoX%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387855748645?_skw=PSA+10&amp;epid=20055988937&amp;hash=item5a4e010e25:g:XoQAAOSwWRZnk8s4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlasqvgURa4M4G7iV6%2BkRZRuHjI77ByFc%2Bga2VzH2nh%2BKIAK7nI%2FiIDyVRR9RueEI39ccuB0Cs%2FAwzAL9QuZzRuV9A5UR6F7t6T1jQcV5Aqy7GVKHjW0XqHoDqNTgJZ8YYd%2FJsDl7ADMVNBXJ9LWEEENkvQ4OmDIu1fXi30IAz9PEHE9bUhlP72sO1TuNeOf7p%2BLV%2B46XbAnmFZzKYst9EibWsLI9MIbDuI4ZUrpdOkEEnImz5%2BJOwx8fNRfRAtAJaZzYEl7AOpFClJi3BvGRAk%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856064105?_skw=PSA+10&amp;epid=17055936553&amp;hash=item5a4e05de69:g:OyMAAOSw7zZnk-k4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnL0anCxWVdO5aoj06Hmk8W7DjMndNbJStbjNcy8KySPFxuT8x8bubCmDoxlt1wmtui%2BNxOvjFggumMcEHtFNnu3%2BT0GyTL4PjUVbUZ0BEhmD70c4hiceuRWalGVnEEg87yB4biD1YIYNMrbsjBquy5F9%2FpldDDZHtf6o0%2BK5vIuo8dY0W5Qog7dQVbKBq6KeML7UgqBMalOaZwYSTjQq%2Fu5XDYCfDTwAZ0GQle8vaWtQ%3D%3D%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387856064105?_skw=PSA+10&amp;epid=17055936553&amp;hash=item5a4e05de69:g:OyMAAOSw7zZnk-k4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgNV9wEAwe8RP7t2FXd59XK9C4eXoicikNE8D9pE%2FsAMD3HXSxVjYbST4KBr7GqAatTbI8QWrJOrWZs1xZWrHI6AAtYnjc6a3S5d8QBHMq65P5p0Ap0vzi%2FIg%2BM%2Bnf2trp1buHC%2BiL7xQVMqFi%2BZEpb6rbSHZu8azuEisTohoYiIyPHKxMzcMxLcCNnAZTmq2uXcsfUVroyBzezcnwShJIpj4NGIyYxrvm6BWsimnIYkOs8OeGFzKg3QgAuAtIUT2tX%2FVzmEJN%2B%2Bljkh15dQWx%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856097465?_skw=PSA+10&amp;hash=item5a4e0660b9:g:vhcAAOSweihnk-1p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFI95qPpCX6mVtB4xkBKgrirTwU7qoYkIsQva1D5K0vjoYQVRL5qoovEAOOjdH2cKCsspr4LD8TW%2FXPZVTa%2BCTSVMb7Hp0MD%2FxjYwyBWDv33K863R8dLR25FsLpdiiIt%2BpOcot77m%2Boh7C2yPrVV59PUPsxOEhXO3wLoOlCrSdVwWEhGMgH97je9N%2B9fsjJ5MPJsgsw0sljRZJN7kNClELJC1KUdmRbwYyR4rMrDxlkWsJXsrbIU11PxgicmTFmJR7N26AYDZZ8KVU7QJaqU9i%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387856097465?_skw=PSA+10&amp;hash=item5a4e0660b9:g:vhcAAOSweihnk-1p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFI95qPpCX6mVtB4xkBKgrirTwU7qoYkIsQva1D5K0vjoYQVRL5qoovEAOOjdH2cKCsspr4LD8TW%2FXPZVTa%2BCTSVMb7Hp0MD%2FxjYwyBWDv33K863R8dLR25FsLpdiiIt%2FU6DBsbMW%2BpLBC7z74Z7%2B0JetIZ%2FTG4LCeQQ69Sz7bVYXcop%2Bmxk%2BImjhErEles3Os%2BAM7ykJk1Tsex9JAG4l4bXCrzU9hpnYMiEsAGbXifvPTwQ%2FjMbD7AVHUdwL2Ghr%2FS2ZEn3HnMEilv26VkQs5%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867041275?_skw=PSA+10&amp;epid=14071752431&amp;hash=item5a4ead5dfb:g:DpsAAOSwCUJnmCO7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPA4FsuSN5kv0pPLzgRz%2BI4U2shbQUdW7J%2FA72SayPhGcyDTfz12gl7FWGSVsY8kRjYySVyEVlC5zBHW81M2I7Dg9GMDNip2JKhNOcPq%2BZM%2FHtw2nXkpgIdU5lGhwPKyxUT6ncsjSvDx6lDYMNHFa6SNou7zA26OIQ4IbtZm8zPeYs%2FTL7kWqmSIdVVQjr%2B880TeIlEbZ0Gie6BSzL1aMdeHtrLnlV8PZaz9k20bmqOg%3D%3D%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387867041275?_skw=PSA+10&amp;epid=14071752431&amp;hash=item5a4ead5dfb:g:DpsAAOSwCUJnmCO7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksCdUkeN0I8jo%2B%2BiU4x5sRGHxpz861VSeRp%2BpgrBfJ9txNgCT9V7vP5gSNanek%2FwIFikpuINGpQlIDLtHSBvG15kJVAgG5ePpclglWLSAXh8pCCo2OyQ0hPaw%2Fj8s9N--LinTNWZoinTQjw77Q8vjtZj%2FaP81yiuXuRFKcllyEDGOt4YzcE1mcQrM5fGmtZcO64eBsrBCYdMB7%2BXodQ%2FukDhY0iuLpBmDiPpRT81gYSTwmHJOV5xjweeXArsV5XbKRPIinxlxmdv%2FQD10r06gF%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366591272?_skw=PSA+10&amp;hash=item55118bbf28:g:RLgAAOSwpAVnfsHb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlIigRUZc5lGVY0qzGQ%2BEdtRE35gf%2B1lr%2B2F9XDSPAHUKW%2Fl7JOnRDut%2ByBALe6Z8zRGyUAsMiV4m4ls6UDnx8OrXsADOzCMIRB36DZmhck2nr4UqJ4Vm9md%2BgmwPYZ6WseD4RDMaiPQXL%2B9P9yvbaSAG9Aj1SJosuA2UYjsNzhqdE24TZtwcGV11csoorGmci1a5o%2Bq5v%2BKNm8%2FcPngijdD1i%2Bw4I98LfBayMFJMWllw5gJGB%2BJbUFqHMrbhQnjP5K05WxlQpf%2BEz5S%2F92yYzK%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366591272?_skw=PSA+10&amp;hash=item55118bbf28:g:RLgAAOSwpAVnfsHb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlIigRUZc5lGVY0qzGQ%2BEdtRE35gf%2B1lr%2B2F9XDSPAHUKW%2Fl7JOnRDut%2ByBALe6Z8zRGyUAsMiV4m4ls6UDnx8OrXsADOzCMIRB36DZmhck2nr4UqJ4Vm9md%2BgmwPYZ6WuSwXcAajWOlx4EekpSCl2pAvDPDAEO7uG7W5vqOzraa4MMrGyZjglBTWXZvdcaumYNPLoN8Gzgqdt3xsd2cEtW0RO70awDMVv4wN4ptAKHQ03Kt2TAGORGL4mdJjIHwRzaWTr2GEuztfHqsjMv07uq%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066809829?_skw=PSA+10&amp;epid=8063166552&amp;hash=item474300e3e5:g:mxkAAOSwiktnlpwJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlVGTj3ETtZKOArOdSiKB6FwbIiGLkeCXjRM%2FGCCvC7h9H1XhXMmPpmVMhNRaKwd8yWa6elkghlzkewgT8syBDHWtYaOj7fedM194pfA4Aar%2FNdxJyZqYRrhXk%2Fas2ZRw%2BbkcGhn70FZhv32DRevi2OKa7pSIGv8qkwpAx3etvqiNHNLXhuts9vEkYBGNj%2BY0xw73SBzwmB8Js0Yd0ekROb3bwMEhk9yVJzn7aS5xrB9A%3D%3D%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306066809829?_skw=PSA+10&amp;epid=8063166552&amp;hash=item474300e3e5:g:mxkAAOSwiktnlpwJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm29smjOx3WXeZzMTYWGdsyR%2F2jt1QMw9Xf8L1RmY5xpvRGKQNEMyCBj%2FL7wOm9%2FajE0%2BXPZJvXG6H1nDQDegj2qEEGLaAMroqueyv1jfIL9SSPWhBqQRkmQDVpZRU%2F9sA0rt2BP21XTrcPxsQZoCUmZCyS777VliMU2XGq%2BB7pKWQVFb8b0u%2BLHSp9Sdwcn62Vzmp2pqzUckjJr7YjkGacLOhr%2ByF1kWSH5kBCrPRB2WJKhQWUHikY2XQCa%2Fs5QW7xS9WNZMERhW%2FudzgCTq29%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126888607381?_skw=PSA+10&amp;epid=10062501233&amp;hash=item1d8b267e95:g:3c8AAOSwq9Jnhw7I&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlG97fRwsxV8FFJTSsQGHwqjRHyim%2FBzhnhsoJbMtds%2B%2FC4B2S%2B0s%2F9NRfBH9Ld7Q7Zg7PW3sAb98kJIPzv7OcQDIQe6AVFrWPnQCZeeywo2E1r65paOLu5hbNc39MQlm0rdIzzZ2t2N7WIY48NWlIMqpTbV57oM6b%2Bv70kK7p67avqi919DnQ9c9sTj9hIz5UjepvXsOE8Ug2oomPndRpfOa%2FmaiGB4L%2B1E9G54TrIIA%3D%3D%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126888607381?_skw=PSA+10&amp;epid=10062501233&amp;hash=item1d8b267e95:g:3c8AAOSwq9Jnhw7I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9rtaQWesKctE33NBQ0X60fhFZaqG3%2FtmNTsnu6zkNNnfQIZyKZOa6BVFvzEbrDkEWJtto8kw8KP2rR9yCycM0fJSaUv%2FxFFsnlb1sWjVn1BhGHsrYbK77VGTg6EUyve9mqwyhm%2BSv5GXCYOFYQ6xAl8eJg0eUHxWPbuynwdNP8UXUEJV9MDgmGthXQoLYgrHaMX5FeBZI5FGisWkeQouAObptoUuPIxNGC7AoU4qMBwZ5IgY2Uc8T7ahXYCsfxIHzzF4TxCP7IZb9hhrTk%2BdR%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335755249672?_skw=PSA+10&amp;hash=item4e2c928808:g:cH8AAOSwO8hnd0rU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOjlA%2Fk4p5blBzi%2B%2Bl%2BsUHhjCm0BBPSyKZQb0eyp98drA5XAWj0wPZBFJgATtDZGbaASlAhInwwdTX45fiss9eQN3D7H7F5Poysz406WAuhT2NVJ5LonTTv6pb66epXTLcj3hoJYWXgMSo0nNMV2rpSjD7xTjdfSGNGn7khvrQ8CI0U2dIW0GDvRJyFjt0UfXhnAw%2B2NIEtwNsVBdi0NmEAcFZgJWhYz%2BHANNSIOlVGQ%3D%3D%7Ctkp%3ABk9SR8b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335755249672?_skw=PSA+10&amp;hash=item4e2c928808:g:cH8AAOSwO8hnd0rU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOjlA%2Fk4p5blBzi%2B%2Bl%2BsUHhjCm0BBPSyKZQb0eyp98dsWKUz21uXYLEX9L3kszmVm0%2BS1RnAUK7HLJHIsM7%2Bdy1lsh8rngexgOVlmDdneA683AkByhhxwB34lwB--K4qay5g520RlWJ97O0sE6ZqtssQc1K9uafeA%2FUsItdKB71u5ZVX0UL%2B5F3GViEg4GvU9O2gJG%2Bgi%2FzbwYVejXy6GV%2BSpz2imKkaBfLCWDY93y4Q%3D%3D%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135521650656?_skw=PSA+10&amp;hash=item1f8db847e0:g:ThwAAOSw8V1nmF60&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6nlIT6KmNYqsgYPpyVl9IWMrkh7%2BSDkKk11s0BjQHHL4%2FiUpjILFPdC8Fi%2Bu3aADvoKIwvBv8GmQ6sirqMboABrJH64tathAZnl2y6CqzLXiEFAcSNrQBGGh%2FL8qGuNtJcJLcvvoSceZAcde2xT8bGUckTvBqEGkwdMdjlctGC%2BRHrAUJGE7xMlOQZCMbG%2FYbRpwtuU7m%2F3SYRGhoOIoNgM4LB6Onp4rLOZIfPWtheQ%3D%3D%7Ctkp%3ABk9SR8j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/135521650656?_skw=PSA+10&amp;hash=item1f8db847e0:g:ThwAAOSw8V1nmF60&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnzqNVFPwdrbj7C69YE2RGXMbs7zwzks7Tc6DLVev1J91pQZRAXE5XGwCvGkm1Hv2OOFIa90mmsKmSaM5pgbE%2BcJ46%2Fb0O2kN%2F5%2BsMhE6cas8IngEnCqDBGXaeO22hsjsnWu4DZpZrZAsvf1Ds7JK%2FXAhOfKtpBbQlh5zU6tFV2SYC%2F8DLrqhy4402TEjwY8CfmPrDezTy5iNrgVtUSLazRHAcuou4JNMGLvIFSxMcKjFS7JVtdKUflLThik9edhjPNsfvgKWscPGuOlH8dM3bs%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568950730?_skw=PSA+10&amp;epid=9063841289&amp;hash=item34c08fd3ca:g:3kwAAOSw26VnmF3t&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmxpTvX2Jn4iJ9BoZLGgF2TRiEkN9NkfG7weOCMcRdQIXmSM1Kv6EE9YCPz%2F5EJGxRShfHMQqB6zE6o4JuXICJQfpfCKxHOL5wGdmz2DQBwQ08WxjF7epjc0U6ch0ILY6fC16G42qGYgMB6BF38O3KRfgeGBaJi%2FRJfeaIveYzSdjWvEwpidiPizgyTa9yqIk5nYqeIt6ZvToomcPQt3uq6iPStOAUvyOyDNTN15ix1hG5vRK9NbwgCyvkvYGbQmvOqWNI3ceK5nsKICzHjAWlF%7Ctkp%3ABk9SR8j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226568950730?_skw=PSA+10&amp;epid=9063841289&amp;hash=item34c08fd3ca:g:3kwAAOSw26VnmF3t&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbKDRO76RSQo2wHY3TD3PtJ0I40URzu5P%2Bs%2F6NLqtWDS1o%2Bsb2NR2GJu%2F0siiuQvRw5HkobYakD41cH9H5OFEjoTttXot%2B5fyu9eQX%2FA2HxJH2L63PWtzmHDtJUTfOzMMhD3PY6NrViT2bcb9mLAWi7f12Y4JzDoWiLih3EXLrX8bxwvuKO8BUJmg0FVcByqaD39hYzn2xfpZE2x9HQ6V0C1dnjOZ84Zxf3Kb0Q91uzg%3D%3D%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316083178917?_skw=PSA+10&amp;epid=28074467357&amp;hash=item4998068da5:g:M00AAOSwjdBnbyf-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2B%2FxBFBsp5X%2FRHJ4C9GO7zk9LXXPCtNV7XHi4y%2BJjvkuyw7kZRxQgIQ93y7727qb%2BsBG%2FKeSN814DE%2BLxSeAbllP8kfw4dr1tlHXOcmTb7Q60KspTdY4TWGwj0vvS78XrB1ZkRckikLZ2u6Bj3jIJOFqoxWS4qJxWgraqikejJt7OTdMKYcHwmSBYwFEmtJvmwzlQ6AWWXXjPbRImN1BZNCY6XoJ2a7gYulaFgH0zgje08B%2B6UFoTZ79VBy1IHq7mj2GA%2FMVoIqtzofNMnpbx6%7Ctkp%3ABk9SR8j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/316083178917?_skw=PSA+10&amp;epid=28074467357&amp;hash=item4998068da5:g:M00AAOSwjdBnbyf-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2B%2FxBFBsp5X%2FRHJ4C9GO7zk9LXXPCtNV7XHi4y%2BJjvkuyw7kZRxQgIQ93y7727qb%2BsBG%2FKeSN814DE%2BLxSeAbllP8kfw4dr1tlHXOcmTb7Q60KspTdY4TWGwj0vvS78XpvnFwxwReKm4jyuF%2BZRC27NRiIIqcy6vASbCc8vMA8l0bXS61VjT1s6dbU8SJmwseWQ3Af0t9G8u6DaL7hZeHNBBGjAkD5Os4smwo%2FZPEbSSU3J7p9ymIw7zTE5pMSZGcno00leYFrCsmePUzD2Xmn%7Ctkp%3ABk9SR86KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867581369?_skw=PSA+10&amp;epid=26071772031&amp;hash=item5a4eb59bb9:g:ydIAAOSwzQJnmFgm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3%2Fx5lNvQOMQfdJddX6HdkglN2yVNSglnk55FpG6XwItysyxqYgcTaNXgQzGdIcASFGkthHZjz4G%2BhQSgQVCDwqismeDOjlPrb9E338GBbg1zvvYvqvRF24ffooD6LTCPQZzxE8X3prbeBSrcfsReJDMAgTe4I9l6mWfikZ9WE3mXfW9fmw0skIZ%2Fro809mugQ9kUAcgMOxq3ssaqvDYMtca2aQpbOHFyc7x3D4AVjLg%3D%3D%7Ctkp%3ABk9SR8j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387867581369?_skw=PSA+10&amp;epid=26071772031&amp;hash=item5a4eb59bb9:g:ydIAAOSwzQJnmFgm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncNMK4iRriunFx8AXo2%2FFvFr18VlSlhmCboA34ro1i4gfHqtorQwF%2BYphC%2BB4GOvrNZPdpRC8SEiboP405akUdpS9EkDKAdCIQQc%2F3ZiBieg%2BiODyQ9Cld8WJ3xneroHtH7U1kWkhQEUIKiToB0zPapB7Fo%2F8exEKiyg3i3ewjwx6JfWeCadR2SPunjQr5Zd1e3%2Bte3jsnjHK8EFm7C0Fzyq6hy8Jn%2BWemJevfZBkVnFk7lRy0wdQ1pBSkF9O3jlF9HQy6tH0i3rIpZbndNGmp%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326425204843?_skw=PSA+10&amp;epid=16073745492&amp;hash=item4c0075586b:g:FuoAAOSweihnnVBa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKliNErNBAf2RE2ION0I4jmiOY%2FKE4YfmJwF9vNcZ3nmlnrdDDKNWXkYJKF6EutVuQLwAdNlZ5UfILUq%2FQpztTbBgf2Xx9vHEaG%2BHudW5rDGmIBVG078ue%2F8U%2F3SgrtOnuwbSwzy0TzFV%2FAjpbdaaF5970EB55dIG%2Fqiqo3BNPVh%2F6NdVaRR8rMx9rXA90Dd27Z5XAroQ7N1tLkCqrnn92PR%2FfNiTAxQfNCre8R7vs%2F%2BCsiIOSUINMpJjdiMvbXYJwwGdY%2BTQnif2sUfbDoz1E1%2B%7Ctkp%3ABk9SR870sZOaZQ</t>
+          <t>https://www.ebay.com/itm/326425204843?_skw=PSA+10&amp;epid=16073745492&amp;hash=item4c0075586b:g:FuoAAOSweihnnVBa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKliNErNBAf2RE2ION0I4jmiOY%2FKE4YfmJwF9vNcZ3nmlnrdDDKNWXkYJKF6EutVuQLwAdNlZ5UfILUq%2FQpztTbBgf2Xx9vHEaG%2BHudW5rDGmIBVG078ue%2F8U%2F3SgrtOnuxL2hElrD0ANOotVDx%2ByE2ZmBzb027Tl7iKvZY6alBPA%2Fovid%2BWvWdW%2FTJ%2FMbDAgnhrJQoq6x8XdfA21UchWZIjbdmtKvpac2DO3qQz9a8MHoDdMcMU%2BjIC6hPH28Nw9pBr%2Fp4MsCwwKjo5dsztgP3s%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305930087070?_skw=PSA+10&amp;epid=19055946817&amp;hash=item473adaaa9e:g:91AAAOSwX25nQuSi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnyAvXAU5Y3th0yr8S7hyVx80x%2Fb366zDjLx%2BtgzKRi3ErwpS9nTCGN%2BzyJ0tOpVABSf26F04jYbrkl55FRJayJpjP998mDR8aKK7113qYXsfXKD1YKaybWAE8P65SbFRcFCmUjP89yjAdiQ8sd5X1lWHRNMuE5KfjUOD4%2BkXifQUHlJdPgntKse9I934kHBoaMGPqPKBGCnuak10bbH%2FEn%2BNl9BAlfeWCpL56aDhNgZsD5W9FY4U33rR3o0uHxQbTR9Uz%2BZVQ1oDLMUW%2BZ3kG2%7Ctkp%3ABk9SR870sZOaZQ</t>
+          <t>https://www.ebay.com/itm/305930087070?_skw=PSA+10&amp;epid=19055946817&amp;hash=item473adaaa9e:g:91AAAOSwX25nQuSi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnC5%2BaH5ra%2B7BkU7o3QmqK7HgO19l2Nz8PDZDTM48B%2BAkcxuYPmpoR2ypQyspW88Rdz1JcxXPsfS1Vo2Uxq7jYo16NriWKQhc1OKU7%2BIEhraZIvDueXbnXaEWTM1tBcvUgQhVG8WW2T1XbOBtDV5JAeuUIVlqvXYzPE65zfK0JKaghUnIfnIlfJUZ%2FSlE61lkL1gtxw%2Bd83L2R4MLT5R0VJSP8wf%2FB4hemn8bl5k%2FiGYQ%3D%3D%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405500667032?_skw=PSA+10&amp;epid=23055924980&amp;hash=item5e69b92498:g:hyoAAOSw-KFnlHCR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZlWxKDgGh99ZXvuulsrQdLEbb%2F1KuRdOcrUj2ZaRB902DSde3u2VYkM6Mj8%2FzYu961itOF6njmv4NZRp964J3L5cPaDbQ29Y35sI6BkqlXAFHLLO99zOB6C%2FtKg0U%2FfTY3eoEsQwCyN9bUQ2EUNtw2YEoLM2CKB7RhAw5YIPe5ON504dgr%2FJPv%2F88bTNge2QFslOFiAdBR19a87yix7brHwMLAjvbIAmpUpui2iF248SjSRH7Ecj4rxnNJ7ShCvlXJ3h7BV1CgALDDxk0RJav%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/405500667032?_skw=PSA+10&amp;epid=23055924980&amp;hash=item5e69b92498:g:hyoAAOSw-KFnlHCR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZlWxKDgGh99ZXvuulsrQdLEbb%2F1KuRdOcrUj2ZaRB902DSde3u2VYkM6Mj8%2FzYu961itOF6njmv4NZRp964J3L5cPaDbQ29Y35sI6BkqlXAFHLLO99zOB6C%2FtKg0U%2FfQX%2FijF9QFRYzR2qlNqJtxbEi%2BX%2F65iZ6VWdvtU2S10xqdRuZj6ThEqDwufH%2FsYxZ5hKapac3oEl32w2KQqu6gUu0oemXg6QBp0R%2F0%2Bm3rrqL0wfsVV2uMLUfuWbiKifMsqUws5fo9yBHfKlw%2Bvwhb7%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306037569304?_skw=PSA+10&amp;epid=25064056655&amp;hash=item474142b718:g:G8gAAOSwpYJnhJXb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnaazFOxb5YKFWhFu7A%2FSFE3SgmZqhnmhicR9SrZfuOpIkc7%2BFIgbqcbE7bTY01Z77FAfFxiCs4FX6klb6FeXLwVw3KH26d68zLiG6FIc0D4IcGAaL6rD28Yt3bkbKl6iQFb%2BwcGTXuL4Yc7f%2F%2BRcI0zwYz9m78fKbnh5b0h%2BwOesnJ9KDIdrRlVhxuTPKgdg4ezpKDGWq1nDjviFWBJk691kAyCLGp9WzFLIKSZcidwv8itbIeHrVoYtdXJf3AqcX15JV0T8H31E%2FO5UuttNEf%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306037569304?_skw=PSA+10&amp;epid=25064056655&amp;hash=item474142b718:g:G8gAAOSwpYJnhJXb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkNPhJsZdgBpvXcMc%2Fqkf%2FlUeZVL5WStF246lx37%2BMw2eagsw0H%2BG%2FL6bZZx6BKgNnZGGGj2cvFBhQFq2P6LzIsukZFEu0Cl2xxc5LGOTT2LA0hc67Ll0A9ivSjfVcDJfAi6PVm0JJ8Dqj0ee2EkqZTJdlANaTzMsdFE0lN6k8oCSvGObDm%2BWzyMvO2mv9HOJX%2FFodGM60S%2Fe%2F95YWDqqjda6w%2BFF2bb7wz%2BZQxRw7WvA%3D%3D%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167280624015?_skw=PSA+10&amp;epid=15069576771&amp;hash=item26f2b3c18f:g:Vn0AAOSw591m92Ys&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkchR4tH7Z7E%2FRw8xzSzTCu0i6sdUKdNT0m5jN8yxOqwzqVVg2c0TpyrtdnrSy9%2F0GOdUto5AVx5JqfqdUmzKLTJZktINXChy8Wua5ennTWpwdX3skh2sKnvFTjuP4bvWLxQddkRtoooMwt%2Fh5fZkrDk%2FLaOyZdrtNbNzCyiOrix1tKcsy%2BLwa1Jr7AO38L0kvncMB8VV3H0eO7SQSUzSBRPfF6eK9wyfV5C46n3kpgXA%3D%3D%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/167280624015?_skw=PSA+10&amp;epid=15069576771&amp;hash=item26f2b3c18f:g:Vn0AAOSw591m92Ys&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkM7nNBTBs6CmI6ce7JdJK1UYJ3L8jenycarA25oiHl7sKgVOAEdA%2FnZ%2BLL6Xp70xC1rnn5NEC1I0r4s5ndkjeA3PAtSgQ5ow2uhfn0I9z64Qj81CXVy%2F76Y%2B3wTNmV9wHVEIcBA6hpAAgmFY8ZupuWFmEBFL15mp1fu1X5HYssQdoQBk1G3TfEiqNH9kMCC8wQqFX2aHjE1nEbdO1CkkbwF8NS7MUxEYQBDK3Xg7iQ%2FpZ6%2BK0wd3GBQvlhUUKAfMXLTeC0fH%2BnolO3Kxm%2FzRvt%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286282631534?_skw=PSA+10&amp;epid=26055996937&amp;hash=item42a7c6496e:g:tAYAAOSwJDFnk~TV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUTDBkTzp5Ffihw%2B%2B3xFxSCb3kTkeZ4KVZGMHgOZbYNoux6drshcilT5PVleq4hIAKsbHHQwM4c4%2BJGHMBk0O7GNq1deF7bR1ohloEfSbefT8ISs9RnWGuJGnlmsrHKOJle5Db69ynLL6XR1fPYlZwUjb2v4PC3r94LMGrB%2BBv7oq%2FkliPOWbJhawih7%2BgRnGBpUUIOZPV9XP7A9AJ%2B91i%2F%2B2XsT1amaAw9V2zjkhRSmTr8i2QtGFldwZQRIgvyoh3w0pM2RuNNhwDNMvpPA6e%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286282631534?_skw=PSA+10&amp;epid=26055996937&amp;hash=item42a7c6496e:g:tAYAAOSwJDFnk~TV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUTDBkTzp5Ffihw%2B%2B3xFxSCb3kTkeZ4KVZGMHgOZbYNoux6drshcilT5PVleq4hIAKsbHHQwM4c4%2BJGHMBk0O7GNq1deF7bR1ohloEfSbefT8ISs9RnWGuJGnlmsrHKOKGdDtWA%2BPbJp8A8sShxXPUylcpD%2BuvTj71H5ziaVkgVfGmlFJ6juZgYjt%2BOC%2BBEcJAA0O0QcbjEf6Lxws6i%2BVngfPO7f7l%2BGYVUc1XsKem1DnWK7gopcy2Tk2TC2I%2B4qBX6aJ9c0Dq1u2ZO27AffZI%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366647386?_skw=PSA+10&amp;epid=11055981928&amp;hash=item55118c9a5a:g:joYAAOSwGUJnhZBn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmOljxlcSolyxeZa5RaWYiu3Gp1XHwCztE69koA9YO49ZCgRKUKC70mT%2FzsQl4QZu%2B7xhKf9YXqZWO6Anl44JyWWzfvd4aDPTM1xId8jAC%2FjQ1G%2FpaMzn5lql1foF53n%2FxCEXJs5KLyLDB1oApNLeqRc0zLX9ki0lUYhYSB%2FDpzw2zpYijhc5ECDD%2FeTM59prlCQSdvklLvZkjkvEDsPe8RcTFWU7U3UBllteTewhrxbw%3D%3D%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366647386?_skw=PSA+10&amp;epid=11055981928&amp;hash=item55118c9a5a:g:joYAAOSwGUJnhZBn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmOljxlcSolyxeZa5RaWYiu3Gp1XHwCztE69koA9YO49XtZ3fbRcxYKLo7uerxOj2HoiIdRsuxtQYgN%2FAhaLrPAF1nWbO%2F3Qc90LZXkWUEQ%2FE66enT7uAfNHhx0%2FWixvHXnAqZ3%2FZNP8q2IEINJbi8hzONMVd4394h9s4mYLhiccJCtGh5vc%2FbHdhBrxHSJpEvA4c98R23yJGjzM%2FSTDj%2Bq%2FiJWLjZ9c9Ph4DKyoFLsdw%3D%3D%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306059913061?_skw=PSA+10&amp;epid=4064266058&amp;hash=item474297a765:g:H1sAAOSwCytnkoEq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQqPnNN83%2Fb%2BH3X2MaAqJxvEtik2oXWBJZ7YelcBjo6EZUJENCfl%2BY%2BmvLrG3vaDo1q9dv8EkoV0LAEM5NRpPmrfXSxeIXR%2BhNzlIAhRZhx40REHUNxnVUXmUQbqdW76rMdW0J6YCv9SogyeO8EpOXGUFuCrcWlNdM1p7fRvLNxYkUdBqrELq58%2B0kXBp8zassz6njThpdqJB3rgvlPg0G5CUQidjVRSc3cNTrHEbG1g%3D%3D%7Ctkp%3ABk9SR9D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306059913061?_skw=PSA+10&amp;epid=4064266058&amp;hash=item474297a765:g:H1sAAOSwCytnkoEq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2BdtmLsj%2B1BCZIJ%2F2T%2BBM3gRoje7fnkaeZWwmNoCiN%2BZiFEbbIS2DxTSPCmjv6w0BNUyqfCD5GFjiI8TchC8NI3fYZ1dO%2Fr%2FiHrodddQUiuuP4OdYnyzYkUqfqyFdfRXDwCgkqxgBrhiFlMXJBuM1r5384sUPacTaC0XFJ%2BsrpCK4OFOIM6fcsFgoLWElKDQVNqzDkoOukUXlA191oATFTGu%2FG1khkNK3x4Hl%2FGGM3EA6Nj6RbrakHfs8owJ6dY82UUSc5HaZeMtA%2BDK45%2B5Bh%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175852285259?_skw=PSA+10&amp;epid=28055869823&amp;hash=item28f19ced4b:g:HLwAAOSwAwRk0jlf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6JyIRbr6b%2Bz7LTbRIR6v0LEyP3BaVOgG76Mne92EWqBn%2BRcyNw2q8XU9fYRy3xz2x6IjfSCawYo%2FECbi56k%2F3ocacZIRddR9d%2BRuQgglS%2BKgYbTnNoJedk9ANk9gd5iIrE%2F3UltHqH0Pdwmy1iBablF3E4l2Fk50tp6CflMre2CM4YoyHBl%2B0rWwgg7yjGhHDC3y6jaROZaOOOiAV9APOHQxq5t9QBtceB%2BycCb4UGT%2FdQLQJYJbJqpdi0JQV1dwO0Og35O11eVw%2BzPXfj2TF%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/175852285259?_skw=PSA+10&amp;epid=28055869823&amp;hash=item28f19ced4b:g:HLwAAOSwAwRk0jlf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6JyIRbr6b%2Bz7LTbRIR6v0LEyP3BaVOgG76Mne92EWqBn%2BRcyNw2q8XU9fYRy3xz2x6IjfSCawYo%2FECbi56k%2F3ocacZIRddR9d%2BRuQgglS%2BKgYbTnNoJedk9ANk9gd5iLJiLuvUX3AJI3wyUolwbcx2xHx7WMeZGJuNp9HmisT7IOJmhPZoZi0etJvBOLJRZ9vVcTnTUjGwqOrJVfKSDr60fbue7DTRkOXaw9bBCtJWHLQ%2Fo7cYhXAxD%2BGeotq8Da5JTGvtGG6u9cH42mdssQT%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367351683?_skw=PSA+10&amp;epid=5055940042&amp;hash=item5511975983:g:KecAAOSwIFVnhVqE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmNwQcvshriEgfRpqmEAQxr%2FFhGMLO45lFO%2Fx445lXDKDB3a9wiZAWMBWke4nqtHN3aEih7ISSziY0kRC%2F3ZKJtZ3A78aAM5NFYjBKx9h0Dcp5Hk2IaA9BQDs9dTPZ6%2Bu%2BHS4%2BLRinpZDzc%2FW9yscKrux6fnHcLGgktWGlwdeUB4%2FxuAlHbXxEraGE%2BYioFOl0RduwoW8LXREl0EQwXBk5zItaar2L7PH1NSfPIU2p16v4ffqP325IuK6xKcLmB4cGcxeoNMNm1a7bby0VAJYqQ%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365367351683?_skw=PSA+10&amp;epid=5055940042&amp;hash=item5511975983:g:KecAAOSwIFVnhVqE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmNwQcvshriEgfRpqmEAQxr%2FFhGMLO45lFO%2Fx445lXDKDB3a9wiZAWMBWke4nqtHN3aEih7ISSziY0kRC%2F3ZKJtZ3A78aAM5NFYjBKx9h0Dcp5Hk2IaA9BQDs9dTPZ6%2Bu8L0IWbRFyiqVlayFxjtkgDb5dTotKYq1eEoOerTCBP0zhajoKUWnxM9SCTSTDyNIEDMNFZKkykszlpy2hQieuxcybLvvCXVj4NoCH97ukclRog5NPKGx6oQ%2FLLkM0U%2B6mtmTFhgNcakiIcUCirn7e3%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367351725?_skw=PSA+10&amp;epid=7055876931&amp;hash=item55119759ad:g:RpoAAOSw75RnhVh7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7rBd9Tuo3u3n2fSV7fMbsJGGZkPPnkaLgb3XxmKjO%2F9pMOr0iohw4ssIwDg4YbZiBggT2zAjYfoi0IMkuXoYo0cwnwb%2FeCW2QdJTVm%2Bl7iDPxNkvjIOT3COCXU35mRlo6bUCGiEIEk4ptTaSuguygCN34IgbVtltgPpMqPcc0R%2BvaVkzWs452Xa%2B34LYHw3yGo8gCd9DyNLX6aGbUjmvrzxmb2s%2BLQ0stWaJmL3ByMw%3D%3D%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365367351725?_skw=PSA+10&amp;epid=7055876931&amp;hash=item55119759ad:g:RpoAAOSw75RnhVh7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl50fNhAP47wINJhadjDfXwT%2FJ9AjbW4kw266i06GBXpib6AkTF1da5USQ0XvF9wnQulgy83lW5mpZA53581XpxRJfjsr%2BdJ0RB6anubmjcAXWtN6gNO4Clul5wFa2lDixdiyLjzUBk5E4FGWF3FEqzhPEK63Cj3dS4lQHCbyKKh2ALHBQgj%2BMQLjH5rsqF7UkViJ5uaX27ZFsuy0AHac%2BBZMA9rkYoj8k0JcGoIzUdjgPlxfrZnuIUpwXaNZm2169hI%2BD8JwRqCwClONuVnpWQ%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366886086?_skw=PSA+10&amp;hash=item5511903ec6:g:5UkAAOSwiERnl-zW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnw1aDnKMxsOL4qZ%2BL0RAvqPUrqDfcIclEPhwGT7V7%2FTKNLHh6PZy62Gs2K7kcHvD4uoPFjNwVD6dwu337Vu%2BBxyg4GYkrpvBLaj4XUXvruEnMBJ0YnRwmiL9JoYJ1jiEgar87UfvKBaQxB0vJZjADYpFZ6PMV8iau3sFnKLm2RvnsXVlcSivUVczQiCxaqX%2FzwsgBk9eCPeHJNMjSTL3EXiq2b9iVskOgBYG8ktdkfcMY%2F5Bk03U2a63SHIDGx18J%2Bl9G1Zz1X2ZnLO8YAqnD9%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366886086?_skw=PSA+10&amp;hash=item5511903ec6:g:5UkAAOSwiERnl-zW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnw1aDnKMxsOL4qZ%2BL0RAvqPUrqDfcIclEPhwGT7V7%2FTKNLHh6PZy62Gs2K7kcHvD4uoPFjNwVD6dwu337Vu%2BBxyg4GYkrpvBLaj4XUXvruEnMBJ0YnRwmiL9JoYJ1jiEgFUrxuLofIaNyIhG%2BtI31lcMKuB5rN3kZ5Myd7SPnal3k2k82KC6rYpSQuKwflPzKmy0oxardbICPxnepWhgliJeFayB87bcLa0Vdv64eGP5wvxxTUnTPFtQQNowvwXcYnngv9kTjrobJnDehekN6y%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866501824?_skw=PSA+10&amp;hash=item5a4ea522c0:g:GqkAAOSwl1Rnl-z3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKks9V3Ns7EhYdORi9Q72Q4aT0C13FZjSkt0RO0dml4ct%2BiB8%2BUDo6rQwbutcfTuSXNHm%2FtEvJWqvRyJ08ajskPC5gO72hJJx60vL%2FQQ79gUAf5N5g5O%2FogcIsF28VWMREZg5Pg9EIP9%2BT03XFm0PbxGU9MF9YBcHvA%2FWLyGh6aQWb3IJ6pdKqvGClfaYV9Xl%2FiV7lezKwuLm8T1ZxrQgAbRKaSOGlwop7Dc3CpZPGQrGA%3D%3D%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866501824?_skw=PSA+10&amp;hash=item5a4ea522c0:g:GqkAAOSwl1Rnl-z3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKks9V3Ns7EhYdORi9Q72Q4aT0C13FZjSkt0RO0dml4ctza6clVHazzT5cNmy5lxk2XeTSHD9Z1qcD3NzJ0SxWRLPwdc%2BT3aSagRyigTzjpk2XBOcl9lkH4w5llDiw%2BcEUUiJrqYFpcTTDX9Sc11qIs8igSrsm38y11ENr5aJuMyXzluxkyTlfPbYPVjPIF4XJlg%2FmdTTJfh8Mw3dOFswPaJr%2FsSAREa11azhRLCqPk53Q%3D%3D%7Ctkp%3ABk9SR9CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/145756164006?_skw=PSA+10&amp;epid=17061508969&amp;hash=item21efbe8fa6:g:1kYAAOSwBj5mNGUv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm2zYGPdGaVzNj5FfjvRjlK%2BNBD%2F7zB7dLlGObrm7pjAArofnLxg1E5vSZJFpi6v3NnteXvkME5P7qKNI0X5vARtYsG2HYqYrasYSGz5bYy7a9B%2BKByZUakBTGNPjRLlZ1BbEg680%2F9QFxSqrMovZHTzyVrBb27YdDelqsOB%2F1luTlM7K%2B0NG5FsdRnReeZAKrmJRAtVRlPvxaYqm2mfQJY6lT6ajjI%2F1iu1x6YyaabLM7uvI8uJtaVXj0jqzGihaUzv9Mz1ZVRJSS40FuEFIJf%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/145756164006?_skw=PSA+10&amp;epid=17061508969&amp;hash=item21efbe8fa6:g:1kYAAOSwBj5mNGUv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluQx9cfTQTIQtrWr2iFqkNqKCL27Ew2JU07QYdiNh5rrQ0eTvIa9tkStnObwGwthktzaCAb4LMKwAkVOjn1HsUbT79AmkaGbMQVg1lY%2Fy%2FAdXsjQYZhriTn6Tt1MUoNukpS5vzE38Qxds3LoybxjngZZfCNqkDqfBzopuMTYTgOKGg3I1k8gWGxacRfT1sZxfSC1RLkRAsfbaEkv7fiqzX72zFNb7y49WdZGEBtCf3Ew%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404852243111?_skw=PSA+10&amp;epid=28055884956&amp;hash=item5e4312faa7:g:7MIAAOSw99Zl7lSO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQ6XgPM39wsj8SHSubeuC2YFCQ8%2Btr2SD4zdOyxWuiC09VPv9gTQuXfJ0tVFgkHpqw3yL7Ae5B9SBG9w8%2BVZ29cEdOAOEEAn3duvduAg5N2XcCYjN7tVsdFtwEsWIBrhk7B7Xzv1QyfToPt3ziQPxfSN1NysfFUIzJRidOvoK8%2BAf5akj5umJRO%2FwjZjxHQLucy4nKFF42yjTB5lhuFPCC%2BIzKKV2qNIhyQVceZLdjSw%3D%3D%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/404852243111?_skw=PSA+10&amp;epid=28055884956&amp;hash=item5e4312faa7:g:7MIAAOSw99Zl7lSO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQ6XgPM39wsj8SHSubeuC2YFCQ8%2Btr2SD4zdOyxWuiC0W3qEdCzRXP7arGk4Gx9%2BxjGuMK7nOG34V5e4uEJico%2FkPFBNiKVGeaDVHR8AXMb37XSCwwfCWNrrQ0VX1Tt%2BbrM94qbSKZtNtaH%2F8loJZ%2Fgiyvr3mnngJm0LX%2FyW%2FlAaeBiq6lvXgrNxOCEJ%2BRg3yduUO%2BP2eXoCclpK7qiKBb1udEbde%2BEiiUgM9CDbr1fA%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954386872?_skw=PSA+10&amp;epid=18061929608&amp;hash=item5788a0afb8:g:Zc8AAOSwCEpnl~VD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2FhqIV7Tug1kNPShXRQMoWaSTUkQ6GQkEPeWGLi3214HwadlEO0iddWRzz317Nia2%2Bxjru6CKpWA8JTR23TvOdJod%2ByA3ecPr9JNG035R7khcxNHcAD9jdDZ8512IhRzh1MMG7yj7MUooHKz6koxDuvZcCCWDuqCKcYNC7aICij0XDmEW99111Gkq98X8A0sWv2TtO7H63MLzexYyTCJg98bhzsESq3vdvEJtWVrX%2Ftw%3D%3D%7Ctkp%3ABk9SR9L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954386872?_skw=PSA+10&amp;epid=18061929608&amp;hash=item5788a0afb8:g:Zc8AAOSwCEpnl~VD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2FhqIV7Tug1kNPShXRQMoWaSTUkQ6GQkEPeWGLi3214N9Slyy%2F7SglxYJYfzsjH%2F9nNNk7qh%2FWQmRf2xvxPsF1Hpu1iWpMdDjA7gLxIPqhdmr3DcVA7LMMYFp7NR2x4YYi5Uwhz6cMyfyHZuFlPcDiyjm3%2B1o0EdpUevDocvSB%2FA64yRtcz0b0C9IpkLB%2Fhi1o3hKVBkNmfG1ABJGExrqrEcqlEJOCd7d6PUA7LTmvXg%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954387840?_skw=PSA+10&amp;hash=item5788a0b380:g:12AAAOSwibNnl~WN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnH9yfwNo7VBQMJuXRmdEbO8czDR6VqTtGm4V2esnv0xF3p53uRkiqpnI61mg2xoUJjVNf3UurwF8q1FfvFoC6hunM7JCmc9FysZZi2eSCjpiSwJnhG0NsSTk4lUqY39WXqXdP2K0rNusiviqZA%2Bq4rwlsmQBpeNlZDQHmE%2FmmTz0tQVoIL%2BH2ebXAN43PoT3svytcFTseaixjjXu6iuteQ%2FA5dRZLTbvOYxLgKl6S7rw%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954387840?_skw=PSA+10&amp;hash=item5788a0b380:g:12AAAOSwibNnl~WN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmTHQcOoEfeA8aE8YQHkJDtnRW97Tx5aF%2B86TYDh%2FEX7Zj3KUEviiZ64uPVsUVGpeg09FLRbKF1U8Pfv92h%2FCDtYXu%2BS1Le%2BaMaIC34Znnf7G4kmCdKrgYYhQWYIuOfCn%2B8%2BqSPd2mplK8jedHzH5NXgma02hGnhluf3TY4Egp%2F3jFp6KekybmEm1yK2x%2FaChb6b0INTuWukZJtFbYi3Q8twVKdt1jO0dvGCvcoSVhvCtbkY0e4c7nSEoYYXt5mt7M8U9Zbx2cZMvaiYpQ%2B79Ec%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235779380525?_skw=PSA+10&amp;epid=22055927975&amp;hash=item36e58bd52d:g:V3UAAOSwwSFnBvx9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCAfNQarii%2F0%2BYW8Q2uhgsDAORdeUk9ZO1SRBaH00LFRLNPPNS7lmwo9K6Zdc%2FBrFs0a52NjPqqXF2pajB4TuKCU99LDiCdGUXetkQrugIc9z90awPLtNZ5nAf%2BgBjLcXa4mDAdGUR4VnHXvu19k%2BhjxeR%2BZsOAnSGbZmCZgx2aXgev%2BtoWw00LmnNddS4lfYeUf0lotvTA91wJxIrxi9apKqIOEo%2BVSV4%2FnanqmgtBQ%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/235779380525?_skw=PSA+10&amp;epid=22055927975&amp;hash=item36e58bd52d:g:V3UAAOSwwSFnBvx9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCAfNQarii%2F0%2BYW8Q2uhgsDAORdeUk9ZO1SRBaH00LFQkPD8T2mABHWbmPBn0dT%2FzE9ZJKsJoUbgsnt634%2FLoC6MdfsI5TDNdBGmC33l%2FwdPlu4eoHmOvSwgP5CVSQTZDB40DKADFexqWytrGgL36vRKYpC%2FEo7a%2FmZnedIb1IRbfaeLIFFBcK2%2BLfYs5vhWdRUKnFsVUAcOWm5e15xNbp8y8bOeov7Ppqnn4q3JbVZA%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205244360732?_skw=PSA+10&amp;epid=18073916193&amp;hash=item2fc984681c:g:C~YAAOSwR7NnbzjU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhBiEyp00eRwkYqJs9uDUMfzPo%2FDAcrv87a%2F5OkNBMaMnrgU7PwuAHhfXtVLVoGsmSX%2BZGhy6f5J4PcAgXSgav1EWVqfYMvNc6D7kUc72y7aToq79NeJTUa%2BY%2FkRQRLCA%2F7uWW0o6ZVZLp2MbtFOzWrxdfnHilni8rDNgQiW4%2BqqYX9ylWulsMeyiiBELLLJ%2FeFWwKy2k%2BlyTbg5z9kIaneWuYU%2FTc0RccvJ5ZWxwxyg%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/205244360732?_skw=PSA+10&amp;epid=18073916193&amp;hash=item2fc984681c:g:C~YAAOSwR7NnbzjU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnKNbjvlNTJ4MtAkg4afjzpxSAZKywne%2BrqC6BjV9fob0FdbyVZLkGdO1gq2e288MYF%2FpyFuipQy9ASQmZ8MFyJuyzBP5usGFu%2FAWTTAx7dKiTuiJX9WaREuV%2BBxsPYefCC22c%2BCGt6%2B587HUVTjPl6iNR47bmSsckImfmHzkjvZKl0%2FiUvORxNwc9ubIh910mFdoSZV2DOd7Om2KOBpcq0UdkIh8J84dZbkte4EbhWeb3zB0NAJ2X7LmWjn1%2BC5HP5z7DJEDAg3gq4pb75la6R%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOY%2Fag6u8X9W1wn%2FWCyu%2BQv3uXcByBpP8AXxUypO%2FF2HvBERwVLEWIGtuHe9uKxgiRSiicnrYF6lO0igpKb8JP1KBytV7jkHl0zpJlRyBs5JFMmIob4Ax86VJeZergxRBkiG7%2FLEJ0m2KhUTx9LxvbD0JGATWaMss5nAsf3byttNdReNNm0G8X7yIpfORpg%2F6BsVdayaJXuvSNnWExInWfCekQVgIbQ6YqwY6whtWGqw%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOY%2Fag6u8X9W1wn%2FWCyu%2BQv3uXcByBpP8AXxUypO%2FF2Df1auYG4Ci9QQNbvN5Eta8u5lWG3WcHrTlj9QrQodb%2BeWSLZf3sFfzMDLCnC1zRtJQOEUMboxZY1c8O4SJIA3AeQGmreRc3mP3L%2B6s6a1YosjmhohQvXQAJflmpHyDreUKbtkKHLfxuQiHP5CIp89dqkX9OfZt7OPZiliEmURGmg7YDErS5KzH5ACxqbt4Lpw%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356532627855?_skw=PSA+10&amp;epid=10065683803&amp;hash=item530300298f:g:1J4AAOSw8p5noYGO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlTi%2BFf%2B5S%2BAd2OhavNIMto0R4EwLtASCq%2B1lO8jtTrj2UajSOyXpr41983sfoFp2sbZQJjRPVilk9PeWLfNCZefg5GCFNEkdv19fx6Cz12DHZYa0QPuBG%2B8XtybfnVVxaq84Lq3LBaTA9K8xWFKmFLb7JyRP9J50yb0RlacGqg68KQ2zSWK7tI3NXpOvKyInoM9cZftMOzQnebJj7SjYAI7AGo5L7kIzwUvVdiXYkkjg%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/356532627855?_skw=PSA+10&amp;epid=10065683803&amp;hash=item530300298f:g:1J4AAOSw8p5noYGO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1apgZQ%2FcvV4eBQWhuA%2Fj8%2Fi9uyJcmSzem9IcJpOH9HoWg2low9RfRJ5btU1mcttj5HQTKmqcZni985rS3DiHG%2F8FMu%2Bf0yREZKpb%2F4fITprU5AU%2FpoBJHdEY7jpTSaFqJ0UfhGq2%2BoNbA2e8y1L%2B%2BiezSBweDI5A59SxA96ykrdam1NmHW9Rp7XKTBvM9WkYU6doEV6Zlfs4N5RPIjfnMZsT6Y7K91NO8gpyKWp%2FbHo6PSxz3jFfMris2KDI7nr0SdlHdScCHiZyrBDPp5Xq6%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958436978?_skw=PSA+10&amp;epid=27063843444&amp;hash=item5788de7c72:g:0XgAAeSwcQNnmqzX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnPj%2Fy6eGcPAUfXicA79733OrGB6ysD4nNOU8vT7eO6a5nhejwQCFUkelVtbmjBDpW0j5PL%2BL%2F8MT7QDWxKO9F2LHPVk36fvMZyAIOVWZMYn2qy1plX%2BBH3A%2FG6jc0%2BBC4GiCjYDvJcXMakQWKX8TXROMY%2BVYsZF76Ohe%2FK6KHpspwCHMzO7V%2FJ3Zc4HgKZCeEtMQTCW%2FYesvIlUZtbUrajC%2F6%2BdrhpARTjgCqici%2B76A%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958436978?_skw=PSA+10&amp;epid=27063843444&amp;hash=item5788de7c72:g:0XgAAeSwcQNnmqzX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnPj%2Fy6eGcPAUfXicA79733OrGB6ysD4nNOU8vT7eO6a0Gqjib4Hqxmn2AKnwwfNTufRg7EjyjkpoARU%2Fnap1M3IpTL0cK%2Bqxy5DE0W%2FWt%2BkQdADI9PuY5s0hN1A9NY%2F55NqRZ4xyYCONAouId1KL%2Fr8Q0kUlaTosMN88a5au%2B5JOZmSbTXlotfaX0bcmQg%2BOV0XL6qxxSEMvVnFxEVOY9dpgU46ycLECl4bZ9cz%2FtLBQ%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909236382?_skw=PSA+10&amp;epid=2326923745&amp;hash=item1d8c61449e:g:4q8AAeSw0O1nmqx3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlC8Y%2B2TD4AZPAQweuRTrG5CAMzOyGXtScxuv%2BGto6ogBoQ1X1JTHXm6NRDR4r7FfJk1p7p6k2AMbTALn4FmVvhazJHsfbOuQ9aiQIrzWOIQlJrZqm4GHOZ177SMa7idauvPgH9%2FMLUcBbtXpWLmx9ZbBcZlXLHj%2F5%2BjP96ym%2BkPK%2F6ezvsXFsit83mwCvzkzMpSYjEOc%2BCD5jIRJu3abpnwPxdDlxKHmgIYybVS43UaQ%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909236382?_skw=PSA+10&amp;epid=2326923745&amp;hash=item1d8c61449e:g:4q8AAeSw0O1nmqx3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKklah%2FgoOxhyUOvXrRTO%2BjjDn0ZweAh0itvul9l%2BdcaLDjvbWCvSZ1un1OtbGlxaB%2BOkErbEmxjFPnv%2Bx64cp4YJTwzJ8YQEHse%2B7eFTSaUXj8NNCZbP4zvSw%2BhRO2mugD8sIvRfwK972EhZck1khgXWA%2BvbCmAlfp9ORATsWC9Rnrev%2BuQTDOvu%2BfocR6E1IoKCCsXN1Z6opO9Yr2SVOkMcufkma%2FRbBd59n%2FWdQ2TxOKifd29K5JTFgRFD%2FtlTAHOXhMPvN5XtSndGhQEqFfZ%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226571675475?_skw=PSA+10&amp;epid=6064280968&amp;hash=item34c0b96753:g:VLcAAOSwfcZnmjO8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm5FiIjHRMSRPbF8nTiuXJJI%2FgiY8fBdQ5NAimbgH6M%2Fm521AuRNgacWOrSQmqkekoVN4BH921hOyB%2FY%2FBUL7%2FNsQmRP8BxH2vDjsJBqlcD4EbCYSsadY91zxtYClAMYmsV3wmQgYmOH5G8XX2fuDJuIH4UuaSROw8OoYwauo0%2FsGMK%2BsjGHGD10%2BddgAp9sVYxzXIOSP1qJ53qY4Mv4DFesTxGKuq%2BX183iKUG6n97dA%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226571675475?_skw=PSA+10&amp;epid=6064280968&amp;hash=item34c0b96753:g:VLcAAOSwfcZnmjO8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm5FiIjHRMSRPbF8nTiuXJJI%2FgiY8fBdQ5NAimbgH6M%2FvY0koJR23iUOLEP1eCejo1iv9r9Tv9zZwHRqKTn1%2Bh%2B6vFuBP3srOPGJVkV610Z7%2FrLc1e1%2FLL27H24qXuNC0824Advfb%2FHs4I%2BFSN4olXsU6df2lxg%2B166eJKabsuOAKKAYc%2BdiiiX1%2BfKhDBtqsafHHbCInOdLM%2BrqqrARD%2Fu9BkimognSEsi9tSWnDkmWA%3D%3D%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366716558?_skw=PSA+10&amp;epid=12064257457&amp;hash=item55118da88e:g:SukAAOSwr7tnl8MK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk2IuuF3R%2BbAtYEkAx8tpmhuWxnLiy9LjUSgHT4iuKEET%2FdY2IfZistIlTQs4EjceMHZBFlg7IswOHdYscAdyLC2ZL0f9S4wAuzjCojNdfUSaOOD6%2Biwi8s79G%2BEXUp9tuC%2Bld%2FLzWlRaasawhvaQvz0bfKQnT52rXovexBIPgplJlPO7NNyUosnos7BcLsowKBlBet%2Bz%2FWEnDhyRxSIf6kqwVJ%2BgOZlDUHSaqU4ANonQ%3D%3D%7Ctkp%3ABk9SR9T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366716558?_skw=PSA+10&amp;epid=12064257457&amp;hash=item55118da88e:g:SukAAOSwr7tnl8MK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkMWKCIrAlfQ8OTXxNP0TYOtgoGRw870EeV1ITeTYUJd3CrGHI0%2FBE4GDEkYjpp9QP%2BrP6obZxioMcbheOFHct77acqTX8OwyyP57kwTLUdWq33n9CWfarYokLOtoJZTzcg0eUBavWB%2F7h%2BHSbpKTAFKjLe0ra1Ft00%2F9kS3XhdSZOFKDaqYurebSD7Y6GaxBUzwkv0Xk%2FLDsWXLJ0ExYQs30o3CU9lCB3tFCVPJzP07HUQ2uKm0Oz0RSHKghdBsP07P6o%2BN3v%2BZHHNQdJ1cNyi%7Ctkp%3ABk9SR9KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954144082?_skw=PSA+10&amp;epid=26055899038&amp;hash=item57889cfb52:g:0RkAAOSwCkFnl8Gl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmCpryBzQPRysKTlSm0zpU0W7G5JCxuiAitZwlv8atB--p93zbls%2Bo3Mt3WVoVNIWYU%2B6l%2BePAwngj4CasXH4CxOFUh%2BMtpfw1e3TPrsnfnWGjdIf0bDEk3kM2wslgDBWOkeVHHpGdfZVybJj0kdgLf0WqK%2BJ66BEQL2HeMdraaZy2wM0FM32YvdNkFV1aZ6kPC%2BgNJwy1gmz6ddyNBWVolTMDBZgSfAVgTPz3eYL51ZNRqkEk7uQtGvI93NJmj9iLk4Z%2F5rqZevCQS7IV32hMX%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954144082?_skw=PSA+10&amp;epid=26055899038&amp;hash=item57889cfb52:g:0RkAAOSwCkFnl8Gl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlgTluvdPcVAKnMUAQKCRb8MuOMs3Q%2FnDAfJ2MHx9dN%2FARezHWGpTOAbvuC0HDgwetoM2dcDy7zSm33DfLeNcJO0zBhJd7oqPumTDRFCPVgkw82fULXDZ6aH95kUabYQeNjdA6W5RW5VpKRUpuTbf3a7zo9%2B3%2FiZbIT7HwbU%2FYUsFi9juVunVc0dVeu7ghd8R3H21KgcmvLZS%2FMI9JG8AN4G6Zl85AUqsedsW0OJJqGMw%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866189178?_skw=PSA+10&amp;hash=item5a4ea05d7a:g:0NQAAOSwFzFnl8D3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnyYUk82FzjfFmDLG0QYNkLy2y34F4cxnwC9v7SVy8NOWXQXAt3YZWDjNDkHgIGMhiTo14Wul0PxFGD3E7uBLBKhACV4J75EFy3rHKy7uWgdIT9Mv3lsHLzmUY4atUg46j9iFOxdzZzEuWwIJnMupxfd4ztsVpmfCj%2BVYADX5HUGWSBckdS323PlzWBtLsLijtWyw57%2FNDIaG7C98HY%2F8XoEmz8I1%2Bd3MrtVN9MMVJnaQ%3D%3D%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866189178?_skw=PSA+10&amp;hash=item5a4ea05d7a:g:0NQAAOSwFzFnl8D3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnyYUk82FzjfFmDLG0QYNkLy2y34F4cxnwC9v7SVy8NOaBM91vbXBqHW8wrhWztmr3cAbl%2FT%2BuqvKtlFEtEZ0zyD6XhX3yXXns%2FPEVyhXyHO4MaY3WwTkEjIIycDSMdUIQt4DkQ2MSazN%2FfD3TSKAcdTIW5e0vSr8l4USr8hICCBti57TEqb%2BPAAcVyo3weqbXqO8U4DliPWcKjcUoTsqUJXmLDe76iZ98ZRTlrjw4kFA%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156556009958?_skw=PSA+10&amp;epid=3055906583&amp;hash=item24737721e6:g:olYAAOSwDipnTPVd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmNOUpaQ7Tsl8efZ8wfDjmQnrVgr%2B9fpI9p8cvDhGdpajAIj4%2FAWKya1PleEW45bawdoGN8eGS2JkX90UwVqx6StSGzDsT5%2BGUlpOq1kC2L8JtkEGN5im4hYSCH4MtezZaPoILeqBQkJDiST9WxPhtKavUviC07J7s%2BKhkRbqA0KC%2FKhti%2BJQkDeYurUPy4IFcZeXYLZqQJlA8Psasg8BKVnxGaG8ImVvSjpKBqjFvXEg%3D%3D%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/156556009958?_skw=PSA+10&amp;epid=3055906583&amp;hash=item24737721e6:g:olYAAOSwDipnTPVd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmNOUpaQ7Tsl8efZ8wfDjmQnrVgr%2B9fpI9p8cvDhGdpauaMDk4VGALD9br1T0v0%2FoVEl59UA1WfUFeSkuuvMpRVkrwoGU1S8Nm5KWLDVUVPnjkrT6eEuSoZzIzWiHUIUQw8e5dOs8efJ9TE4j6uqGGHmQzkAay0jm%2BP%2Bh7Wd2xEg57r6Q9Uc4rC3NgyQ8DFviFfCRLfFwvWpHWKn%2F6Q%2BMMr31cR68wC1HLH13frK3IUMQ%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235925715076?_skw=PSA+10&amp;hash=item36ee44b884:g:sOsAAOSw4b9nkWIi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJ4c29urm%2Fr3EMNTx39c7sLJ2ktrYJdu0%2BgI96sgLTC7KqpnS8TEwt4QaTThW54%2FC%2FIGiMzm6Ul1HWk94MCjk0CwzXZx0TJMhPDY46p%2BQWI4Ru9SG6pQfz5u397EAi2A4rV45aoW%2Bo9Ue23NebpFM8BIJV3H3CD%2FNTPc5UejNDjJWjzbwbWu2UCvjuOqmSyEpDlClBuNxkYo7C1UpPsCTv49jlhxWHnPxwmTJFXjncVaJT%2FXP77qIYY9ZcvPKMHxZWtI%2FEmPPD%2FIrC5QBUjxtj%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/235925715076?_skw=PSA+10&amp;hash=item36ee44b884:g:sOsAAOSw4b9nkWIi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJ4c29urm%2Fr3EMNTx39c7sLJ2ktrYJdu0%2BgI96sgLTC7KqpnS8TEwt4QaTThW54%2FC%2FIGiMzm6Ul1HWk94MCjk0CwzXZx0TJMhPDY46p%2BQWI4Ru9SG6pQfz5u397EAi2A6p5M1N3ClTe97Zq02TDshh5lmsDL9pdks%2FKQwdK8vptkDjMHiM44BMKNuZ%2Bro%2Fd2y7STfb3Wez6B4m3rQe7Fk6T7EziQi%2FlVBwg8IKqMhqVklfcSpegx%2Fg9IzYW5DQl2fIa8mmsssnEB72RoCySKx7%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866550503?_skw=PSA+10&amp;hash=item5a4ea5e0e7:g:AHMAAOSwYMVnl~Re&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkp33c0QSSOJPocMQgtXdA0yIXpXjQ52m3WPSkycLzawz%2BjZMrZIFuF1xW17dM2KsmBS4HES7196YUfGPcophhQ%2BnSOhQ2m7TeIS9DuRuxl6wVwJocjZNxE7qTlBjVb25Hk8ZZL6HtojfWH5LW6OVaiIIqa%2F2jewYsF9BpyQBbFsJjihUOZkQ5dRnug92BvAXPdsKZw%2FzATgx1uzAVLwOzpxs3PIcamTmGO%2BcjpE7PG1XwXQamD5thnXj9zxnGDB9owesMeQCAyakwpJ8mn%2BOOU%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866550503?_skw=PSA+10&amp;hash=item5a4ea5e0e7:g:AHMAAOSwYMVnl~Re&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkp33c0QSSOJPocMQgtXdA0yIXpXjQ52m3WPSkycLzawz%2BjZMrZIFuF1xW17dM2KsmBS4HES7196YUfGPcophhQ%2BnSOhQ2m7TeIS9DuRuxl6wVwJocjZNxE7qTlBjVb25EXf1Ehk%2F9Q6Fc2K2o4G8NizvhMWARBabHMBpYDjD%2BEA9e5V53qsTgDBO7LiCIMguBjmM9PpZxK9hfg4COtowKdshPCTqfeTxusjBrRCj4TfP4UZAubiqyc4CSUoM0DtG8XFXDII723Gce2fqGtVgSf%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405519460848?_skw=PSA+10&amp;epid=2335678113&amp;hash=item5e6ad7e9f0:g:U60AAOSweOhnoPyI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMGTbp6Ub0UhdPedi1JiBxgQF3C2YG7p1%2ByB1UVBwJDJtrQGBQDkndxBNuXAnLPiUc4R4EfMShF2OYWk5dBuUIrsbBIZl9ewmchtVrTBD%2FdYUAUZNuYU2i7KjR0wxGWhaZico49Jm3rQL6agGRpxMy4Katp3LAkuuirmG17C%2FQQrJJijP83jhx7%2Fz0G5pShh%2FTkOK4Ce5PF0247MnVpdI6sFp1HKBuImTzho2Bh9h0PV7pqXzI7hgamzZbKgUh7Iahym04qIUmFnJsI6EDyeVo%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/405519460848?_skw=PSA+10&amp;epid=2335678113&amp;hash=item5e6ad7e9f0:g:U60AAOSweOhnoPyI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkI%2BSzSsLqT8UqSbQ%2FzL%2Bl3WrNTOfcboCODZ4CsUltg91itm4MWyM29M001k15c9zwk8QGb0G4ne8osOv06r%2B3bAuKby12ad17Hp%2B3fr9tEy7pk65hmznHZ7rJd6RoaGBkNmrrTf1n%2BqZBGmspxxVhacXyNSzCiTlU7rQf4ikacYMkFgJU5zGjchzIMSMQYGPhqFKeYStA9%2BiGqN1icZR44in1dipJH2tJfU0nOCK1Sfg%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366958451?_skw=PSA+10&amp;epid=11069557069&amp;hash=item5511915973:g:6QMAAOSw5LJnl~7z&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlX5awbILrDVPHllBnNYG%2BaGb3MeE7UB9fVuZcyYgAsmAonRSfaCUOKbztUyBGK0bYNI0vPuXSJtDTjJZFiIRKom%2FDvljQXmKzUVtboLgK1T0g67yZwaMU04%2BECGnHa6JqtT0OCBsilcpJ4%2FN9bGP3BruuodlFgZMy4jpaaDul75Bx7V5SG0FkFDSvFZvzZB2JqPBB1%2BBBZ%2FKOlHiGUD5rIUe0RNyxfcWUTx0Gdr%2Fh8Qw%3D%3D%7Ctkp%3ABk9SR9b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366958451?_skw=PSA+10&amp;epid=11069557069&amp;hash=item5511915973:g:6QMAAOSw5LJnl~7z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl7vAB7VwYCck7Y89z4Ay898Y1WeyvXlKKM3d0VawdeYONT29%2BkvCnfW5Fv0KuZYFzTeq2IBc7qkWbwbeDdoodySdeXYBHxoVwQP2qIqLyTn9%2Fs33vwdm1XbxZjA1v0wH5Jtj0mW1DYjK8zuszJa2fbCtXmz5NgUzYT9vNc5g81Fwlr7EYBT3n2fmtKGIyZfjLJ5uZ%2FLw3OYW19u3G5%2FNkMlihWZf7vNZw5dNtrP%2Fb5h7II5QPH0W4UylipBjT7TIwvoXpW6MUbNeu%2F%2BwTxv1Oq%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366987181?_skw=PSA+10&amp;epid=25073589252&amp;hash=item551191c9ad:g:tM8AAOSw3lRnmAgI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3WFAPm41ZCVgoEtTE2mnr1tfLdqGOtw8JIZijCeHyxeigv3CKoPyitxwJ9g%2B7goHhm0Va8htjJrG2HRWwIHZj7p%2B74wEDZ6X9M4pQSCRcha1ZzZdqN7yk%2Bb5hN%2FswnHHB862cbw1dP%2FeZ0%2BBMVUsMcuwwyWbKKZKEquh1%2FRtTaCH5AVqvHU%2Fr8RNv8UZcqk2yChuFoueL2bIeK3Yh1fdUQG5YT29niEx4JzCq%2B8Ot8g%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366987181?_skw=PSA+10&amp;epid=25073589252&amp;hash=item551191c9ad:g:tM8AAOSw3lRnmAgI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmGw8UBK1%2BY04sYk8QF2mvYF%2FLi1kG5la8Wdc30vpXYF8TTCGP3IXYUY%2BfEEN6NmgHbtkdl4rXOuebNveooUXRZXGpM97LBaFAgBFSyc2itbAipy7Pm7%2BqSF2BO33TNgJkHxyztI3VSmNVSHugmMK13qcF%2FscA9C3z%2BnzmY6ep4O3WA%2BrmUNLDxcYPRgnn%2BNIxTSSOJnSKV7iNcFg9drRy10siGIFP4DZ4UZE2HQribs80e7cZ9cr32NKVrwaWJzOVf9blFivL3VDyS%2B4TDTUCk%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954411895?_skw=PSA+10&amp;epid=13072415939&amp;hash=item5788a11177:g:WyYAAOSwzHVnl~pv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn47vFBtNrtbfYsJLYEm3b5ritL7cyY5lCoxZDylAb3SkOc9zRs4ZEYDwhbLxKXQ%2FWAZCs8%2FtWgrE2MlRZS%2B%2BMvdJwjTuLQ%2F%2BG2FkPxthLU4GEgStFmTVdTeKEkU7L%2FBTUyl%2B4LiIRH0wj9eiuXcSAb51aHEilbRH3oTPPsIrWOri0JIkaldi94r9BngpX3MZ6xUXONYPnDH8PPrZf7Bi3u%2Bq3WNvi%2BKctQnh4Jpy7sxg%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954411895?_skw=PSA+10&amp;epid=13072415939&amp;hash=item5788a11177:g:WyYAAOSwzHVnl~pv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn47vFBtNrtbfYsJLYEm3b5ritL7cyY5lCoxZDylAb3Si33dnIK7hEFFhcVyu4kqlmLlYx5XvmciELC0Cr3MeeSFSwbPQoDvq8VHhwndnXJFluer8WS%2FUw%2BGY6fHmj9aO3TQxVTL2lQTJ7%2BQsyuAbfjllTCbFHSfUtj237ZbV%2F01KiRr2ru7Fc0bBQTpFqt74kNyK9bYFHW63Gz5Ovv5kmdEcR6dXRKiRtb3rQwzQZfFA%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954432001?_skw=PSA+10&amp;epid=26067699145&amp;hash=item5788a16001:g:CPwAAOSwnG1nl~5s&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmrKJRc1q5MliE9qzol6JsYgH%2FBRas0UGDHg%2BW73zzpNOjX1Cpniz9lt15q7UNQCR%2BCexHXtu3eXSdjJJcy3CbxlJdVv%2BwWPPTWx8QVuLRmkMUSO07h2Qcqw5zzgXM5IHXU0qiJSstLBJEJzksKwSx9SaSG1qGfkdDOf534hK0O%2BDrtRXTSo8ReqDsWkGRw4kg2fbXsIR6cqm6IuFVjieOLTKi8cf6Vpiwh8bID1liEoQ%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954432001?_skw=PSA+10&amp;epid=26067699145&amp;hash=item5788a16001:g:CPwAAOSwnG1nl~5s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlRwAHAwnCBlvpSUGX%2BMT5QszHK7hyPJlh94R4w%2BhL96Cg8rrza5NDdBJm%2FCvihXDjYbc7yZV8o0Kd9wZcdtpHnFhplH%2Fzc9QcitzLoCVdN1edWuhPYWQAiQkhZSicuZuqkc5WwVGvSUEL4eVsAA38f2KF6ZLOKbAXDQVjjjVGYoz2l6vFL9rstS7TdyZqP%2Bpw60hfmPDC38PFbVBfGrhP7W5z1DrStbnwXYPI2Jncxlpu%2BOj2sbxmlb4qe1zamb%2BI0RC%2BzxvnbPcgRZH2LHiMH%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866649965?_skw=PSA+10&amp;hash=item5a4ea7656d:g:9vsAAOSwVj9nl~xv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlnhx869%2FRTlmIIFfktHmLEVmOAoKqha20r21mXKXU6RiCQR9lNhfVZ8M7HLkRK3ZmajfL00MrlS%2F3UbpnDgen3Svw5lnOQJH7fTUbxE9cqtL2HDjaLknhkDZhbo%2BW7ai5LFY5gDCAxmtKlN7JPsPCwOL8hZQ4q1ieapwdbIFIjCByKUF3qJvn3oE4InA8W5eXX5WJhwZknuBxmMJTS6D1%2B2KJ3FOyMHaq3QLL9aGJTQ%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866649965?_skw=PSA+10&amp;hash=item5a4ea7656d:g:9vsAAOSwVj9nl~xv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlnhx869%2FRTlmIIFfktHmLEVmOAoKqha20r21mXKXU6UuHZfemqgkmf9eX%2B%2FU1X%2Fox0uf6%2Ffm62NtjnTMjSTq2vk2KRkBGVUX0J09eoHUtlwZ8VFxsrF77iizwVw1Z2F8a7c5atpMWVy5vJPUaD6Igw17YCean5yp0rFjarYXzdhOSQgKn4LedFQKqtqJyNemMxO%2BImS9USdiTrOSr8koOwMe4pKHmMWW4n0f%2BZaZhjA%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370866?_skw=PSA+10&amp;hash=item40748e02f2:g:6DcAAOSwh2JnmB4P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQW8gOA8oG7nT3x8mQfYCfM0IZvnAOALMHUnjx5gvnVMX5ec6EpdnAmWVe5cl9V07Pc6x86RZAlMMV3QUSryy0PEY0dY%2FgBSNhinnqaXVF%2BFxORcWrNt%2FwQvVNODnCotXVM0%2BeJ2JgNFrc%2FtJ3hDa2D06Q0gMZr%2FviwxlwC8rcYmoV5NXedZB98ah0KJf%2FcHksdcHOzJdfOviPIi6HQ%2FXp46xPgCuYF%2BCVAobtgQjmfA%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833370866?_skw=PSA+10&amp;hash=item40748e02f2:g:6DcAAOSwh2JnmB4P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQW8gOA8oG7nT3x8mQfYCfM0IZvnAOALMHUnjx5gvnVByRc9beT3KtHsoQmaUKSgQdPBPvrWgI32jg9C%2BeAsy7nvX2fv7fi6EUyIi%2FXl%2B4zZc%2F2%2B1Nsy6uUl3JoEf0WlU0GjQ7apBrSIEN0oPdzkhe%2ByvsxvMDbsGIgOSNw5TFAsIafjGdkHocHcOzHx%2BA2B7O%2BZ1PLVTZ9Cf9i%2FcteGCOotHCBIITrBkizBuA37DBDQ%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267137720218?_skw=PSA+10&amp;epid=11069559477&amp;hash=item3e32a61f9a:g:40YAAOSwRblnl7Xy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmulqaVvGnbQX%2Fc5KELO2V5amk7dhuCE0EHrkchnhi4RNJfUj%2FuExkZ1LYrMa9yy%2BIZwx4NB5Rl1Mi%2BValmk9%2F8Bu%2FavaBhjitEpoAYjOKG3TlwLt5JkeMvD0OjfQF9%2BkdWHOowtvNwCCnHJDbjXHyMBh4KfG0S6MYRdZQzvinClHK1JHBgltm%2BHTtrcCKl5wcXaGHkWSumazwBosijcFRNDIwjB1r1%2FlkqVUk2Nk%2BgYWlz8Fj7ogWTtaFeLu3uOCa0FmvQjW5A6GJjcDUQO20v%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/267137720218?_skw=PSA+10&amp;epid=11069559477&amp;hash=item3e32a61f9a:g:40YAAOSwRblnl7Xy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmulqaVvGnbQX%2Fc5KELO2V5amk7dhuCE0EHrkchnhi4RNJfUj%2FuExkZ1LYrMa9yy%2BIZwx4NB5Rl1Mi%2BValmk9%2F8Bu%2FavaBhjitEpoAYjOKG3TlwLt5JkeMvD0OjfQF9%2BkfRraZFXLWXwJC4u0UyVCUNWDIrWCAAJErLXRWtGBzBGB1FSJzsLbESnaCQ79JWDZAhrV0NLEja3j1Eh8JqUJcOvnsOwd5zspTDmNevZVcvt3s8yjGq2w5EVW7ZIUG3c5ZpdTZEDm9a9nxKzo0MmgBA%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276838142091?_skw=PSA+10&amp;epid=28055953226&amp;hash=item4074d6d08b:g:v70AAOSwbMBnnR8d&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkCR5SapzleyIgOKdXNXV686MG1KjzzZ4erpKq0sy22cKAsr2TwBfSUVBErJ%2B1p0rlNhyKIKFE3Fbspsc9m7r%2Bcajs3JOgo9PbpW%2FBBMbWGZWU%2BujUfw%2FsH3bY%2FOGbzJTtNTI%2Bl6UPNIwxEmkvlxRxyV5inxwanpEAoGlfRkC1m9c5NdnVFeEY4h4WwfskEtm0iPERxt%2F67lCnXJCo2ZDuSL3Pm4cHHWE3yt5FRViL4aaNwoxeCnpmxarCVLqfI%2Figg%2FA2gT5IoqvH4f55JE6%2F%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276838142091?_skw=PSA+10&amp;epid=28055953226&amp;hash=item4074d6d08b:g:v70AAOSwbMBnnR8d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnu9d7syST%2FmZSa85zXHm9GVGJWdOJUb059KUR1vdYiWLu2TKiVmZRh1Mhl0LKAF354moPzO605wiFrT0et%2BkCKCCq3GBoII5bZsr8QKNWRTBlG2OQUSi%2B8AZufQk1%2FH6GyX1f1c3ecFNHELV0Dl0FRZRCtTGg5WPIa%2BXaFg25SSaD2KSp69pB7wHqjtyzh363tO9Pz9vFT5SScj%2FYnneEG3y%2FZG13m%2FQEImF6qzthpnA%3D%3D%7Ctkp%3ABk9SR9SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366850230?_skw=PSA+10&amp;epid=9055884454&amp;hash=item55118fb2b6:g:xlsAAOSwgkVnl-Nl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlsKdu1NVWQi8paeWTnjSh9fmpSZ5yS%2Fz4eUg5ciFzz%2FwEEmQC5KFsESjq8sHTw6lEAgpo3LQSzWQXbFh2HCE5pLhkR57TrNmAwZXovj6LdzxtqO05HrfIb6MC0KYRKbAhPlQzRfRCluInbTU5mQ7BU9rzbUw5gj7kAYLtX2y2GWcuQHbOtxbS1TJcOXlSkLhMKtiEI49dcecxfa5RnC3uISm8AjggMBhguYsY641hQQ%3D%3D%7Ctkp%3ABk9SR9j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366850230?_skw=PSA+10&amp;epid=9055884454&amp;hash=item55118fb2b6:g:xlsAAOSwgkVnl-Nl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlsKdu1NVWQi8paeWTnjSh9fmpSZ5yS%2Fz4eUg5ciFzz9m%2FA9NT62mmndrd61O6Avotwp4NlL2bKUQTqrB%2BKzIv%2FXr54U1HjOFCs%2Br1FnRXKILSyQPEl2SBR4n1zFbn%2BrPPueX9r8Tx7G%2F74H0NuhLjXgatSk9Ny8zjban0c3H%2BIACFp3xKEdzTPLfsxU5Aaxfdl42TdMBpLGImfldPoEOAI2s5hjMrZHfthLdPPKFiGg%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866418730?_skw=PSA+10&amp;hash=item5a4ea3de2a:g:x2IAAOSwgphnl-Mx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkeYmhtl2MeoQncHqKTWhxe0u4qmXBDK8K6DI9Amm8RW7gqnitiDNODk--bzC0vbVfHVrJBVOGNczPxr%2Fndsv7GDxETj7qI4J8xat4CMi3wbOiN2ntCNS7etcT60IzuBYUDcZeUhl9iahn%2FhkuYxvEjYHR%2FpRW2X9eus%2BOehhRQcKcCA2DBYFnsEZzmhmnmXaLwCjMU9Z2inZWNbMau1X3q6atPr793b2n8SD%2Fkp9BJUORJF2w46qRKh%2BfC%2Bu4NqggRQMTjzzzWqcjRjk1PuQ6y%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866418730?_skw=PSA+10&amp;hash=item5a4ea3de2a:g:x2IAAOSwgphnl-Mx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkeYmhtl2MeoQncHqKTWhxe0u4qmXBDK8K6DI9Amm8RW7gqnitiDNODk--bzC0vbVfHVrJBVOGNczPxr%2Fndsv7GDxETj7qI4J8xat4CMi3wbOiN2ntCNS7etcT60IzuBYX0XrsjOhsObz8Lu3NhT9zc7ZBP2hm6yUqr0Fk17c4jNcHt8U3OtM6w4KjNFVmB6jLagzkRaP4Z2zKuT5HNLR1J0PqOcKYV%2FtR2TsGS%2Fnj3X1dwW4TRbR2OVd5eCNC3ukRoFxzPeAyATiuFoRt4g9m3%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362111610?_skw=PSA+10&amp;epid=27059581605&amp;hash=item551147647a:g:XPUAAOSwVtNnk~pb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJu32w7gqdsl8YKDr8FJW3zZ6pIJxqEHYYwACNIynO3VSXEANe7m2kmN%2FmPJNedkbFoW2l0UH6adzVjnSWfM%2FB8SlwkEdVpEbYHYxtPhJ5GvRjXDhp4yZzsMrljj83VDP2iBPnB03ltrlxFg16CX8LL%2B4NW8ZgIZ5IorxRPa1MndSe7OrS1SXs0tV%2FXs9ZWDYHO34VAr%2FVbe9%2FDDHiwIatcvOZU11f0RUghzzaNRweU25Wl3sesB60rP4cd8XUWwZv1K%2FXZUkkytQBoVXacLty%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365362111610?_skw=PSA+10&amp;epid=27059581605&amp;hash=item551147647a:g:XPUAAOSwVtNnk~pb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJu32w7gqdsl8YKDr8FJW3zZ6pIJxqEHYYwACNIynO3VSXEANe7m2kmN%2FmPJNedkbFoW2l0UH6adzVjnSWfM%2FB8SlwkEdVpEbYHYxtPhJ5GvRjXDhp4yZzsMrljj83VDMXApFnww5TVxbXNMdAZNE1%2Be%2Fp%2FdQ7MbE1mLkh33BYNkD7LWnX9VrpySJ4N3Gyr%2FoFmw0ASNWl7iZdWy84o9G2SELd2CPc7WENXrKesqm3%2FLtoCV4Cr4i2uC1RLptIip6FyycW%2FnG9mt8uVMs7J1G%2F%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947620369?_skw=PSA+10&amp;epid=18055919196&amp;hash=item5788397011:g:W~IAAOSw-udnk~Y9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnw9z2SisHS6PM1K7CTtbTaF8M1QXRdN9ahkGMJnC2i56yJkDvGtE2AASeq7aaOeygQf%2FxzMc7KCaUQFFSTl4Abt9WRTlxll7xKEwpI9%2FhXpcmPUyjYb%2B%2BeeUhSZCpOt%2BdimzRyHNfYwHEBq9FvWiJ0q%2BU8IQeW%2BhM5978d6CPc0b%2Bnbsqk4zRzIcIiwFLltrHGpuED48fM%2F18LejWQ5NpL%2FRlfOJ%2Bnxf%2Bm48lueoV4Iw%3D%3D%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375947620369?_skw=PSA+10&amp;epid=18055919196&amp;hash=item5788397011:g:W~IAAOSw-udnk~Y9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnw9z2SisHS6PM1K7CTtbTaF8M1QXRdN9ahkGMJnC2i53E%2FM%2BV4jpGIsAKiqeYzFHDKTkBzntmVx2H%2FU%2BURCkBAb%2BYUAwEoDmDoLqC3A30D5B98vJReJEKXmZ1Dm4vmHTltUBdLO8LkBY4IvpwV3MXcCSF9lq%2BZNHTxdtAmKXAhDQYDHysOs5QdxthmgjgXnHYcCk8D6FMF%2F4W0OwfQZka%2BNVH1gmhS32h7yMAtaQHK9w%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856153017?_skw=PSA+10&amp;epid=26055955849&amp;hash=item5a4e0739b9:g:lwIAAOSwUW1nk~Vp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlKiiLMyYp4vdmxEgTj0ddYJJ4we6u3bIQPkLm6INMBn8hOehjIp4Yz20RgYn31tqYv%2F%2BF%2FhBN4nkbf8VBo8wTrRbbKYL0nUBBiTzZDVIKVwy5mUfEaNxuJeH%2FIAQf5CMEUeZld5jxLdB6Ks7%2FtXs0ddRa%2FhraGXo%2B8%2FQ%2F%2BQO5COnueOklLlSpA7Usvmv26kMWeIH4c8SRIkv3L4F7e6Yek5VuVV2oNQDmrC8BisaRQ7w%3D%3D%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387856153017?_skw=PSA+10&amp;epid=26055955849&amp;hash=item5a4e0739b9:g:lwIAAOSwUW1nk~Vp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlKiiLMyYp4vdmxEgTj0ddYJJ4we6u3bIQPkLm6INMBn07hn6GqideQ8SLp83miJ1BybGWRNbUfQSauk3tKEF0fS19kaOu%2B2npsb6WCP82E3xCHelQA90wpNl5sy1YfJFEY%2BIZfyEL%2Fz9TaWsXC2YzlvFTOTrGDJkzAeVEKvNAw0QKzRT%2BYjud976pXhfLCocYU1Hd1v%2BPxzS%2BwqOGFaLf%2FgRv0ioJXN8uoW%2Fwm%2BirE4Q%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975262880?_skw=PSA+10&amp;epid=26055934972&amp;hash=item2ddca3fca0:g:EHoAAOSwqaJnk8ho&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmHP9vfGXVp5E3BmR3XcCPIq3bEZpcw5yvxDHgXw%2BuMchp%2BdUmMRpgBJNY2EJfx26DOkTKe4c9%2BQTW98hoUGVS8hQjlX74sQwCC8XQkaSjjaVRc0ZsaUxixJioI3MOepcjJIfnGGaIqCcLsLXtiK2qOQ9pgvrx9llOb3bcLszNl40L1%2FTgw6an0vJ96JMiXzKdWHjT1XlWL8AXe%2BGJfNHbkhbWYB5Lpdr3%2BaZhsqkL%2FchzbLCe84GuahH2ZkOEKgZAliKKdaazdbO9nLKHbVTs3%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/196975262880?_skw=PSA+10&amp;epid=26055934972&amp;hash=item2ddca3fca0:g:EHoAAOSwqaJnk8ho&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmKJwZi1zOEd5IJLhiME3NfcXSUeN0NfsG0%2FGIUZVc4P6PJjUyM2flUtghqNeeBibyDibNIbT3NnPbVSz0z4J5lDi5pnKvXSATDTP7FFXmCHctqbHXCB1w4At3xmJ8vTwzmD83rzIl1Krg2ZWIgsuMT8XolEJJVNg1P64fK24qjJByIHhrCtdmXDNxzq1drsevvsNm92ameW4gS8HgBkD4gI87pi9a2DreXytwgd18ZsQ%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365376424730?_skw=PSA+10&amp;epid=19055872407&amp;hash=item551221cb1a:g:y6kAAOSwrm1noEIL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2XVsRhMZfhkWvXWwVhwN%2Beitaq9idzhZdjqrt6n1RJPATVQEVn2ORBbYF90eSkXqIw%2FgDkpmUNOTT5GrHuOY%2FPaX%2FCpj6NkdtrhWjPv7LtaT%2FSvX4gfSEq5QQtiT6nd%2BXON5y0L4recD6qcAwqN0ZzyFH5SlPGb%2Bs57uvysIs4d8luNa9QP4Dl6ujFvr97eTJt4RJKwkHW0CtxOQsA%2BCf2x%2F2bANrxZdtnh8Xtn9DKigYqFUdcOnXOjxaAIXdFbMtKOddSQ5v1GIzVTSdRTvU%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365376424730?_skw=PSA+10&amp;epid=19055872407&amp;hash=item551221cb1a:g:y6kAAOSwrm1noEIL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2XVsRhMZfhkWvXWwVhwN%2Beitaq9idzhZdjqrt6n1RJPATVQEVn2ORBbYF90eSkXqIw%2FgDkpmUNOTT5GrHuOY%2FPaX%2FCpj6NkdtrhWjPv7LtaT%2FSvX4gfSEq5QQtiT6nd8WZGuQr1mvgbgZFfK3mTmpOwHLt6%2FzTJkchwK3ID6oNq0fIYJG%2F9Mb7sZVSAoi%2FdV5ea7sHi2zwJ7tG9wly3xbQT3udLgnxSPjjFWP5gNOTfy40BtfLBHIOnB1vlvCW%2F2U1zIHPanNYD%2FV4Qz4oJ4%2B%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256798884214?_skw=PSA+10&amp;epid=14074448035&amp;hash=item3bca680176:g:11cAAOSwlwNnmrZA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqObexZpFTWQn%2FWkAVe2gFY%2BLhHpYnUt9qVwzJngHpTAtYh2VXdDsjK4pI4JW3i7fNMdiGmMrvQUqT32AgSb3C6VEKICi9k0bo5fLkwNtJrDRmZxQqMBnmVp0WcRtyHzjC5ApYdYePly%2Fy5dFVO04k36JG2POk82u8aGqG7KA7p0ipgPiTGBoXqGUOq85bMomyvNUpjZ6EdQ031h1DXYNfix8m%2F9WCs3eVIuh6DH%2BE6XNtr5fLTjCs5iTwB%2BNRB9bpo4OV7zLyt2OLCwcztcrw%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/256798884214?_skw=PSA+10&amp;epid=14074448035&amp;hash=item3bca680176:g:11cAAOSwlwNnmrZA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmy5gGH2%2BJU81opFTO0F%2F8O0uwMJeN2Ri1QaRfyWsK4eyRVvL1GlUeaTFV%2F2E4fhOBp2EzbjewlFoM%2FIyhiv9EoFvJC7b%2FLX4vngmcVzrftMy4AUediQGXv5epqA9l8YuoPmsEdZVqW2R1mUlv5O6z9P1TAQPZstsEu3w0PiUu2feuVs7Q%2BCeJht%2BeJui5E9FB%2BEsT0%2FG%2F8WV8yYPAhPBHmiQCzx0J1MbJ9%2BYvTGXCdaA%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366850931?_skw=PSA+10&amp;hash=item55118fb573:g:QngAAOSweQ9nl-IJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKllfl9JixQOWCWokkXJb%2FasseEx0%2FY0lzDLA7OHMccd6WhLT%2FJuaiwDwT9U7rQJmFD9s7xzjLPRIWxCzzNUQ%2FDxq0IrTmmmBdlr4LJvrDVrzFT8Adwmitb%2B2s4S1MhEIYZ9QtG27L%2F9FwbJjTGd6iPSK2lmWT2lrqXnWJOItZL6VAUCuumfkQ3UA0IbFTSGAq%2F8lzR%2F09uwmLX2PLdnf%2Fovf2A3mZjRJmYETKJTqhimPPmRuLXemEgcnDM7o3kYI1pUAoV7uNDx2NotufCuDhQO%7Ctkp%3ABk9SR9r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366850931?_skw=PSA+10&amp;hash=item55118fb573:g:QngAAOSweQ9nl-IJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkjXw5ztbM52FMQzT3DYMH15NgKpqFro8lEenPgBpVhF9A8LwsYymm4Q5EJ5CHodVCUSnEWsjCyHEOtZtiRYZDRsskNJdRu7QjFxIQ1WEYDC9Yjd0UK0mJsP30ozGUEQXmWiTyYzJ0RCRDHTTQwEbi6N9LJBtIFam%2F9J46C7A325BYo4piadBHbTs1AG1wpJZ3gSygFF0b%2FHvZvfqGX%2FJo2nS%2FLhKWyTj8o9%2F8KKagOPA%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866419727?_skw=PSA+10&amp;epid=24055891920&amp;hash=item5a4ea3e20f:g:K-gAAOSwAmZnl-Ir&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FV9tlul6WC3i2ckg%2FMgjluOlEp%2BV1ms2dSrNZwD78K%2FpyZkeD49DqlVaQcP8wNGKaIYaJeAHuQAm0VRBrDk0Yq6Qg3lnr%2FUL%2FGT9IHrbK%2FvJF1oUdVzu8Fk2kzELp5KsVj6W9U6fQqZ%2Bl4fDlLV%2FNTlGayGFC0vCtzbvOR1X5WX2mJJxvE62mXgmyf%2Fnx8ziGj%2FREKwAO1k%2FPtSMVZvkyxMOOEHBYB4c%2FLu2P4NerYA%3D%3D%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866419727?_skw=PSA+10&amp;epid=24055891920&amp;hash=item5a4ea3e20f:g:K-gAAOSwAmZnl-Ir&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FV9tlul6WC3i2ckg%2FMgjluOlEp%2BV1ms2dSrNZwD78K1I7oFjeKqs8FnhbjJYQfu%2F5vAFWaiK%2BhQW5Ac48LofxEhZkVRuveFmpkbpS1TBXEJ%2FiBLxp8fB5K3rZCIc13Sx3ACjUhuhwMh7qpj78V92qwbnwC3iTBrlhaT841OuC6lZfuqbQXrj%2FPC%2FNcy9rQ8wwTkw%2BxmnJd2%2FfM%2F0%2BJAr0eqQhTtHLsPVN1tSygH2ViQ%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256798872528?_skw=PSA+10&amp;epid=24074261021&amp;hash=item3bca67d3d0:g:9NUAAOSwKzRnmrRd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmVrKcbUjPAwkpyaP78oqOmiShZ9ZxlGVDZ7wwnS3wmRSqoJvasuE9O8CGyKLo2p7IT6BahgDMpxvnnpVcWkTPixytLYkv0PmyypdFk51FkzGzexb0UyDX15WYVhCxFV1E0OeVF0ts2iOvOTPUUM7SZjxqd76kOII8WEdoTQX0D2Mqz0h%2BJuuGWYAL%2F3ugw9EZ%2BTgXHid1gHm%2BdhpVHTuvM8%2FpejlcbA35ll%2BOKEf31bqOxQyAWF4FwETwKCt3KuVr8s%2BFd4J0RudJ%2FzuUpjaHv%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/256798872528?_skw=PSA+10&amp;epid=24074261021&amp;hash=item3bca67d3d0:g:9NUAAOSwKzRnmrRd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmVrKcbUjPAwkpyaP78oqOmiShZ9ZxlGVDZ7wwnS3wmRSqoJvasuE9O8CGyKLo2p7IT6BahgDMpxvnnpVcWkTPixytLYkv0PmyypdFk51FkzGzexb0UyDX15WYVhCxFV1F%2FDu0Dxc6VxvH8SdklU4i2BlxVxTq3mOrUn8z9KPla5MPGGTaQVAXLkoey8hTPB9BygcsMsD9UJd0HfxFrWWzQWwkinQGxVOli%2BuuPcHqDDnyF14Kk%2FrO5LW%2FxKdGDs%2F0f9HdPg%2BEI%2FsxOMANIJ4c3%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335796363068?_skw=PSA+10&amp;hash=item4e2f05df3c:g:wg4AAOSwmChnoTLB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkwjnAzupFq7jX0h5tC%2FHOzL%2B0Y1IBqNKRhnlUWaVvSb9VPno41P%2BGiz1qw%2FUpDUpumoOPhwpOVREO3GYeXAz1B8fE0rhXrt7CTh7y%2FiCR25%2BRbnEwgpxbukpI3%2FL7SWWGJfzguLOlnDWh1DxYjs0EVKKC59nQspcMx19CtZGc6Vuot%2BI5pW%2FEESPMm3tis5Oz%2B5v%2B%2FdeFAef0EjFylGw3djo6xR%2FOX1LLLpRWwCWVipWVisY7uyrm%2BCoxuoxgbboLZiYqoQswVrIcyYILI%2FyDp%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335796363068?_skw=PSA+10&amp;hash=item4e2f05df3c:g:wg4AAOSwmChnoTLB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkwjnAzupFq7jX0h5tC%2FHOzL%2B0Y1IBqNKRhnlUWaVvSb9VPno41P%2BGiz1qw%2FUpDUpumoOPhwpOVREO3GYeXAz1B8fE0rhXrt7CTh7y%2FiCR25%2BRbnEwgpxbukpI3%2FL7SWWFCMQ7JzChq5nNAjP1ZLouuao7jeQEFHMnYCM9vRhMVrk5ad16Yuzr6FjwisYHEfrPIEZtdGWe3bUIpTkCBYUBzG%2B6pvNz4YQ4LDuxd%2BsVmLqOfAf7r85QxhB%2FSbKqvMaX2F9u8zjXaWOxgNvAN4qSX%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947423078?_skw=PSA+10&amp;epid=25055924424&amp;hash=item5788366d66:g:ESwAAOSww6dnk8dv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmB4GZMdOdALCfJTjVSNKY3C15Csag3p6M0u2mnR9twtPsn82CQ2rqWcPFCS8uFXNgugFypq3f00JvEMWZeLKowIL9FB54X6e4LDBAWKbBA%2B%2FN7eEv2Kd6QtAgWi7pWmyVlrFPQp5sjalUla3girMAS4DDa6aErwCgwC1CPTC%2BtX7fl--gadfagU6tg%2BhUn1OIdGcM4MjVPiMx9y%2BxShUXhdt%2FKNOufnLg9MG9mUSNauirNyTqnDKex2Td6oTY7YGm8ResYFR58u8WOxNr%2BrJEz%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375947423078?_skw=PSA+10&amp;epid=25055924424&amp;hash=item5788366d66:g:ESwAAOSww6dnk8dv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmHtnK2qYhnl%2B7Lg4yrRRI3DGEyO8GVnrsdBvN%2BSTIq4W43eJUafcgHSj87gJ7JBxyGM22GLa2a5h03kRxoYysci56ssHlUemOAZdGeOpKl4CfI2sgLPNBojWZRYO%2B8%2FWink2ew3sPKgb9V39fkoSg6d%2FwTARMCf3nfvJ1qn4wE%2BaK4rk6k%2BOypCTVV%2BSpof3HJyhsbwX%2BhdsfVEDfv4FwoX3nB063k4hpkLT53czLCaw%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855666914?_skw=PSA+10&amp;epid=27061708432&amp;hash=item5a4dffcee2:g:MVIAAOSwBZBnk8Z3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGagBPyVWVj%2FgOL89iFDNVF6fsLf6U26Qt%2FX8XQRhAgxvhU3rdZ5hGFncu53aJEQ9zljpYkOmbZ8scZItpPfqeneWEAkQOfMTO90wTJvrBxTgP9aemyIDXLro%2FfcVyyCz0P2A0UtMYxaygRhXYh5HPUzlnvRbe92yD8wqEFeYNAPeDTezo4WQOEf8mumBpaddLoB9bsqaduf2CPq5mGPoRDjP6Z2mT8%2B4dSr87M2PAnoIbHxzfmoru5eRrjbBUuVJIcxBm8zS%2B%2BE4cndCqik8I%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387855666914?_skw=PSA+10&amp;epid=27061708432&amp;hash=item5a4dffcee2:g:MVIAAOSwBZBnk8Z3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGagBPyVWVj%2FgOL89iFDNVF6fsLf6U26Qt%2FX8XQRhAgxvhU3rdZ5hGFncu53aJEQ9zljpYkOmbZ8scZItpPfqeneWEAkQOfMTO90wTJvrBxTgP9aemyIDXLro%2FfcVyyCwYy5hjZaemataJPS9KpEQ7%2BAyYcwVWP7Wl2AV1wPBT2fmqZA%2FKQh38RqYJliQfe96clMNpRoOJ4XkCDzhe5K2U8ApxUtdfkGZsinwvbdzOoeSt0F4eZVPMYreZ%2BKHEIoZLlETZuNpI7%2BpAwq0DwVtf%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855672301?_skw=PSA+10&amp;epid=19064634254&amp;hash=item5a4dffe3ed:g:Y4cAAOSwIvlnk8bl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPb6doP5XjxvxIGTsJ99qESZ8cNn36csFdMmHEACKu%2FrhU64VBZDyIVWp3GktilOlHrzBniejyadZcPT1QwGW6OoecjARAxxTMQIAsZlhh0ceSgFHZKbCiUJLrH236V8WD%2BpB%2BzLIQXoir74W6sC9ibQkbFp9ppOApF1OnH9Es4aJGSL%2BCpbO9JoJqltmjuyTZTSfztvk14ttfdYiD4nBmH4qkMX4TrILtUmQNix%2Ft3w%3D%3D%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387855672301?_skw=PSA+10&amp;epid=19064634254&amp;hash=item5a4dffe3ed:g:Y4cAAOSwIvlnk8bl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPb6doP5XjxvxIGTsJ99qESZ8cNn36csFdMmHEACKu%2Fh1BoISwMHAl6bftZWR%2FmAOOjpud956dZjLvTdxdVM4nBW%2BAC7bXl4hBr%2Blk6KtqW12fnwcLHlWcUz4ESC2czxUJw88er8xORJ8AayoVqefFQoPTzSepCq0QRe3Pggd6idBAz4kMeUEle0uxrOi85M9tA1rHf%2Fjo5KIhhWdBOY6XEnoV%2FGPRizC62Wwj29Sx%2BQ%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855675377?_skw=PSA+10&amp;epid=11060315541&amp;hash=item5a4dffeff1:g:sLYAAOSw8uJnk8dI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKndHUA93SALKfOoBaMhu6IbWrhTQP00GNC0zDlhk8Nj5PRB8ypGy%2FrVzM04wKP5ZjJPIOz%2FvAOS2BzKd%2BosPKRteijHGYdpC%2FmjvgUXG1xvsxr2FCpQB7OXWnDiT52GAHOaoXyvhzMlsjiVfC2X5i4gvEDioo7D44bGs1hWelOPwU%2FgeXrfrWFvrdvL1MMRZEDysE1JFbPSc3bFngaXpgCj5Gv%2BhSR%2BxeeX7NEiPHEshA%3D%3D%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387855675377?_skw=PSA+10&amp;epid=11060315541&amp;hash=item5a4dffeff1:g:sLYAAOSw8uJnk8dI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKms7IYrf5Z8NSaN6RQOVHxfIY%2BtsN3VCaVWvcbSqdlPuJHfobPJ0dlYt1skSWqzSezLzKBi1IMHdagPypeOYqMzyp9D1KQjo1JVvLIG%2BSIQOleIRIZOv03j9doGQ1HIOtm3%2BBk1fzdTqhB%2BGDFR9BrcogfXixWpty9E564mbFp5kJNxXJIX2LTCc79fKu05SWCUHENtiolvZUR9yxdZ42mzFAAYFQKgkvmL%2B2UcvC06tYyTF4zUIo2KKUn6jFSkLYUi92ib5hrAZekoeB%2B09Bfa%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366719301?_skw=PSA+10&amp;epid=24057799348&amp;hash=item55118db345:g:yRkAAOSwe~pnl8MH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl2wc6NOdM9KDTiKpOHnOplzNm4wq%2F3TmJ48lBzwcJKtwjvI9HGlyNKqSFmfGs%2BUxLNcABOwqtG8FosTniDoaE1j62jWd7ZudJ%2F7fdAP%2FQdu4AGiOKQpqdTNplLXBzyUj9jUi7HIhUdSwXBQcmza25ZYWwKQ3Hpmt%2Fw8t6yVLc5164XMO%2FFhj6u2NiVMOAwz29Ya8dYWLcxH3YVklIf6y4V%2B%2FrkKroAn6daPY65ulAI1tN5J%2BQwecAQtEbc2hzxJgwXMeCjP9w9RRB3ZsUUDmNg%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366719301?_skw=PSA+10&amp;epid=24057799348&amp;hash=item55118db345:g:yRkAAOSwe~pnl8MH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnNqR4Hq4DrsUPBax8je%2Fk%2BWWiazZlITNM7RsyWqh6nxmyLPuPT%2BWIjBcJTMqukFCusABhVKJKxdHGCjTvt%2FPhgqkxOV%2FIZqU9nncUH6GzlSXnu87%2Bs--pLOaIAK62YWSwdaXu7h44AASpSee%2FclHO83nejCqQdGeHnATmqXHrCBls734mCiTeTmc1w%2B%2BVP6F4vurScVFCPUoQdVVJqu%2FrdDUYIMbKYza8eqXrS5VMD%2Bw%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366719405?_skw=PSA+10&amp;epid=4055939105&amp;hash=item55118db3ad:g:GeoAAOSwsvVnl8Oi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkoki4wXh6W8bDETW2dEjZK7cmMyQDQrb7Tf%2BANI%2BrSWXsdHLFNzwMJch6l%2BCTuVrCvuVH7uNZYLzAllXOmyuM494PndGrjf8I6B3J767twD6VSLbKC9havYhOQP3qmEtotSivGkazOyi7FneXwZFVXYCA%2B4X8b8PFzbKsPnpacHHa1F0OkE8xE%2BnrXZOJIRlK2gWYCd%2FsSunPEl66h0LnLzg6OZql6wzqEJRF0rwkEEQ%3D%3D%7Ctkp%3ABk9SR9z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366719405?_skw=PSA+10&amp;epid=4055939105&amp;hash=item55118db3ad:g:GeoAAOSwsvVnl8Oi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKly1E7WXomHapgK5xvMRyjhCN8UMKCp37tVikdz4QaC%2BQdJymLMAlmXcDEKjDDQbh1QvZpXeSBAiQs9J096VzDcoutyuCfkITi%2FvVfZOiQGm2EITzCPg1Smuc9E68CZi8RR13eYRaxlzY0YyjX6Is5mVtcK%2FbIgvFI52xd7ltAv1gdUJYBMB8dGjrVrS1y38XKo5k8T3GUfnc7w43Yzy4gwwD1jYmhIPP8aXQ%2FoCOs0VT0J5vJpxZFuE5eTth8P5i8pbbARn%2B91o3cD5aihcHZp%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954159904?_skw=PSA+10&amp;epid=11055922499&amp;hash=item57889d3920:g:Bm8AAOSw6ZJnl8M6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm6hI%2F8iuZQdQIAhkXbzSrStR901qxfORp5mFD12Rm6xO2N0HCpyHAURROZ1puU7mP%2BFh%2FqAwGaUAx9ilooZqAn3CgqDfnqBKT1TmlJBTjT4c1eI1nGY24h%2F7XuRQnaohz%2BdVIKD9Ql76yJGic24pTrDJ6LEzTfhAqZwZrZIjI9ePk%2Br1D2jKFvqKZRIwFeVhkrQOPoYQbNjNjxmDJ2xDI2xufFQtEIAnNNOetaKI9Sfw%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954159904?_skw=PSA+10&amp;epid=11055922499&amp;hash=item57889d3920:g:Bm8AAOSw6ZJnl8M6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm6hI%2F8iuZQdQIAhkXbzSrStR901qxfORp5mFD12Rm6xOsEzx5BNGtfWcbEFbOSCPArlNI2vLTS1R2s%2BuONVJdOG2CVLQp%2FXxajMzLRuZBkvfkloD3V2I5MyX94zEYvfDpv%2BQHK093qJ%2FxHDbu3pIJt%2Bty%2BkAjzfikstZvgBPEV5hOEPbk74T5%2B7kwC06mSCzmrJV%2BWtzJ6p2LNt7vPwtf0llHGbNGL74%2Bz5o46NwU3qw%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954159968?_skw=PSA+10&amp;epid=22055901182&amp;hash=item57889d3960:g:o7UAAOSwUx1nl8NX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmaYl7yV9VOZEpy9tIZLhIx%2B%2F2YMLdZvIH17x95Fz5ratrJSTKyOfaW%2BDgVT04rwV5emN9mHnNPcxa5xLJFGELgaO2Lnh9fnGSVaXAmZhjOOPs62sm2AvVvnNZU5c1pZhNfsaQCkmpSane9GbqnRfl75TyRmxMYWM0y3PDQv3pyZSiIQEb7wVYPxjfV0w7x%2FcZQWCfNCQKP3snmHmNRY62zcm5lZUe3MkOIJM5B7MDWng%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954159968?_skw=PSA+10&amp;epid=22055901182&amp;hash=item57889d3960:g:o7UAAOSwUx1nl8NX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmaYl7yV9VOZEpy9tIZLhIx%2B%2F2YMLdZvIH17x95Fz5rat0RnamoijdMCsbqgR9mUEZw7CeNA0QmPf7fnYLp3RxARC%2Fd1a5D1pkot3awRPWsypIyGnQ0xARjYsoy21lggLVFrVwuS8B2h3R8O04UHh%2BHicrCl%2BGo6FC2Fe2P3%2F7a5zQlpHhUaF1V7m6uw00WB7VAXILPGmnq72DzTt2O1q0cGYUwwkymCLdMUv7J4Ja%2BtQ%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954160101?_skw=PSA+10&amp;epid=11055914220&amp;hash=item57889d39e5:g:0sgAAOSwnbtnl8OH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlc3msc5GM3x5Jx1A8ymoN1zRoDDTIerN0iIy9w71qTliazzghwjEQW7WhUfZU05%2F8TdBJLGMyX5F1VjezuQOBTEAD3X%2FywL%2BJrT86uu67ya85uIVDWUh%2BqTfSBLD0H0L6Cql40J9lmykTjPU5O0xnwPUi5gOv60nWGoUr7mMKyUgwOx136ZOjsEyKgcl4Ny2FvTyYPBWb9LC2xh%2BsrKgBHs6DibYMdosg8wmfFq7JHnG81W89iMeS6dvAtIQzDyI5m71kiv8XBh6cipHBR40rv%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954160101?_skw=PSA+10&amp;epid=11055914220&amp;hash=item57889d39e5:g:0sgAAOSwnbtnl8OH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9CrH%2BzU%2BHl1kA%2F1po27TUsZssbApY4pc%2FUFnKkwYm5wpWilMcgN9tzDK01XU749Gn297zPXkdxw5EKUT5vUfTETdwlVcTqU06rPl9X0tqPCbSHmsI4%2FWk42SOYU0zfVUSW1jOEcTtgAeybpJGrZCzzY3kfqWeqylGxpmkdooV6enwKb07utyT%2BT6TN%2BgvV3GyMbsRGFddAjemeAzko0IB0CYe%2BMbbKfbBrMD4W1hbmw%3D%3D%7Ctkp%3ABk9SR9aKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866189096?_skw=PSA+10&amp;epid=4055957099&amp;hash=item5a4ea05d28:g:3~oAAOSwjF5nl8DJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnS9j92MFhXYOBujrUY2wh75YgPjZoMlEo%2FHc36PyWzJA5Nqd6CxTMgBci4oa837h0zxEI2qvntrwUo7KppSvM2N8eUblVtk4dpJM%2FyOczeA%2FVoa--JfSE6WxK20%2BZ2%2FMc1OhV%2B7wVKtcvCRqn6WtZsemt9zrbQLl25ubtgbJy%2FzbVKKjpWzhy4ImBMO15QRb1X4%2F8vMIsYPfX%2F%2BeFjHHcXEFGnafyPiIEKBMWhmyEchg%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866189096?_skw=PSA+10&amp;epid=4055957099&amp;hash=item5a4ea05d28:g:3~oAAOSwjF5nl8DJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm7J0qNxoCEYrDR66kbr%2B6ApoOXOXFWOxgdi%2Bn2xZ6DxYoBY9bJ6Oo7DuY%2BnQu9ruKkSS57dnbjJZZl2VM7CVC94mHcK5U0vDRhnZ8K58IH6qYz1vq5srX2TSv4cL%2BhHUr4aViHwPQUJKTffuxlN6UqkuYNujn62fKjzyHHtl%2FA0r8DP8CibCJwaf1nEv0AwM3Z5DyEvyeWzRJfdUhgj%2B3yTlVvxX2fmNOPHdPlCDKYm%2FZj%2B%2FjC0S28EL%2FygbSro96%2BlbZpZRST%2FhwuCboc1bLg%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366704834?_skw=PSA+10&amp;hash=item55118d7ac2:g:Qm8AAOSwyhVnl8Bl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlou549ccj%2Bp%2B72sNEl51f38vRgSSFhV49%2FkFbxxmjII7ZElx2smGOP4aB4fLm7%2BlF3J2oJ5esmjrXDhftX4VYJkFG2ulrMtavZGAny%2Bddh16xIDQYm7sWY8rDTE3hI5W6zPbeVJW32lewyOlEk7VrzGweyZi4qT5Fstvsiv%2FuFLjacjCVPi1lU6SCFWeGrbC7rn3nb2zmxv3K6QqQ1z5ov%2BvnR3hkvxJsKBleQt%2BRaWw%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366704834?_skw=PSA+10&amp;hash=item55118d7ac2:g:Qm8AAOSwyhVnl8Bl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9D92PTmp1IkWKOlAOF4DGM51GIUkf1%2BmmHrKE0kmpoTQ2hf%2FNZgX%2BoH%2BscZtlgpB55ar%2FFDyqEJ927WCU5REZERIoiMfRiouTXPbtSejHZGjXpP8Zdd4XLLiaIFtFiS8lMByIfRTcqSe%2FD%2FujMZdgUPCzCKYs%2B%2Fqon%2BCZyXcEHx7KRB2CkAL9lMnJrL%2BOh%2BoSj3nCGEkZ5r0F1fwTOu3ffWTBna5FGUWmXhnf6Qu1tN16okccoFWvVqSG049siK9p57hecMU9SmJhOjxS3Het%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366811789?_skw=PSA+10&amp;epid=14055985213&amp;hash=item55118f1c8d:g:QZ4AAOSwrmtnl9qx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnkPb519tqa%2F5LHMd1lbj0dDklJl2IqMdLCjvazdc%2FVTXcsBcdfnN6e2VOjf4DtVJM%2F3kLiGrdzMft3reo1rHEjRMCigF23hmi%2BMttpEAbIzuQJwJTJihefYCqbz%2Feu39%2B3TAMCWBv2iHHqx%2Fs1gtToD%2BgUH7gko8hcuzMRyh3tQ4OelXByg0bi9T5OhrYW8RgtD7sKRlihiIs%2BGbIoln2lUhifYrH4tO%2FIfuTcToS74w%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366811789?_skw=PSA+10&amp;epid=14055985213&amp;hash=item55118f1c8d:g:QZ4AAOSwrmtnl9qx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnkPb519tqa%2F5LHMd1lbj0dDklJl2IqMdLCjvazdc%2FVTdsXS0GZsyrotzH99DF419h7O9BYF2phzxHy37jCVLboQbif7i%2FvmJDBcote52IniWR76pnrTwDtICWVAFXP2FTqN1dcv5UW13LApwiEG8unJFGhR%2FkGTFyCpRFDEYU63c1SM16KUCjIeeKtmdqpODZ2SaUKyVvF%2Fm%2B5JSaYEbELmj5pQT%2BfXGzH052MlR59lA%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954382538?_skw=PSA+10&amp;hash=item5788a09eca:g:8LkAAOSw1dRnl~SG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncSBmvwMseRm2V3PJzQXTz6wuOUreUua0JoZiW%2BJRuUJySeXgnxchWujXKboT2gwuX5KgRZbnAGQxpsds%2BuzjhEEYGbe53vA54%2FJrSe%2FRoN0fqImfSaEEJl%2F%2BF87fUwOMT2NpG0n0czXEk2UQXRuRK%2BppdgA02u2HkDkIm%2FpNWw5YmwqdTZdfEoOQHhQkmZJB9i65y2bKp2kfcZkb8%2FCzWIzDebd6TgLkJRZ%2BncYaLkw%3D%3D%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954382538?_skw=PSA+10&amp;hash=item5788a09eca:g:8LkAAOSw1dRnl~SG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncSBmvwMseRm2V3PJzQXTz6wuOUreUua0JoZiW%2BJRuUGl%2B8cGwDkCKUAwtlewoQ3IRZg75FrKAYRgfLYw1MxZjkyklGTkPD--jWAr7G6H3I6EzvPfEP%2FO01kN4eHdle%2Fe1QzNsCHJ%2BVnz4Tf2zwiNRMtAGfY%2FxeLzMNZEsyH3Ptgem7PUENGN6RTLgXBl4ejxM%2Fo8dpdkVM0FhuSR8UDkh%2Fj6ap%2BYXoEiqObsbKk9v%2Bg%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866195952?_skw=PSA+10&amp;epid=17055885408&amp;hash=item5a4ea077f0:g:~pEAAOSw6qdnl8Lp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMQjQsK1Y8UjSU2nubAGj3X5L7vGA6CciI3nMD89C9NxnJuBI3YZJoC%2FKXNtcjINgyiHMEVykXTHl%2BYTQ%2BBoTAFGjcZDeaKgJwiEh00aHsTTOHCSk3SuoJcKNp3hhl%2B6C7VgltdmBUGdwFdFtnzOcVXpMRnT9ZSCdNiZOSd69UGbMWv8faFw4UvRP3I%2B0j4ksOnUlBV%2FH3j1%2F2T%2BEKL%2BkSTRL0HrcPrgUYxSlOKV8swpXErbeFGoOlQFgKUUVG66VBsOYAxfp3orw%2FqvJDeGwz%7Ctkp%3ABk9SR970sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866195952?_skw=PSA+10&amp;epid=17055885408&amp;hash=item5a4ea077f0:g:~pEAAOSw6qdnl8Lp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkx1gJUnWBzaBtoHmAVq7D6bppG8aeaF8ii7AM9zqwKU%2BwKEjSPpEXi%2BeAM5%2FCzidnMZYsfc9rsBh36rtJ8jboh%2FIvpFp%2BO1KxxNaboUVH2gi1wDuY9MbdQfLzdIBZ3Gj32BK5g1tm1ANQzU%2BVn%2B%2Fk6qMJ5tuBX%2Bn4M33xhGsqIXooK%2FhHeNA2drFaukzCZ7vkilW1vhWuA368QQaut%2B9t3AGgMRuvva0XM5n24m%2BbX2A%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066998714?_skw=PSA+10&amp;epid=28055995672&amp;hash=item474303c5ba:g:JCYAAOSwt8tnlr1Y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWXJ8bkxtkSCjjHOb5TUtWtYhg5pmmDZkcwYta30o1auhIZB%2FWIa4Le6WvMTFAGVGQGJIbE69aEIzFj%2FAmMdTvJDIKRZQd0q9CLvjofkAAmqyjiwLJYySfi8p9Wk5djCl%2BZzdEuuqgC0ovw%2Bmz%2B5CACDWaNT88w05lZQnKt9Wpr2pe9hk2DOBkEXp%2FU5m%2BAYyBzqxM9XvauUySuLSjuqDWU2vt9oEQ6L75a3wbTOGKHA%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306066998714?_skw=PSA+10&amp;epid=28055995672&amp;hash=item474303c5ba:g:JCYAAOSwt8tnlr1Y&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnGkB48DP8rGoqQLokDj9XbgwUeiku8NbiHv1muXS%2FFQikSuOb1Y3F8IruIabF%2B%2B6uTqLcsBV6uUp0mQyfyTbmZPr3vtcHoSocW9EoQSNb%2FG38d7zivgqI7koWN0rLs%2BTw1zVLRYmnXxlEnjYrrTPry%2F5zD%2BlSXoUXa9t9JQXb5H7soDfQMgE1SMwSwuOfb6DCeUKwHq2BOqlpJSbPlfkyzJDWOO2H1rWHm%2FQwiLBg%2BGv2QpVeXC5LqDOhNdAXJ4Kd6HLzud8M5DXjjWcwuf1qJ%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276829298544?_skw=PSA+10&amp;epid=6070895510&amp;hash=item40744fdf70:g:eH8AAOSwtb9nlBYY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkhurdkcPEY9v9IgYt%2BJFgg2P%2BKxc64iS7khhCSup6y7FKh42u68Lia97%2FGeCoGYBvh2jmUrnnc61OWOOJPhLTzcIKkf7bVvfYwx0%2B9ZSqPgkK2H17KVt4qc%2B1NFPtz6ZXh33eUw%2BGVecvLyQ3ROhgPRcj3nK%2FFgsF%2BXkTRS2%2B9wQuNPXAA4KXgPwkaLM0l%2FUXxCsTeWv%2FhgxWY7TqVgfS87EJPsj6eIlmUbouhp%2FelBQ%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276829298544?_skw=PSA+10&amp;epid=6070895510&amp;hash=item40744fdf70:g:eH8AAOSwtb9nlBYY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm2dMpnvtfJ7%2BLfXoxvAlqsAx0QtWm8gpuctRnr6uCCyFOJmCojbpN6Zb7EfU9ffZgeiRJcTuinKDg9XNpuwabfjOJqH4vl0LgW6lvtNfSaWsqs17AbGFqz2z21P1PUHfeV12n0E2K2lw7VlT3iFBBFuZbV6uLjFUGNue3lOL8kv7p7tXtlQCgrfmG9cP22a4%2FacIUo5Fmjk%2BhJOdhnjfuylJlYZL%2BhpI3C6SC2Yckn%2BDmIIQ7Uvl671UXmYBu1Fc8Kp0ZFnq4%2BZUx%2Bh5HcTZ0M%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373543?_skw=PSA+10&amp;hash=item40748e0d67:g:PpcAAOSw4jhnmB5a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkkTqEeHCpTWC4SXLEfAzjmsFZvBRufGqSIYgTlzlYSCpSCQkFu8cEHgvZsLXxXv5qB%2BxR0TgTWzYtKidQkqpBOxGrSLcQhKTbvd8jqCUYm%2BX6t79n%2FbH3DKMG4FChw4Y%2BX2Db0JqOoUfskNx4e5FGv2JQAbxnFPVaYJGqEfrgY9FS6jjtBMLZfKcp9721CNbrCgaruxKv77nUz14%2FemLIwm6bZbPpvmutSnKYjj6%2BQzA%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833373543?_skw=PSA+10&amp;hash=item40748e0d67:g:PpcAAOSw4jhnmB5a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkkTqEeHCpTWC4SXLEfAzjmsFZvBRufGqSIYgTlzlYSCsJ7BOu2Fgdrg3vBECvNNNf8hdAYa2XKL%2F6lvNLuQwiC32EdRxWoA6Wt4%2F7Rdv2c8PQYYdJ4yMMi2yMFHVD3cH3FR1o%2BSsWCBTRbyg8c1HgMg5MVX2LvLVpoJ9lT6LK%2BHpcWSSGTtHMfbk15ahEZ2g5bYNMP51pfa14MNDxlwSj1B9FX1vNELkiwusVtkAb6gQ%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373522?_skw=PSA+10&amp;epid=18071767864&amp;hash=item40748e0d52:g:QKkAAOSwIvlnmB6l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmVeuKhBDOtF9WoAe5z5bVo6a6AEaJPKy1Ymmui4SKnKEKLjMzH8XaXuQ5NOC8%2BDPlcuq6ktenko93B44E7ywJscbCicU92sTVvZsfiF89v%2Bsl4HjwtvUFfnaUbXAeWK3qG9RFEOurz1TinXZ4mUkSH2wmuM3WMyr4YN1KKqUGpveZ1bVHnNpC%2F7Zis2Hfu2y3%2FPZMl2iSGo3vPEv4U8c637OpaOYzap6TmFlP6a8apEg%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833373522?_skw=PSA+10&amp;epid=18071767864&amp;hash=item40748e0d52:g:QKkAAOSwIvlnmB6l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0urFy4Harigzk7JBlZvLutLRSQODzecC%2FrGf%2B64B%2B59BIYm9ragX4sRevHtDh6McMKdQ9ttTAttbXBW0A0D2lZy7YpN1andRG6hZcpPRf7rnKY%2FNTjpxG2JaQb6EuuXCp2%2BcecDe67Eh3Huaxw3blMhuwGvV2unJK33S4oyR%2FNF5GHPU9nxWRts%2BxuS19rMJW4hVjvwpxBZxSpr8UOKvsPVnv08La13JkrUTlyeRhgPffKPdbNAXVI1Jb%2BjIGixtAUd84d30dvMlAv9ySlDgP%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911096135?_skw=PSA+10&amp;epid=15072423158&amp;hash=item2b84c4fd47:g:n9oAAOSweSpnk82G&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl2pECMW0llymkxy%2BvQ2UrxEMV2jOFvr6uCNbJyv7ObmRVHyoBnRGziI7TnoLk0%2F48%2BFQWdY2FxzWs0fZcDY7e4yU1RGg4AKMmtBjogVOsDAswNmsSHl7tgZo%2F3GftMmWAjCJ%2Fgp23MNlXmTnmsA8B%2BXAHxUvmeMGiP%2BsBOQRHgCYbmR--GrF%2FXXMxnjgw5rDCW3AxT%2BlQ59r1kyBDK3fCDOgKebHPkmAvh1Ifjy5lmTA%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/186911096135?_skw=PSA+10&amp;epid=15072423158&amp;hash=item2b84c4fd47:g:n9oAAOSweSpnk82G&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl2pECMW0llymkxy%2BvQ2UrxEMV2jOFvr6uCNbJyv7Obme8ANe1QuXu8up6By1TsDaqv01WGFFqCNN8TK65YIBsZ7kQtJa5jyauVbLdITOcxL5u0KQRSqxCzbMbYsQ2gi70h5lhrDZUX5ND2gabR8idWsdTEWXkMZOyacAehjocYNF8oLUiRdCmXsKZ5f7xv%2FknV9TFbO%2FN3I6EC8bpqwwWBrF0VP80h7QZwluHGLP6teA%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306065821967?_skw=PSA+10&amp;epid=15068301843&amp;hash=item4742f1d10f:g:KlIAAOSwviFnlgJ~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkSo26NbwhLKq5mTvURAZVfD4DIV3Nnf6OMHxm79Rquvm7ifZcLddl0PEQrh9e8faoKuSz7FidyG0D06NQ2lmO2XamksblnOr4vwYs%2FhAtzvA8r1jKhukcg7cgAOy%2F99PGcuG4Do%2FEwnSPC42EviMm11FF%2FuuxftaJvjzFBnngjJNz8L1QiSgl87iTY%2FN3TmZZ2%2BTu5Ao7PK6AFvvoOCgAXgmoQcBDBXSyB9VQz5H1R4VZpHWB7f1dPY8zEdoKUSfR92DOJkUYp3Hga54wlaL5%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306065821967?_skw=PSA+10&amp;epid=15068301843&amp;hash=item4742f1d10f:g:KlIAAOSwviFnlgJ~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkSo26NbwhLKq5mTvURAZVfD4DIV3Nnf6OMHxm79Rquvm7ifZcLddl0PEQrh9e8faoKuSz7FidyG0D06NQ2lmO2XamksblnOr4vwYs%2FhAtzvA8r1jKhukcg7cgAOy%2F99Puyp7NOwINJgp%2BWhDIZzy1XoHLrva2YF2iKIAqdUnnv6%2FYJ8jqK6GFnd%2F6LOag%2F68fQK89dnQTcWmAtcetBmbY1ch%2F1J3ZgfcXfhMYTGKSWv1E8%2B%2FNR4uElFfLlyqePZydEMZDlcqrsSxYVWX5qI1h%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276829075711?_skw=PSA+10&amp;epid=21055994334&amp;hash=item40744c78ff:g:YdYAAOSwxJ5nk9cP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2Fse1479WCyaEm44sKzilG1hllNRrT7Ucpy4t%2FhKDHraxoXpbkQiRH3ZdzD1KpGhm8V%2BdML9sWbPCZFhh3U0ZgI3TF5zWXeVv4S3bgV6vuBvFB0UDBRWLKtiTRkCI7RiU0Qz6Z5Uf3yenRtuRu%2FaO6bEAbgTfRNyN3CO94uFYnYDMxs4Rq92bqIDGjTN3hGgMMImbcGg22QZWlJkwIE2htPnybHq4UFrtqlHgGUdJ2VUIxojcNRllHwOmL2IQiX7M56SsvIwFH8CZlRZGAqeW4%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276829075711?_skw=PSA+10&amp;epid=21055994334&amp;hash=item40744c78ff:g:YdYAAOSwxJ5nk9cP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2Fse1479WCyaEm44sKzilG1hllNRrT7Ucpy4t%2FhKDHraxoXpbkQiRH3ZdzD1KpGhm8V%2BdML9sWbPCZFhh3U0ZgI3TF5zWXeVv4S3bgV6vuBvFB0UDBRWLKtiTRkCI7RiVHSDmZs8RppZPhS7QIKCdpIgJ5OE%2F9lCL9mwpS7r2vNErYVjnQ39vQJEnSdw4NImEZT7u%2Bm52YWOIQ6oOyd7dbL0tyGeHcMxlmPca4EuQGylljdQxi6UuaFGR4zn7oNnBJaH6i3hxDI1Pv8KXcu1xz%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326403371719?_skw=PSA+10&amp;epid=20055987143&amp;hash=item4bff2832c7:g:QQYAAOSw04JnhBy9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5%2BzrvoH2q2VmHBMASyEmlhCqB8xHi3SUXQNHfQD3xmDSSLCxKtZUVooj9hVwQ4Ci1ZkfnemNkTOKrx1grtQcIMfPHGvH9qZ6GX%2B81Fs2O9fLv70EV%2F24gc13NsNyJcIisI0HQG%2FeCE3C9Lk4ppV3oV%2BS7SkL3uSZJXopRBi4yhRVO81%2FVmQb8E74Q36fnIqP3NJZPmyIN2wyMyoBb7h%2FKTgD2H5Ha1zKk45K%2BKdycdw%3D%3D%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/326403371719?_skw=PSA+10&amp;epid=20055987143&amp;hash=item4bff2832c7:g:QQYAAOSw04JnhBy9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKtjhxu3a1L4g5%2F6%2FlffCOOtmjRzpM7JgkZl0GEjLxQsnfrkRCRrSpqyfoIuHpPZ3BeyXhLevZ%2BrABcizDMKI7CctWB0HG%2BEC%2B2xdn59z03Pky%2BGxhGPckzeH5WXUgC9ro7WXM%2BBm5ZDfkaLMBvfpDF4foxSp93aYyVzzin9XVyprMUf3x1tCtiGxz2RC3FMcKPbaiGH7A9dsf20ZKsfLFec2EnsDHpoe58wbDjSp5jPjd1k%2BvI2ixkH0aiqa3N4zcHrNbJh7ghhvvjKaXIEnV%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296962572719?_skw=PSA+10&amp;epid=21055937994&amp;hash=item45245941af:g:HBQAAOSwkjdnm~6g&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2FzXsrRpJ4rI8GMQTDxnCqmY4jqi43FzzYgCU1wiOjIEikmBprCFSo1iBq4sEAn2YvE99Y6LMXcagJ%2BB9YMisTD%2BLhH8vG7seW3XHKkUNMXVseEaNp3FTSW0RAF86UciVXmlX6bMeq4PrdigCdtxNEIN8C%2BHhG%2B%2BzwiiHz8RFdoESQgf2IRBiuKi60R%2FRxHq4wZ8Y%2FGbYb8BlBS%2BA25UqO66LEir2OOU%2FVoUTcdWBhGj1fyQzL3rQCzytxUyKhiddFgQjCZM3BiVCYwb4BkrXY%7Ctkp%3ABk9SR-D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/296962572719?_skw=PSA+10&amp;epid=21055937994&amp;hash=item45245941af:g:HBQAAOSwkjdnm~6g&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6JYp%2FyRTwIBJqjxW8qvRr5Zu6QenZcClxwbU4UbOND42s2WZ3u8asD%2F7AlXfQY5Qhg4q%2BGdq00yV8xqmsdUR3OVPl8r2TZBhCFtQvwAfyITsDMs%2B16ei%2BPfI7NPeRoH7cf1auF26Cxj9%2Fx%2B2q8ybfGcVTQmtexeW2L%2BXCPBgs2ydZS4NvDt9sLH%2FC59KzKZBMG7V47yCtEc45mmLP0iZZWjnLpaWQ3j8idp7UK9%2FbWQ%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387872588761?_skw=PSA+10&amp;epid=27064267108&amp;hash=item5a4f0203d9:g:m54AAOSw1WRnmnUv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnErhv9BGZUeTCS9JobgZ0jxrzI7FCr6PS80P4dUom%2FUS30GkSOAVT%2FIw73Pd1v%2BDt9lX2xKdY8XS7AybEBkyU%2FJCxyA%2Fop9DDrWDlDXk4RMc76kiu7EW925AiQOpFsFraT17fFbAFNEWhbaP3W8fLZ8LueNo8Po9WyxAcXpmKFph3RHScDc3gBImsOkmiy0P6avzAkkl47gGRQOAJKLg%2Bsk2%2Fiz%2FY%2BCrlNmqQ4L%2BwxYYyYZOXTO2ANdCbgJVSJPKe8yDbg%2FoMf8s7KbMSUEDf2%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387872588761?_skw=PSA+10&amp;epid=27064267108&amp;hash=item5a4f0203d9:g:m54AAOSw1WRnmnUv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnErhv9BGZUeTCS9JobgZ0jxrzI7FCr6PS80P4dUom%2FUS30GkSOAVT%2FIw73Pd1v%2BDt9lX2xKdY8XS7AybEBkyU%2FJCxyA%2Fop9DDrWDlDXk4RMc76kiu7EW925AiQOpFsFrbWUS0mempbwv2VfuFjrxPzWxzs6CcpuzHoBi2SodFqSO0J6%2FS7CLW4Z2xgRlwD0j2vvvJLbRkTkxZLsj4I%2B2mQDupOOEaSMn5s4pjdVXXILetcmWYdXPvUqpB9P2BcMzQmCHIlfVq1VmeERy0GNUkB%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306069506404?_skw=PSA+10&amp;epid=5055976567&amp;hash=item47432a0964:g:ZQYAAOSwY2xnfGH4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncmAdkl2eBP%2BeUA3RV%2B0T0Ly5Q89ZMqOZVxll6yUOMJIE4bgLLbrWMoQovI%2BxMdmVpOY8jlZ3w7xz9wcZz3iNeX%2FSo4c0kb9HJOqAy0WKEusCkYoVzTZhHS4C9XeFShaQj5Btq0CYo1K2j036sUOzmBHSu0biZRNNyKAc8bQP1Tq%2FKO8OW3T2ul7mNtVfYzRSIZTdAdc%2BmpX4ReWtQb9SgS7fLwJ84J4KMHVhW8lXnsg%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306069506404?_skw=PSA+10&amp;epid=5055976567&amp;hash=item47432a0964:g:ZQYAAOSwY2xnfGH4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncmAdkl2eBP%2BeUA3RV%2B0T0Ly5Q89ZMqOZVxll6yUOMJHDZk568%2BCTEJyPJK0BRkeg0Rxs7kMJLFaETTYGOgvvQT4mt%2F3fjwzB5jFfQ2YOgLvS90i6iKA5sm3s0ZnbE9a4OjIXUXcZeyAlcFCffyGM7K0CEArAvHQhZXSz55bylPEOQHJi8dQOad47KY5tskENaospcwHK72tRqYlMYHn7ltoX1wn2mS6KQUKyoVk0N4w%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335791945518?_skw=PSA+10&amp;epid=3069571003&amp;hash=item4e2ec2772e:g:qIoAAOSw3E1nnRQX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm8TbbysVmfSms0yXUFZ%2F43fWybVeymE4FuHrMgnmpYyCQ0Ku9Pm2yfJUO0uNBy%2BmqDciMSMdzHlQE3WhCxktgh4nTfIKkAdtPzf9P7MF7FdBTn0n4fHOf2zdtVudPLcL9b7HQphCwGI3TzRoFupLcevNBwdzEJMF1yoqeaYqlqkU20AO3VeVvTtd6QcxgBPSzSSqByuWRTGHzqHtAki1HO4H5QCL0ZJI449M5C3svXPQ%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335791945518?_skw=PSA+10&amp;epid=3069571003&amp;hash=item4e2ec2772e:g:qIoAAOSw3E1nnRQX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm8TbbysVmfSms0yXUFZ%2F43fWybVeymE4FuHrMgnmpYyIlVQV8oDHkrw8OJrS5%2BgzJY7wf0ehMji0%2FFlSctgyyI6ZlmcX4zWVmTHHQKk%2BCsmyG9TllAXrbw8rXpBjvUQFzwQ6YCIg72B0LKwC4dMBtimcPbJC2fJ%2B2gSTXDNma3574RkOPVY7B4Q1sswqeT5VJMtF5XTGqlYPM6DcRrQQvdSMtMEOqI4HF5qS8MkCYCpA%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066612092?_skw=PSA+10&amp;hash=item4742fddf7c:g:0QYAAOSwmZxnloFF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmXPYzfeMQMpHLTCBawc0OEFeepu8e02gyPK9yXgZhb00q%2BmrFA4x2sBOnF5IsVngWghjYqbgEu74aq3N7yL8AaAUktOBIfLpvowwIswtlvZzBwhyH%2FBUHzCBYF3UgtfmXuDaTpuo1sDHHjLkGd1kuJ4SD0oxV4ntJrKq5c1KEBwSh0LDiRk8K9LABvUs65%2Fksg%2FZBrlx4f%2BGKZSPVJOvQUSJni5fKLJhMnwBKPPrqIjA%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306066612092?_skw=PSA+10&amp;hash=item4742fddf7c:g:0QYAAOSwmZxnloFF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncsKfmSgGczWISFOwV7XT61XeVD%2BGCWqn6K6yx0%2FGneTEknNJAUUrbL5tPOydlmVMLMfyOHR7ND0%2FpbuLS%2B%2FL2Ml6AxcTIF3sSt0rRdQxWpU1w3xUBUqDI5YibLRtfjO9T%2FrslJd3LAKO4pHA4bXST7zNaFBa4M6CF6GZgT3cqJbSGUjdTCD6Uv0X50mOm6sCowohX4blqsRNLCfF6i8wuAc5QWjwdwRVreq8nRiR3gfrH%2FkpSap5gOPykJLdguj9df%2BtV%2FlRQWXiCZIr5nZf5%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176735824311?_skw=PSA+10&amp;epid=26072429681&amp;hash=item292646a9b7:g:~8QAAOSwv7FnXgt9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkbOvRuuZCxK0e3T3LGGvFo2pm22aF6wBNYpctlBlnaS%2FViRipSrTtxf%2FI3O3WYA7sFFzbmOc2553h3Gg0Hzwx%2BM6t4hTeXaYIZ8Lr1C0piblLSBSkHg%2BsTlsEDKQu4Jf7bi9Tv1hqMkopEYr%2F4l4SGJo0FjthYuxgn2bzrEnDzXYW%2F4fiRspnE6l4NrqD1FF4GKFM%2FsUUMU77Jt61YcZuiMTYKYZiWU1BjJRT4X4Sr5ujli8ddtAoSyqxkVh0QgzttFD9O7km7p8bGWRC%2F8pYr%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176735824311?_skw=PSA+10&amp;epid=26072429681&amp;hash=item292646a9b7:g:~8QAAOSwv7FnXgt9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlqYxOT3lY8xAsgYE8xX9LGY5lpa8SbP%2F00JY3zaQF0LsrLO2LfSU1%2Be6mhDxMb%2F4TpFqW50Ej6HqgKYozxhmc0a5d4e8sMFyxrbZ6uEGbew6vogo4LpQ4fsbZBPi0TcDr1ykZAWpZRWNY%2B9z5CgTSEiyeYeH%2BomYN%2BF8T1IknbBS%2B4ZSPyMKEGs2aVu44y7z6kPTSr5gkwG0SvRxupa%2B2L91uvTCKyVzDw%2Bi4DDvdg0w%3D%3D%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066134424?_skw=PSA+10&amp;epid=16073745796&amp;hash=item4742f69598:g:1j0AAOSwHSdnljM6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlUgcbtDMrSo%2FnFlNli2IxlkkvkAMa0rqBkTj0QGZ8eK3MQ4DVHwQwpz2FC6ee5CDj49K87lXCyPUYYu%2FgR6CMrj3OaeX%2BjoZB1T%2FZW0CiINIePTCQQQMcFQ176fmnAoGC392Ged76sjzHofXTPY4J4xDpFDfs%2FcjVWxVQx2kvunOBdnyTF9O%2FSuIBw2KF0ig3HZJfZux4c8lFZtD1REA9YsUFnYCJDBWFwQVDxDQ7udQ%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306066134424?_skw=PSA+10&amp;epid=16073745796&amp;hash=item4742f69598:g:1j0AAOSwHSdnljM6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0PXmdPi3YNXlWobqmA3brR%2BYnHid2pBCHHWMrhfPLBk42CQ%2FbTUliMPmIiDKZeB%2Fcm3kYrrJinHHQJSVYQqy33g8eDPc9Gsls3qW5wyB%2Buqpd34pGZ4U6evTi4nN11Q60%2Fdx84nLbED4V6Np3IRh7TrlNaieccLGw8nzMLEsiKqIOwfsxSBsye5eRZ7x0GcYf9Ssl8sKh3%2FYtc6NJadbVkGzC%2F0TC2k1uw7SOnltsngJX5tN9tQG%2Bkw3CxRh1F%2BVSm1IwpZ1%2Fqu6%2B79QzNNxT%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186927016875?_skw=PSA+10&amp;epid=18071767904&amp;hash=item2b85b7ebab:g:YCwAAOSw-JBnoP~X&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUbE9a3AZiqz27H%2BAT85j1Q5kRlgD%2FSAtPAy3Xsc0GI2GsdJ9YDsG1TF%2B3AGN2L1IseMCSQsS6jMDZwqgaNUy%2Bh1DcdV1QsGMFWkWmE2ZaQsocjjLLpOLNsb4va5mag1Aupuz0hsURJtenZjvSbMMvkFEFLsCezOEDUd6cywJ57kd7nZ6s7xfnqOa0F223%2BPzZ8TcDR3elLP6EVfwRsmnM5JTRdMuLWAOqF%2FTdBXTyx91QmOAAi6eCXOGrGjpzncvVu8NRrZ2f7xBKnDZutQ75%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/186927016875?_skw=PSA+10&amp;epid=18071767904&amp;hash=item2b85b7ebab:g:YCwAAOSw-JBnoP~X&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUbE9a3AZiqz27H%2BAT85j1Q5kRlgD%2FSAtPAy3Xsc0GI2GsdJ9YDsG1TF%2B3AGN2L1IseMCSQsS6jMDZwqgaNUy%2Bh1DcdV1QsGMFWkWmE2ZaQsocjjLLpOLNsb4va5mag1BefjIyqGg9Rgrl%2FUoRb80vgQT2imrbm45rcZaonafSNJfV%2BbkqwVucIYULmCA69gm5agMUmFthBP1d%2FYl%2FSjWZw43Lo4n%2BHdlOTAMknE5VDOtTmUVOLWPdtNGh%2BYxo6GeMPF51Zh7VbTa8fJimQyTq%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126877446781?_skw=PSA+10&amp;epid=10073765277&amp;hash=item1d8a7c327d:g:GoMAAOSwdVlngiLs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlSuFiKLeihQky%2BjFrlXxhXtzMCNPymXWTEyU73D5x9HVx8hN%2BTKCqq7IsN7kB%2Fo1JT6QtUT%2BpOvxaPrcwVpHsuT%2BnNO9KYdGN0qFeoRY8p2avNnRkeIKr1MKgosfKK70O2R0%2BXMOxhdDVxr1zR9Gvt%2FMcL2MyGYN0Cle3sVifnaoqcEeHqr3Kt6z%2Fmsdo6vRsHYU5qlySnWA6ojOFTk4HVQIy5se%2BmtqRp5ihwt5DX4g%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126877446781?_skw=PSA+10&amp;epid=10073765277&amp;hash=item1d8a7c327d:g:GoMAAOSwdVlngiLs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKeQlWsZ%2FMmeak%2FFXgmG9ZVQcbHZ%2F7RWj7GyzDJnPbc86sNs%2FJN8uumZoaTuBlFwlemOCMLy1pAy0QK3CC2sY%2FoXYiuDdJ%2BqV3fQnKtHQ71pLXtHI4qWbZPF%2BtudaehvY90SB%2BJD4KpTBH1YNWTWjY2MEHgTBBovO0vW%2FiRNZOrt16jnyIjbSrxpPgCvsnv5q93qiC2ZlwEOdH1AWVKJA%2BlZ%2BvStEoFdUSaglgMsFQkKRcMeyTICtZaZqrAF7iYUVdnGNAav06w3lZI%2B%2FXtFMk%7Ctkp%3ABk9SR9iKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326417363605?_skw=PSA+10&amp;epid=24055973023&amp;hash=item4bfffdb295:g:V04AAOSwTX1mUClX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKns8vp4fZEmx9p03F9ppNc%2F0jWkhbctfHa03pyNS3gjjCrZgd2G8Xqe8zZAkZsUjc8G%2FZN3%2Fzu7kC6zOCCVbmwwnccsQRQUV3qwkeXWm6SITe4PljjCVmC9rIZcovDvgLC7BJFL%2FDwyRHMejtUGJF9taDOszun7ON%2FGHwGgJEfKi1HrX0kJB%2BgxcuhM3oaZ2j7Zs1SyaghCkrjC08ZaWDqyoPToD8YbJ8i9RLqoKYmlaA%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/326417363605?_skw=PSA+10&amp;epid=24055973023&amp;hash=item4bfffdb295:g:V04AAOSwTX1mUClX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpxUZB3DIiGLJTBVgdGSAi03IZk4Aetb52%2Fs4TbLSy5MSMEfSLrWn2e0GDVfzHTwRkXdFIhBY74pczFoTdNuLy%2FMisgyfjqu6aeQHWpF91qFz%2FLnM3ep0NPZCDr3j%2F4LkRSNzMw18THwQbbVCovClOrJP35mKN3E4Rq4dYCLa82e0hAAyFdbcmJ%2FvoGO5sEoiQ5KSiq8p0lUTfRQPMtzkteM%2FWBS6DjTUOK3WvEA8pPBqQ4jonneJWFWc22W24Xuvk%2FHvWzXClJlnoQtTqV7y4%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866872609?_skw=PSA+10&amp;epid=2344952434&amp;hash=item5a4eaacb21:g:-bIAAOSw8V1nmBZq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkiNOffD44c%2B4ach47Etv93f5tu7TZI67bZ%2FZmVaPBxxHeX7xcejcvxs%2BRWj0slhu6Yeg%2BFu58ojVCULvcJI70XwFTwoCnOBAmL%2FM3mkyBemnYWmuhBXBEBY4Cu%2FQMlhhoiKOQJOzSd8w6JND0Xe1dbh9Jb9fQRo72Ivbtib9eFccW3Y%2B%2B9xbR0Ku1SLKWX8iuQnWw6k2nPhqh9VH0x%2BnrMvKaoZlwurh5Y7A35AAkj1nFyFAL1S0WUAYbyTQ46w1nv1nSqwtQFMDKLhB%2B6dzwE%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866872609?_skw=PSA+10&amp;epid=2344952434&amp;hash=item5a4eaacb21:g:-bIAAOSw8V1nmBZq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkiNOffD44c%2B4ach47Etv93f5tu7TZI67bZ%2FZmVaPBxxHeX7xcejcvxs%2BRWj0slhu6Yeg%2BFu58ojVCULvcJI70XwFTwoCnOBAmL%2FM3mkyBemnYWmuhBXBEBY4Cu%2FQMlhhqecLtl%2B4W1lOZBLxRITEFApmw9SV71q6yxkTMeBdPbBD%2BDE8CzLMCto02vny%2Fdpp5EkWN51aBJaXS28V4wTwJ7eefjZ%2BHUKNwaY7u8%2BSR8T5r2xO51ivDRcrjH4nyLv2knzCgVesesVR0EFzUrxbAs%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387872764755?_skw=PSA+10&amp;epid=20058774644&amp;hash=item5a4f04b353:g:vZEAAOSw6-Rnmotg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm1vOWR%2F0VhyNc2OPKkEe8b3tviAlx%2BhT87uxGWHW%2BoQ1TqMuaVtcJBYG85fBK%2FcpDK0z67UfJeLWlJdWlHgIqoGLkcc0n9LtWjjRl0DVtojMF0vXBKHVmM9lRJoXud%2FVR4eCUBJrOZoRZY724Yh4QVHqS1RBlCmhOubx%2FB6%2F1fCw7lKlGZI76rU6GyRJsZxWdzu51dITdlGFySnJ0K4DNv%2Blf%2FFSshietZ79UPj%2FrG5w%3D%3D%7Ctkp%3ABk9SR-L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387872764755?_skw=PSA+10&amp;epid=20058774644&amp;hash=item5a4f04b353:g:vZEAAOSw6-Rnmotg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1R3mzUfgijMXtebl%2FzigIe7EEOFp5nWEnsnLXGpsB8wRr3E%2B3TA2Vk0s0zRtdbxXCkGh8IEXU524YXTBCG9wodVEtvlZb%2FVVaD7dqhO8n2rXmw5dxmxdEItX1tVjL5U4k9r9P8AtaieDFa%2F36kXiLguQPvzHPxF4lZsKj9dbsPO1Cw3q6Pr2hryE2KEgbVCAjcH4oZAT2YLkpkpy5102ZY3EKUg3ySmcgFiOORs6RgrDDefEuwCIiqo9aSeiBVpwUP8rcsAglJd3g3igq89cp%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066132643?_skw=PSA+10&amp;epid=22074263443&amp;hash=item4742f68ea3:g:dbcAAOSwHYhnljLi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmOp%2FybIgiVYCMIFH6%2FCe83c55rR%2BRVKufJLPFb0DbCPDM9aAwu%2F4EljGmX2Yz%2BtHiquR2L7f8OU3SXSvCaw6oBr%2BtvGYTXJjAHvUe0od%2FuJpW0Ydg430e%2FhEbY1sBfHtczUO5%2BnxZ5fQQgHKebY8kyR53VrYnVk%2BY%2BkSfssSoY3FOryAT%2BdP1E8SqvxZKKHuLGczVUYDtak09dATZCVNLlitK9kvmmuAbMtjsXQXn%2BAhfXyWUKd%2BFY8qXNIm2ojc3UyWyA%2F2gbQy%2FRpFzEXGk5%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306066132643?_skw=PSA+10&amp;epid=22074263443&amp;hash=item4742f68ea3:g:dbcAAOSwHYhnljLi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmOp%2FybIgiVYCMIFH6%2FCe83c55rR%2BRVKufJLPFb0DbCPDM9aAwu%2F4EljGmX2Yz%2BtHiquR2L7f8OU3SXSvCaw6oBr%2BtvGYTXJjAHvUe0od%2FuJpW0Ydg430e%2FhEbY1sBfHtd1BeBBEA7%2BWP3vZtGZNzpC%2F6WjucSwRp1xeKWtP5qOCqgBCCFNokqtTCj3DSbeNYD89AlszZG2yAEr5C3D%2BgobzYi1%2BMig1OId41Xc20s8APCJms3RLZsGIu9aBH4zjA278Mh5LVtZdYo9tMvJi24L%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146219704559?_skw=PSA+10&amp;epid=16055965681&amp;hash=item220b5fa0ef:g:-BcAAOSwXR9nQ~~H&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkb%2BKlvFo1phvYmOCLdj06DqhRBet00HpT%2BQxp2oPhddhwLHcHvAhZYX40QDSjlgUr0QaKxfgDF3mh05lDDAKehKQpvXy5DZS%2B9ognScWfruPGJXGsihHlF%2Fz7OJ0zFQ9tLXW8wZwkMvf27OW7mT5MimXlW18l8eboltOdrI65AnLIA3YBso1n3%2B2smrpTwtkVib%2BlCm0Zny8l681AwQIG1KdNRqtoCLPOYSPx%2FEZuFaw%3D%3D%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/146219704559?_skw=PSA+10&amp;epid=16055965681&amp;hash=item220b5fa0ef:g:-BcAAOSwXR9nQ~~H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlHxtktOMsnbMmLxuCtANNnCMmItqR85tCviEYeWob%2BKeww6mkIAZbj17C44NRnRY5fdnh9AN%2Fx%2FdQ%2FsbHP72%2BqYoNOLmatBCmax47zWkCZbKmGkSF7%2FuaBxyrrLQP0DcHY1eTb17iJIMjtkSqMO1T0znnskbs%2FO9r9P4VeKRTTmDRBlIG6slzfVLx8MBeVAtd68LBFaNwEsLZ5E0TBJcq08zxU2SBMYe0g0tZscMDea9gJu2sbwsRDae3EwPC4nlMo7YHW64IeFiNX9zPq6mAU%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952665?_skw=PSA+10&amp;hash=item2ddcae8319:g:PFIAAOSwPylnlT76&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKknuA6zcU%2FaHDHxnptUoL703Q%2BykmUDS7OW0kWSW1Rw3smY3V5mCIyM%2Bze656KZ0gACAe1CCJTWWrYlAVaie8uHVGWua7hQODjnrJ09umEtRT1WzQn9nyNgq3K5qNGarJZhfditHhjd6JxZzWJPmER0%2F%2B4nVlEXEzJkK1%2BdJswXWJbvN%2B3I4fEfrhcqAw0C0k5wX8R2%2FMyVz8VETnRAePQd%2FnrrJXZ4DXMewWdiB8O1mNF2Qjp3D1BAShU3wsVnBtJPSvtoBpYGqcL7x4WDaw8w%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/196975952665?_skw=PSA+10&amp;hash=item2ddcae8319:g:PFIAAOSwPylnlT76&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn1DheZe%2FuOSEm%2BnH46fEqNclwGcb%2BuyvIC8ShfWeD9BdwOE7TMJOol9%2FMq8oX3V3SAghmUvCIhS9J32ng5fCi8crg8D3ILMVvnMlrgSVvGbw2GyEEAoNKICVcv7E7Mo%2BMzTtUODQEp3LZwUPFdQYobF7NUwnupP7XxAWf2NRK1e1IHYFNLbWLivpgQdpAD%2FbzH3hcXSsipKTx%2Bduv79qcleQ5NN%2BPS4CT6g%2Fmw%2BBLTyg%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335787442541?_skw=PSA+10&amp;epid=3072571685&amp;hash=item4e2e7dc16d:g:5XwAAOSwemhnmD5s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmVYu%2FlJ1jAHYrDD0pZoMGDl6BEqB2MgsF%2FJJKEPOv1x%2B3JZQAtzNieJjAyWlvdyzIGw%2FGcNyMgTEBvyqqOqW1zA11FcI2W5Q2i2OBIpoQZ0URIGc4qRuIIE%2FDMz8HubjuyFE6g4QmOwvKLtq2I%2Bpe9TINvzq5Bl7LZMHTtVHoRAa4oobXu4%2FAcTHxPaoX39lFvgiCpWTno6ezTZF76Gc8I0UiHGofHgRecXAHvef%2BB7dnwanO0BvtNJ%2BngoLmoon4txZ%2B5bD0JcaCnNugnv%2B8r%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335787442541?_skw=PSA+10&amp;epid=3072571685&amp;hash=item4e2e7dc16d:g:5XwAAOSwemhnmD5s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmVYu%2FlJ1jAHYrDD0pZoMGDl6BEqB2MgsF%2FJJKEPOv1x%2B3JZQAtzNieJjAyWlvdyzIGw%2FGcNyMgTEBvyqqOqW1zA11FcI2W5Q2i2OBIpoQZ0URIGc4qRuIIE%2FDMz8HubjvbqBzbFWL4lqwvWDf70p4lOIWuioIRphFt9jYKqli5CpCcLNlFcH8%2F9YL07%2BHZFG3plBuJL7c7uCUd1FdKPHe5e4JYwMj6FaXw1PEhkJdhjaYmJ6tHQQdm0YiySM5DA%2FD%2F9Rh5G7qTJtN9ODjdiEZj%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286247852469?_skw=PSA+10&amp;epid=4064158290&amp;hash=item42a5b399b5:g:XfoAAOSwm4VnUMnl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl10wvgxV3wmPFg5qcud426YvDhA5UFSZsi7n6F6an8muE7%2Fx9FUM82oXTjB1BQlkT1FKGi3W%2FNjdbckFa4JI2dNsKUC0LceMNDz4NAsAc6oJLx2nuNAy6lFiRnk4UzE%2BuMYroNVkvs4t1IdNhnP70BIg3XN1U88jRgX%2BNjKBUu8JQo3m0rrgvUDKVlEDa8EVKVCgUcYwJZ7Pprs3gpFKOWIxTWOHqpmcw%2Bk5UatEqzrw%3D%3D%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286247852469?_skw=PSA+10&amp;epid=4064158290&amp;hash=item42a5b399b5:g:XfoAAOSwm4VnUMnl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnkI1pprlGLBnS%2B35Br9UFrDtTyvVY2cpRygpbUGqiKAQXBOZxXWb124gFDDjMzmlj7ji8oqqyKddxV4lq8CHZb717uXetumUuXZprpNix3oRq73zFjI3D8oZGEKHkRZ6wBKCCtOgUvcilFGakHIKT5U3Vl1jSeigiUjSoEU9HDLRA3CVz7k0AEVdihByyPl2Prq8lnyhPG23t27pSTJIhhEO%2BinFgewfO1pME8ApcNlwQfWQWwH3h8StF6MQ1gwvbObMjkIt9TTzam4dezm1F%2B%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306057540861?_skw=PSA+10&amp;hash=item47427374fd:g:OZsAAOSwm89nkP6w&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnGuebQaBa%2BTUlQGbsX0hcWV5lfRAgnerSNxgYb8LBEjPLudiV2qG43JwwdAT%2FeHKCetne7cRbN8ypW4IwyMhziYxBI6dA3CXQ3E4tYSMeGbUTw7fDnVsO%2BiZCfzzWzuh62OhlRoQfKI0tApKSuhYbyafKuAbUk76bwBrRb9%2BKN29rPkb4D6kW8waCtKGk5HTf7cz8cLFxqLqqRJaJp%2BSTPyRrBC0rLrBjRBsD5ipVm%2BQ%3D%3D%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306057540861?_skw=PSA+10&amp;hash=item47427374fd:g:OZsAAOSwm89nkP6w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkkkH4dsCx4%2FDFNZNIavbLyY3F%2F5G9qjoPDV4tXGda5NHxKq5tJZiqUCl%2FySv96Ybthl95mtwAVCE5ZxwuxqnURLSiaFT8JhRIqcM2xNphPqdGuAD9xnq2gmFJEzIQkIj4FqlhgK1JK61imJpV8Vv7%2FGYtugMmMVb7wHWedUCO2HNOSj7ZfVwdNmLytvc0IQuFemglgThffLeo%2FQECoqngCGd7ZIoRYARXnvlBHtjDF0m3TcpsrF6tjUTiAElJ8nizlhjCDrez73EzvE9rjFwXn%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226580796670?_skw=PSA+10&amp;epid=26055940360&amp;hash=item34c14494fe:g:bVgAAOSwzwFnoXEI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2BQpdZHRf3G4VXkr%2FdqBEBBkDmpagieiXBMDm2P9wPnMps0j0DS%2F3KS%2F19N2brYLW6CA5wiT94StAeaV9ytiwfbyNDm6OgIP41Rjm4h5gRoiSbAeBKlv84nd93PlmeR%2FGKmqgibai1mYdMaH3kPmS5HOej451aoF0chGXYvg2S94sXIKXGtgKBthXjfBZAmvW4eSqHYGRF%2BRNhpyI%2BYC7UDCnPkjBtEAZDxJbjQ4Bc5OYW8MoC6bBxFAD2cVANiWtczjOVNeaxpBgozQG2%2BpcI%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226580796670?_skw=PSA+10&amp;epid=26055940360&amp;hash=item34c14494fe:g:bVgAAOSwzwFnoXEI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlLWz%2BNAqYddIg4npzKYyvZlfXElfIajgvWoSmaBXJwlgOPx3BzDl7r7xIE0QzltOPpE1BBbFrkEUIJjQQvcFPp9jJP06yxe9Na6oysQJ9MhJajPnhXgGqifevEHNha8m%2FV7rFT9PpT8J18v8KNocGCRcm%2Bwcj77J1d%2FROm7s5kPHpIFge89lANIh9n9l1ysUhd270ZiLLengUtd2R4SMuPaom%2FXd%2FO6TTEKM8zwKiW7A%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805191533?_skw=PSA+10&amp;epid=4067688736&amp;hash=item292a691f6d:g:IuwAAOSwfEVnk82B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCfYl%2Bdi%2FfucUqTXCWLnspFpZ4Klxh8cKStW6QgKYbQ0mDm%2FxpHiWA4Q%2BT5qGJHHlFRdEV7EwmHuer97Lgk5kF11ZuDNHUTGcbfMkoKC8VIxk2G1iQLPJ7kHcLQ8nQtTY4IuiT3cl3AoaQ07RIVu0Cn8fxdoClsxfcbhSkrcsNKMCyuZAAXP9uW6rE52vZ1XF4WXsxXC1m%2BbZ0VY7MOAg8f%2BLXteEdsqWcTWX6giF%2Bdw%3D%3D%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176805191533?_skw=PSA+10&amp;epid=4067688736&amp;hash=item292a691f6d:g:IuwAAOSwfEVnk82B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCfYl%2Bdi%2FfucUqTXCWLnspFpZ4Klxh8cKStW6QgKYbQzUC35W5PHNVbnmbt%2BbWIqFdOrC5fyMkLKKOCIOlo4o643kOJJ01bxxH52LPcMiu5vE73h8alOjp1pspIHWYGoY8ZsN4tXMNLPdmnh8T8xtdmA8CbwW%2Fdb6REd4SgyNDnXJPJyoValr9zRqvuzVLytBpDepHDWO83Dr7%2BnV%2FnGU4%2FJEJbfggF47QLCpQuRLzeQ%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306065976613?_skw=PSA+10&amp;epid=13065168125&amp;hash=item4742f42d25:g:Sw0AAOSw6g1nlhyN&amp;itmprp=enc%3AAQAJAAAA8HoV3kP08IDx%2BKZ9MfhVJKm6jahZ1bN90saBK0DlrkeqdBv6y6EBKCcqajjEnAcxJjWPWQT7pD4Uuja6mGbXJghiGeqs9ZgxHqSK4d7oHHZ8MF7DuBE5JEUoa%2Fq%2FgsZhHsUeSFqbsHrzDn4o5LtV5I3HUDzw190xcA6vkmr1enMvxZSQoJyuXTrNiKIxUZ5xRgqXyi9iCMeoGxYk8LfbPKFRZhKSH40svuwCwo10PfRYbMyCS4zOPt5QqasUCsGDRUv5AwSmf%2BSQ0me251gbS2UcUFz59WPtt9wzr1vv%2F5sQZ5FULfStnh6OMCDrx5cwtg%3D%3D%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306065976613?_skw=PSA+10&amp;epid=13065168125&amp;hash=item4742f42d25:g:Sw0AAOSw6g1nlhyN&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKlkd5EZp6ZJvmz2vXTMSxTL3rFs8kNkAfveHTsHy%2FeZqfHA10GJF93yajI%2FljILLvuSrbO2NQBUKSKD6z9Ja0VaK65h3pW3UUTtWqES1WP%2FBlTWtH%2FOAseuBEejp2VN0oFYbJg58fdNpOsfr7iYbnYdI9bI%2BOB6nKuKtg6Y5gKFMPMa8HtP1P4nUNnmvRVAXw8jldQ0Iip6r0W2iVYPL%2FUTB1RK%2BkLQugptushxwMPSridDHCydyETQqchDTw7Aoz0%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866926978?_skw=PSA+10&amp;epid=6065185771&amp;hash=item5a4eab9f82:g:AZgAAOSw2dpnmBsh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCKDsnhQJ%2F5UkGizvun%2Fj73a5iNMiJ7UrRZIBDqJ0%2ByYOVAe1Et0nD20ZRUPs0yAlhV5YMMj5y2g%2FHh8VBe8KFs9EsDSGHtjbyWFs1a8UYTkdSA5GukwoLA%2FP9Lslay1u%2FshtoNo%2FU9pSuRwY%2FQmDBXkNFOkGR72E7ZmAAmFJZmyKGT11h6UjtiiDfS8HXh%2FZ%2FRNJar5%2BNAQkd84PSCOonuu4kqEZpHpfzqs3qmLwqnrQEg2v%2FVHi7pEntsuOu5YTsiHyNsg4aVE24teV8R3Xb%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387866926978?_skw=PSA+10&amp;epid=6065185771&amp;hash=item5a4eab9f82:g:AZgAAOSw2dpnmBsh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCKDsnhQJ%2F5UkGizvun%2Fj73a5iNMiJ7UrRZIBDqJ0%2ByYOVAe1Et0nD20ZRUPs0yAlhV5YMMj5y2g%2FHh8VBe8KFs9EsDSGHtjbyWFs1a8UYTkdSA5GukwoLA%2FP9Lslay1tLHnQyYhqet9%2F%2BAq9zu8RQTJ%2B%2BYloHWJ6Z6eI7UyGgkvLeUnl%2BiGjdBrcMBOeD4AB2SxoqjVOZIcl02rC86kBoymplG0efMniGjiMBBU%2BESqGvw%2FEdlIBKZuY1QabzIca31FCwMEF7WdbVRWcHA%2Fbb%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167280624274?_skw=PSA+10&amp;epid=15055984506&amp;hash=item26f2b3c292:g:fWcAAOSwF61ng~Ty&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2B4MPXF2oHd%2BvvKpQ%2BvqqD8KWl17u2vp%2FyzYQpPjLuxbLItO6aZpOVvYScaFmShdjGqZAoS%2FVA%2FRgObGij8sNfzk84h3LwU0cATBNWW9ZCFt6W5P6HUwb7NFatpjQSLmDbQB9nGOo9HpqPhFNIvuzK%2BiXraR3mxD28jRILn4oRxNkn851NHkgfUe6YeSrgB8dlpKNaTapd8%2FPwSeh3GfQK0SnXy2tv%2BFrJxcaj6563v72PwkjCfkGFyHXkd3s4Vl6urWGFUTAbwGhEcOb8UQzX%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/167280624274?_skw=PSA+10&amp;epid=15055984506&amp;hash=item26f2b3c292:g:fWcAAOSwF61ng~Ty&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2B4MPXF2oHd%2BvvKpQ%2BvqqD8KWl17u2vp%2FyzYQpPjLuxbLItO6aZpOVvYScaFmShdjGqZAoS%2FVA%2FRgObGij8sNfzk84h3LwU0cATBNWW9ZCFt6W5P6HUwb7NFatpjQSLmDV0VNWAbgSHY9OzuGax4O0vvQcHWe9wxe2ZKYHKxusRqGbA7T2v0wtXzLEC7VoqpB%2FmX%2Fwe32IbjEFP%2FWc1Nc%2FeBi2rQW41dGJtT2UWcpsysVBY1jnyka2rVzEBoyyOXuOxSkuyJIBO6RGLtk5MO%2F0%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226455556623?_skw=PSA+10&amp;epid=13069566655&amp;hash=item34b9cd920f:g:ESMAAOSwDApnO51j&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmrR%2FlauY0xJpPv%2BFq4eX2xMm%2FaGIz%2F%2BRWuy%2BWTgNyeOQlRZAcvrj2MqMP3m2iQQMbtPx%2B6AjnCyyaPIIynGpgDK72EW6M%2F17YAlj9O7bfUB6zm7%2FR%2B0%2FXMCWrg6X8wfv4%2BVwGBGXUe%2FtxcgcOwVP8SbSuJ0S2Uh9XPQbkh%2BYbmvZLqYX9J392A9yMqZx9l587JytbDrBtut1%2BpcLaO0vIrX6D4bssi7%2BjIgNiwT5P6iu1Xj2Q%2Fo8zh3niNZ%2FBMC%2B2raszJ39k2wiiL%2FnPRVE0P%7Ctkp%3ABk9SR-T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226455556623?_skw=PSA+10&amp;epid=13069566655&amp;hash=item34b9cd920f:g:ESMAAOSwDApnO51j&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkaPF6W%2FVgfKr5eHFUwbIEdKR76t8spejUKRm7Sx3%2FOJq0Iq9RYRhsUL7DPX%2BM1KF7qam5qIUQWO7NEeefKVXNnIs0rzGlEelvqj%2BDtCTD3ossoYXIEn%2BqzlFO67zID021axdQtwm7OCKeLtxmzKaSh%2BgCbF8%2FlO2rgEbA4QMJSzWiGXSsKm4%2F10m95bFG4LnNeSWwMC8feL%2FcqIk2jEbW2xKIkFofHHsImAsFiYSo5rw%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Bowman Mega Box</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Mojo Refractor</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306056341881?_skw=PSA+10&amp;epid=27055886886&amp;hash=item4742612979:g:HogAAOSwEp1nkE2M&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnhLe%2BkB1mKdLYcJ4HpKJZoM%2FDCR6VKIeP6JcnrBn%2FKYa6Cz2mQBIM20nToigUhaw2V9mpsa5uqWVqegfDT%2FqjmIb3pxNurp55fJqhLoW5I7cUW2uH35Mt1AS%2FfegKw0SE4s1CKd%2BG3dugt5Sc81lXeZItLR1oVrBSSQsN3dF8%2FjF45pL53VAysRTCZSKOJL3JEutZVQfCGnY8QelzX0%2FMdfZbAepVOEGdQ7MDee7u6aiNEHfxSTFvpkow4frp2YkJcJ65ieB9%2BzI90hJMDXG8H%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306056341881?_skw=PSA+10&amp;epid=27055886886&amp;hash=item4742612979:g:HogAAOSwEp1nkE2M&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnhLe%2BkB1mKdLYcJ4HpKJZoM%2FDCR6VKIeP6JcnrBn%2FKYa6Cz2mQBIM20nToigUhaw2V9mpsa5uqWVqegfDT%2FqjmIb3pxNurp55fJqhLoW5I7cUW2uH35Mt1AS%2FfegKw0SF6oYli8GwMzSQVq%2FbCo5VAslUuHCe8cR62UYqnUTucargzmH%2F0VWpxi2DJ80f2n%2Fh%2F0P45W02gSEJKNRoJeaHE4UU2SNJnC3nBlqBzEb0J3gqcKEAZvtsvqOMm3gX32eAY%2Fb7v3Oyk8HUzIhWaftzG%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5441,10 +5441,26 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Topps Cosmic Chrome</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Gold Interstellar Refractor</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Ceddanne Rafaela</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>$195.50</t>
@@ -5457,7 +5473,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909287475?_skw=PSA+10&amp;epid=16072409393&amp;hash=item1d8c620c33:g:604AAeSwkcBnmrfg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkJpbJSWil5rz85w1ewcl5BoPq9qmRrB6B4S8VJq1pAHh4fXS59h2zHMGOvYZb9q1QykndlAuGMO0VuV8zuZziJyXhucwKgwyHnDpb6A0XjPJAHJBC2Ty49cF7Tl17JdmF9ONFazlqv%2Fk4gS%2FuXZpTGaTgs9%2B1Ovk%2Bh%2BLIThTLWjOUM6enaaldQB4tLxhah02%2FPyG86y3Y0HnxqmqkJngH2%2Bb8d0TK1r1ptJKWbwXL3PA%3D%3D%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909287475?_skw=PSA+10&amp;epid=16072409393&amp;hash=item1d8c620c33:g:604AAeSwkcBnmrfg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkJpbJSWil5rz85w1ewcl5BoPq9qmRrB6B4S8VJq1pAHq4kd%2BfICyUo9UWVxFVDY9IZDr4pzriB8s8k09wVj%2Fbva9s%2BgMgNgNvOTqG78TIPZc0nEz2r5l%2BoktvI3o1P2HRPjMfxjoX4Fc%2F7iOREJ2Ad6%2F1RmQVj1yrWB4lD3WA7qVcGm%2Bxn2v319vuPZZZwHmuWMc2wrbFlGQzG%2B0Ormkh%2FC%2BoxHw%2FAYP%2B85uJyRM49Lw%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5515,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306056337043?_skw=PSA+10&amp;epid=7060333339&amp;hash=item4742611693:g:NysAAOSw8hxnkExy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFfOG0FeTPmStS29X3iYQ7FqI8LTCZqkuZiaokb3D88oCn4Gl5t9E8SFDDAdSlRELgMUahs8mv7dzK119HDpohAGbko1j%2FioX2cR%2BSPH8OEWxuWUl2blzYPKHcMtQt8gf8MtVXVy%2BQyRe3dEFeKu8onC6c5Rtl760A3BKstFxFJjI8RUWpfBiFEGE3IZooSrkGngy%2Fh0O0EvCxKv5lL9aCSReKtHI8ZD35M1RpCZtg7Q%3D%3D%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306056337043?_skw=PSA+10&amp;epid=7060333339&amp;hash=item4742611693:g:NysAAOSw8hxnkExy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFfOG0FeTPmStS29X3iYQ7FqI8LTCZqkuZiaokb3D88vhMhwjuSAHA1dV511BJszcGHBxVuCS97DG9JSfM4vYlOmshg3gBupyy1u%2B%2FfLHdwGyVdLHVU7ATyUpuPDZbx0vBhXBiWsOIcrDPTzrdofmtbn5UxEIdX4v5EgYSsZsmELoYfP3V1oTOF1rO4BDXh06q4ZTazHQ4P6JBUQQWuhkeidGBhWQFFpDl6AwEba36%2FA%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5553,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067541101?_skw=PSA+10&amp;epid=13055938997&amp;hash=item47430c0c6d:g:U0EAAOSw2Z9nlxLa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlxEheszW%2BkEa%2FU8h%2FpSV7875FDQVLE9bV6SKecubC6YQpNrrFzwHHgvxlzkIpUqQcizwEMaDnh9EXHMaFEDMjcJA8hfJ4oRY9QRkIPGTi9grRDV9gDRSS8OrDa0MHJrqhbbs4Zl6j6zMH6aMQ3qjilRdCJbCmBoI91u8%2B7UAvz5%2Bvmg9Dk%2BgoDUu3rbnW%2FhH1mic7t0t%2F3bh3oce03%2FivYSCIiZ5dxfTxE%2FseEc1LTJN0vZBpnckHN7aITJ2ZzFWerF7EZ8I76o8J7DLgsAjAG%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306067541101?_skw=PSA+10&amp;epid=13055938997&amp;hash=item47430c0c6d:g:U0EAAOSw2Z9nlxLa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlxEheszW%2BkEa%2FU8h%2FpSV7875FDQVLE9bV6SKecubC6YQpNrrFzwHHgvxlzkIpUqQcizwEMaDnh9EXHMaFEDMjcJA8hfJ4oRY9QRkIPGTi9grRDV9gDRSS8OrDa0MHJrqg36%2FXW8Zvn8n1bPbdmmtdJkasKUbsexpR%2BYBw3zziM8uUPF6BZ6hBy1k8%2FaqYzNSe9JSeMM%2FRF0wP6ZJfOW0EZov52t01xlUvf9pw811ZwKtM%2FDSZrjNSNwEMQPx%2B6CCUbT9e48QQE8rZ5Cd8GlW82%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5591,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909218377?_skw=PSA+10&amp;epid=23055875645&amp;hash=item1d8c60fe49:g:v94AAeSwQApnmqfR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnySHT976%2F3tQAq%2BYpiraBsIw%2BfXrhYGdNW8vY9DxaBzLmfKN97vzt6OdfgdhJSPcWmgopSll2yHgG%2FbG5CuDWjk9arV3PHqAETDZWhzj1zIysHfnkYFM%2BsSLTj0Jn4i4mvyMy%2F4BB%2FtnetcBBt4%2FMeSN%2B3w1ptWG49KF0s5p2rp4tMND92FJB7mouIkCZBKR7y3vDxXW%2FHNk3b8Dguwqlcq5MBtTS0jzUr4DqgnHYbSw%3D%3D%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909218377?_skw=PSA+10&amp;epid=23055875645&amp;hash=item1d8c60fe49:g:v94AAeSwQApnmqfR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkrRPBF5794kstXM27BTfDNlfrEAXIT6XKh09DhDaGnTfKW75jufgdWtNtCuXpCL6O6CND%2FCrDhEHvoTLMqXqzRcWQ49iEyrwVq5m18%2FAluuWvwqEdJRiHoW8K1bH%2Biv85hghgZMhlp%2F3JGnTJaMQyERw3nGmQi1U97hRDZoaaLYFoO8ikRx5hRtmM2iZ48GpO2VYomka9VGBcYvLkRXXE9c6SrMVAo1qVkZKRYF8xVwBQVr8jJargmXQ%2FAddKD5wuDkE1%2Fg9SdDrWibz5Pje%2Fw%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5633,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958416954?_skw=PSA+10&amp;epid=27055862966&amp;hash=item5788de2e3a:g:ytsAAeSw7qFnmqhX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmlpOrNKFNT73bKSTzYk16HE8SAaRA%2FmPI6q6x1%2BXF8zNWC0tPqwaSw4cC921CeGMJWO2JvVXophcKO2bF7OsHct2cKiZKByQjVoJ29AkjQYw5QJqySHY4ZI34BWw%2BDvLt6%2BHEZm2Xe%2F6ytr7qBpK5Tr4jB%2BvYuh9J4gVm8ikr45uxcxsHCkQoyRKs9CZyct5y6HeyzQEsG%2Frv6nakA3LSGBLywyFvbbrlXXCkCcASZo5UanUr9ieIyAoKcC1WJ33ZZfLMUsUVoYK5egsirIBkU%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958416954?_skw=PSA+10&amp;epid=27055862966&amp;hash=item5788de2e3a:g:ytsAAeSw7qFnmqhX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJNUXYgljI7ZIwMohKE4aW01wTXNNwGzUGcH%2Bp25%2BmledDQVRFrnxDwbBDsmWkAgsaeAk2YBQ6fl8c70Husq%2FpdXibbSBKdliWoMVw%2FGlU2LxebsMjrRszMVqxbMT9C%2FyUa4Afi%2BpJfRGNL4FIHgkAQiORLBSr9RA%2BGySAClo6kOJRU5%2B5mZQxm9jtihHjJ90t2a9qfaNwUXq4rjpT2lnjmQ0x8A%2FdPknhJBAVRwAK6g%3D%3D%7Ctkp%3ABk9SR9qKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5671,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958416951?_skw=PSA+10&amp;epid=26067699145&amp;hash=item5788de2e37:g:278AAeSwdwBnmqgQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmC8u%2BiJT69iOzpEvPySxzMoqD8Xi8V4vnwmkn2YUmPwXeew4jB9qdWf%2FCDrSfE%2BMPhohoG8FP4jgp3935jcV49eSetcsbWUu420p0bNujfZAlVaZJvfeWwTwWyVp3jRKhngamMA9LR7swjsRlfOE0E9KezwpUxEu5CweGE%2BnD777MEkvVAJXcGTO%2BdoKhDroyiTegA6fuMLW6E8ppJv9hss25PLGmCkEe6qBVWPxZvL0g5gElDi03hOJsI7HyE822tGnZA0P3tZ784zr8OGbP%2F%7Ctkp%3ABk9SR-b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958416951?_skw=PSA+10&amp;epid=26067699145&amp;hash=item5788de2e37:g:278AAeSwdwBnmqgQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2Bfood%2FfIDcdPct7mtY5uurjxM6sWCeltnb0ah%2BYdToy%2BcTsDP4D8bm53IUm0DMfAMHqjGGBWXSrQa5%2FdyQvfD42N0xvOw7Egsge7w0o9jIJFXfu68ISOjOlVVfF5m%2BLDNsuinvS39NswdeFFTEemin0xLjTGaCZS5dUp4XWDEY0n4mMH%2B2H7bUiQzXBIPbX6Z7nt7C1yT9CHa7g2%2Bw29%2FNUKr%2FmX11dcRuyiwzUwmLg%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5709,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958416900?_skw=PSA+10&amp;epid=22055859134&amp;hash=item5788de2e04:g:R9UAAeSw2jJnmqiF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUhk2qHH1KNPQIc%2BJrDAu2cNGpzb4AsF%2BkXttVl7p8F6Bk4ON%2BpEKMWF4IGwVfZNZizC2K7t0qgwIxeG4k%2BM9EzLVT79TpRIZhTuzuiaxy%2FW8%2F%2BKnWp2qaVGiNjgfuGFS%2BnQGUKES6T6ZEwEj3b7gI9JygMckDbdlHpilbHcQcfRTOrogZ74wC8WXDQhcA%2FrmEset2rvxGGHwQSicDjE5HmEWbts4TsN39sN596gbYMclZg0zb7P1hQl8dLO6mL7T7831h4xNUvaLZg7udl0jA%7Ctkp%3ABk9SR-j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958416900?_skw=PSA+10&amp;epid=22055859134&amp;hash=item5788de2e04:g:R9UAAeSw2jJnmqiF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZrmCdhfYdXYjR1fLRWZ2tmzoT5ZncViO4zCcyeBhGA6w1fu72nccATaYxKvRtPcladvKi%2FGvd8PvqTojfR1K7A7eODcJ30TwGFkoRKvydeTPpCBJ8UTGj11FFHYZhH1mrLMj6F%2FRH1hicLlSsGM4IIry01nBgskM5UCuOOFo0nPJL2%2B%2FMQ45JtX1yYFij1P%2BA%2FWn38b8hcVI2ZNksZBon1OfZAbMAtV712xtaOQWwmQ%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5747,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/275134554694?_skw=PSA+10&amp;epid=26055916621&amp;hash=item400f4c2246:g:l20AAOSw8ZBh7eU6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkTFsdBkEY5yChV97DUHL1TU7JZZHDRvQajQ%2FszCeUA%2B2TVqJqFYSg1%2FiMey0In0eWdLtqQ3x97soTI3NuI2bSh8ABcygqyrPYrn48hTJTAHsccDmuEAox3jaXuEeYX6gxR0I8ieCKc%2F0QAbFIWsY5L%2BmSe%2F3C1UJRbw28iEV1CtaCXFQUJ3E6cv7syHjpUTny5UIcHg8RZwIb9pJn%2FssVENNsx9rkSdf956LDK0w2q%2BA%3D%3D%7Ctkp%3ABk9SR-j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/275134554694?_skw=PSA+10&amp;epid=26055916621&amp;hash=item400f4c2246:g:l20AAOSw8ZBh7eU6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnZLZuWRhaCQ5nZoU0RSto5dhb5vkMcc%2FtQWxjE%2BxmZ9KoHHD3N53K%2Fp1Aei4L4%2Fv3%2BmCQAeZV%2FFTTbqeQaRl1IPYHCvSqKriN5QbYY71n1Oz92bHxcvWCXYlGeOcRXeMNcl0rQ9QN1Aw%2F0gFneTAbsTOf9SDAyIrcfTTuNOMJ7U3BfaMP%2BE%2BH56Sgovyqq3eHaRDYpGUkEWhUuqyxtzeXcIJbpIJhA4TsmtvWyj9Rz0QqmDECSro75P32s2Pf8A6dvxzL73cJbhX%2BtU%2FiETbE7%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5785,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6Kge1O5gAzC4yY5KTRKqquKc5eGIHGU8SbSpcd408YRSSLDx9JjTk6AasDKGt7%2FPSRXqiPeGYNrCcxWVlDolvql%2FLjQ5gitmRWKC2sHkthHrnojf0mf%2FNEhyX%2FIZsynocrZl6DoikDZMXhI4TVmyXMFpK%2Fkre1M04oHEf8QxmAM3GG0xogXqc0Zg%2FTW27NigdmuZa8dOMWopkQ%2FNUNttOJfawFNxUg6fX5WsXFvgB4Q%3D%3D%7Ctkp%3ABk9SR-j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6Kge1O5gAzC4yY5KTRKqquKc5eGIHGU8SbSpcd408Yc3bqdIQDFw%2Flg3TPji8zxygmnvt1w5fMlCHrbZITJkpa5XilqUkPqBtEYEuNz89uFVnqeIebRQz9szg1DaclU4Ra1blONMhWikZ53pusa6m6Fjvrk2GhIsnhGLNkI5DZNp6MSsw%2FTiD4u1bONDvbwNso0TDNqzxAcgAqLK8KmQMvUxXzBf2Lhce0HedDXn%2BwQ%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5827,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366762305?_skw=PSA+10&amp;epid=5062865335&amp;hash=item55118e5b41:g:ipcAAOSwOAlnl81N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRIh6CyLcLXSXYtAaqL8ij0Q1uCFu4Fz6MpORNFAhEYtAn%2FUSOHPH67pIYh5LxJU0MrO3rCj3HfLC2vOYaVTBwSu%2F6xgDPtbCteFtUhV8ExiS%2Ba3J9uwym38HozHAtFZLijunnF1IuwrxSYWxiFEqp2sgoJWFCloevG2kTm8GeB0OfsHVKb%2FWN1qRNtAsN%2BrW%2BtieIyU2VGAX9r6RJz5RphqpcPLgR7gs%2F%2BIJAyQQmzaTEjEv9zlIluTYxQRAh6iKPsqHEFTbKW0XF3bVw84gJ%7Ctkp%3ABk9SR-j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365366762305?_skw=PSA+10&amp;epid=5062865335&amp;hash=item55118e5b41:g:ipcAAOSwOAlnl81N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRIh6CyLcLXSXYtAaqL8ij0Q1uCFu4Fz6MpORNFAhEYtAn%2FUSOHPH67pIYh5LxJU0MrO3rCj3HfLC2vOYaVTBwSu%2F6xgDPtbCteFtUhV8ExiS%2Ba3J9uwym38HozHAtFZL8cu7FkYlQHZY%2FPu6YYb4qoWVmz7j6%2Fzit1dxs5ZQNy2kcGh6Zd1yp5JTXQwz0w%2F4MJfrnuQWDcom93%2BYlzOmUxcO%2F9871C0Omk8qT0%2FsHnKSoxIixZseHQ0FXaA60cYqI9yX5Gd4mDpzDE8CV1N5j%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5869,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267136772761?_skw=PSA+10&amp;hash=item3e3297aa99:g:G3cAAOSwenRnlopx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0g9sjSaBBombxjQY%2FjB3Ao%2BMAjdzrdNbkrvWKzBqi7zMsD7d5aDDKleHX7%2FrbMhDvKcN1cssMlqJLNZh%2B6SxwoVzDdUC9IRv8pYnN422rwzKYZqxeQH%2FK5YoWDdCdkHXkaEMkVeGbGCfUWECcKF5IHHgy4vDx3Z1kCmKHyqvO%2FKCztxU%2Fo5vEfqDf%2Bf%2Fn062t3vvQUr4fy%2BTw5%2F8qDrUgdfOXeBk5CtykH8qB5gB4gA%3D%3D%7Ctkp%3ABk9SR-j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/267136772761?_skw=PSA+10&amp;hash=item3e3297aa99:g:G3cAAOSwenRnlopx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0g9sjSaBBombxjQY%2FjB3Ao%2BMAjdzrdNbkrvWKzBqi70g0oLMynKJuyhn6vJTrHRjU5kXbbJBDVCrjdYSwlrFd9k1BmcZTaZap%2BdpxYH4Ma%2FtaInyLjbT5VpEFcftZqYP6qdO9s8GJ4y6bdfx5LK%2F5qFVAkHCSPVXGnb39LFHYN7YgCH4zb%2BAbdZQ2PKnsGglfZRTX6eVIsg1H5gquRkVjH2llvrUSZ8G6Z5cBei3mXA%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5911,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306065821999?_skw=PSA+10&amp;epid=9068294902&amp;hash=item4742f1d12f:g:64IAAOSwcaBnlgLH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaqwzucpx4C2GDtPOs8gwFdx52aMXkN%2B4994OOXQilUqESVQtKtv98s7rIC2d0ivhYdNeeCFHZe7nYQbkZWOZgv3YQphHTg9KrZ3Ywp0N1kmNfkCab2RP4BLqLfClmyQgvS%2BXa69XsoJIhsZk5%2BXj1D5QI8N%2BT%2F5pA1ZKY6YFpR8XSofGp%2FVCNRxPKgE9iHaoJQhmnKagaI8utrJw3w3O1NNwxcBtVkgDprwl%2BMVfQLi2h87xDV%2BrxDheKrKkiU%2FPCdzCSvFgmAyWTG0SFc2Wr%7Ctkp%3ABk9SR-r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306065821999?_skw=PSA+10&amp;epid=9068294902&amp;hash=item4742f1d12f:g:64IAAOSwcaBnlgLH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaqwzucpx4C2GDtPOs8gwFdx52aMXkN%2B4994OOXQilUqESVQtKtv98s7rIC2d0ivhYdNeeCFHZe7nYQbkZWOZgv3YQphHTg9KrZ3Ywp0N1kmNfkCab2RP4BLqLfClmyQjPPJ6f8nvDC7Fej%2FY2N5r3y7PKIddaKU%2Byvy4LmloBW5c%2B28EAWZVuGuoIH33ntcq76%2FVsEy9wE8wUb8jOitu0qRSd8D9m7QKaPZ9tTbmAY2NUoljU36FBYbnZ4QNOtZzm4Nu7lMuQ7L3CefulB%2F5t%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5953,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116466482165?_skw=PSA+10&amp;epid=11055974181&amp;hash=item1b1df17bf5:g:Zn4AAOSwyKhnoU8l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJZdQYjAOPJ0TrVJY0g0gC7Dpo6U5opTft3oAdhIkFTtEEALHVo%2B7kM6JxchR3UEjHuQwrG3ZBtP0MgQKAESBRhXP%2FuHVSNazoUZbku%2B2nvvEcNPkcN5qHabCfGbKtHIGMolQzzDvImqNBC0taFfT5sXcLJDVr0jbpBRleIgOSA2r8zND8GhNFmGjCUNgQPHuURNiiGOy2mcv5QU0pgusKTD3MYTNFQVJe6eK3lX5CXg%3D%3D%7Ctkp%3ABk9SR-r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/116466482165?_skw=PSA+10&amp;epid=11055974181&amp;hash=item1b1df17bf5:g:Zn4AAOSwyKhnoU8l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkirRqphrFPImN9sPk52rn%2B%2Bi7zW2gxBTYwqpQ4uOtsVSzDDjDbSJfsrpfeRPBXenNhqA%2FMacMaZqB7ONORkP77ubib8KH4DEixKwHGFAPPazMsg3Y87hlOyJCNLKoKSuVZy%2F1Is6j%2BD1BVi2ch1xQmSrKip3jYs5%2FVh6vVxM3cW3FIlxviHOBBxf12OUClvqLDMWCwv4AHaqIusvwMv1JxdDRvwX5brTmBzvKZK5P7Fe4xbrTOP8xyP4H1K8L5qY8%2BVK7sYXnVt4oicINb6x1Z%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5991,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316156865503?_skw=PSA+10&amp;epid=8074265250&amp;hash=item499c6aebdf:g:fnkAAOSwLtRnk56m&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnIXCM%2B7qD3SEMgv0I9PTJq3VI9qIKnsV95eNY1avLGeOdq%2B%2B1miTHcakXj1q8TKVEjezmimkO6YhJwWNgLT8VqBNWe3GbFUHBmhdLCJV9q9DqOyNB%2FHqbC5YO1QiONPHCu%2BaC8MdFBfNJsiDYkEtWjNp2b1sh3v4KWtchBM08l9SkJ7BC0qaFbRkIy2aX%2BzWxAkU8W87bMkrs0I%2BsDrF%2FlGykUabaf0xXwmL%2FZwBC1mQ%3D%3D%7Ctkp%3ABk9SR-r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/316156865503?_skw=PSA+10&amp;epid=8074265250&amp;hash=item499c6aebdf:g:fnkAAOSwLtRnk56m&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmNLf6js5es8VKWHcv9ouTczHDfzs0FSheKcYMuUpm0IDeeMN%2FNHqyJOZUwXcstoCSjZS%2FEAxf7rVXjyZ6GiepDXHjGCKo23xPZWy9CKYVJrKVRpJbrK48ecqEQ9ZrnpMSsj%2FeMear6Fbz4Pc%2Fbm3uZq4BkUJHt%2B4q%2FmFh67lNEFM%2BjYgs2Wlacna6LynS2E1mv0nzxHSwutFdAGX47%2BHoSeAGi7i6ilScmJUK8qykLxshwXWGYaRnAd7pVZZORpneit1llFPaeDSaWh5B9EbK%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6029,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306087196440?_skw=PSA+10&amp;epid=8055866818&amp;hash=item474437f718:g:7CUAAeSweCpnoTHr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnQatY0lE1VxJc0KJDswDtfBgSrgZLs0gfvdMiaBRJjqjNKc%2FI1YIzrL%2FwnomxfpgTkogRVx%2BOI4OcYH95RjWFLZXgJ9vwyWGZnWeme0Ou5cB49%2B9LU%2F8iq6D%2Bee%2F9j5CfZGyLh%2BUpyuT6VYj%2Br4o%2Bcow7sCEl%2F0qK3k5QBXn6NUXAr9oyIWZGJXNzEDtx9OXEuO7HQWS8j4rh5gwflazmm%2B4ddbOlxafgKmmAotnWVUIlIxFzKJHpIIPaOMVLItXzQasgE2%2FnPrDTdf23OOPwg%7Ctkp%3ABk9SR-r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306087196440?_skw=PSA+10&amp;epid=8055866818&amp;hash=item474437f718:g:7CUAAeSweCpnoTHr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnQatY0lE1VxJc0KJDswDtfBgSrgZLs0gfvdMiaBRJjqjNKc%2FI1YIzrL%2FwnomxfpgTkogRVx%2BOI4OcYH95RjWFLZXgJ9vwyWGZnWeme0Ou5cB49%2B9LU%2F8iq6D%2Bee%2F9j5Cf6%2Fzn%2F5TkOgDERa%2FMn4lh6yWnZS%2B9S%2FQXHy7lPT%2BBAmsshglXaqiI9ATO5Lu5MM6wilWZ5uP9GQuH60vjjbG1GodhlYATsVUrTgRpJEFIPux6%2BiCEVMr2wKikKMuBOWQ4x4md5GtS0bZCd4kitEoBu%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6071,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458832523?_skw=PSA+10&amp;epid=24061816975&amp;hash=item1b1d7cc28b:g:X48AAOSwDVpnl564&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFYy9dHzXYRyOl7iYt7%2BxsyBH3InUiiT14vLIz8Ju%2BqQd3qEyQKubtqeILYNnRg9iYYXk7sOpt6B6UDEffb373XLDoTXzdAx6VInuMj%2FqUCLV%2F6cRcNsYY0huCgC3LcEQ31vyDfrhGjYmKP%2FmjYfDU9u4UbmDR0cr3KH1woz8fHzim3SZtT%2FUp2U7pZtebSzEFkXfU%2BVZx0VSwEwzeygdoZrWsXSAN26F3DoqzrjunEA%3D%3D%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/116458832523?_skw=PSA+10&amp;epid=24061816975&amp;hash=item1b1d7cc28b:g:X48AAOSwDVpnl564&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkql4JI0kujyN1TlBsJEsXcqX5EoApDY3e4k%2F7QW2yHsnJpH8sgyiTnEw5pZcMmnsQMZnRYRxfhhrVbWMmrth3f5oQs8hLFd8fAtIZ5ROXokSFSa6mNtZoJ1NUjCJapuUzakk%2BlshpemQ1YCa%2BW9UvQYcPw9fJs3zx1rWiM1XllQ6F0Pk5KmK8psXwXape0%2BVntJIwMTHSqhM7Njq8auLDo0jfeh6uMIt5xktnyejJIsuUb9rjDWHbzRwelAOdzxUC%2BZdfGoSDkj7R1RJVFS40N%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6109,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305998127475?_skw=PSA+10&amp;hash=item473ee8e173:g:xJAAAOSwxzFnbHWn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnrFrWNMujDMSBKDJueRgIt0RfUQYAb31BZ6S1U95Rsc5lns8ShL1j1PLyP%2FR24Bl8bUS1n8GXbjGiI%2Bshkn%2FYJjGi%2FxNsqgRMks6lBXSfBFqm76FjvbiQMgQKFmFM7rkYl5j%2BfJ2JB4re%2FnKP%2BtxrRmIUV7CgZ34mK3p3SzN7S%2FizYDZtcjrXbLrOhSmUsKock%2FtwRZG73E270Eby985EauQT4JNpH6bTpZ14f%2F0ycVG6TiM5lVQgRM4kml38v%2BhmEbl%2BkKqdm4z%2FIQFlqgjpk%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/305998127475?_skw=PSA+10&amp;hash=item473ee8e173:g:xJAAAOSwxzFnbHWn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkpndSCdkr3d13H08rz4DPhKbsyDicyiulJrnho0i7UBv%2B28Ex0FAmfS2QJGaMhzfVAOwMh9OGCaRz3lXRMTyhLHxvBeYsTgufyJ9K3dt%2FSeF4KsURnKVhPe9OMK0Kq%2F5sUmpVbVMnGiNlkfqSg1tdjl6GG%2FXAgvmz6grO5bR2RKccvXsb4x9CYbTElC6TsbYxzeU0G%2F6iUPnUANXg%2FRMqlUKWm7IIL5rXI2z3Tq3Jr%2Bw%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6151,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306084189504?_skw=PSA+10&amp;hash=item47440a1540:g:VoQAAOSwz6tnnQkH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlG4QVhrOlX%2BuVPj09lttMXFwfRQMb9KAgKdjk2RSI0V0PmVMqrE4BbKc9JS79Safv0kGKc13XgK2nbZWRULrVEQBBXGSt%2FjSfi8PPx7IRvfpqzKL69Cq9Ab0vhv9%2FFI9ysIAgETk5K5WDAPzz%2FS2Sk36ewhAEYrNKCDvzyhg0bayLAI13vX3cIAzzh4m59Ojnp5826vw9z1ekE4DzWaS%2BEetDyrt9p4WdRzMJuDs2cFjpPaGPP1ziDPYrBmWC3y%2BLMKrfr7WKOGeaXLOJa7HwR%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306084189504?_skw=PSA+10&amp;hash=item47440a1540:g:VoQAAOSwz6tnnQkH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmy2R3a8MdWhlcdKMRyoNS9%2FZjmvJ1r%2FfcpJQV28h3nII1IjzdLtGmWnuIQlCakbqTwYweUF%2FaafAZcVAGL%2FUmntu7Cc91iPZbhTZ7G4lEro54viuAcdraCu5PNlNBtIHKVNWVHXLf4He1kv8qeD3MsnKZTNaTS5LhqhpqoFkMlXvtEoQfPIp%2BPEjRDH1HHFec%2BUcq6Qzbx%2BnSOMyQ9FbjS8zBuUl1WJ8gVx18SHFil6w%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6189,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909211851?_skw=PSA+10&amp;epid=15055980616&amp;hash=item1d8c60e4cb:g:uzAAAeSwxo5nmqbJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmTyEDQB8b9%2Bg3l5EIhHq6X6I0Bl%2FHy1HWGYIfFzjCJnrwxW0zN8s%2BJnmbL3xos8obvWfcN%2FWSBpLhfUXB%2Fru%2BV7wa87IicBQfWESDwxPN4feQIClafm2RMo%2BwtdC9hPdpRXKBk4wAJetmuO2bUTzwdsbcVHjOwtg8FW8RBPr7r8t1J5MYbcc%2BNgYBX5b%2FJp4%2B8pVebK64ioFv84pht53IDI1oiIWeQVCGn3olAgkl9PNMYxQou4qLV%2FXr%2FQJxlgSnYHsFUA%2B52Ql%2B4XsxgJm5J%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909211851?_skw=PSA+10&amp;epid=15055980616&amp;hash=item1d8c60e4cb:g:uzAAAeSwxo5nmqbJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmTyEDQB8b9%2Bg3l5EIhHq6X6I0Bl%2FHy1HWGYIfFzjCJnrwxW0zN8s%2BJnmbL3xos8obvWfcN%2FWSBpLhfUXB%2Fru%2BV7wa87IicBQfWESDwxPN4feQIClafm2RMo%2BwtdC9hPdoSb44bycd%2BVaKghr%2BxP1db1e6mOG%2BdcNS9DH6BUlP0glEChXf0%2BpALHCoHsTm%2F2SUpDEAxrgwiiruS%2B0RKt%2BbN2CS3QNInZFfZl5uF7kaFYdlgzK6dHWONqjR70kmGEudDR9%2Bl%2FZvsiMslUVkrew8o%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6231,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116456291744?_skw=PSA+10&amp;epid=19073116776&amp;hash=item1b1d55fda0:g:-DsAAOSwpQxnlAfV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRgDt2W44H%2B%2FektQneUtGhNbvH6M%2BdV9nPaD5u42%2FTVHfOBC1bEiovT1jm9cJRCLxOFjlc%2BCXPJfqgA42MtSxNGVs97cAtxp6WAsnaldSwtm%2B%2FBUd8FC6f9knzR1aWwamQnQwBdoMxtvFcgCxWUlL2F9h40BOoWW1KkFMAxer1tkCY5dK%2F68iG4pSZhOTIJAtKh2m7H1YRu%2BqcwCDlsufFZlBSNWIpWWhphwzcSFSb2Q%3D%3D%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/116456291744?_skw=PSA+10&amp;epid=19073116776&amp;hash=item1b1d55fda0:g:-DsAAOSwpQxnlAfV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKleMIuZLYEu7aJYC7oGqeO3eF7GhlRKquNKpm31Pa7C8wN7v5y4HH935AoRBbRbFutJSRWYfdhGXSvIg28MilWNDvr9RPF1jJZ3J%2Fuaph84IKEK3IcIxnrlHCun%2BJQkCRHKtijg%2Fsbs2RKY2ngic8kDKtW%2FKxRKoH6c05yhm5hedY1ginQRuYkGLEUuEfhss00SeAAW9ZBqHyn3SSiGdkvcNtyemWHeIrCK9rMKmAqeNDsRfLuD%2BaQ%2F4iqp8jCH1BG9dKJrZswkbYWFG3Z3ftwT%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6273,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335790697612?_skw=PSA+10&amp;epid=27070309913&amp;hash=item4e2eaf6c8c:g:uoYAAOSwS~Rnm9vQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmY8rYNRA%2F7lrXIHYU%2BpnSD1%2F5sR%2FQqRZTA9%2BHvBupOmVnT%2FsEMm5XThaSpVdRVlPV6YMmjgMOszXn6K7xc5EPbICUvwbg23KwmGGtzGfo%2FyyADdmbF3%2BgEDJcwUTSstaiLgIrmaw4mZVLpWqNnFqWcrF3wUNa75w20FofdPmoTW3q3GanyHz3SxtYbGXY%2FQBaWd8AlxNYk9nhkaUuep0YyvPInC3SiwDP%2FJAlMBcb8NeOVW3r1uSmWhY8hl2899%2FYv4HfG3UUHZZHKf1n6PXPh%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335790697612?_skw=PSA+10&amp;epid=27070309913&amp;hash=item4e2eaf6c8c:g:uoYAAOSwS~Rnm9vQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmY8rYNRA%2F7lrXIHYU%2BpnSD1%2F5sR%2FQqRZTA9%2BHvBupOmVnT%2FsEMm5XThaSpVdRVlPV6YMmjgMOszXn6K7xc5EPbICUvwbg23KwmGGtzGfo%2FyyADdmbF3%2BgEDJcwUTSstajtC8nUXuRg3mqHkJmkBabV5AvcmH321zzFqx3rIGGGYRjQ%2Fqqs%2FfUyMe%2BfWan3yaUciov1upMHAhz4NFcoEa8wecADOfIpJNL2pJjT0TRpSApxchN1p7UEeWc6wvzGcQoJuaaQJt5Z02%2Bp81yw0iAm%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6311,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833371423?_skw=PSA+10&amp;hash=item40748e051f:g:hZoAAOSwtOpnmB52&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm74KLRaOwd8ieaar5YdV2Fus%2FchMuiYCzZ9PP42Scy3qN%2BaHwbglMxWxaJfu1QKH8oimrnP88fRcWJB7%2FKUvnvXwIkMXIZe5Ecqzy93Pm%2FLXqB5Xy2VE0UGPiF6ZgKbKNSh0NPBrAbh5vCahubxoYLYAU0eyJ4v6WI618bCAmMjT6RF5hvH6D%2Fs7F%2BOI2SDqvf6Ua7I2cQRcQJybpjMGj33amerbJmoK7HAlbKE0OHut1NJD3CaMZxjOKeyJLMa5aOohpUm8uWoY5OYjrFZ8zl%7Ctkp%3ABk9SR-z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833371423?_skw=PSA+10&amp;hash=item40748e051f:g:hZoAAOSwtOpnmB52&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm74KLRaOwd8ieaar5YdV2Fus%2FchMuiYCzZ9PP42Scy3qN%2BaHwbglMxWxaJfu1QKH8oimrnP88fRcWJB7%2FKUvnvXwIkMXIZe5Ecqzy93Pm%2FLXqB5Xy2VE0UGPiF6ZgKbKMNUHEPEpLyH8EjHYS9oddNOdZ%2F5Jl27x%2FfKYeSon9ZpcCwbPqOCMQ0upGpi%2Bz0mBrYVzOunxnZnFL2gOtsnHvmp54NbTBDmIcYXX52Mt005MDauL%2FesllkqTSIIjbEYpjKhQGwzWO%2FYCK9f5ipxK%2BC%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6353,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833371422?_skw=PSA+10&amp;epid=13055905674&amp;hash=item40748e051e:g:jRwAAOSwF6ZnmB6W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJ6x%2B6Z5GXt6U5bYju%2FtAXbZRdX3SKWjB7fUPHlmV1fY8xxRea9t8vXQK%2BhZDzqZtovUDZEkggEH2yXY85mWmGxToi09IX%2Fl6KhNj5UyUM4sc2U%2B6d5mdDbIHTxyA9Qen5wdY39kYv1V3yd4i97NAKDWOehMUOo3ZFhgPGgor0pfhHcR77yy0ltK5UjDxWvBh2sdg3xq4QHX8WoqRAqa1VHU54C87JX6bNOW%2FHQxV37w%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833371422?_skw=PSA+10&amp;epid=13055905674&amp;hash=item40748e051e:g:jRwAAOSwF6ZnmB6W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJ6x%2B6Z5GXt6U5bYju%2FtAXbZRdX3SKWjB7fUPHlmV1fY6NehqmOHDNK0gkbiL6z3ygipIDljloJAzPLsfl9brJKzIFHgFKUuFCJPNDkv4Hv2%2BrZkInRXk2Zsu%2BIle8N93ClR65CawubuQDvp%2Fu0sL0KUkfzdSIk4qQmD%2FkRQuDIsGqlyYUS3tYJn3ivYekpPayiswS%2F9qRIf%2FgG0sLcoJzYHO1EEdP3KdkAArQxPT2uA%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6391,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909210899?_skw=PSA+10&amp;epid=7064279143&amp;hash=item1d8c60e113:g:3cQAAeSwh0Jnmqaw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMmjCvFIYkjJFORt5wBmNQdi798uARpe%2BmF2z6%2FYz9kP35pAt9c2yY%2Fbcgsd9%2FAj7uhJlusjAizRe7dbgXPm4ZiPX%2BMyuriHUoxjnE%2BZ6Fvv364CWrt%2F5OaquVzp%2Bvicd3bXrXIBsRuGEn%2FMcXKOxA427DxM2svJuX0LNRI1ypy1QZQw7J%2F9vhjDfPmK4QxEySHmnac2iR1rcIWpjN7QReZdG0MmQlyBp4N9MS2Tm92g%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909210899?_skw=PSA+10&amp;epid=7064279143&amp;hash=item1d8c60e113:g:3cQAAeSwh0Jnmqaw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMmjCvFIYkjJFORt5wBmNQdi798uARpe%2BmF2z6%2FYz9kHw%2Ba8D5dN9kSPHbiMG6tiqziX6YXHxx%2BPcE6%2BoC0%2FG7L3B%2F6rOgvPivENhqJTKY1dyt%2BpLRseWhGeBCZ2PjXogCU1tDAA0leNmXEnzf%2FAPbC7Rm160mBMRtKTNV%2FgK9OfWjtQDIKCli3Dlh7vbWCSGFzcoF%2Bu1AmXIH2Omc3vJh9msrzHgXKQgx8KhkEpMRpQ%3D%3D%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6433,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958404096?_skw=PSA+10&amp;epid=3059319471&amp;hash=item5788ddfc00:g:20wAAeSwDqZnmqas&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlH8R1lbIF%2F9lwKR7Jot2K3nZu3hQ7Hfox5GjNsM413cs%2BG%2FtFm%2FyBlVMsDthz0NU9qggXGlFHc5eH5LtqtBKLWKrxOFPWJlmvG1ZgAxqM1v0KBnUyC%2FdubFcPkRtCqqWK%2B4GPsagtBh96jxcnYFJoVoZ0wPbGZ7ysFB4YkuHK2k3f7nPzhVbiav3se518e4QHIwvojxoQL%2BbU2ygT%2FniJtWHle3mjzQPBBJBXHzbTaZHZKU%2Bn3oKD2%2B2Vi7d%2F93VtP6tT2cx8KY9DtoyPzfGjy%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958404096?_skw=PSA+10&amp;epid=3059319471&amp;hash=item5788ddfc00:g:20wAAeSwDqZnmqas&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlH8R1lbIF%2F9lwKR7Jot2K3nZu3hQ7Hfox5GjNsM413cs%2BG%2FtFm%2FyBlVMsDthz0NU9qggXGlFHc5eH5LtqtBKLWKrxOFPWJlmvG1ZgAxqM1v0KBnUyC%2FdubFcPkRtCqqWLxJOecjFpI5xvuYhvDTytgUwi3K0%2B9xflUM0IqVaEf%2BQQ73xr0e3VhPKQ5GRDdfYODUE7OQTCKto8wgIpIf9tWBvpKZLM2Z0e%2BppiTCwubinFnjabSyTv1GGSmK%2BZapFRdjJ%2F1FGn0j1rZj2GamJdk%7Ctkp%3ABk9SR9yKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6455,7 +6471,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909210399?_skw=PSA+10&amp;epid=19055922264&amp;hash=item1d8c60df1f:g:xaUAAeSwaRRnmqdb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrQ36LiLfbZg%2FVgi%2FPYyfgosjEkJ2JnvGnuDbESQJfo9XQhQBf58Jp8Pxs3JIm%2Bn6rwkGCe2pEKU%2B4MoE6Ot7RBJ3PIqJW6MdR2sBENYX9XvQRGjbQnx3Wcbqf%2B7ltAP4szUOKPNe3bqcRFcnjSwD8lIYbjvjmvGyedrtJA9KuOGdjWCxvzeIbCqMtSor8KW5SL6FQ3dQLFZ%2BESdO%2BgH%2BRzt9sFMYP8xIlQwDJmJSsKw%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909210399?_skw=PSA+10&amp;epid=19055922264&amp;hash=item1d8c60df1f:g:xaUAAeSwaRRnmqdb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrQ36LiLfbZg%2FVgi%2FPYyfgosjEkJ2JnvGnuDbESQJfo10uFePzZwF6Vv1lQuc%2Fj2vVPq7VP0TcGHWu21WAZWpP3%2F44uuxRKYaLubpjzMmierFfTef6QjJYmjbUfK3OdpvXEz6ZlaJVsYUPQHwM1K6g%2FzwPoq%2BsTbwvCjdYmSaGCVJIUPsbS9pKdQO%2BH%2BPsvOMQtdbx4iyx8zLmlaahPOw2aBr5qoz6%2Bf2RCBA7KGw%2Fqw%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6509,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909210397?_skw=PSA+10&amp;epid=19055922264&amp;hash=item1d8c60df1d:g:170AAeSw5npnmqbp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkfb92%2Frw4ICG0keboR0zJXk904InkVOyMUUE9whhcgNlFX5JJY%2BRxlfN06pgzRw9wj49dR4486ZZ62JTYXZ1gxp2%2BNKQeyHe1WZzrgeYX5Ld%2BwPbuc%2BmarO8LBemeSqU3resLzewzTrUzPvaxjv4Xzg0ROQDIC4PpG5ox5To5cfQFB0BG31z3%2FmQNv2YbfEO1%2Fhz1R4NXbxYRtXR%2F7HttV7EooTWWIhjwbpIzGsY5ebQ%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909210397?_skw=PSA+10&amp;epid=19055922264&amp;hash=item1d8c60df1d:g:170AAeSw5npnmqbp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKllKZ0mCLRL563teH%2BIWhn9bcz9SK8CpGq3eSHs7SfiBcp0Mq4pIpUeAQK2SF7NZ%2FKAXX5GvLX5R1T1QJ5MngsJcpbhhwHTUhueoJH%2BAO3oLKL9So3sRi6b8E0b8wHfqKMc%2F0eHaw%2Bwx6wGHk5JFDmvQg5BR2eZtupa0h7pQiqR3G6ET9q%2F8ICwjn73XRqaQCcjJ3wPjQtJvexER%2FJvfHfS6kxwiwAXSvOYuIWcLQKD0mz7LpZjYpIRiQpwV29KuNE%2B9l3vWeUaniFLIgiM%2FWKR%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6547,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958402404?_skw=PSA+10&amp;epid=19055922264&amp;hash=item5788ddf564:g:xHkAAeSwRiFnmqYr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkUuIssKfDqbrJcZmwsPHsriP9ewmWS5WAg0FxeLys1Hb0RGl9jrTAsXeXju%2BRTrMyM6vQQl1C9Fq%2FvXvSu1f3T45vxrTtmDGK3Ef1lqWIGGdGnvNNWcFsHynuAIMbdEwy5M%2FIFnD1wvHWGuTMuIg4tRaEd9hfxqKL3m32W8jOJafP%2B9kBKvbM%2F%2BmYibxqr4jfPStdnL7IJJzXwZZq81JWz40NKmnQgWhufEUfDjH3XZg%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958402404?_skw=PSA+10&amp;epid=19055922264&amp;hash=item5788ddf564:g:xHkAAeSwRiFnmqYr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkUuIssKfDqbrJcZmwsPHsriP9ewmWS5WAg0FxeLys1HQqdN0jLTbR4RMQYZPSnrLNQboM7GmGDOShEXLk7xzIUoD7w1d3GrNe5tb7Nrl5t%2F6zibno414HKWVVgp3lFrE6Do2WiMqgxA1WPV2VzNIbNrZQHQM6TFroUdAkpYO8fQ%2BB%2BPO2cKIioaFXXQSD4k%2FqJnRIW2xJGeF6hxPLOqgs1Q1ZPRsZduAscewukUSgqoQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6589,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958402372?_skw=PSA+10&amp;epid=22055988865&amp;hash=item5788ddf544:g:2U0AAeSw0NZnmqbC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkdndnJg4gcCHmTY%2FEp5lnoJWS1OLgzkSDcQsLSGIrL%2FJAEnO2lhyz3l%2FjKfL8FoaN5iLEuVdKZi5ZRq794MffGSR7lmwf%2Fnq6Wct%2FmxE%2Fu2M2Wlv2e%2BzGhC6c%2FpS50wf9MsN1EV%2B3NINnEfigFtGlfcLjDfViei64bLIASconrRbP%2BBtMpwyuDs9%2BZwprBsAEPBHGHbzGDqWq3Kr1lS6JZl1ei1EBMekeb4ZyBFefCkhiolvKZD4t%2FBi9yGRouVa%2FZMift4euY9B%2FOG%2Bh1V1IQ%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958402372?_skw=PSA+10&amp;epid=22055988865&amp;hash=item5788ddf544:g:2U0AAeSw0NZnmqbC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkdndnJg4gcCHmTY%2FEp5lnoJWS1OLgzkSDcQsLSGIrL%2FJAEnO2lhyz3l%2FjKfL8FoaN5iLEuVdKZi5ZRq794MffGSR7lmwf%2Fnq6Wct%2FmxE%2Fu2M2Wlv2e%2BzGhC6c%2FpS50wf9H4vYwff%2BmWOwZu4mdg4er4Sg9LkgT6xrWUWAVQ5FJ%2FkuBiKi9nL1%2F6JDstCHqzfvgxZoC0iDXpZIHYBlsxKXs2n8l7aCvilkGE%2FZTG1HbBBTl2UKeEXT%2BFpNI48N2WEFyVhCFzFkpZ4eX25N1D4Aa%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6615,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387568136649?_skw=PSA+10&amp;epid=26055934176&amp;hash=item5a3cdc71c9:g:hJwAAOSwn~VnJTcm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlBnX0jBdMrTH6Ti4anK%2Fy7Yx%2BxU%2BankQJJNYhrLsjPMJN%2BMRbgPWSzMH5z3%2BWcOiAdtaThZmjZTtKgLwK3I18%2BvAR%2But7frOObNVABXx44uXHQS%2FmzLlDXh0tQ6npG5kN2gR4s0q1wGVxbAaaFzKx%2BgCaDL9FETFIsjb2VELBwsEQFwVdJWxYyD%2B8jtlqbjEs4Mdpy6MM7iVoJqHjJGGtuohlZT%2BIoST3Sa%2BZ9jZ5gUQ%3D%3D%7Ctkp%3ABk9SR-70sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387568136649?_skw=PSA+10&amp;epid=26055934176&amp;hash=item5a3cdc71c9:g:hJwAAOSwn~VnJTcm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlBnX0jBdMrTH6Ti4anK%2Fy7Yx%2BxU%2BankQJJNYhrLsjPMINr56Yrl%2Fjvhe0DLhtscaOPSdJ5eyIvNSXSthTtJ4lbSzVxxC39W2ur3yT7rwjiyyHFaNZ8RvCl0rM%2FKvqcEaylfmgwcvysbyLODvjfh8b%2BjXTH3rsqmrSq7U8W8NlP45k%2Bb7wnxKMDD54hcPT2YrBH7MZ00SAf5UJzlBAZSF4slcuAdPrZtp6jLh0nRgRscw%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6641,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958400060?_skw=PSA+10&amp;hash=item5788ddec3c:g:3FMAAeSwq0hnmqYW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmckf0bGgJDZmYDnEcvCiYbQUqcDKzlHGvzRq9R1ygS6Y2SL4bvA8%2BTuf%2FFNkNXY5iFi6YqvyNLufPy8K2QvJBTCoUv3bluTwLH4C9D1vHSUCRNuVUdcZkaiUEcz0oJIU3ffKqp6Sa6Ok2cMfU2%2FgWqtqs0572LzneyPRSr3RSOOP%2FvA%2F2ERXVFfY9CepODhQSP34hrk6v8F7%2BXIwR65DwPA0VO%2Fj7YEY1yQrgzYmtG9w%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958400060?_skw=PSA+10&amp;hash=item5788ddec3c:g:3FMAAeSwq0hnmqYW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmuFOS%2BIPvZOI%2FqQWe1rha72JTgR1mOPUMbUhOewGKyEtivNl%2FzvSf%2Fq%2Fo4vkAf8ijeFB%2BYFTBW3zH15i4hlpEKGISFkpyQS7FDl8AcCgstozAjbQA5%2Fgj2istDZ6W4zmEEH0N7nLDW11D0gqzgowQ4suwfHmaEtQhEtbTSsgvVoajb92MSzq5S4%2BWqKLOzQQfZnFyJh1%2FevfzgIME2GJryslhuYyvAf7j8RDokH9uqVqdsE5yWLoLMpHL1r242IvOYL3KeUbNLFJ9asGkQCfJ0%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6679,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909209353?_skw=PSA+10&amp;epid=12072860319&amp;hash=item1d8c60db09:g:xtoAAeSwL3Fnmqbn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkcOdHci2i9%2B1u%2FRNZsWFB5033AifltTJYtVWOCLK6vG%2BGU%2FYHFiUJnSOEDQurYf%2F8z8x9%2Bzb8lETLHNS4KAg7Vi%2Fb2IecmXzF858OoU2QqZr%2Fi%2F3%2B5RLDXIgZmGB6bLyHbYQna9lHXCPph%2Fz5sJWF7SQYOA%2Bp2NDWD9ydCsBVI1Ov9U9wf1SxULbtjMIbW2ljIlx9n542oWXwzmisnaTM9%2FkLuSbGpiyVcEmitAbyiGxFsl%2BLEeHni3M1LNDa4btPKI%2F%2BfY9jzNfM14asIfVr7%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909209353?_skw=PSA+10&amp;epid=12072860319&amp;hash=item1d8c60db09:g:xtoAAeSwL3Fnmqbn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkcOdHci2i9%2B1u%2FRNZsWFB5033AifltTJYtVWOCLK6vG%2BGU%2FYHFiUJnSOEDQurYf%2F8z8x9%2Bzb8lETLHNS4KAg7Vi%2Fb2IecmXzF858OoU2QqZr%2Fi%2F3%2B5RLDXIgZmGB6bLyF%2BD9Mr%2BAnkh53hw2%2FAJFxjJk%2BkEmAPizYuaqXpaMTQD66ouk0msEFurJKMCUtOUrC9KOYmrdhSs3dkslk0TleuAPympcrg3EKeBcEqa35hVO%2ByUpIAYo2BnzVCzR2%2FHIZ1CHA52KCKqva40ziQOrfF%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6721,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365329683668?_skw=PSA+10&amp;epid=19061704294&amp;hash=item550f5894d4:g:RccAAOSw7F1nLX4L&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlEoHzgXS2M%2FVtSoRYGzZyicYXZD5LEkBUeUXku6QD8E1PGdKngjAEfl%2BFWlgyGUG2r8sBCK2n%2BW9ilXDLTCYz6Bn9CeTBbyjPDGY3u13DVMg6LbO9%2B3t71%2BkxU62RwaMhlPJxtsngKLXNS12aNJY9rSyuIqpqlK%2FdgkEpVPqVwT3lTFl%2FlmExjZY0n6HDAuldOpYYmSxGVnNXUu3NBoN6sMGf0GpOMYnRXKFkg%2FCWAyA%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365329683668?_skw=PSA+10&amp;epid=19061704294&amp;hash=item550f5894d4:g:RccAAOSw7F1nLX4L&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnY%2FC1FDDtO%2BWoc2G7SZXVsINL6oJgHGRqw5OXR3V1feI6ihejDcLIVkmGNrRDjCMcLilTfhlJh25B4lXOVNcUjnnnHrUm4TPRjpm63a5rFM7%2BPWkM4HIwlCvCpNLn9pmr3Jmgi%2BOpwiAlgeAzFGTohnSd6sGJFM82MzEelgdJp%2Ff9bwN%2FKrfKrGqTe3nPe0asJWJhFUoPP6yi6TYdcG1GardCswKY%2B11mr9ojtGqhroXxLQGd0BipuTAhDBtPK7uKb0%2FeYSyKi99FRn1cEjIkG%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6759,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316048764538?_skw=PSA+10&amp;hash=item4995f96e7a:g:86oAAOSw-1lnXQMU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl5C32DUq4Q8Q4t8zfWi%2FTP%2BW0E0nxYp4QfAavBBZx%2BwRJFvO60oi3oUppKaMYZQppRSmgQgILVQVcwWpY4Nvwla2rv04wFfh9WTfNlavwumeCFYk0tso76HCWA%2BHzluEsyzsYEPiyoZOi8ZZlmGjpommD2O3hpvnWYsmvoc2lHuXM%2FHfFZPkHaYk8g5byXC9MTVMUpUEx%2FXv697%2Bs1VCIKmKNp2IUWxQX95007ea2ptJncXSZQfXshP5NQa7TNznURR5nd9PMp5NwHKCxbtcEA%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/316048764538?_skw=PSA+10&amp;hash=item4995f96e7a:g:86oAAOSw-1lnXQMU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmlvAXQGrmIW5Yk--XlAgdJ1bs0y0s8khSqMTXp6jiRCayOPZyrhXou8nLkr35k8CLxPFsLRbcfNtZ1OXd1G3TL8s2f4XhwktTGMFeDZE%2FNpOwJWXPqNtGJcjGfQwkXSygxKRTrovZ9x5d04Fs3R%2BIXWqAm%2BR8GMfRdRb95trprHmEO7CroBa12jrjK4TAPr9sMzIxoMWGPhhThpm%2BRRqaAnD2YUftsmerz7j0GLhTpZg%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6801,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833371441?_skw=PSA+10&amp;epid=3060331995&amp;hash=item40748e0531:g:4XwAAeSwhVtnmB2i&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmIN8KBRxO75e7aV%2BSHFh6Pt65y0Dpd%2FXDT03I3CPqQjLJsIqueRkM3Mr5GEx7nlzhodWVNHUc84hiEyEiJf87nemLhHBDcuOu1mTUyuJK8QA15j4NwLNJWjPw2kcOzL0YX4NiC%2Bh46WpiOjJ0aDn7eUYPhV0lzeS2kEam%2Fegt4jTy8zL8tSCuUAVfjedx4Fg02gWJDSOkTgbN24UtwJS6qfcCCVTqiJpN73nSKvuKE62r0e7MRpWSVvVSsXBUQI9pzA45CAFiVfpJ8f3DIulHJ%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833371441?_skw=PSA+10&amp;epid=3060331995&amp;hash=item40748e0531:g:4XwAAeSwhVtnmB2i&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmIN8KBRxO75e7aV%2BSHFh6Pt65y0Dpd%2FXDT03I3CPqQjLJsIqueRkM3Mr5GEx7nlzhodWVNHUc84hiEyEiJf87nemLhHBDcuOu1mTUyuJK8QA15j4NwLNJWjPw2kcOzL0aZur%2F13o1fThqxpOA4TQVKFNgB1582LyLphlGBXZ%2BxxCFaGKi1i3j83mxeSRtz5YJnyi5fGdwhqUENff7fgtru1KCSSAvv5y%2BxsNtidr9Bl%2FIth4%2BwPGVp7EMLERl01uXA7en00gbBU0HFpfGvwEwI%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6843,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958399091?_skw=PSA+10&amp;epid=9072219931&amp;hash=item5788dde873:g:wC8AAeSwlTxnmqaH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlq3UnwD4uExjsaVCU0G6uhdnhRzMd6yb88w0VOCDuNtKYao1QhUo8U8LV2YXCfC9%2FmIobVGIBW9IRGmHW8xSD91uJbaI6w994izFnod5sMmkNYg5DKy97wZZH5idNxjMkmPEg1tfo%2FQZ6f%2Fj0wxUq7Ddg4DC1dwkHgIX7Ev0YCB09IhzHy2nWvL%2BuX1yoZrbH%2BoAxMrJvTFVcxkhhsLFRhHUB97LfDbLTFtcucEXt5EQ%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375958399091?_skw=PSA+10&amp;epid=9072219931&amp;hash=item5788dde873:g:wC8AAeSwlTxnmqaH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlq3UnwD4uExjsaVCU0G6uhdnhRzMd6yb88w0VOCDuNtM6JbG1j%2BJqNfT9IMAiuPv67vmC9ihaPepNgdDKu9iCMiSXBruMDHzj4iNf29B1niHJmmZR7CiWrk1HSTDNt41ULHd870PZ0myBN8e%2BLgfOTx6OTd3ki%2BtwiAFff1Qhk5tA9gI6jnCEE89B9OoVtqJ0JGAftxkle31O3uabSfj%2BeuP1khbK830JOIpBdCSx1KA%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6881,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833371466?_skw=PSA+10&amp;epid=3060333229&amp;hash=item40748e054a:g:fK8AAOSw6P1nmB5p&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQ1O%2FLr5Q6Um6tXkYCbsn%2FPos7dPjCigQEiFB7bYuihvYCAEH0yMkTYVBR169lwHzsl0%2F8lvPjyXtEArKwxr%2B1AFXY9RHJMdmpl50T1eSpKkU18G%2BwDpv4rZGMhUE3hRe9ixQBqNzFtYG8R5LCY7uKgkcY%2FI3Y6dBccwZFQIVBM6piyC58%2F4wxBv2VFHllse2cOlupu76HVZDV2bvPdNNhCPbnuscND624BW7k5p%2BuOw%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276833371466?_skw=PSA+10&amp;epid=3060333229&amp;hash=item40748e054a:g:fK8AAOSw6P1nmB5p&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQ1O%2FLr5Q6Um6tXkYCbsn%2FPos7dPjCigQEiFB7bYuihoFaBEaNx%2F6YYs%2BwVhKDQPGsn5GNES4J8JYqpnq4Gpg1oSTG1ZjOGQj%2B1MdWzHLeoTvLyaqbnJLOOs75alz7SJJnnDuHiKiop20Rpxr2CyPp5kUbILc0Y5caar7ChSZ7x7sLML2hragBHzeX9YmuNbvYVs3wkpZqHox5158meDOJIlcG6oZzJUuM3Yr0HU7CZQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6923,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387873385440?_skw=PSA+10&amp;epid=5058192074&amp;hash=item5a4f0e2be0:g:Pl0AAOSw-ftnmq1T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKne08auhUan%2FBnhpoWBayjvw3XzJGR1PlMD8kpjFVsDu7kZkmJv7I9Xm3qI2hDswEU1FO1Pz7orKltY7RdvtWdOkRZRw5iITfScHEEsf3pSurRKtesXjqgcpFiJDVIzQ6ySDWU%2FCjhElEvfLWKPWIyjETQ%2BDG4KVMHYc2GVTta7aEIISsSR9ikm%2FYBANq8RVri0uCOrnBCHw6wyvacStOjCdvbLJi7sPBmR0Nsca3rO9RFwGehTAfRA1f%2BBSuLI3k3aj7Oi408WBLB5KiCFheO%2F%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387873385440?_skw=PSA+10&amp;epid=5058192074&amp;hash=item5a4f0e2be0:g:Pl0AAOSw-ftnmq1T&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsSl3x%2F4x%2Bl6ckDDdkwQdItxRXzD3E2KvWUV0AipSY9acE3qfK%2FZ%2BHPZNbqBmglg%2BkpzdC9%2Fg2Gs9DdOc0Wp2T%2BXlqRrG0SrOJm292DdP33SM1Kzm3uX70cNtrwozvwh7KzhSymhiPUYvdYmFqZwoRplEg9x0YyN8Nw6%2FEj%2FjFci3U3%2F2cPKRYf30bC0TZbpuNwwXkG%2FJykNBcIlFkpyGcfMwzcdZa1WFih9Om6Ek8RQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6949,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909202656?_skw=PSA+10&amp;hash=item1d8c60c0e0:g:17kAAeSwg5tnmqV3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl3qeqKsfEZ2h7pyBgtVHyBM1wU2wIYW0GbgUTA4vKLneg2dbBWZ6%2FRb3oORLAt3GN5VrhsFyN7Nppv%2B55IFDT3r3qDfOL960Gu8RgivtF6F3%2FLdQxThHu8WcmHjOIsHa0dVcLxJmUeFNzLhR%2BFRfexs8lTtZPubpRs7otcxSAFdR4qcWXsw1E47HgeeizV0VdbGkKh3ayD%2BoqMkt9I3OPCnSBvbChhJLBEOQccG1JhDA%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126909202656?_skw=PSA+10&amp;hash=item1d8c60c0e0:g:17kAAeSwg5tnmqV3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl3qeqKsfEZ2h7pyBgtVHyBM1wU2wIYW0GbgUTA4vKLnYG5fBXrkuMO%2BSJbakMSR09t5l2QYWqhWSkcuXbxvaWNzK8iyfdCw%2FA4JG0I%2F2rObttr3BnXOTuKSmfZG%2FfVGRbBGUXhdgYBgdJjOMtqzyLMcLIA8u1TJK%2B6WFyP7k3NJxdtSx3nJfb6T2SDOw7LXG48cmjGCmAFqAE3BVCDf08gjdpV5s9CwbhVlUUp85XQ%2FQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6987,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126908966610?_skw=PSA+10&amp;epid=4072227369&amp;hash=item1d8c5d26d2:g:XWoAAeSwXkZnmnt8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkpRKIvB1AYxYdRoXT1uXg%2FfbCchUCXOSOE6H9p%2B7QMrY00jGOqUIcjq7je3AwI5JKTfO6FeSYmlQqvZidGMBtrw4jFE7Gu%2BBYob1ttBExBnEp%2FWg8bMyFlE0XSeRFQRAJiKEFaA6Be3PnNz0in%2BACYImSYYEKSbdPaSx44X2vTHBt%2BZ21TiF7sE0X8WObZNCrhMn308mIVDYrv9BiZ5AmjwquFoqAacFFmw67RndJ0Tg%3D%3D%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126908966610?_skw=PSA+10&amp;epid=4072227369&amp;hash=item1d8c5d26d2:g:XWoAAeSwXkZnmnt8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkaGUJUoSzYMdg3hjNIJYO8jQRj3l6tbK%2B%2FZZN8npKl5Z7pNQgdUbX7FQDfZ7SVUFmjbhanAw779mbtEyvQcnp%2B7aBmkCZos1vCfoCEkKJi3NhebSvFt8sgHTyfKBJYYSgQ5lk6bzziKefvspKH73RU4lqLPgplYX5Yx1Bfk4iCU%2BZox%2BmmmvqOABo4WPHgj%2FceoRJM3azXPXFrnc8j16CSowDllFRUtvj5LoEPYZDGBxVhWR%2BZUbaNipoVCAeYlvrKBnFU2uYSqgcR63yj7QgT%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7025,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405507018448?_skw=PSA+10&amp;epid=20062858362&amp;hash=item5e6a1a0ed0:g:l~IAAOSw4SBnmPsM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaKkEpqgjDBLodCLlI%2BOMuS3uZXuRXymnzDSueK%2BOn7BcjoHFgUSe%2FVRQlm2GiqvKPc4v3nTVOycuIBfsyNbBuEIyp%2FEzdD3rnuqI3l%2Fro%2Fqspw68RhEaFTkA3WmzFBIU2CyOFHQlDawztvy%2FX%2FulsvbbNC2fcMYVHGQHkfWEO9qOeU4S%2ByaEBgY9M98woDjf4gCd2BsNOmEzFzxOSg%2FYEhUjx4hQ6yQSXwRp9HaqMAweFz1ywRgqzU3PNKz0l%2BKbGOXNHyVLHwlxe5s1dY9wQ%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/405507018448?_skw=PSA+10&amp;epid=20062858362&amp;hash=item5e6a1a0ed0:g:l~IAAOSw4SBnmPsM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnMG8q3I7GVtkUOMdeajpNYYKtjXORpjA%2BRsoGQY7dW0SZRs%2B6NXL16uuxyHqV%2F80K2G7mXLD4nNpB%2BKR%2FEP0%2BA1C1g%2BADX8IxVS7TL2%2FFa50uHydRrYe2nppWcjJOWL5bvHFwxRlR%2FZCO0Ddly%2F5YNtN4aKYXUaZjsvbrJ1Ce8yHo6jftsm9Gxk7S8%2BHb%2B%2BUJLQn2keRPdcrbReGbMLu7WwI%2BIbMxw8J27O%2Ba88G54VQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7063,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396154501371?_skw=PSA+10&amp;hash=item5c3ca5f8fb:g:dL8AAOSwG~9nlwJz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlmHGJ4D%2FC%2F3Y2d5QC%2BSg4Xneo9ePJoLO4SwEZnoz2bhLu1hzIL81djCcv3YCJqF4zJ%2BQJugr7d%2Fmaf8t%2F824R%2BCmkvRSQFFqGzFe1pAM3QUFkvMPcpNXHmMfg6W2uKUbp8CXlTaId1L40NwwTj9kBwLRTm2hViX9LJoiov1domIHCvzavYwOLSoC6BY99MkV5U1hJ5rpOKeyFGsNLQPV3F2Es5kW8OFXHHKP6EjuW8dFC0e%2BTUTKbbD25boqybzt1SElkiYquWESEpNsXmlofm%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/396154501371?_skw=PSA+10&amp;hash=item5c3ca5f8fb:g:dL8AAOSwG~9nlwJz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl84wJtharGEw9Dmb6tE6P%2B5Am1%2BIPFfXv70RNs4VIy6E%2FCzjO3mg1l0HWL0J%2FEwF1zLIKcE2Spt6%2FE3lCAhsfPv6GaOdElvsTA4%2B5p%2FnOvM8qBHHePfUa82SnTv4sQ3KALxoXxFm7Uoc%2FSKTcIOTyrUItRfqDgm40J4DraloMlFYRLACr%2FZWxK1U6lAdUq5iUaPNL6rcKLkD1FKWJ7HnsG5AKHO6vJpEOF9hZ4whuAXQ%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7101,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235749045619?_skw=PSA+10&amp;hash=item36e3bcf573:g:SAQAAOSw9tlm6kBz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlup7Cfo36cpdXQbroXmMFzETsP8%2F1CDVcm0peMOFXtpY4VFTyUaGo00Iqoq1pIUaeTRN1N1DjKh2vwxSmzI%2BfboZRyArcsFnzHZRM8oDopIYe77u7k5C6dK3kktSs9HdA5nxrVc--l2lkrIvb68UXBI64Ejyct4cUKxEL72FYHyy3DIbD7LGm6SltXkT9c0IYNmvU2MZVt0weSXvacDNk20T6qJjAtTQJ8RTeFHJhoUCbpKfYnWgl9FTwh66wTvMgo8dRlNt85yoMe8ycsl7%2Fe%7Ctkp%3ABk9SR_D0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/235749045619?_skw=PSA+10&amp;hash=item36e3bcf573:g:SAQAAOSw9tlm6kBz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmWbHicXRsAagjlpztt1bwOG2P6ieHAkoDjMSjEQm5cbraVNtBGbxTIRpQ3IXVSaM6yb%2FRmPrWRppjNgxMBSGuV6kx4VfSsBA2wSnLZpv0hTDO9KlfBne0R8KBAEGpbhsHRgOZS5T0mkVhwVhavC%2BwpPJXmuYNDaP%2F7EHmvab%2FDHBmh6%2BuDmnVSdk0nW8bK9f63FNQTIKujDBcnopZZHKA4zAH9AaXSd9m5Dkfp9na1w%3D%3D%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7143,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335587984403?_skw=PSA+10&amp;epid=2328284511&amp;hash=item4e229a4413:g:sagAAOSwePBm8tcK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmO%2FqX4PwdW2zDBg0O45hICZm6EmYa0t3iISIixcpbeKALwhg0PpZO9N3vm8d9Rwrhs3yJSDuPhyroCMgTQeMqYY7Vp1%2FuvIguoAarntVLt%2B62pUhVb9kjsnNi3iXY%2BRqfEHYhMfrzNqE9%2BZsLMivKydzhUoXDbl9YDLz2oLXTRSZ5yhrAHZ3nwOhcDN0lKYVGB49qbt4eIZ8Dj48P9ocw5MlvaNG1p1QZf%2B7a%2Fu4pFLw%3D%3D%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335587984403?_skw=PSA+10&amp;epid=2328284511&amp;hash=item4e229a4413:g:sagAAOSwePBm8tcK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCfU50%2B4UAUYTMOs2oxBtRXQqGErEclzsNQO8WzCCRjc4tZKNDQx7UAm7xEKqJWziTUo62PAw2dVj6AkQ8614cxNwhY%2FO7NEh3c1m03ZEkB%2FbgzCXy8QmFJUN2xbD9EFxrksqRIdNuhPfIfsWHlNBTsiryLX1Y0Hy8DSjvybGTa9dnuYZdmPwYrpBTqzK4Kcu0sOZKlx0cvk3cO6xNa84uVBZErhNurG2Wl5ZiYVZawlkG9jRCXiQmTCIR1rHKqeVLR%2BVcy1eClyCxqr55EYiE%7Ctkp%3ABk9SR96KnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7185,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186924169717?_skw=PSA+10&amp;hash=item2b858c79f5:g:-pcAAOSwHrBnnuHn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnIVt86Lbs%2Fb0sk%2BeBNOz%2BL31o%2BCVnf7bU2m5PiJZbIoGlswwzV%2FFHG2MMVXHZ7GjWZSNdRroX2aWZF8XckA5Smc28hYSWokeKDjUsBInERjNw%2BZuLX4NWFjQVv2jIMGeBogUiYGsLSHXd%2BtC3ynZqfkB12l7QDCdAde%2BqOpyACWW31ynDPVqkvbpuU6XbiyIjhwoYpIkJEb5n7YNIKOyoF8qYwQZbq1CAuMBsatj3VVwGn822iu0RzvinjjsF%2F27Tk1KuhB%2FwjrT28BRyEburL%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/186924169717?_skw=PSA+10&amp;hash=item2b858c79f5:g:-pcAAOSwHrBnnuHn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnIVt86Lbs%2Fb0sk%2BeBNOz%2BL31o%2BCVnf7bU2m5PiJZbIoGlswwzV%2FFHG2MMVXHZ7GjWZSNdRroX2aWZF8XckA5Smc28hYSWokeKDjUsBInERjNw%2BZuLX4NWFjQVv2jIMGeCvIW27trmbaE54AJLjYTBsfIUGzQAhW1JL201sqYzX9ojW2ZHJad01eoWOyzr6awFTcanWCobsZ7x1jhG8EARGHgjOo3I4Fd1GFQQAYVKbt%2B8dKTGCuWdu%2BRAqXr%2BOIf54IrTJ%2F%2BZaOPv%2FPWm38m7D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7227,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306084876919?_skw=PSA+10&amp;epid=4055891464&amp;hash=item4744149277:g:sV4AAOSwuUpnoAXa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZaxTWNF9F84iixDcwOzPq4O1W5k%2BY5774e7nmsQw6QTp%2BbkU0RbXVEHxJ003kl2M21A%2FRdOCQ1Allbfw6litdHF2aq618ekXtlLmOBkpdohNWcXD1cvOP7APz%2Bj5hNoxGj3%2BR7kSH7W3es6VuW8CMX0%2BqphSpkiAAOeASs9ZDzOJjbAupjvXvdExzRkIM2nHTTHgX2jr6MKweLnibdDC4la4AzJhMFrt%2FnHDfPgkYV1gY31Gpsgkc0osBoEpNWCpzkup2CBAC44EndeJ99mKp%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306084876919?_skw=PSA+10&amp;epid=4055891464&amp;hash=item4744149277:g:sV4AAOSwuUpnoAXa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluAkTJucQ63YQsB24YoQiKvpJbrX5Q1XmVHvLinQiznft80IejJ9p1OPxSEyLn4fAfBlhjqW2cuwfcPMXdZzsGxKtlN%2FIuqIe5y5RP8p9gxNWxNUuMeZpeTZCwzj%2BsRu80MSAwdJttBs7dGfKwsrpjHvqdDaBOYfDPnnBp0DVWWXoyFRX%2BeFf6pdI32ybdTQHznWYnVeIv4SMPGHyhtkHi93%2ByyHofXgJR1ty3Imtsng%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7269,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167133632335?_skw=PSA+10&amp;epid=6055936451&amp;hash=item26e9f0d74f:g:1K8AAOSwvRtnSK6q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5LNEYwXagbs9b03N3B79Vw842cXDSEeP4iolGJWpTVu5AOlrfhxLKSABYYxaJWI5UCrXUj9j7d82qzTrlD7Rh2Ds3b4iYxePnlzMucnbpMX9r5R4TuptzJL0oXex0gAzc4FhppvZGgzG0Y9IkMigwr5Qa8Xe53lWYVIt0o%2BOX2jUv8qN%2F0bvd5a7oaoKyo5SKot8mRzXyKLvSJJu15mHT6kYl50Vb9waGpnnxcOWJBw%3D%3D%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/167133632335?_skw=PSA+10&amp;epid=6055936451&amp;hash=item26e9f0d74f:g:1K8AAOSwvRtnSK6q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5LNEYwXagbs9b03N3B79Vw842cXDSEeP4iolGJWpTVryCbhi2QDO6skToLMGXcVn0aTnXs0e%2Ft5TFkYOkrTm0Jyj8MysJcZfPpixTBOfSbjjSA5%2BXWyF24kF%2BEPojOnTTtckM4YQHnqUL6B%2FfjzjK7UifHEX%2Fn2XA%2BnJttAsM%2FE%2BCvYlLsUpCCfgyByKeodN9f4XhAVmgAEPYlQf0uJFwJIFNFNUFoAJuRl3UNMwiSw%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7311,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420671489?_skw=PSA+10&amp;epid=4062852895&amp;hash=item4c00302c01:g:UmEAAOSw7xBnmB6N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJUmFy5K2oZWIVzSJEgR2S7bWKSrOE5XF4hDe7Fss4%2F5U6juzjEjh6xY4R33tRsaFV%2Bg0SaueeHEVavFtVXC5s%2BZPtUpsLCqDVzXqy8SIoKivVDyfKFy5oE6mc9ZN0thMHUfORr%2BiQ4e159pmf75%2F8YqGkiZhA4Gf9EZoG%2Bs3xA5ZLsT4qYJMuSGQZs%2BgbvI4a02e5eCXVGGdapUDUTmSuiJbJpT5yF0VXlFISzd6EN0okFTBLgvy2kyodR1lf%2FpGTyqA9YlVg3WPt3uSa%2FnX6%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/326420671489?_skw=PSA+10&amp;epid=4062852895&amp;hash=item4c00302c01:g:UmEAAOSw7xBnmB6N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn1sOG6kXNrT%2Bjnz51BX7eTNTBNeMI3%2BwJ3JS%2BjapQX6HYECinTwadsP0X4LxiYKbxiu2VkVGBSU%2BFY3ljCfBRvW70pXhkq8an1UNaCvNSTLh22R98D5kcY3JjygshXtjvQRf5rsqicCazfinOYUgn7QFtp6djkM%2FYy8WaYrfaXWnhJgSgW6XiSQgfjUa0LAMiK7DDY1%2B1Pf8xbqOy83oRZdVvQGrYuRNeuPFfPrU8KpA%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7353,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256803885329?_skw=PSA+10&amp;epid=5071770821&amp;hash=item3bcab45111:g:ngYAAOSwuLJnoNWM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl018Pu28VDIFvu8C%2B8v77wVhI7RZHy24qsOO3Y%2FZXTThVSvbJxMyvcR%2FKoPfehYNnYylDvcsbUI2C27nXF744kHdUKfI4BDYD%2BvuV3yjZXjaCZCHdivYpbCSfOe5muYoFv5mWBb5vS3FhNamjl3CyHh89mqtssY3PUdf23UNEA7QdfwoINhaGYTyXGbWEiV5FYLq9%2BtdNH5kyy%2FSLSFlgNfig378rI%2F9SycnHCYdn2Bw%3D%3D%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/256803885329?_skw=PSA+10&amp;epid=5071770821&amp;hash=item3bcab45111:g:ngYAAOSwuLJnoNWM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl018Pu28VDIFvu8C%2B8v77wVhI7RZHy24qsOO3Y%2FZXTTnniD2xAwNrfI%2FJn1qG1FGUo4Yq6jaAKHUCpONf2X--DBmR%2BC6t5BGLK%2F2qOwfNpQxMJy9Av9WY3YIseHmoyOgV2t7mB5kgxPG1Jsynuvk%2BscRkYk9YHaRwaKMFsArctjOi6w7QkekjoigtHBCb2Po%2FLfk3WUc3Y4%2Brbqsp4lJDpFO5rDS2hwSGkaUS0lL%2FkUg%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7395,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126867093361?_skw=PSA+10&amp;epid=17055936553&amp;hash=item1d89de3771:g:vGEAAOSwU1tneeBy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpFsDauCg8NS6Gw82oXPOf4aDctu5dudW%2B1M3h5qtXTPT%2BCioAIOgovT78KOruuVhHHMMDHZAiMjMnT5Wyb6%2BwV7Xj7lwY0OpjnOwNaLbeLcVjVCVQYp7DcLi7x2%2BMoy1nBmy7%2BKxHuFN7xeQ81oTJNT1p%2BCJ4L6H7w8roBOfrqH5hZX%2FUdGTwUMtEa0thVbZEB0kCihDhwxNHdZPrZMA3LShFyvqnrdfCgplLctPWztVJXLbRLURlQGw9h16AUn1OdgkOYEvKRvKbTiDukjXb%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126867093361?_skw=PSA+10&amp;epid=17055936553&amp;hash=item1d89de3771:g:vGEAAOSwU1tneeBy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYyTwNu%2FjdXMPhLxF1yV1bq%2BdzqR%2Fe5VI%2F7%2B19P0t2%2BXey4U8TqNpd2fLkdKfWoHBELQPKLEGVD4MbV9Qc%2Bl4Ofkw9f4J2rEr44vtTD6vU9QDEWeDdjvpKtBetlwkgG%2B0mlCDvzSyTuJMurG5iS62HI5%2BxVkI9dmuppRaEmbVO8b6vtHotPu2L%2FR3l8Z75XWC9iyv3ndJHksYjG9KqcqBkfMjEYB99tnSrW90DVewe8Q%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7433,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420652288?_skw=PSA+10&amp;epid=23055870931&amp;hash=item4c002fe100:g:zbcAAOSwfm1nmBmG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9kLEinzl7rurvS3Y2NClAU6W3BQqxQ%2FGiZ3rSHbCHQ9rbY0cYYw2V%2Bi%2FzOlpfYGKDNdGoJcRYvi%2BB8Dcs2zbRZk7rEsDaXojIo%2BZWVesdz2SpH6UPwOpFMxLOMQDb5iWrUI3XYCFIXxZsNkHSFJq0ZQS1fbZKeWm7U%2FLqObgsV5Gcq8IZWooh%2BzQgGV20UoWboKehsz2iF%2FLluS2hExV%2FQyZ9Q1T6j5v%2B5kvHwPenhQ%3D%3D%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/326420652288?_skw=PSA+10&amp;epid=23055870931&amp;hash=item4c002fe100:g:zbcAAOSwfm1nmBmG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9kLEinzl7rurvS3Y2NClAU6W3BQqxQ%2FGiZ3rSHbCHQxyFJ3X6eK23GT5Fgox9K%2BpGCaWreM4kJT1Pyi2%2FRlGfF9YcR7yAOnLT0x%2BPgo6F67KZUoUTD9lKmvXEmXr2J%2BJRkC6zvpa3MelOi6t0Usq9OVodT%2FrjSt%2B9B%2FltgkQUq7DMLpksmH8%2FU77HA2ENdyRr9egoahboLSnyT1LvoZLDP%2F4R0uj0l1BLuMVqnts%2BZQ%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7475,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264709320?_skw=PSA+10&amp;epid=27058770528&amp;hash=item2fcabae6c8:g:R7AAAOSwYPNnoUEn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn9UV67lHM4FJrcJoaryFi%2BCUyN%2FfSiP0o%2BXxaGXN%2BrxzhvToWw5vabPyS47FH9zOwJw1BJgwqabIddrG6SRGf0xCKQWIAd8gK%2Flu7J4u%2FIqBcGd6GpvYenIOtfzrrbZ7izUDGG9aRSm%2FBwiIsmA8%2BJTssPZvJs%2Ft7yg36wcNO0HZZHqCJv9AYCma%2Bqd2krsM22AJP2w0MH40rwrJ3neibI8U4lDGnBkg8IjU6GRn%2BE57b97ImL6VMA0X6aJbcmipQhyJ8EXaVhvoczkdBXoXG%2F%7Ctkp%3ABk9SR_L0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/205264709320?_skw=PSA+10&amp;epid=27058770528&amp;hash=item2fcabae6c8:g:R7AAAOSwYPNnoUEn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlGtULUBSj%2Fpej0Tpbr546Qw94lOm2PeEK9oWgonwC3Ez%2BY5KrlDi02qe5JClbG4j%2FOpYX9NH3b1tbnexoZ4y19jUflgOA%2FBZ4udix%2FuhxqYzxygEP64Bx58XaUqQy7oA%2BL34XX3ldx%2F2Cg0Pf1dJWM%2FW2tzXZ8ziz2FKeRKPSUCgHEwgXDt0oNB1v5oQ%2BBU01eKcXrNhD%2FhPWEIqFOX96TVjHzAiRZZfBEW5E2xTRUA%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7517,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296964309915?_skw=PSA+10&amp;epid=22069566427&amp;hash=item452473c39b:g:9a8AAOSwgkVnlTHa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmyValQ0m8P4anQKXQ40uMl7eFThcIr%2By4Enfj2GkdgsoQ4wVuL2TkfTB4pxJgcS3Eqc2ihzBYNJJ68vjgvC%2F%2Bv7%2BCG4%2ByGuXBXx3kRm6PFR5LOveK0KfKK7x60smWxZCIq05dF%2BM%2FTPRyN6UdAcP0s0zI7jwX4DC8nyxeSWHi5digBr5050bHS4HiEjP7mECtAHZoK2VEsSstTz3GM63cwWXDSiwEgawNH1Wn9rnlZww%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/296964309915?_skw=PSA+10&amp;epid=22069566427&amp;hash=item452473c39b:g:9a8AAOSwgkVnlTHa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKG1F5Q4ZUxAzmR7B52i58WE5mWZQun2jyDFfTH4EFLJURl0n2PcH%2BPCZHepzSJw59nel23lLu1YCf09x95Ui50XtQGqA84YZCyJbGeF16Zsday38B2xvT2yNyS1Kasc5v4QDDhWr%2B%2FmUGKiqXQ0N9bvp4S%2Bc0itikDbZa6A3nnO4aM5%2BpcvaTW1yTonSUIsEPnO%2B48R2f0oSGlCnm8KRyhYu5pduWg%2FDzk2KHD67kXCnU9gT5Ew3C4ps4BCjGTr%2FGtvtXPLZi6CXhnXa%2F9mJa%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7559,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126833361181?_skw=PSA+10&amp;epid=10055989744&amp;hash=item1d87db811d:g:Wy0AAOSwsEVmjPhV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgRpgswASkoY7DfAWq%2BX4rSLJeCppx9mrbkNpC3G9ryH21TT7Q%2F%2B4Aj%2FtDA7lu4kMQ88SKCYOQy6S6PLRsUMQPyoeErBQEpZNK8zcwRHL4lxw7SlNdZf6Sc13t9%2BO813Ckch5JBi1s1On9jhLee%2BGZEWvc8JBzhiTN%2B2iNByWc89EVjccfIFh830EXLcwRZgZ8UMB%2FRjIaTlMC%2Fk01acMliudaSmdUI34Bgu1OxRiH9lDQC07ljhH8pSnCMaNGXnEc7wq4NClDFLAmUbYqanU7%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126833361181?_skw=PSA+10&amp;epid=10055989744&amp;hash=item1d87db811d:g:Wy0AAOSwsEVmjPhV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgRpgswASkoY7DfAWq%2BX4rSLJeCppx9mrbkNpC3G9ryH21TT7Q%2F%2B4Aj%2FtDA7lu4kMQ88SKCYOQy6S6PLRsUMQPyoeErBQEpZNK8zcwRHL4lxw7SlNdZf6Sc13t9%2BO813Dc%2BBNVh%2BbRm5HkelOqX1J5RvB%2FIQ4YRlXC4nGv0Dmu6lGOBoqOFi18%2FOWrvx4LJJMEgLAeDdabO7nhzi41sMGOHJQHR2KqnfBmwdS4mDXwaTLfLEyoyIiWc81cnwyEiuNFDUh9aIcxZ%2BMcpWaX47jL%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7601,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286299911640?_skw=PSA+10&amp;epid=28064639686&amp;hash=item42a8cdf5d8:g:llkAAOSw2dtmjpw9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkAWWip4hvst0n0pbV7%2F%2Bij4KLItx8Hq%2BpSN%2BQGZJYhUaUtUlX%2BUMACl053v10ZqGkTK0VyDrRAxq3utSozTqqwXJiCrz%2F8hfjxw5CYraLbzlAFY%2Ft50XczNr7lD8bhMaWdsweusY69sEHlPIonn%2Fh5yRo6evYLVs0V424GjyWJz%2BL7K9040zQ%2BG1BGD0HZDO0Up7fZDVzWXYpQOFyKPT0Igdwd1qD9EPBaw9npR6WcWQ%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286299911640?_skw=PSA+10&amp;epid=28064639686&amp;hash=item42a8cdf5d8:g:llkAAOSw2dtmjpw9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkAWWip4hvst0n0pbV7%2F%2Bij4KLItx8Hq%2BpSN%2BQGZJYhUQ5yliMboa2pAzcmcV7VxkJpI0EXLkVo5yYTXiu1OLacMW8xNtjjbhF60vdnXb70zcAdFf8txYtl5iwKk9TkNPrLQ9hj1pZ%2F9ptyeAPlQ4%2FBdCbfqhCYuOZtqWp2F%2BAz%2Fi9%2Fdt3jbmTeHyxdZCoZEEFzpgAmt18uREn5Csarmn3u3u%2B8x%2BLt4NOucefJHiWKsg%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7643,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405507996701?_skw=PSA+10&amp;epid=11060761477&amp;hash=item5e6a28fc1d:g:muIAAOSwUpdnmZQm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfsr1a%2BLz2KgwBU%2B%2F5wgRObi8Jx28ybQKB1Lscenxvt4blBRb4vW2woWy98IJBqxq3b3dsqbr5aFvEdhRwTwW3O04Vsz1nRvMcmrgP8BUZK3ql3O3km8SqGsEcxDz7O%2BheH928HQ2%2B9e6JEcYiUcKmbAapIfcYIS2MDSgQYRWQjworUHAMYVcd03h3qZ%2FiVPf%2Ftn6qorumq4%2F7SIu5aHNKiew8hIlq%2BVhaYagPUeNapg%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/405507996701?_skw=PSA+10&amp;epid=11060761477&amp;hash=item5e6a28fc1d:g:muIAAOSwUpdnmZQm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl714Wax1mIQM%2Fu2lBINf0%2F2kG9U17hteJo%2FbHHAZj8gGOu20ifYarkSdIYJGOswph9vo76IhrNLZ7BUddrqbHcQrROWP3Vk33uufvnglcwykUi97h6M%2FkQhViT31Om%2BolwROgCeAXL%2BQBKUpN7tnq0w6kiAJDksyXfpUCzphAm1MDsmT0av4JTLmEv4u%2BSmMXICmRLaDhO0qeAqB38B9r1AdUW5Xnhm864K9Y%2BtzR9%2F5jtDk%2BBfck2k5yiZpTKN6GUhwTNwSjasColTWwEjPp8%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7685,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396161311043?_skw=PSA+10&amp;epid=4055993776&amp;hash=item5c3d0de143:g:3IkAAOSw2oNm84bp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnxuwF960662mYZTUc%2BgLd0mJ%2FsbozJMfghHvxSbnpqfxsHU1W6DFL%2BDSQk%2B8YpsOJn0rilRoqOzZwv4IBSiCuW0VJVL3LvcLco3A5k2mGcwhnTJ%2BfOFGJSyNuNaBpTbG10JTuspBMhTjx6aCViQD982Bwp3IRkIwtWqt1L%2BGzS6sY8zWCgOiRFscNtXExoygewph8ss2oTyhzlZ%2BqocYKsdlzJ1QCd15Yv96PxXKoDQ6rbPPVKrOGCbmaV8dtQDmnk7UPOSkSI5yl36cLvlDK7%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/396161311043?_skw=PSA+10&amp;epid=4055993776&amp;hash=item5c3d0de143:g:3IkAAOSw2oNm84bp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFWQw3qw%2B7XwpUPmDcDjqXF%2BZaOVvUoeCGLZq13CgYNmcEMxtLcc0%2FOkF%2BXOPWgHZp8dRZy8rbu2XqLudCW0fITA7h3J4sbtecsFWDB2ZOx9vjbYdPZcFKDjA%2Br6eRLLTwvKJxKHxw0JLhLuKafAOngZZvRinuQTI1L1vAd0Z3Bg07HAAKGZlPhOeDJXcO5kvOiApJ6c9Ba4YeIhQq77qDi55EyqzYaetaMM%2FBLxITxg%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7727,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365374374763?_skw=PSA+10&amp;epid=18072427547&amp;hash=item551202836b:g:lY4AAOSwDn5nnmDw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmtyHnyAeSC38%2Fo53YQtJWNoZthgJLBHZqckGSUYf6wDRUlb3n6FW9Z8SiMoF93D22xpxym3bemxDYPcOM%2F6Or0%2Fw8Dj%2BVtbMgJ7baO3HdW7It%2BoCCgNROMXsPJMEL1P40S6jtxqRvvJQGQKkB4qMtnTsAMgPAzFyyeZo0sraw4vXftRxUjMjfTFJW4vagZJVb3gKc3ajebJ%2BYuNvJTYdE7lfEXndl4RspmGIE9Ijp8rQ%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/365374374763?_skw=PSA+10&amp;epid=18072427547&amp;hash=item551202836b:g:lY4AAOSwDn5nnmDw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKme%2FEZmc8Q9hc1ScZG545ItTdRGn92Aix5nr19bvMsak3zx%2BvU2Z4Jy%2BbtGl1G4Z31Tsb6oZytPV%2BGYylIBtGUfpwCAZPU1eDTb%2BIXfPt3Yw6K2oih5XK3bLWOZI7NJpi8WY7xlgvI2o2LBiRgFXB%2BQbhoTZsM6xvw0zaJBRMVGZCug5vOakBZ8Y1Hx5kWpO0JuB7BfGNRwZrzyiqCTDRSlLYNPcVGjHv5ruF8lInNe9e1Jxzi9Df0TK3XgSKc%2F7nZN%2F9tYAEb%2FOZMSNBW8ob98%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7765,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266731944766?_skw=PSA+10&amp;epid=16061694329&amp;hash=item3e1a767b3e:g:DAgAAOSwTuxl~M0x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvZLGM352UVUryrDhbBd%2BwKA2buCbzQbaJDu7g3jy9lEllT2HlWntWxiX%2BqgCsTM6X7r6KHY4vxny9NuHv2ggBqdYidjKzzCMKAS82uQArLtjaQhK4m%2FkZa1MbDFnvF5u90cZbpNveiTh2wNSQUxaLG7z7zzt2AAICwH30Vic2h9Pg%2BtXqlKJO7uKWecyLqwcfyFXGfI5W5ijyQUUgOUKqU7tTCxdMcLywVSV9C3d9aA%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/266731944766?_skw=PSA+10&amp;epid=16061694329&amp;hash=item3e1a767b3e:g:DAgAAOSwTuxl~M0x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvZLGM352UVUryrDhbBd%2BwKA2buCbzQbaJDu7g3jy9lB4NZw%2FJ%2BIspxgkfu7nOjGGdxn5TaF2he3aOspUW0huKaw0bSnVKysUROrCVp1oIx1nMtlW1nmf1Ur09az6CxLlXqkaWvq6Bsw7XUuO95ZTMuE9Q0QTiMlctNYteTSSxrby7R3t47l3TTZ1gOa6q5Tx7G5I%2B%2FYnfyKgSQ%2BJPgSBgHq0RJ1eogDpvdqWcbf%2BWwg%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7807,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335725305651?_skw=PSA+10&amp;epid=14073106818&amp;hash=item4e2ac99f33:g:yw8AAOSwz8xnWp8i&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmrSGlkJdn4Pk8tXc1egbS9MPMHa%2B9qOXe2cC4Hpc7Q%2B87Vgcjevbr5tO3Rm3P7R8qjxQprWV2W45x7jUQC3BXSbBRZLT8QHTVryA7VXHOV98ugZ58tUGCwMA7jqwQnAec3c627z99ZrE9wInUQOc%2F8S%2B0KK3qgoJeQCGYwGaFPZdhW%2FQzdRR3kP%2F%2BVEi0lQSGm4J0ZhCUXg7eUZaGhswsqI55IpqFakwLGis%2FCHaNDSy2yIGAsi8USm%2FGqS35OCBjokXcFZ4j4zawB5H6osmew%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335725305651?_skw=PSA+10&amp;epid=14073106818&amp;hash=item4e2ac99f33:g:yw8AAOSwz8xnWp8i&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlRPdLaxdmP3%2FJ3zhf1HsEm%2Fd80eahAS1%2BUXyJGUzwcePocvWWGiSsArH%2BgntlReDCaiTKefA9jwqUpUgop6TpL%2Ft9MZforby5NlWp3oY%2Boc%2B%2B25BS4xkLSyCsfpLaQaVMI6wkEmL453ZR0v3P0d0ifuxN3igC7rsvQRMK9Mfnch4KshRVcJKMK6fmVs1%2B7x3%2F7g%2F51plaa7ITQ5Sd8UdWPNTZ1LhvJhyFIXBGGIdbhpQ%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7849,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356403104658?_skw=PSA+10&amp;epid=10065683803&amp;hash=item52fb47cb92:g:ksYAAOSwfCVnYmQO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPYZKMERELY0xzSQeC%2BWrZSjdh9qismQwNp%2FgrYBvBjKGmoG2l177xZDdWl%2FnECHEjsa6mR6hwAy47CfDPdzeJc%2FgkiR7kq3DA5CqnOQOFLM0ZJWgdn0V6%2FNMPICommvYATQp6pYRR6wK%2F4%2FIq50Gea7m0B2gTP45tE6hC89%2B4lmOFt1EcOjmWNH6aFlrGdpy722ih6eDgVYin%2FTcf2p8d0SkOQCPBYusWuOd2LM%2BblA%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/356403104658?_skw=PSA+10&amp;epid=10065683803&amp;hash=item52fb47cb92:g:ksYAAOSwfCVnYmQO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnjNp7%2Bia8bQQeLVzDWNy30bCkH1wSVByaZzyatiiVeXVTX8IgE2yaeuVy8ZHG32IQSc3ClOa%2BFooIbFXdSOZF11mkXWc1RMAKk8VYt5grZ1SIrcV2rOP7KvmpamdDCVl8dvecCUbbKWKz4OceIGUtIiMXz6So7SUJfjGOr0alvpjyB2Sk2%2F8QnfMuOX0%2B4%2Ba%2FtCggMh%2FGSHJgvQZpg9cH224bCer8tatZ4AoG6U%2FY5nLOeQtHPwuZ9ZDvst%2FgADucYPnlHzYt6sgsg4XyXg5yk%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7891,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226575896671?_skw=PSA+10&amp;epid=21072579397&amp;hash=item34c0f9d05f:g:~fMAAOSwDQlnnXer&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkn5ETzgovlVrZfwkUsV2xSaGP00M6GkpBoH5hCIwpt%2ForAfW93xq4lFeGN0FGQgwYFF88C%2FjOZLM1LRwQEgjfi%2FNoKE4GHj0CPXmARK74HW%2FUmm0HzF4ZVL9PzIZ9gyP5GPIl7y7V9U3J7ReDVGdBP9PF1jP3nkfXMTkn3qLsgPxJr2spjrcs1AmJlvdn1%2BL1v51DvLbPmDlTKdS52mdKN6nDDgZcLme18OujnQqkXFA%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226575896671?_skw=PSA+10&amp;epid=21072579397&amp;hash=item34c0f9d05f:g:~fMAAOSwDQlnnXer&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkn5ETzgovlVrZfwkUsV2xSaGP00M6GkpBoH5hCIwpt%2FmEfZ3CWHO3Q2QmFumF5lrq17iNVIkZhOsHZ5wdEFeZuFX4hFtWSXfECdoEMeGfSiDgZclFIPDfNbY0rOd%2FcsFFxvjwZ%2BZpX7CmZpvl5GgeowvILzzQrSORkGlhnTj9oYSBYeaWyfUO0Ob863fDMyDQRoCLIVnwC8vwXJB%2FxhqShk46HE4poN9NatN12CcV1Tw%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7933,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205113820279?_skw=PSA+10&amp;epid=17061504860&amp;hash=item2fc1bc8477:g:ShMAAOSwQctnO7Ye&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8bmQFflAq34K%2BECEtlD%2FPddX7MBFZMU8Df%2BCvz6ZkPlIMey5Cb1YWXsysFeHR66IT61CWKcBn%2Bwe%2Felgr8nvYSF4Lq1xh8AJLcn%2BqGVHYeTHNTj0XGzhUTeq3xB6nx5RCi%2BhNDtyqcjVWpj5mNDeG5v1kwkdZKDJ8EUA--ulmOkJv2VScwB%2BiLn0YYl3hEvPDKyTiY7BEr7JvHkOoUdMdIgTj7R5Vct6rQ5hKNR%2BYqg%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/205113820279?_skw=PSA+10&amp;epid=17061504860&amp;hash=item2fc1bc8477:g:ShMAAOSwQctnO7Ye&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8bmQFflAq34K%2BECEtlD%2FPddX7MBFZMU8Df%2BCvz6ZkPr%2BEelshSPMUNn5IhkcGdokvTyO5%2ByX4gLkDx%2FjuGs5j85l%2B6itDKhbSzJtH26qLjnQ%2B6hytBTDk%2FImFWMpzWhRIVd36o%2FcfXPn4EvcDBagGtmiSdrKVfXe5mQTc5qvG%2FBxmqxsG0NJsKCVfnYHg39tf37rswwcGv%2FVn8bdxpSfHB2u2WvOVOrnhB7dY3Qem4w%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7975,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286277996124?_skw=PSA+10&amp;epid=28064639686&amp;hash=item42a77f8e5c:g:llkAAOSw2dtmjpw9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmbvT8fMpo4DWzViPLyn981G4k%2FnX3v19PRWtFRA22ERapaJPge1idHXwNu%2FtYL%2BH2pOPffNp0ki%2By68fqLq%2B63x2Khb7YrHlcPmCohpZ7LRLtfW7pgKZNvOgV3PCKWACIXqVIjUrOEf7pO6H%2FBsqgtByu2oztXBeCrUzUxiiwLZPkTK1rf81oYyXQQFoiDKPlmB1ugtN%2FrV%2B2f2sRV4oA4VQyOGRhWs34chI12Wk9drg%3D%3D%7Ctkp%3ABk9SR_T0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286277996124?_skw=PSA+10&amp;epid=28064639686&amp;hash=item42a77f8e5c:g:llkAAOSw2dtmjpw9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmbvT8fMpo4DWzViPLyn981G4k%2FnX3v19PRWtFRA22EReH5lqNYHdYkF8Q4c6YPA6R714ZSweZHcS8SKV4G72yjGZ29tZRcZpeuzSfibyaN2%2FHjKA85rAbifd6%2B2U5pCmNELndUh4OpOZPEGCEZMWElHvBjk27bcFBJKGMX0Qp%2Bxbzmj3HWxMdGOnRqaDmJZ9j5t68mDCwiyymXx9HymDr7JLsacNGH5BC1M3j8B52%2FrQ%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -7997,7 +8013,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285812088577?_skw=PSA+10&amp;epid=27055913400&amp;hash=item428bba5f01:g:DcMAAOSwBAZmGodL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmDQGJpK%2BzwrVmV9AsoqOAHGG3LteyBfgtF89oOEjOtIbMNzAvSnkOpfQStmfKifaOY1V0RwD30hTcoQfjieXf6hFWsXosZAY6EbkOkx77ZUNkKZjh%2Bsb495b7RZiD1OJp32z3mRYuNacNmcvCam7wVED4M8m7Rlv6UUt5M2QI%2FpNg5z3L7mi7uQHpa2yRpgqwo4dU3jEXL6%2BuEABAp18NAp74aKkYWbArQ8c3d6oXef2effLEJSwH55oIDccV5IVVK%2FjY0vOID56JvYMWVCoaI%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/285812088577?_skw=PSA+10&amp;epid=27055913400&amp;hash=item428bba5f01:g:DcMAAOSwBAZmGodL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnk2X1PS5VQI9b2nk3ySIEVIcVTCzSBvdzUkNNhorVKBRxwZ%2BVgRgqP3KvJW7tNwKHFO0%2B1p3onpQ7XDTts2BUmdXyHqzU0mohg4wT%2FotoGzu4Tpo%2BbXrIZkUUPz3a%2BR472ER%2F5Wf6lvz4crtBv71Bd8URAVeL5H8lepdt2BS2cHo5Mixy6NSIaPoh%2FGdXYQ3VwAozZ6eUOJJ%2BV7JMP%2B62gSmK%2B283JVko3M0Dm7k1%2BHQ%3D%3D%7Ctkp%3ABk9SR-CKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8055,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276817005106?_skw=PSA+10&amp;epid=9064387857&amp;hash=item4073944a32:g:e80AAOSwLldnhyuV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm6AiYVIkRyn8lvohvEkDD514JC28zBMO278Ui1bkDo7ZYqPdqx%2F1ryQqhMAuEiI8R8V6ASCz6KiWhzgr2pbM%2BMt29Rr%2B3IEPq02WggyN7thjuynd9JyOgJg1f0u4lNjQ9Zw7oOOIUGsBjQoETKciWT0sqnzHCcsoZ2%2BG%2B%2F8OYLzUICA9qTmalNpqA8AirCCjsnrmvCe5TclBnmxPAnTlhPLvGU8L7kCQxofalWZR%2Bypw%3D%3D%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276817005106?_skw=PSA+10&amp;epid=9064387857&amp;hash=item4073944a32:g:e80AAOSwLldnhyuV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmEvM6Yz%2FMordIeCwJKRPQt08M3GSBpiTzzoQvDS4Xs2fvbA%2F9jQ3wAC3tQUmEPvnvf8bh6xEM0roI8S90DtiNyUFFgRmQmLYESLiwLJc3mbnRPVVQIRU85i3KSeY2f5%2BWgfXNRBJOsQ96OpgnMrqgjuWmI4VcBFk52tZXHBYIGbvnRh9oG6PwgLWS5my43714HxoEiCIUVez8sMgDeZSGVfmYNITOMhBiPX893nEj1nHvzf13P7H8uPw3IzerZnR3K7kTfh06qK6OxTgakDVDi%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8097,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296980698535?_skw=PSA+10&amp;hash=item45256dd5a7:g:mvYAAOSwRB1nn1Me&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKneRzzOGrlGXTrKTQrHmAPkp0aLsalXNUN6BbSkpZ7ujVYWl6ar6UrMpc%2FL5uIdAjTCGauAXgkZEU2Utjqt3WWdrO7JsALNnAKxKFGAtwSXodSfI1aJpeor%2FrlPKm2fcz2tUsIM2%2FoGre%2FWkFUuUAdJDlaioRNMD1G4wGFRc3OAvMj%2FpssXuiKBOWBFYb4l67opytKbYBw8CWdjSm8qxGiTSEK5FAJv2HvBjcfcTRjGIHi1Ph78T3%2B8EXnl4F0hvIXJTGZ%2Bztr9naTOopFn%2B5Y7%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/296980698535?_skw=PSA+10&amp;hash=item45256dd5a7:g:mvYAAOSwRB1nn1Me&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn87mbpVKmE2n7gHnOSL06xRqnzinCxdk6XZXRmyW2oYdQgB3ud9w%2F6TxpN44tKiUGr5zcel6Z3eVQXawOh7hGI%2BeG57SYmjaJlGk0Wfy%2FBpQh%2ByJy9FNLG8SD%2FSw3nDN0lXKKK3e9IQFJK7Dochi5V7DExmvrdFXH6PzeYM1nCsv3dCKiCJQvd9uSIYTsMcfpnnLH9Ad21cBjAzDIeWLKePYpynWBTBHlzeUfemZdUXQ%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8139,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126908435091?_skw=PSA+10&amp;epid=4073759567&amp;hash=item1d8c550a93:g:WZwAAOSwraFnmjIx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn0DYAmK7R4XaqeMitCb1uad%2FWVuwdmN%2BjoNjk1HZKEkZJPZLytOSUqcegKHTaEYhbhxFl%2BfDHFcFG88DUv9Wp9tItNr6O7c6h%2BV9Ss2%2Bfh2CWdzrmaQq7Y8Ow66HLNuyhKywLvAAlY4U0pUh7oi8sI948O4u7Hc0JpI2uNS8Ih%2Fg3FjhsLsBmfJjoumDd0fPT%2F90p4S7f%2FnrEcFwt0xK%2BqAgKpzqGMIn7B%2FaSg6l8dcqGFqYcoRNnKXj6w0RC3UONUlHn5SyYvwSYaRPpaVRfr%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126908435091?_skw=PSA+10&amp;epid=4073759567&amp;hash=item1d8c550a93:g:WZwAAOSwraFnmjIx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpsUpxvBDebz3TeYKQr%2FwxmQu1Y5rzD36gVxTHJahMLF%2BFrojMiVt%2Bz8qoxiszUgl38fjMBiC6f1MFlNKwDW%2BIhiXiwM6XNT7sbOOQ0z%2F6qNKa81Yp4wFdPWnAGbkPpvZYpAdkC1OhCJit8BAs6h1mj%2BLtm%2F1W5AsiS4s81aPkAOI5h%2Fgn9aG5BTmX9kXOXEZpeHxMTM4sXaDs5Cv9bLAxHnPir34iLgm9GPaN5r5vUQ%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8181,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387888142517?_skw=PSA+10&amp;epid=26068308824&amp;hash=item5a4fef58b5:g:CG8AAOSwTatnoP1M&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl0HUT0gyZOD7iYl9lomKxguaqouNk8glo%2BQbhKNcB0QTh1X4KSNjySU3jTaQaIovQ5r42G8E63JsBkYiO4I%2B0fPqO0Lbm9WuTCc2vXBoxZV7iC%2B7MNUjkPlgX4lpAZKq2%2Bi0sN3cjeC43Xxs7SZB3yP9buI3c2qlTAXQUF9Nn2r%2B0rTdDZUkme%2FS6R46yUalxqSh2lkL7Gwiur%2BNbBYxl8kdHBNxP5yDnqIbnSuKalTF7kLopsoFi%2FlwoZsv%2FjY8J4dRm1TM3HynbFZTIBUN70%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387888142517?_skw=PSA+10&amp;epid=26068308824&amp;hash=item5a4fef58b5:g:CG8AAOSwTatnoP1M&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKltV8GeqUhxVvi6xOJCl%2FJZ8qZrWn5Ntwk0YlspBAO6fagugCikVekPwOSFxPA1JZB61tOxXrdFp387v3Zl%2BFo9yrNGx7Obv2pMQ6Faq5Wqcp6oMjGVr5QuUlRhdMHNEdcpYq%2FQlk7ZnmR1GbqnPtOKehEMHkQSqXlOIWJspMQGa1LjUsGGfFRQcpUXJIyiQ1FiR1I5BMyDONbnE%2BvfsYN3nz3mb3JYjU1PfP2mB%2FAPDg%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8223,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387418859158?_skw=PSA+10&amp;epid=26055873200&amp;hash=item5a33f6a696:g:xMoAAOSwfO9m8zaX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmRLx9EbeWLNCWZ0JBifgonyogYpnFMTra27tHA4GV2sxTHv2OPsBLcy2W5z08NPHb2cesjwZ0zLHT5kZdmtpjGcjCDi7xCIKikUBD9PwD5jhR68xPd5kVZG1a6ipPT15Qbx6XfDPKitzkfU0xUWBzsTYsCD8TEi6%2BuCqcbcuY6UIOGBFdszJNAqufqO1ubGUGEPWF4uSTZ0PrxXv9FiVcJqiznZG28aCrZWcvJjinZw%3D%3D%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/387418859158?_skw=PSA+10&amp;epid=26055873200&amp;hash=item5a33f6a696:g:xMoAAOSwfO9m8zaX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKML7ebCsjMek1FQTOLh1YJ0IAIJgdgTwm4TMuLqVwADz57qcLDVXoC0pylzZFxgq3CxIPcKaH3eT5VPvd0OIGUD4YyQJxAAy0MLm085Uf7VImW%2Fx%2BOA5SQ3dhNIaPQ7qDpTyuFLTJuSKCLF2OGytKH0fiGt%2BZhwjGcel6aMSieCa6NcII%2FDzA3n%2BgGxSVb8jK8trAoLm06ZuTq5u2XZsrjgIw7yV%2BCytX3EbweBg8Z4ek%2Ft8leWpAeCFMWC8DRvFZE6py61h3R1K4AvXwVfac%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8265,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285234299543?_skw=PSA+10&amp;epid=25055927470&amp;hash=item42694a0297:g:VoYAAOSwiBpkMvsP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn83pYrE0HNW7kyzNheAc8aB%2FbyBgSGEzLy2y8lvWlq8wERb1bu%2B84MDalr5GzSZK9Emu5xyDZ6w2cy0nZvpw77bksslxk3m89E%2FyypZ%2FwV2AG2a%2BMRAEEUKfCyz7zTGV6hpwXcqSNJ%2FARIz%2BklI024jlnqoRAt6uRQEkkLx%2FNBy1xwZvmqUU%2Bgp8DpHVkk8s4veZVKMoQKlBDgyQ4DAG80BuVhXLeBVtqSOlkuUlIXXT%2FKyWBlIvzRzNFgVLlgxr1cVj9PCCvDdakNDTyam%2BQc%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/285234299543?_skw=PSA+10&amp;epid=25055927470&amp;hash=item42694a0297:g:VoYAAOSwiBpkMvsP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn83pYrE0HNW7kyzNheAc8aB%2FbyBgSGEzLy2y8lvWlq8wERb1bu%2B84MDalr5GzSZK9Emu5xyDZ6w2cy0nZvpw77bksslxk3m89E%2FyypZ%2FwV2AG2a%2BMRAEEUKfCyz7zTGV5GEltcKcpq7Y7AjtIQ%2FaEY2EbDvs%2FUNW0wQNcoOWAGlSZECvkX%2FRMSvKfEzRcSnNNp1wide8JQszLQyCqQwQriwMufLScRGXxBFN6XrBGLZUgIpdwueOeNx%2FNxRhGWjjQQtDrpR9QKyqSLetcihyBN%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8307,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226538270018?_skw=PSA+10&amp;epid=18060328126&amp;hash=item34bebbad42:g:w1cAAOSw935ngeLu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkh4opQY2ZyUmKZqiMhOUE6R5t9t31Li3eLBjo3uCe%2Fd2yT3nHaXIeUSvlgpdwpoZMcYniirM9ppnEnj8z1k%2FEZ5z%2BTQqL%2Bbp1KzbDWvHMBHeQZimC%2B7VMUbbOqXfbS17mXQe2ztepDuPbSoDSWKqSnSHdtHnTbdAaTHCfz9%2F0%2BdCoVLtxYOD9E4FftE%2BBDS%2BMdECv0%2BNKy5owUGfAPGbOQg7nd6qVJ529sn%2BafBDn6B8NydESVmU66M5KGBZrnMT1rQrHbNjZKKYm2RiqBqWak%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226538270018?_skw=PSA+10&amp;epid=18060328126&amp;hash=item34bebbad42:g:w1cAAOSw935ngeLu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn7COmKLuhfhlZ5segGwInQKXp6oEbQQMnr93T2%2FXc2k51hi7MzlG4vHAxjZXgO3TUKy7Ir7GJ%2FHKrmj4D3v0B7k20qpuhXaCWkjvmeH9lfibvIwFvLvwa8v3imlNaZxb%2Bxnb2yX1TmowYgC2bCQ%2F5Lkdq3uNe8qSikmqPC8la%2FEU6seUbGSh7Wvri%2FPWLGUJuCguVelfSSeQcu55CdFvjCfqlGt31KZqMNWmgmsjG2Jw%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8349,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126917581716?_skw=PSA+10&amp;hash=item1d8ce09b94:g:7mcAAOSwFpVnn4j0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkRoF2iLkVSsifE6tij1strOCKBDXbhm1cYSxWMFqT7GnFw1107pzzJBhda4UXwrOxXqrrmYeaOf7JcklZPrSbwEXAjR0chKmwlxlYWV1e6jXhoTwg1oeR7lkKZpCgjR0LVPhEAiJ0wWqWgk%2BZWqxHUa9Djk3%2F5Uh3j8d%2F6kWuIKWKF1yxGyKfvefzvEtPsmqwPAdNHopw4UZlg6L%2FFO0rpZ3fZ9qFzDEdxrIg80NPVGw%3D%3D%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126917581716?_skw=PSA+10&amp;hash=item1d8ce09b94:g:7mcAAOSwFpVnn4j0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1qj53Gg2u0uOjr3Lsqp8PRQOU18P6arNrx%2FzuLECNsT4pkFuXaNmtfhWT94glKcxk5ZBokFuw20LwiZ%2F35voL6VDi79HjPQnA%2BDJv2CLwwd9Hco%2B%2BpGKOPZkZCBReWtTK6D0PCQ0HUYkCgyzeDNPmgYBh8XAL%2FMa%2FNAn0gNCpz0La9hWj%2FJqzB0R2SsQq7%2BFz3%2BT8bK3G8uOXE1EFHYU%2F4mPeh%2BOSyMw%2BUMCeFFx1S2PnTwT6%2FuwypJPS%2FcF%2Fa8RJ3QPOTz8ow4yHw5R%2BpFEX%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8391,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264608418?_skw=PSA+10&amp;epid=21055902586&amp;hash=item2fcab95ca2:g:9FsAAOSwEHNnoS2g&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnRodS8%2FYzw47kFMZ0q77%2FtItQWACCEhvV4EUpJuLhNGmwbQyIKSM%2F1LJQNvbbBsCZCIg8uG5cLNOhwaWKGthyNeoaGn0qPdj5u9daPpvYPSTboZtvbPzLlqkKg1FRi3J4JlrTuDjuzg2fBY71DylOIqLuup14GdcnzYwPx3fxIK606bCq2E%2Bv%2B8wrCmpT0jR74pqPDKyIIae%2FyA2GRN3GplQ6OG%2FJyfDEduMubEVaLhg%3D%3D%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/205264608418?_skw=PSA+10&amp;epid=21055902586&amp;hash=item2fcab95ca2:g:9FsAAOSwEHNnoS2g&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnRodS8%2FYzw47kFMZ0q77%2FtItQWACCEhvV4EUpJuLhNGjQ4d8rkbdP2w4zl0w%2FiaF6nAomsV9VCiN4rb%2BdcJjR66%2BywPIJz13frEPnkCfdHCGWobZoG65tmIO%2Bqj%2BdYLzYGX4Wska%2FiVKh%2BqPYNk6BLLEmdtfKcpbMPFqsSiS%2FHudvHcJCqS5Av0e4EuwwW3%2F0Is2KLRS%2FdEp7flENN%2BUN6xMErf6pzkgR53019oYeHFg%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8433,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395620254292?_skw=PSA+10&amp;epid=20066877230&amp;hash=item5c1cce0254:g:c3MAAOSwuYtmzQFK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldHYLhufnkFYzIUQ7jgN9Z76koADbPXFDx1by5zATIpdl9waX5G0SUmApRQaBbrtDICFZ08DCpjabJI2rXqrr3C5SdxCeeM0TqDgx8yDs9o2Fqgdq2VRGD2rb%2BAziYaymAk6GuifoGtaz4bRPLIJPaUIO3H4jKR%2B3eoJ787%2F1o8ACe%2BbC9nk9d6%2Fqd4cteXBjGviN4km1%2BmfoOVh%2B4ZT0H0pwohP%2BR28FcpvS9Bi4s5A%3D%3D%7Ctkp%3ABk9SR_b0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/395620254292?_skw=PSA+10&amp;epid=20066877230&amp;hash=item5c1cce0254:g:c3MAAOSwuYtmzQFK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKki8%2F8Ab9%2ButmpoA4Hsl3xE0PPmuR3CfS3Z%2B%2FCiLTN3wss1vqeHZIse21vPVs%2BJ5oGiV%2B9aDMZBUI4QhMN0HtpKw4x8pJKmuseOhnUzhWl74W6SPjtf%2B65bbK9jVSWd%2BmpAh8cSfE6qYHnw9UB94GJy9FFbjk6WL9C%2FT3TNvVUZ26T4vESTuuRkN6M5isalhg0VgETufBZabQASWCN2tX4aIVz4XcKc5t8gxWOcRuhiDhCZSKyRLV%2FoltMuQJiqXXw2DRh%2BjnAPDItSwelaZb%2Bt%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8475,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306087259044?_skw=PSA+10&amp;hash=item474438eba4:g:PK0AAOSw9zVnnSNE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl7GRXmSzeiwwf5O2phfxgjLm%2FRns9UO8fk8NWHb86dxAvG8JTutAYiOf2U%2BTzlfozIoAhmXXWtkUorqUvpYZ9TCBisJgiqns3Sy0hwv5nlvbG4%2B5%2Bur%2F980g9I8L5W48diFxd05cCyZiOxQFTc4eDH9wkmKtkKgyX4OUeCWM7wjXaPqW9NFeagp9%2FDKtMXWHlokkgN1j%2F9JMF%2BO8iOqQjuwptrtton6CZzjSErgLln6TrnFhdxQHzsB6nO%2BVSjVw9E3sv0KvExp%2FUAF1M%2FtdO1%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/306087259044?_skw=PSA+10&amp;hash=item474438eba4:g:PK0AAOSw9zVnnSNE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl7GRXmSzeiwwf5O2phfxgjLm%2FRns9UO8fk8NWHb86dxAvG8JTutAYiOf2U%2BTzlfozIoAhmXXWtkUorqUvpYZ9TCBisJgiqns3Sy0hwv5nlvbG4%2B5%2Bur%2F980g9I8L5W48c%2Br%2BoSo52TtJr%2FmiU%2ByvAConObfAip7CbsgprexUZU8ss3dygsY6jBynONpoatyr8VIBh1YwmAiMVQAI78XMtZbzSrKjwieiZtT76xqa6qY7Em4LMkoMeSOF%2BkIhHbCUvzB1Ag6ZlKlwqSa7RgyGzE%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8517,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356517556398?_skw=PSA+10&amp;epid=11073103555&amp;hash=item53021a30ae:g:TMEAAOSwXolnmwY6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkh5MDAIaQvvMjh4lJn3mEn8LC3EdF4ff9u%2F7Qx3n64KFGQeHU2mjQaPCsmScImgMWpyK6yS0LfIL8L%2FolrBZfZIUDszjYZMg3oWj32ueHRTsqLVi9o2oaZKSjPpIBZvcNU2tpY8Uj7R1FQb0tZZP76gQpc6Wmwa2zkObDDyJr3n21Ug7OTkxmop%2FmgfrHL6UVT3MKvjKctnQnrrrbR%2F1OW%2FmJbZqNh2tqjl6pTZomk%2Bvo8sfv3ILRj4ul1S9WIUcyksF6ODHeX1CZeoXxDnS%2Bc%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/356517556398?_skw=PSA+10&amp;epid=11073103555&amp;hash=item53021a30ae:g:TMEAAOSwXolnmwY6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkh5MDAIaQvvMjh4lJn3mEn8LC3EdF4ff9u%2F7Qx3n64KFGQeHU2mjQaPCsmScImgMWpyK6yS0LfIL8L%2FolrBZfZIUDszjYZMg3oWj32ueHRTsqLVi9o2oaZKSjPpIBZvcNe%2BnSa01igQeCrjsojK9JV7ihcmhURDDvtDNyX8%2FKRb6O8lhSl6xIBoG9ksfJ42chdaHhq05g9LD5LAv%2FDqpfJ1cPUjOjyn87hdQpWnYjdw%2BFjLF%2BTmG15j1zUOcYlsU7L3MPbqJmbPYuMWNLVjuYL%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8559,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226460041653?_skw=PSA+10&amp;epid=3064273547&amp;hash=item34ba1201b5:g:6jYAAOSwcXdnPxrC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn0V4wS7qGorjzmWI67s%2BG2CAqyb%2FqDO9wEyMlUO3xY9lz3RGyXCT9CwD7skGtaUV%2FbMI0MrVofHG1Pc1SmBJaLlAWnsIWDehiU3rqlik3uEJqsVyhUzNvf9z5zbWZFpxacZB2gdF1Xiz9dzUtnCzxhx8s%2FsyPhfbxmxJPT3fA6QF0DkR%2F7snSNIiAmHwI9wO2NEawsegkojvMmtPB5j2OvWhdnNd3oYe42wjBZueVIBw%3D%3D%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226460041653?_skw=PSA+10&amp;epid=3064273547&amp;hash=item34ba1201b5:g:6jYAAOSwcXdnPxrC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn0V4wS7qGorjzmWI67s%2BG2CAqyb%2FqDO9wEyMlUO3xY9mRagpFm1HkzKDmruHJ%2FShr99OyeeEEYIUqUucaOhfgq%2BRXHmSuLGVP5nXhIj1dq8W1I%2F1jwDzfAc3Qj88bAjupOrDMa%2Fw%2FnQeTsQ4shRqGl1%2BtK7Cs1x%2B4KwdyCVNiCO%2B4ar0i1yAoSvKM4D6kDBwVKDwAPiUyKFnykkngH%2BBJBxFw250ErBfhKEMARx5Io9Q%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8601,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335791945284?_skw=PSA+10&amp;epid=23069580775&amp;hash=item4e2ec27644:g:qL4AAOSwbMBnnRQ~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlceUyb2tKqy6wPrytKyrMFNpt83D5M5zppqOXmLm7gJpwJozlFIKJss%2B9l9sM11sfdR%2Bw19XhcU%2BVzsWUBd%2F4q6ZW8FiahHaY9UaBwvvW7etLRI69UrcEry%2FMkzrMGyHJ3XkvKDGBR%2FLmp4FfRW1fBEaVFyYkXukVMsdecP2c9Q6E2K46gijddBUXb%2FeG1Hr7Ku1r9E10ChJSjrCebMFKCgwO7AHShKaNhPMjG6brOaDmqldCHxIUaDKfHr8zOAYBKJ2znsXYogUChhvcf9J%2FF%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/335791945284?_skw=PSA+10&amp;epid=23069580775&amp;hash=item4e2ec27644:g:qL4AAOSwbMBnnRQ~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlceUyb2tKqy6wPrytKyrMFNpt83D5M5zppqOXmLm7gJpwJozlFIKJss%2B9l9sM11sfdR%2Bw19XhcU%2BVzsWUBd%2F4q6ZW8FiahHaY9UaBwvvW7etLRI69UrcEry%2FMkzrMGyHLiI5NMtXOlbYevHWmuLTPtajw4rlOYJrxczkLOJ8jluE8u8VfHeB5PCLQeTJQW0WYd%2F8wwpdxP4mi0xrqsniPQBk7%2BabiPwVp7xTiOYECYrxDFaIrwcJdYX2h2nkp2VCxtfSEBQwSD2lEVD8oaX8%2F4%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8643,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116390752500?_skw=PSA+10&amp;epid=18058259468&amp;hash=item1b196df0f4:g:ApUAAOSw5zpnNR5a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKknMvkVssBmDZXOBgUv5md4fk8iL5jcon%2FqnBFmMagC1WANo7UQs6UTmrYvZp9s023wCf6QksatwGULC5SGexQbYaLXV4hGCRTVxmoLMGo5%2Bkou4asAea6KlDTr3xmLJO1%2FPzO5ZN%2F6PH38zRSfgGGlU822Gosn6HFvlHFa%2FS%2BHl2Gr6WjfIbSoA3mHDFwkOhncuTN1g91YO5UL5YNF9TSluBuS7M%2FwNyclYviEq6zmWg%3D%3D%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/116390752500?_skw=PSA+10&amp;epid=18058259468&amp;hash=item1b196df0f4:g:ApUAAOSw5zpnNR5a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKknMvkVssBmDZXOBgUv5md4fk8iL5jcon%2FqnBFmMagC1fPFbmCBr%2FmM8ggnilYO1TYOGPUlAMxb9%2BZgVMYixZnILx4NgI%2FRRQ31tqSc%2Fk9ZF9oC8qc7TasP%2BG8aFF1%2B4uHCSzKiJ4FsqZU4PknGD8hjKOueeUnO9WZSmer%2FZQ2n18aCeYIEYgssyqw1uJ6cO7oKSf7a2cwOlEHWlSs0K6hpszXZnGoPGOJCrH1SPaPcMQ%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8685,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156669437476?_skw=PSA+10&amp;epid=20062857535&amp;hash=item247a39e624:g:QhIAAOSwZ~dnoAI1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAqmiKm2ySWTHRo9naYn5goagEOIPOuuzhIr1EhOxZHyLzlu9EEbC2P0PdzuTT7pZlpTfZH4T0BefT2pIusfZf3aGkfiUfSxi18kmF%2BcqufxO7ebT3mef8CkWICb06uhmSIdD5zzMPfsWGPJvimxL11%2F78qCGxa4iXI6Y7QJSbn1kRPaTSPjE4PS4wGPRIsFYmfLxNcjJQUwWmaK4unZ561ZUJZW4i83LJKJ4tTX6FoQynKPqHVKEFBLhlHnAOurSmSeNEphonvjfEdZ6%2BS%2BjX%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/156669437476?_skw=PSA+10&amp;epid=20062857535&amp;hash=item247a39e624:g:QhIAAOSwZ~dnoAI1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMh4LXy98%2FHEbw8jTFdhGYdUeyBnUCfJ67GAScffoQUi5MWsdnJH9pBbDdf46blPlEj0jstpAnEhYHN88tLAbvRtGewyTm9kYur4wSWqE%2FY8cmT%2BxTVRUH5OHhpo%2FGa36zNq%2F4sTLfrNTiwrjJl3MDvAtaNupOBC2lHE7YZlvf4LZ2Lm759jfw27wr9TsBXBu9zNe3Ll1r3UE4s%2F6j8syJXq0f93uIAa%2F4vsbbmvatGA%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8727,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405519689603?_skw=PSA+10&amp;epid=25055857148&amp;hash=item5e6adb6783:g:rJEAAOSwiGBm9jGW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnsE%2BeRZV%2Bs3Vn3qv4mPd5CqaGVBX5w2L3dubYslafUyndH%2FlRhBOcSTbtEpVNIFPE%2Brj%2Bdt9tBY3I7HyZP2HYGVAuidpcDS1Lh9tv%2BsvXbCi9GKIWfvoTJm0apKJnGLxn5XOXo2mcveo5oldamqFSDIVcedqQXk4GZRhRejHaKm8IMq6CfFL8c9O6cuc28Af65UetjbuFL986wWMhii7sGlm67f8Nr0afwH6JAbNSE5Q%3D%3D%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/405519689603?_skw=PSA+10&amp;epid=25055857148&amp;hash=item5e6adb6783:g:rJEAAOSwiGBm9jGW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnsE%2BeRZV%2Bs3Vn3qv4mPd5CqaGVBX5w2L3dubYslafUyo0LemyDbZxgB0%2Bh4DPT%2FH%2Bp886zlrzIlQvtDnarbu39jP9lDQmrcj4VVba5L4%2BfHX0TdA%2B9Rpo9Gn4SkU%2FtZGcMBHD7HIsdgUu9MMFl7RaqQA9yVZ0VtwE7xEkgd2xYtPaR%2FVovbzuci40voIemaB6HUAuOVUUkc51vDXW2Kmqr4JLb7EKftc2uw9K97FLurw%3D%3D%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8765,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305978720660?_skw=PSA+10&amp;epid=15055908402&amp;hash=item473dc0c194:g:50cAAOSwQSlnYF4w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlWQheK8zVanddEPiNUc2yRJKfQZu4eUbFsMshhRWx2bqgPKWAv19hRvao8Hv1rfFlr18YQcAhfrk%2F479MpUqsuiZTyvda9HvTmx%2F3886t9%2F1pkBIJCk5G6wOgfywWNCj4rJLiyvzKrTaWJktUaLY1uUtq6ctGhtnljRCSP6BcG9XDNunprHwbUHstZ73Dzeu0Qbw6g1jcBsBwPLQ67KFa4OfDznLZmuNfgAtssSRV%2F%2Bskw9knGmUiGKl46Uq7tLpA4%2Fqcs3rmp8WXl6QMuUIsF%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/305978720660?_skw=PSA+10&amp;epid=15055908402&amp;hash=item473dc0c194:g:50cAAOSwQSlnYF4w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlWQheK8zVanddEPiNUc2yRJKfQZu4eUbFsMshhRWx2bqgPKWAv19hRvao8Hv1rfFlr18YQcAhfrk%2F479MpUqsuiZTyvda9HvTmx%2F3886t9%2F1pkBIJCk5G6wOgfywWNCj7ZW%2BITzpIHsM40oHqskyCzl8rNQEsbrtmm7eGO4%2FsXxzZj3OAf1tjufNv5qql%2B%2Bntfi3wrobqqNoXqYKv4b9ugyxGrVQnNb940w8n%2BbQPmLzGJHaDHEDFHC9QT9NfzMvd9EhZAcYi%2BMfjpaQnsO1T3%7Ctkp%3ABk9SR-KKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8807,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176810475910?_skw=PSA+10&amp;epid=15055896764&amp;hash=item292ab9c186:g:DF4AAOSwCkFnl~JQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkTaw9ENjpUkXQsB5OMMnn7sHuH23R3YhdmEtQT09XhlJj76afV73LybHM4hK%2BcWiCEfVW3lFcX9OQGpHhOXvldtlcBZHsoT8nr9FXYhA0ryKtnlbZIw2NnY3rLYtMkpC5DRsuQLZOea%2BDDmDR2aodDp6uqv9CcF1brPl4JDGaG0%2FZHcKn7zV6GDKajau071drixeiG2TiKpKphh0UufzR%2FinPv50TAJlsibeOk8xvLBg%3D%3D%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176810475910?_skw=PSA+10&amp;epid=15055896764&amp;hash=item292ab9c186:g:DF4AAOSwCkFnl~JQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnWQjr423l1VhzVNPOomlucVQuq2foqSUvGEIBibR5RoqJTU6ik976nU7kmfnMgbWGAVIVNg87YDDE32YrIHyvIk8McAp%2FcSCcAT0PUIk4XtfUVrdTEqwt9scYklHnVZfSzUSWtf%2F7PorpVVNISopVRhsslT5Gnf0tjsO1siDgyoUH3CPMGN1UtWMkaH4u46ZRgQ3usbtFv222Y69UejOaW0YhZXbaGIMq6SuIc26gDVGJ7UZOAfB6cwdOGeQ7pyLeFwy2sTYiXSfN3qP6%2BNFNM%7Ctkp%3ABk9SR-SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8849,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226455377461?_skw=PSA+10&amp;epid=22068714841&amp;hash=item34b9cad635:g:ugYAAOSwTMhnO3cO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRacjTR29LwfzOHSpTPZGdaECJ1133L4is3lmAKtxuktfud1cn4JitwDCc00KUnYzfBNgbes9eudzZZrbGTp3Tj1e76%2BSX3PrgmwBCY0WLLa3ThgSXTdzTBui45tUjc40CDlO7S%2FNZiKyCNf3lTdHpm77PLkZMUZvL9jl%2FiPH--LO52PlYohkrFwwNYhuilpqXTnCNldObjeSsuqOwkJ0uTHq7KdJ8qU59QJGLzuUaeg%3D%3D%7Ctkp%3ABk9SR_j0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/226455377461?_skw=PSA+10&amp;epid=22068714841&amp;hash=item34b9cad635:g:ugYAAOSwTMhnO3cO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRacjTR29LwfzOHSpTPZGdaECJ1133L4is3lmAKtxukrSieRKf3xn%2Feh8u0833ZzgGwa08M%2B%2FuPpqnF52B2TwG7JB%2Bac3vf5vkwHTgJa41Bdlq3XjZAiP3AuXxjOQ2OFlRLMB14GGbTiNEAsGtUu4iPwAvcWoXKmFV3Stg6Yheo9GgvIPQ04DR7Rx3E32jpUtlWHiNcYd%2BSYK7%2FYwOCcSBnm6hQzLJBsbZXs34DQe3RA%3D%3D%7Ctkp%3ABk9SR-SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8875,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186927153016?_skw=PSA+10&amp;epid=7055946847&amp;hash=item2b85b9ff78:g:NWYAAOSwIStnoSLR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqKb9VkHknuyV7rAElQE%2FanwYtT30w%2FviYiQZ%2FWAXfrrvKuanTTOq0s1wWa%2F3kyH%2BSRPrcDDMICEDFuIWwgM9QN9O9hOB6OnBGnBI7L%2F%2BIr8lSsf5X%2FbjTsQepIugda0Bu4IT9PkGOFZF6oiTW3956Rh9vTeb75Iuw01r8lFA9nksEKvp9eDvqF9g%2FEvgMD0aR%2BHrIP5PW%2BG1HLjsnemC%2BBj3FsZwH%2B%2BVYrnJzFb5c40J7DCvbHH9yG8qD%2FYnMJ6bf22nW9tMarCbBgXMU0bty%7Ctkp%3ABk9SR_r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/186927153016?_skw=PSA+10&amp;epid=7055946847&amp;hash=item2b85b9ff78:g:NWYAAOSwIStnoSLR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqKb9VkHknuyV7rAElQE%2FanwYtT30w%2FviYiQZ%2FWAXfrrvKuanTTOq0s1wWa%2F3kyH%2BSRPrcDDMICEDFuIWwgM9QN9O9hOB6OnBGnBI7L%2F%2BIr8lSsf5X%2FbjTsQepIugda0BVgcfp6P71aLPk8kNzxdf40dJLDNBfi8094yqiDz1X7aSwFctYXBPJqgMntY%2FMYc%2F42nMHueCDA4wSzEn0i55zaYUZfS3ffDmJkY4g0x7kRFggQpZbzPVLwtWy7GyBgV5yq4sWgHrQr%2Bo5r0KUas8i%7Ctkp%3ABk9SR-SKnZeaZQ</t>
         </is>
       </c>
     </row>
@@ -8871,23 +8887,27 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>Leaf Exotic</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Mojo</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Fernando Valenzuela</t>
+          <t>Anthony Volpe, Spenser Jones</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8897,7 +8917,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396093564294?_skw=PSA+10&amp;hash=item5c39042586:g:VAwAAOSweM5nerIE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEQEJ0yJuBN2Wnh7V1SLcAe%2FXu1qzC2jCBMwrowNNbZs7Fn%2FMmLVRPLkC1kZMwJQMXIJXxxK0tWRmeTaD4YYbHoZhC6xx%2Fi1H1b6E9heN8i4hqL2felBF%2BC%2FPWTTeuL6C5eDw23hIB6beB1Q67BrXV%2B--wZdxKV8B2UFklRFnjGGcKZ8IAoJ1ZaCpqBEOVxZjYfgTe%2BY8qAHwxJUaoYYzQDkbcp5081Qx1%2FKiKLGaMWdcWuS6iQFt8iGb1o1qaYfVZt49hKc%2BUAL6asT324FJS%7Ctkp%3ABk9SR_r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/276842193932?_skw=PSA+10&amp;epid=21063399370&amp;hash=item407514a40c:g:A4cAAOSwtUBm1OiW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKltvP6yqBXaIycmE%2BPjC27zPPXM8j3XTI0LIsfY7kV7R4Usp3TE6VUadsdndtOZ9Y9YE4%2BaInBkbgSR1dqmBT%2Bu86ztb5tD4%2FJSEWXa6dT7xRGR19k4kXyrBztMmrvNo--yHc6YIxQZgWGR2KM%2FsG6bxNklfBwV1nFnRVlDjLjQjlg%2FXQTlMjk4uPMPeiUXsr0teBHcBwdkdiyAmaMykZGH7IDTCMQwsjiojkV7EWYCDw%3D%3D%7Ctkp%3ABk9SR-DOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -8909,27 +8929,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Leaf Exotic</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Mojo</t>
-        </is>
-      </c>
+          <t>Donruss</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Anthony Volpe, Spenser Jones</t>
+          <t>Bo Jackson</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$224.72</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8939,35 +8955,39 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276842193932?_skw=PSA+10&amp;epid=21063399370&amp;hash=item407514a40c:g:A4cAAOSwtUBm1OiW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWwWEarv4brM3vowbmFjXssvU2HLA90RR9C12zm5iS41YyUQ3kL8gzocmz5CZXJn2RlpFFnBP78Ys1fKy%2FxrmAim9jb%2F6HssCjfeNpHjuZTcr3CxqUP5zybpWFp24pMyKVp97QPfewBTJfzzm1SSkzRg4owlVXAB31WKrAeu%2BLiK0nu104sMsI%2FU7BWcDd3bgV%2FO8eoi6wikKU1Mm6gbb%2BNVhK%2Bco5qOirT0AGCVrvPSgVyPPS38nnMm82mIGd7NoMpl4VFmH6ye1fMSTcOBDo%7Ctkp%3ABk9SR_r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286287704564?_skw=PSA+10&amp;epid=11055974181&amp;hash=item42a813b1f4:g:C6UAAOSwdnFnl~C-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlZGbNDIDk7AKt30eQmfniGJqRcEy%2FuqcwL3YeT7B80l0r6t3q20QlZ%2FDi4sSw0Jl2GYM7Nab6L%2Fm0bXLvpjQLs4k9DMcR3PnlvtgsMJiM1o2RUDa%2FtK2qGQ7pMX4f3Il4RxwqMqhRC2mGgz5jHxxuZ0sgpkO%2B3xTyhMfZ32iIp6SyAOixvPXGbrSFVqjQ2Tl%2F21Dcs0W2JPvWqU%2F6Bq4pZeGHoK6SzAMQ0DVyUOaaZg%3D%3D%7Ctkp%3ABk9SR-DOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Baseball</t>
+          <t>MultiSport</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Donruss</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>Classic Four Sport Draft Pick Collection - [Base] - Gold</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Bo Jackson</t>
+          <t>Derek Jeter</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>$224.72</t>
+          <t>$993.60</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8977,39 +8997,35 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286287704564?_skw=PSA+10&amp;epid=11055974181&amp;hash=item42a813b1f4:g:C6UAAOSwdnFnl~C-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnlZGbNDIDk7AKt30eQmfniGJqRcEy%2FuqcwL3YeT7B80t6vngDvE8hwDoKD%2FUk2O6i%2BYDG0i67ZGs5yh1luO%2BAj%2FToYQKc5t0zuVoXZS07W83yr4ubjNuyC9NOTDQ0r1Y9reESqutMwBii7C2AT8%2FwwhxbAPVr3PqqC1FHjymLSjXY6WYN4PlU9lhm%2FQO6es%2BPUF9fmrYONpju9DhC3SpdBL9HPFWGwngNCwPfdQlbZFw%3D%3D%7Ctkp%3ABk9SR_r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/235890149995?_skw=PSA+10&amp;epid=2328284511&amp;hash=item36ec260a6b:g:IZAAAOSw25Vnb95v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUU%2B5P1t%2FANbO1ggYEY1XkrwZsIJDx17HCXi37se62JdyuNrEDFfGYK1Bd3XXRb2N28r%2B%2B17G9ZXpPQ5xmv%2Ft1KWqAk%2FDFvC6swHXNbF7ZkgaBr1cT1oTEoDV9IcXDdSFR9DcyOyyzU0cuA15OzQIW63KmcD81F7TX7pi6tNGqZMXDLxx8MJ8mZ7p66oghVEGYmsrh6jddMTFRdc7UydEy3zmKDMckuTA%2FdMp3Ae7kCzUWLG8j6F2w8KdcB8fCSm9r%2BGuTU%2FeZ%2FQH%2Fy81aHC3Y%7Ctkp%3ABk9SR-DOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MultiSport</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Classic Four Sport Draft Pick Collection - [Base] - Gold</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
+          <t>Topps Now</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Derek Jeter</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>$993.60</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9019,7 +9035,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235890149995?_skw=PSA+10&amp;epid=2328284511&amp;hash=item36ec260a6b:g:IZAAAOSw25Vnb95v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkUU%2B5P1t%2FANbO1ggYEY1XkrwZsIJDx17HCXi37se62JdyuNrEDFfGYK1Bd3XXRb2N28r%2B%2B17G9ZXpPQ5xmv%2Ft1KWqAk%2FDFvC6swHXNbF7ZkgaBr1cT1oTEoDV9IcXDdSEv8s%2FBfMFETpqlsEPsK65953naFcQPyGtLQjyOW7Qp5HL8rYd9xlh5bz%2B7OtfNeDxQxs%2FjiBALwkEP35Ab9%2FWjgKl4rKoIuyMtQ0WwIlC9Ci0KFrWRbtSDyQiTCAeCMXZrT3L%2BpB6AxiTXhjy6X%2BBh%7Ctkp%3ABk9SR_r0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/316153189957?_skw=PSA+10&amp;hash=item499c32d645:g:4gcAAOSwiHRnkarW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDa%2BCrOsV1h9a1GJkYMPePBAo2AgP9QJGIrIprmiKm%2BGqbpnZzT%2BXsTgXahU0b0fpnitdUKbc55Vr7FyKhlpuikRYgO1IuMSzgovbDr4SDURdCh4XtNvxUtcBulQHQNtzBYzSnPUprBVTP3hX89LUKxHaNymx%2FTodtacY9mce7kk54rNeeCXD2QtwDXDpvLwNHtiyJzpY%2BuBn6Ky6%2FMlzmhr3yACsxFdZuBpYd65VHvQ%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9031,23 +9047,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Topps Now</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>Bowman Chrome</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Chrome Refractor</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9057,7 +9077,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316153189957?_skw=PSA+10&amp;hash=item499c32d645:g:4gcAAOSwiHRnkarW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDa%2BCrOsV1h9a1GJkYMPePBAo2AgP9QJGIrIprmiKm%2BB4A1EIKF%2FW6uuIF4i8edbNGAY%2Fz6qOYQMp%2FxuAKxWyucyyMbrUTNqQTCHwcXLxmbTETtAqicC1nnHVXHJJPpoMu38sMNs2UsvuP6jytx8HcjNRuJWhysc3hnrqtah7J8wS183GpEj0IJIygbtwuGvU9NXEnDRLSUTjKkFZARzEGU5vTI8ifwMV629FRT9GJeg%3D%3D%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/286279632832?_skw=PSA+10&amp;epid=16055946209&amp;hash=item42a79887c0:g:P~oAAOSwa5pnkXrx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmCOsrs75FyjNT5RlX4slywZJO8dcaDNN4DzO2D7hK6io9beisaUgDWYmkGmrob1nwVgokAPP0TEdyvTmIyhRJ8oOe7SKxn417OqVqH709kK2dmkX47QB5RODnDbmrUfuIxTc7chzCQDt%2BKKDD94XmngyUOqoDB%2B1D3CoLeqpoqn54VD45CFceip82qKEyBG7xa2v9ymCOgxoHuzMiKPds9nJOujdA4xEC6JhUQfE2Wg%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9069,27 +9089,23 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Chrome Refractor</t>
-        </is>
-      </c>
+          <t>Topps Now</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$900.00</t>
+          <t>$194.98</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9099,7 +9115,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286279632832?_skw=PSA+10&amp;epid=16055946209&amp;hash=item42a79887c0:g:P~oAAOSwa5pnkXrx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmCOsrs75FyjNT5RlX4slywZJO8dcaDNN4DzO2D7hK6nFyezWHz8U%2Fq4FWh2983wym%2BIH%2BCYJq4nKxVOzTlyiOFLgxGwXXI7aDXzKrIUgJT8rhYqlSufS%2BakI09uhC0MbJ5GXcB2UHMpwxPzfZNao1nLGjvUD2uS2bdJrMgBBasM8V4neQEyREHHJOSB6fYl8cOgGzIrO76nQRxjfjBOww7WsGVuUaatQiyfC7CRrY7g%3D%3D%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176813821075?_skw=PSA+10&amp;epid=22055921901&amp;hash=item292aeccc93:g:KMEAAOSwUl1nmwSQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGbiaUGuQ0jsKnTI%2FBBH7pv3rTl%2Bw9uvksVyepuRUdWYWCVexiKOIwmR%2Bl0bWxJL9DPK45eIHDTP5FtUsxSOcuBU5BdGphJxIAQv7go3UEtVfFTWLXgv2krkSNhS%2FGETOaOr%2Fc7oDnILmgWGtTM%2BISuU4QQk6SK6oJwAVUJOjLCRM4of9MWIrg6phbCmzGehiZFnkO1hj1JQffmgUUai9qxj0huh1zL9qfyMsC8Rz1jyXjIOWxnwImJuLdCLXgyKSswOUthv%2BCJ0az5X9KmI7Y%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9109,25 +9125,13 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Topps Now</t>
-        </is>
-      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Shohei Ohtani</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>$194.98</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9137,7 +9141,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176813821075?_skw=PSA+10&amp;epid=22055921901&amp;hash=item292aeccc93:g:KMEAAOSwUl1nmwSQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGbiaUGuQ0jsKnTI%2FBBH7pv3rTl%2Bw9uvksVyepuRUdWYWCVexiKOIwmR%2Bl0bWxJL9DPK45eIHDTP5FtUsxSOcuBU5BdGphJxIAQv7go3UEtVfFTWLXgv2krkSNhS%2FGETNyOmaYMeaWy0yvBaRDHjzV1mwpferpzCNaTQdAWCoT5DSRqrJGyT9alpzTj5r%2BDtX9xzv%2Bcs%2BbuDArhkSaj4QGIeUbGxlDshRlL92Q4ytQIwyZuVWIosnWn%2Bko5pg4fY2JxFH7PpbwW89SfRpFhVJQ%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/176793711734?_skw=PSA+10&amp;epid=21055894012&amp;hash=item2929b9f476:g:RLwAAOSwGZNniXUD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkTU5P6ac2Szsg2XwhD0mUKFgiUynaAHTLSNFQZgm3GUKIbtHQfLT--w4Fkeev3Awrd0OO%2F%2BquFj9ASVbd6U9MZXMbmBTuDd0k838TzW3u2m69z%2FF7GZ2QvO0WW6jsPgbpBf8YqQiq3xYLwVgL0MmWOxnCjQ4RQZM1Kc8UEpkFc%2BgS3LHMO58YwxF04odrNBhoru34BZ9MB1slR3F7josxh1shCvguy%2F9oaWe4qTtuBcQ%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9147,13 +9151,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Cosmic</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Corey Seager</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9163,7 +9183,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176793711734?_skw=PSA+10&amp;epid=21055894012&amp;hash=item2929b9f476:g:RLwAAOSwGZNniXUD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkTU5P6ac2Szsg2XwhD0mUKFgiUynaAHTLSNFQZgm3GUMurGOmqU%2Fu967MA%2FNfu4Zpw0Gmm27OcXs6j1cvhQGPR8fFm%2BEIZAikFw2NdSkZ5lmjuoAEwHtuy7dRvhPYGY0lpS61L9eoq6hBlIb1BV0MgDT%2F4xVAPwHO5uJohz4Hc3YqR6Y9FZ94uadO63sKhlgihtga1Y9MbN8X%2FIRICjO469gnmey19ycH0avnhy7t1ig%3D%3D%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/126895557060?_skw=PSA+10&amp;epid=22072418267&amp;hash=item1d8b9089c4:g:J3kAAOSwlz9nkCfJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlfwwqfbjwzTbb3Jf%2FaV45VqL2IGuDhIt0GrSsLFl%2B52JDP47fFu0fL75WcGQmS5brA%2F5zIK0typSw4h9%2BoIgahzdTqM0%2Bka%2BFXoPm8oRzt1xNR49%2BpRjC23OycVbSmUXI1fdbbXmN94w%2Ftm0CCyRl0WVer2XtmhkDazyxQNujkv%2BWuqcpnMgPcQlz8XS8VMnNJD612V7aqvwr55fHRJF16iXQkFulXlzlt3fg9QfFH0A%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9175,27 +9195,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Fleer</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Cosmic</t>
+          <t>Rookie</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Corey Seager</t>
+          <t>Darryl Strawberry</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$204.99</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9205,7 +9225,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126895557060?_skw=PSA+10&amp;epid=22072418267&amp;hash=item1d8b9089c4:g:J3kAAOSwlz9nkCfJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl1bSvKNDbCMgkJBVQYvfNrpvt3NdsZ3osTq%2FISHA21RmA9SNe%2FnCOF89HhrkaScaS2MmBs1n%2Bg%2FTOyGS9IsXu0A4aIgcfYZuthOxn64Ot2KbujiQ0x%2FZUXjlr9P61gT6rPUs%2BxIwoE9VpiF7MPUeNxsmIIXV9AyDIbAe4t7TxCfDVNiayt%2BLQf5fUQ35JJ0YnOyUeK5ABxOavLq1TZTGp78u0WVIkBjCgBwOU%2BQdcFydNgSVcm3PA0XYv2uxbRGivfKcALtHZugQnDoMyIvBL%2F%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/146260025404?_skw=PSA+10&amp;epid=15055896208&amp;hash=item220dc6e03c:g:QJEAAOSwlkFm8e3a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9i5GQu24DKlqW26j%2FeWSLGHjjgFkmBKWKeMxnJBbvg1PEUeuCQ4oiWEyhO1%2FSu9xox3G7le%2BRtMhQZHMg4y9EfpK60%2F%2BVQQmSebPswgmO00P3%2BCUOliYM1Oiuwzv%2BOE2AlxEx9AJG2E7Q5ZZMn%2BtLSICvo1SrPL1XFg6dTFKwJYrT3OJAqZWmlmo%2BhQ%2BPX5Yeke36j%2F0vc3mHGvcJvvmGGXW0%2FU9m5TVhD7vFSPu%2Fs%2BxpILQdwOm92Q3Kq9xgWNFq3cLsuU3SIQpalzS8bR5H%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9217,27 +9237,27 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fleer</t>
+          <t>Bowman Draft</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Rookie</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Darryl Strawberry</t>
+          <t>Max Clark</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>$204.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9247,7 +9267,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146260025404?_skw=PSA+10&amp;epid=15055896208&amp;hash=item220dc6e03c:g:QJEAAOSwlkFm8e3a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmxEZZRPJSliMsUr6pnu5VLG8MGWZYKB8r735c72kIvn6EQXfWpOgGjXFQkKnpnzAp%2F0iVTqg%2FOt%2BKyZ4gv5UqcCbcxMdFt6ii7jjD114QKIr4HUBPwaH3tjke6cCG1H8U8VI6vJTx%2Fe0idP9DJyGx9M5%2BQV7CNiAeO%2Bw8zQNnbZvSK6dBRTzH3Ga4%2FtfVF6lggRNVFIitfZBdkNfpJt1dO--3ALxxGb1OqSVfnLPrPXg%3D%3D%7Ctkp%3ABk9SR_z0sZOaZQ</t>
+          <t>https://www.ebay.com/itm/375954634174?_skw=PSA+10&amp;hash=item5788a475be:g:4EcAAOSwIS1nmCsh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnWO0T83wc9VPxjnNrAyXVu1rEqLEEe707k8B90mImCIVbRBXKQ8uSvo5aH7SwnG8bXcUDIJQ%2Bji1hzbak%2FmWjnNRlosl4zb8aOZxxo8PsEr1B0vSkiG2VAfqVuEIACfIsV%2BDfJaSKxUKg3u0ZBjtCV%2FM2Mhn4HY8k6c2YfhVF4yMlV7TNqzl%2B36Id0mSikXamdAJKp1mRMDH2IxtTPz2BEajY%2BvF%2BbCDNdsMGJeHGqqg%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9259,27 +9279,23 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Pink Refractor</t>
-        </is>
-      </c>
+          <t>TOPPS CHROME UPDATE ROOKIE AUTOGRAPH</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>PAUL SKENES</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$840.00</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9289,7 +9305,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375945192857?_skw=PSA+10&amp;epid=27055862966&amp;hash=item5788146599:g:5jsAAOSwSQhnkqWD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6cbKbdRtkyoH5Q68pRn5zgV1%2FxKZUcFkboTYlcPxSAj3hWaJZoTZnHJXEH9rZPZW6XQ1mC6ULZXi350ImXM2MBhD9TJPUxLE0JTwarU87Kcs2clMzkAEn2SuXvyUs5bG8093IQXuERMmhDGB3EJe7vQULfK47GbpJgqFVdVuqJKrsFg%2FiJmY9Apb3UCbBu5yr9TmGcba7vb4WnScT0cQkTUxBxy2uZW8JRN1BUTIHiVyhpJjMXGPXPVb%2B01ucddYmSFLjAX9gAmPQQjEx2qzz%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/356510503962?_skw=PSA+10&amp;hash=item5301ae941a:g:ewsAAOSwr7tnl-VW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKktsy%2FWFYUF2WFMwoWEW%2F4aj1xu%2FdyIrEcwdc%2FHAplTJgday1yGeae6D96%2F3BG26TtarY2voISSuFo0%2BcEM52YHy2Bp5S%2B5yaQwqtBnlaM6RB7c7L4f2HrQqFmm6o5f7%2BDaL8YVzZE5RlkLB8qUd5tiKdD4h%2BWqBK31ulvtA1%2BEEORupkEtrKpe%2FM5cA32lWHMhA7Hh36B7ZRlAPTWOJCOEnCNk6Ihy4KIv5yXhOw3qn7l2IyKsswz3Nzxd8iCBPq%2BQYfIvMrYCZyTKgPo%2BA702%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9301,27 +9317,27 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Topps Heritage</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue Ink</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Junior Caminero</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$2,450.00</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9331,7 +9347,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166825913530?_skw=PSA+10&amp;epid=21067057440&amp;hash=item26d7996cba:g:mIAAAOSwvZtmcjlI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkD%2FY%2FNiiRsv7L7Ya7wpqut%2BwJfrnQctnzu5B265BspthRG4ZvOERTNlI258g5RvPagguUHyCc%2Fwe8G3xoDEuVN0oDuIqhVcTl1UQYqg%2BPZnjJUUmGeOJgoqjf09hEuyQ8sDlTZhnNcJzYBFJV4ZrjswqP14fOGkzB%2BJuP4LxleQ56lj3WdCIUJz%2FTSRZhKjPI0rm%2FpyirYJe3fFB6b9XEqk05KhYXqHf2bRWdQFfQmNQ%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/387879666121?_skw=PSA+10&amp;epid=25055853010&amp;hash=item5a4f6e01c9:g:ZlEAAOSwcVpnnXhH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0SiFhN24niSpmVguce6blzFue1%2F%2Btj9Rwn2ILXhzzhSsU4eYCf%2BYwaNsRZ7fYn68bAe5aw9ybcyJ6%2F747UQfssnyy5y1XgwogHuQeM%2B0tcvkrNsOJFyfF%2BE4fC8so7dMTGigEnFsiOFYYOyGYPrD9%2B%2BBbeBTgwDLLViCcQSP%2BdvWqw49Gjw6WUngJLbvwAyRlklMtoaoGZVCcv64Zffg2Mdhmp7wUjVDtzEjPLra6fA%3D%3D%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9343,23 +9359,23 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Bowman Draft</t>
+          <t>Donruss</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>kristian campbell</t>
+          <t>Rickey Henderson</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>$549.99</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9369,7 +9385,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235941931704?_skw=PSA+10&amp;epid=20064271521&amp;hash=item36ef3c2ab8:g:vBEAAOSwlq9noQRP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkaZiep25ycemYFbVR90FvYmTVKh7g7OkhmlH49Is9EktHW5EvBivxO0ZJKHUCX0LCsZySP2gKrQgV%2Fljprtpcu6sYc9L%2FKBSSA19cbz1hqBQFjnVmt8Je%2BebXhAosKfm588qsCbmDn9NO66iqd%2Bxs5oaz5Vb8lRfQGTLsw4%2FF6YYlZ597wiD6%2FGbb6PZITLuSSzbKoE01ysaJ4X7JYz8s4h9scfT5uRfvDLWWjVcUcy9kcmA8Dje1RraudU0hXN7o2q8xmJDYDG12u05jcgE6e%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/146365291332?_skw=PSA+10&amp;hash=item22140d1b44:g:cUEAAOSwzQJnn85h&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnLnUDSeoZbi%2Brx5xZUGIeQja6rb1O8eHsigEOaGqH2WeIz6haKC4pduxTQUzGPpdQN4QtguUVzz69EhwTn3EjfkgYsk5ypRAsP%2F8eaIkFTWYP4caL9q%2BlVowGsSgshnG1gIcTe0anpAINDusNepA8Y2zRk4zdu--0TfoWnQL7lnRxU9%2Bgr8H8y3dCCPzqNAs%2B9XX%2BbNTdfk88asVZg1n7XwssePJJCzXtIofLchwTnmiP54x7NRhyH4RD9u%2BGQN%2BqEyeBMNHh3dmTt4YghdwMN%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9381,27 +9397,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Mojo Refractor</t>
+          <t>Pink Refractor</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rhett Lowder</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9411,23 +9427,39 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505446916?_skw=PSA+10&amp;hash=item5e6a021404:g:uTIAAOSw-v1nl9uV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlizelPsU4XIkSukKeIemy77HEv5zwhdMZIWAVF9UeEPLyp27wvyMY0MygsWEP4evzcty3bjRuHzueiWK6f0UX7BkTQrkNQOm%2B1Aq6vAHYnr3uOJybTwyKi1zqp%2B2aiOSiC7wkvpuNyYpBpelAuvn%2BwnbRaPSX9P11cTWikAnGqhEzINDhimxRC1h9Q1jypyzP07kgfqbyPPtnN88s4hnjH%2BQMtp8CvRxxebS%2Bo6BDeEA%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/375945192857?_skw=PSA+10&amp;epid=27055862966&amp;hash=item5788146599:g:5jsAAOSwSQhnkqWD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6cbKbdRtkyoH5Q68pRn5zgV1%2FxKZUcFkboTYlcPxSAj3hWaJZoTZnHJXEH9rZPZW6XQ1mC6ULZXi350ImXM2MBhD9TJPUxLE0JTwarU87Kcs2clMzkAEn2SuXvyUs5bFNPEOSsgbpCpL3Q3y33X2F4Yolv%2FDZLVm5%2B5ADRDW45Ml3IebUd5DnyHNb5l4ivoWWvAm5k7ClYuxE5XM3SKI3mQ8EMJ5j8x%2BNQViyVNbZC%2FrMYBdqM41qNzzox2OPEeL43SND7%2BnI8o0YZpAGGkhm%7Ctkp%3ABk9SR-LOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Baseball, Basketball, Football</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Junior Caminero</t>
+        </is>
+      </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9437,7 +9469,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyNRB3JCoiXgf3d4g6FpS6nTR5y%2BWdABKr7B1D7nUbR8B1boQdyH6mQ39fslhCAbCDE0jeB1B1iOQAkg5qcoewAXUQfQ52nVMEerN5cEu6g%2BY4vRRyPa68umewbBNvvSVy9HDs4oxuSD9XBE7lZfBy8VozQ%2Fzm4%2FEkxuaVZqqPK4DL7mdiKdBBxdtDinnXlRd2HIKyjhgvruoB%2BeEwA6ZGWkPGNqZ44cY%2FklvXLpZChw%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/166825913530?_skw=PSA+10&amp;epid=21067057440&amp;hash=item26d7996cba:g:mIAAAOSwvZtmcjlI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmENBwYcXaKv2gCugU0dqg729srDUg5huS%2BDWA3K%2FvMi%2FQGJ3QeRG2v9YlcFtocR8QqLJkebwybq4plNDz1lxSll1jXp57tCjWkDkr%2Fv4GFCyV2Q%2FRs8Ke7A24o%2B1bsgAFBiumjBHsSFd9Hmq%2BNBpPY1KimMoSOge%2F%2Bfh09sNA7LZ4xrkeF6jn0VK9Gwo8j%2FOmWPrLIExPM3R9tC9f3bxq%2BT3PAveS84vzA%2BEP%2FkRqTXHtEJD4rysGlFhAhX23KyRkVJuzv4xkgC10gtg60zmc4%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9454,22 +9486,18 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Blue Refractor</t>
-        </is>
-      </c>
+          <t>Bowman Draft</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>kristian campbell</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>$162.50</t>
+          <t>$549.99</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9479,7 +9507,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226571830733?_skw=PSA+10&amp;epid=16061694134&amp;hash=item34c0bbc5cd:g:jwkAAOSwyZlnmnvc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpJURC3GktdyE9mjTxnZNR3ZFvX0yCLMjzqxzMIDKuxD3xgpFEQ4K93GFeNefnMV7YRT%2FcM8RTUSLWHZGeEcPH2mUBno%2BDC3EeiChoUTE6GpzSJREUcQ0jn%2FvbxjaIYaLhF7tx%2BRV0PGOnlMBEMQi54pAQPgPB%2FXg9MPKMUQHAnXfQhY75wtr%2Ba6V0lXWTRvdyJT2pkitX7ezIcSm2RVzwLavaZQ2%2BWJ%2BpvigaZPd%2FD0XfquksKvuFL95yLFM4ZrXmgzd8MP677p031EPo0qtJ%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/235941931704?_skw=PSA+10&amp;epid=20064271521&amp;hash=item36ef3c2ab8:g:vBEAAOSwlq9noQRP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn8n51Yu8jhvicsmJ8X5nH18ttNDVDRCjEOMnbv02zKHLmoA8L5j4OPsMrjB5mW6FImxN15%2BRBpXk9iR%2FarUp2tpVPKiyTCkaKRh%2FfYOAXsc7heONWdN92X%2BFXo0HUutxU9Evrrnl9mvWjdU3D51YOyHEpaHTuWzJAh2k%2FUW0hSpsdFn%2F3zJwnWTGDjWs7PzxrJ%2BUvFfIPH60lZHvG4Ierz5YNr2Rs%2F7wX2VugC7Cey0g%3D%3D%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9489,13 +9517,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Bowman Chrome</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Mojo Refractor</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Rhett Lowder</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>$174.99</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9505,39 +9549,23 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365345336341?_skw=PSA+10&amp;epid=18065175329&amp;hash=item5510476c15:g:TxMAAOSwAIFniCf8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmPcjuKm6N4agJ9VpFeOajQE6fWzaoDqpG0iMQYKeMJFjieWBvWL%2BMdFj%2B31tNS1djtoPE3Z4W2JP6l5MttRRNu0kiavZXXIFlM7ImQqDs2xlzJIt4VwHt5t5JZluRxtHYUayGpgVkG6E3rmPsxWTZRhXBaKJZGFA7AYPMhJqu6MWk8lDcnnrkpVWGIXTUVp7S9tZ53wTKDLaBP6jWQzDafm0b1Jj9piMkigJryNb%2BBmgB%2FXTEczAJGM1s%2BD3J%2FfS0oaxvPWlCPp8YCCiI3g4ef%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/405505446916?_skw=PSA+10&amp;hash=item5e6a021404:g:uTIAAOSw-v1nl9uV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk79MptuEtoLxY%2FuEryeUU9nlgyJ9Jh1vG1GOwhRC%2BSvuv6kTGuocy1o2cMQmuIcL2tzIRL0%2FOQRAMvgRPWEcFTImBgY91P5q0NQg0cl980dXUz8XgYvN0xKfTSyJ3gX3IoW8mroB8TXS%2BRIsGIKodA2Vq%2BDx2W9mDsCUPnQafhkjs2k6YV8unpnj2MgfL1%2B79sac73h%2FdABvG%2FgilaG74fC9RTRkyRvEWLZolnAMoxRPdnbmgJoHxOj49P%2Bup1DmBgCxedMLX90IG4q2yhSo44%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Onyx Vintage Extended</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Blue Ink</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Cole Young</t>
-        </is>
-      </c>
+          <t>Baseball, Basketball, Football</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9547,7 +9575,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396142738861?_skw=PSA+10&amp;epid=26059324171&amp;hash=item5c3bf27dad:g:THsAAOSwESRnkQhA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXtiZHZEKuOL3AFtOgF33lzAvxhWWX8RHVn5Kd%2F%2BuZI2KQQHAMeRfwdcsVQf%2BnBP0s4F9ngkSmVKUuQHx7hfJWnl%2FIbJJoqalBZ04T1GFWlUlriEKxy0hNs4xlglmuAxHAWegiJrlyYhJE64PzNlSp1tVwF3eFmpnSmYeRBcgilAkl0ndMxAWJufDCgErAsix17BHfPC5PinZgydfKRTO6Q3wOMQNRrtXYx5cmelK%2BPqR8vu0%2BTzkXvV440az4thQNBr8Fpl%2Bt5mMzLa%2By3spT%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnD63g0tNh8c8XiZ1gv4sDgSM%2BRcmd3pVeRuYbHxHBXBwJa7EmqUYdHwX6r%2FfzWOYnysniLS%2B2bJ1FAEbHdkOzAUpBHUZ8JYcsqGoztJ8TU7MAAWzyReR81Yssf8dYVoqQzhFVMCMtIbPwROO7rxr9y%2BE0zV6wwymb%2BLlK9NJITHtIZUthhioEKJhinwpSRcouNSFNBux64e8o0ShuWc8qR5WT%2BgYz6%2FhPToqQmYxOsXv9%2FGqkyniwanMW29PPt1CAsHCznlz5R0H%2FX0oUGYGzl%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9559,19 +9587,27 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Blue Refractor</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>George Brett</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$209.99</t>
+          <t>$162.50</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9581,7 +9617,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196793330840?_skw=PSA+10&amp;epid=18055956690&amp;hash=item2dd1cbec98:g:2A4AAOSwx8FnLohL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldLqM7Q5kv1TB2Tol59dEa753QYIw4kYGYNX8P0Y2Q9SaMkRrsYjipawtlqKeHCz70cC5ns7181JR0jTaUPu32aKG%2BFmw3nKIBzV3mULu0eJthBjTxouF12epSGBH18JluyFzyjexp6IkUxB%2BGRYrfnWelUc6xrNAHdPQtGJGl%2BZYrBXZyGPuhFGZ97sWATE0hjBdPwFsF%2FBVDON8Dg3bh3hy1EHk%2FpIGn9W6G3CtxCA%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/226571830733?_skw=PSA+10&amp;epid=16061694134&amp;hash=item34c0bbc5cd:g:jwkAAOSwyZlnmnvc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpJURC3GktdyE9mjTxnZNR3ZFvX0yCLMjzqxzMIDKuxD3xgpFEQ4K93GFeNefnMV7YRT%2FcM8RTUSLWHZGeEcPH2mUBno%2BDC3EeiChoUTE6GpzSJREUcQ0jn%2FvbxjaIYaLHcQDVs1fz9E%2Fc3RsP52DvY6KK87mZnee13QcrvbJLFVbkh8O8%2BUpvav1H%2BhsXS9fefED83JjUO5RSI9ZluD19BjkhLmBtPdJUti5qYZKrZx%2FDCNthaHQ5nSkbgGw08USLWR9hPxfX7ywSTkqlxV17%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9591,25 +9627,13 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Bowman Chrome</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Russell Wilson</t>
-        </is>
-      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>$285.00</t>
+          <t>$174.99</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9619,7 +9643,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226571803940?_skw=PSA+10&amp;epid=4055882549&amp;hash=item34c0bb5d24:g:CakAAOSwCHJnmnhL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQOKb3AI83uzL8ZIBZahrgbAQ0dzJAbTXDA7%2FSJhE6zMLSa0Ho67Ii%2B3njSmQklTzPczPC4vP9DiZDCjIf010Bj%2BJllQ%2FcemhCGecHQ9h9ZQ6d%2BdfBPJsJZsttjxGIW4aeWHZO6GjOurv8579RhbLPBazMJgbqsBG5FNZ7CKS2IIKFYRtb5iUMUIBwFnG9lgPvdZIzVcRdW2lhCIhXIuYlyWExqic5qGghwGb%2BlwjE2Q%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/365345336341?_skw=PSA+10&amp;epid=18065175329&amp;hash=item5510476c15:g:TxMAAOSwAIFniCf8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkoZkHvOQSIvKiTDaCpwg4fFaWl8PQtspJZrkEzjYYE%2FYRT6LMrI3NZ54zqA6fRzD5Hih8ntwvBYXCCGLFqghmEIfbNrI%2F7ctj7%2BvcvNrO8JEE%2BureOrE8oeklM%2BHZxJeWOf4wz9ALUOhbJfGHekYlxD%2BKkeRL31afXAdTQvp%2FaoGPnu%2BqYjAYKEMl3LJBk6dERvpjwNOFEefCF4NdHsi1CgFxoNhQPdofkpYC91i7mJg%3D%3D%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9631,27 +9655,27 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Topps Pristine</t>
+          <t>Onyx Vintage Extended</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Gold Refractor</t>
+          <t>Blue Ink</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Cole Young</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>$299.95</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9661,23 +9685,31 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326415082502?_skw=PSA+10&amp;epid=15062498052&amp;hash=item4bffdae406:g:k5MAAOSwbxRnkVe3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9Zu7TiNlU5jDzv%2FNWkJua%2Fx1tQ8lgg9NjGYTGn94OA9QTlVVlogDZ6k3hFuygS0msjPeRfddzjgX3E4znGP%2FrDwkkPNmyNrygeqZEp1X9ZhzfMjvyINSeHr2tYO4n2R4VTGmLttS10XC4KCTbkJ8YSZkn%2BTAtJHzcME8fPTtgz25W2wnUefVXnDIbC86%2Bp1o57LhULnsnZntQaTnA%2Fj48X3BzKoLMZ9DZs3yzSMnODQ%3D%3D%7Ctkp%3ABk9SR_qN25OaZQ</t>
+          <t>https://www.ebay.com/itm/396142738861?_skw=PSA+10&amp;epid=26059324171&amp;hash=item5c3bf27dad:g:THsAAOSwESRnkQhA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXtiZHZEKuOL3AFtOgF33lzAvxhWWX8RHVn5Kd%2F%2BuZI2KQQHAMeRfwdcsVQf%2BnBP0s4F9ngkSmVKUuQHx7hfJWnl%2FIbJJoqalBZ04T1GFWlUlriEKxy0hNs4xlglmuAxF4mter1Itkyj0b27k8U6jRpporZwkcsy6RdDwlQb7EQckD4oVfOqbUCctkiQNDTA63%2FKiIq%2BPwoZ%2F8TfD7vuVibQ0WhI66VnXOxV6wuguSwjB%2FxAxo%2BX8Flv%2BlA%2B4UssgbV2uEb25eOjHc3d%2FzJi0v%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Basketball, Baseball, Ice Hockey, Football</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>George Brett</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$209.99</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9687,7 +9719,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksgDN%2BrpKsv0HLEDgfSj0KWLOZeo1JvZTFsj4BBSEwcPC2%2B24iLIQJntIsdQuQOsPVn9ytq3lYuH6yoYAObMjHYthwd%2BXiPfI6vNqN2yqFwEilUUB6HnYKG9mpVSJSuM5eormGhHz4zaPgtgY1AmwzzzS18%2FEWXaY9R6jeHVcFKMJJm%2FeluvFdrQfDoTCt%2F9eIjOV1gUOfv04cYkAABXVV17l9EseihXQjc54TrIp%2BmDncnlAZsHej7oC70rMNFHkLQ%2BYBgpt%2FHIXoddHz0IJO%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/196793330840?_skw=PSA+10&amp;epid=18055956690&amp;hash=item2dd1cbec98:g:2A4AAOSwx8FnLohL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnXuH4EV3j4X5ebVRUT7cWqMBp5V2kNib0q9HniBdO85cBGRdksCW%2F7tigYlj96rkslb48f%2BOdEh%2BulwEWjH%2FF6s4Vanr4%2BlY5K2eVQ8ryFw9OdqDovyU7%2Bfd0iXpcLej6QDjWU0ZGSmNMumGwAcz%2BOU%2FQ6F18qKZINp%2BBgTDMm3ImNFEcGIK9yY0aAbFH5ew59wKYc5Z9uefmgaxC%2BsTNunZ4SYVm7xUr%2F3TRMCmY6x6GrQeG8Nkcz0plW3hjygWe9nIyyadCYZk6Bvicuhruf%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9699,27 +9731,23 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Topps Pristine</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Gold Refractor</t>
-        </is>
-      </c>
+          <t>Bowman Chrome</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Russell Wilson</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$285.00</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9729,7 +9757,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909226939?_skw=PSA+10&amp;epid=10055969923&amp;hash=item1d8c611fbb:g:ET0AAOSw-RJnmEFd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAjLa%2BBuFWpF0c5Lk5GtPQIwK%2BnfYvQ5Pqk2%2FvMW9uC1XteCDjHrAuhQpMm7WtN4p2eEVHkibMpdPARSAsCCPnyI0HP7FID4%2BU0VYhzr%2FFxoJ7Jw%2FiHP60QKyZ6vxZbKwyqNJC1KypqHr0DD%2BZ6wGAsFeAJuCPZg9V46UA17hpYAMcEIYXF%2BZhA%2ButxGc9sIO4mPKI4ecs7QCez5L1EjRX%2F5VVdk8pSJjDBV15Z%2BPquiRBMIZbJVHXFRwM%2BMnACVMJYnJFS0ZR7xe1wfxyT8I%2F%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/226571803940?_skw=PSA+10&amp;epid=4055882549&amp;hash=item34c0bb5d24:g:CakAAOSwCHJnmnhL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlumizexEEBu0YbedpBCW1I8dLS5jAP0LenlGp4T%2BjkU2xuSRPmIrNodw0%2FlVJYUMdg0GJo%2FKoFsTLZT%2FRIcytI65pxSWLDx8ldqteqlvdWvpdZd%2FFpUocFVnCMeMlXvgfMEKiNrmNAvgaU9B8cKLyRYb0cYK7i%2Fc4Twh1D8ogYgN210RxonTzY9amxMgAohigJw0q82NwliFJWsfhrglYGqt%2F%2B54USVsuW5cQQ6kvU6inxculONhznodqJQ9mP%2Bwsv2VgIzPC3d0opXmJkFljP%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9744,12 +9772,24 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Topps Pristine</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Gold Refractor</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Shohei Ohtani</t>
+        </is>
+      </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>$195.00</t>
+          <t>$299.95</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9759,39 +9799,23 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267062057963?_skw=PSA+10&amp;epid=28068307204&amp;hash=item3e2e239beb:g:ceYAAOSwpIxnM6nP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwfWgwqIzkjRKfIuC2FW3jTjkKRY%2BLb3T2GFo0T71ABhwa6ILwwRRVCjDoU1tijPwu8og5ArA%2FwJ7tmcL5zCEbVGm%2FQKzbZGyCHFhuaC%2FQu2jsYKoI4wvBZl8XP3XKBR7g4G1p%2FSWRWIgJ5nTadv33Nh%2Fl0CiG9kjPeN417A39sI4T3ys7cOqjVNbSJLbQBZLVZ2cbmCQxMYO95On5bh6XChYSzyFEIdKd8KnsuymDkw%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/326415082502?_skw=PSA+10&amp;epid=15062498052&amp;hash=item4bffdae406:g:k5MAAOSwbxRnkVe3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9Zu7TiNlU5jDzv%2FNWkJua%2Fx1tQ8lgg9NjGYTGn94OA7GfucPT%2FsQDaYJxDklqiSlpgcY9pweOmpYmFCKKphjsSNBE5Uiq1SQWNJ3QRCGKPT1qPES2UtWwGiCHPKDFqdrG6JqNJLFIbDxINbpnkuO%2FnICVW6EEwEqD%2B4URR9Rx1po5kYqrPIqhpYvsjbAOeUngVwfgceIiqcJZf1E2VZlNn4EgP3QtZjdQ6CSeTygVRg%3D%3D%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Topps Chrome Silver Pack 1989 Green Mojo</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>/99</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Junior Caminero</t>
-        </is>
-      </c>
+          <t>Basketball, Baseball, Ice Hockey, Football</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$295.00</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9801,7 +9825,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296345166127?_skw=PSA+10&amp;epid=21067057440&amp;hash=item44ff8c612f:g:nxUAAOSwh3lmEGL6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlreIdZ%2FQKErLB%2BvW%2BKua2PEeSF0d9hm8c7de8xG7rDkeAAVzcVhHe%2FMGUnnxgIp04LL5kmiF3jTvQ%2FmF7WXB%2FMGDb3%2B%2FOw0gG41ySi%2BRES2CwWpoIKvgReVtMn53khgbR4y65eth2ubt0KgVvXez%2B3bZ%2Bzyig%2FFE%2Famy0q2R8QhRrWIVfnnQEjw4WnVvFA42UItKN0i8o2KUUyLU1%2FRjjHuQXU%2FoOXvff9h3jLpR5EKw%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksgDN%2BrpKsv0HLEDgfSj0KWLOZeo1JvZTFsj4BBSEwcPC2%2B24iLIQJntIsdQuQOsPVn9ytq3lYuH6yoYAObMjHYthwd%2BXiPfI6vNqN2yqFwEilUUB6HnYKG9mpVSJSuM65aXx3Gu3sdxo0S0sLwie2FCRVnuNCcspJmQrdIXS2u1cllrSdaei9UbnUUjd8B3cn0ynCD119oXbywym%2FOKdoGNogaVd9723Y6bEWbQBTqfGU4V1Vx6DN%2FJ5hJcqSi7S3R4o185g6ZGf1tYEaITXC%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9813,27 +9837,27 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Pristine</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Black Speckle Refractor</t>
+          <t>Gold Refractor</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pete Crow-Armstrong</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>$440.00</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9843,7 +9867,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458979098?_skw=PSA+10&amp;epid=20070304413&amp;hash=item1b1d7eff1a:g:5FEAAOSwrl9nl892&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnzJN6unXHpFYbe71HXNlpdIjjbgyufA7zJJLj95HIQ81qmeeM1RitrmWH%2Fr7HRLlg2n1RTIRvzUkCmcgppSMdKjxTShY8K2kYR1kx6o8I%2Fna13WpfnY43pq4SNMCIFiGd%2F%2BDNR%2BwLRqpjfvQusnsUtCe2waKKK4V89lAxqZ3L7Iit25QL6ssosSc2q0Ob7HHJlOXdi2CeohIUHGgzEOuz6RxMTX8OaOsK%2B%2B2DVY0vo%2FyTF6qgRB3cXFRkAyqfdOVQph9SBlSnQIw3pGjvPfzJl%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/126909226939?_skw=PSA+10&amp;epid=10055969923&amp;hash=item1d8c611fbb:g:ET0AAOSw-RJnmEFd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAjLa%2BBuFWpF0c5Lk5GtPQIwK%2BnfYvQ5Pqk2%2FvMW9uC1XteCDjHrAuhQpMm7WtN4p2eEVHkibMpdPARSAsCCPnyI0HP7FID4%2BU0VYhzr%2FFxoJ7Jw%2FiHP60QKyZ6vxZbKyW6wasZ2xDESU7%2B%2BDgu8UW9GzJcqKT0bTHnQRZkWlXknw%2FMnZQm3WGcQ%2BaZ1c0auAQ5jtwwOpKxCCwo7lcC3NJIBsKgweaFrYZiKMNFOcG0HpmTS%2FxqmDtkfxjWCv74IMhiSlgQDZXyyo13hMdazPg%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9858,24 +9882,12 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Leaf Exotic</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Parrot Mojo</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Spencer Jones, Anthony Volpe</t>
-        </is>
-      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$195.00</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9885,7 +9897,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833111444?_skw=PSA+10&amp;epid=21063399370&amp;hash=item40748a0d94:g:A4cAAOSwtUBm1OiW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKly%2BpvfPPKFHbXunOzJIzSTt9WgGHav2iSW3%2BwtcJ2nEKzurCXI6kWJqN326Xyfq8XweO5b%2FrWiaAapcwF2Ou6XqAIWtCY9cE6KOmvmMAyyBJwF%2BILkB0fBOLt1qemE0qzVJkR0F0wmS6OfTgGgax0IuF6FIYV0akJNEHjsv8KkD%2FvJG5XCPYrA%2Fe0rfTnp2UoTyI%2FeyX9FxP7PYYYDi%2B7xoLXDAWf7Xa8O09Xzem7FgV5ITic%2BVGI9u3DcKyIVQgDmiYxy5zonKMZcpJKkUKAF%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/267062057963?_skw=PSA+10&amp;epid=28068307204&amp;hash=item3e2e239beb:g:ceYAAOSwpIxnM6nP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwfWgwqIzkjRKfIuC2FW3jTjkKRY%2BLb3T2GFo0T71ABg%2Fdl8cs5y%2BNasXQSSAHyyM2BuQ31Hj%2Fiu32HxGmuUMNsJirbkeEw604AHcI78RIWge8H7L8hFVOwJE9a4VQHRimgbFBDC%2FWdoVA3FRT80RI4AFHzTfI5pfQv0IScK7h%2BuGgi0EAnfs1befO8I6CYqRYjvghVtHMJW5%2FFU61TmHw964kuLYwNWol7RET0VXkEw%3D%3D%7Ctkp%3ABk9SR-TOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9902,22 +9914,22 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Topps Chrome - [Base] - Lightboard Logo Refractor</t>
+          <t>Topps Chrome Silver Pack 1989 Green Mojo</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Lightboard Logo Refractor</t>
+          <t>/99</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Cal Raleigh</t>
+          <t>Junior Caminero</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9927,7 +9939,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387766836808?_skw=PSA+10&amp;epid=12069557636&amp;hash=item5a48b45e48:g:DRYAAOSwwjRnbhq2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmX1%2F2WjNv5pAxHnUz%2Brk%2FZ645VY8RB4vOyk%2BVvzdkYrcpGzTU14TqQJzOVh%2FtWVNrP8MwMZ3A67qhHm1IXCBXy0Ei3y9XGyQLQOM2%2BCMxBbWoE0rmQWz%2BA%2BbPmPN6uSvfmApSeVSNHkn5HvMpDXmhG2g1uyN0svruJsFy9N3gc9bNgviutgboEToi7B1hiCjusTkuok5qjK8wOEzeJT7haDpMVqFTLUCpEIHNfgjJWuks3waA4P4wfhw3N1y5CzT5m28U%2FdWHD6DquQMENzHNo%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/296345166127?_skw=PSA+10&amp;epid=21067057440&amp;hash=item44ff8c612f:g:nxUAAOSwh3lmEGL6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlreIdZ%2FQKErLB%2BvW%2BKua2PEeSF0d9hm8c7de8xG7rDkWfoODD1yrI%2FC2i5V9NCUQMkk2DqTSz7DNsn7ZG%2Fpx5ZITEk12k%2Bn8uRtSfbRF9yenVfkm5huqEhPDDWbF4zMP98pmfDOyiovV3XxfxZOe99gIoQRUtM8GumR3OaDmjjfqcSsdnBJXSBXE9deHwII4JQWTMjq7DTboedqCe3z%2FJFQYyv%2FB%2F77VqEndQpE44%2BdQ%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9944,22 +9956,22 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Green Shimmer Refractor</t>
+          <t>Black Speckle Refractor</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Walker Jenkins</t>
+          <t>Pete Crow-Armstrong</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>$710.00</t>
+          <t>$440.00</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9969,7 +9981,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458967400?_skw=PSA+10&amp;epid=4067688921&amp;hash=item1b1d7ed168:g:kjsAAOSwl5hnl8ms&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnNX91wicyOE6ethCXTWoknASqEhXJjyMP4cAT3kKFStsLZMpifaBpnUeTeXhwhlKwlfm2z%2BU3rTUlNkHH2TgRmt33YVyv4u%2FYWhA8TsFbveGzc44UDX8r2t7HjJWFCviBBm73589nav1SAVLj2HvAWXRjkBbche4Tp0ojbn%2BMPILQCBCKq6MYu%2FJP%2BuDw7Bd5N%2FSmM%2FDXU9JfPXfKi8IYJLsnQ8nR0BhEIF5yT5cw6Qw%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/116458979098?_skw=PSA+10&amp;epid=20070304413&amp;hash=item1b1d7eff1a:g:5FEAAOSwrl9nl892&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnzJN6unXHpFYbe71HXNlpdIjjbgyufA7zJJLj95HIQ81qmeeM1RitrmWH%2Fr7HRLlg2n1RTIRvzUkCmcgppSMdKjxTShY8K2kYR1kx6o8I%2Fna13WpfnY43pq4SNMCIFiGeFRDQz43M9HxAS%2BMhyKMeG9U0Fbvvtg0XgNUOjodwkc90jrGVt71huFRHWjPPW6CgxxrmTkCHOXzIYR7gPwoQrUh9E%2FVPEwN42o36T%2B8wEdjIHhgXrOm8pRCIU5GMBevevnuKuGtYhJkc5bsz1sx4C%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -9979,25 +9991,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Bowman Chrome Prospect Autographs</t>
+          <t>Leaf Exotic</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Prospect Autograph</t>
+          <t>Parrot Mojo</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Jaison Chourio</t>
+          <t>Spencer Jones, Anthony Volpe</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10007,7 +10023,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405155999332?_skw=PSA+10&amp;epid=25057800134&amp;hash=item5e552dee64:g:rRkAAOSwuh1mtoxw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkT0HLcpofILUWQLDKNntPThTw4S6SdDw2e0ptJ9M1QqU1F4Fh0o9GEKKUhW%2F4Nx0f1MdAh9zLBxBTn10R6%2Fn6kS%2FCt%2FU2utPa%2Bky1%2B2reu2B1vglO4H7aR5AuxUBqhBS6RoMqsNjPwzGjlLdU6%2Fqh2Pw0jZ3ttTz6LgO%2BLqH%2BoRjhjtIatms5W%2Fi5ruShvpzfHpqZ%2F0P9EUnXddgNK8h50ndMepPTnb%2Bz%2BLleAzS1ljAavYJ8av2VV6H8oIhTI94UL2PBFamdM3XetBq0KXEWk%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/276833111444?_skw=PSA+10&amp;epid=21063399370&amp;hash=item40748a0d94:g:A4cAAOSwtUBm1OiW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKly%2BpvfPPKFHbXunOzJIzSTt9WgGHav2iSW3%2BwtcJ2nEKzurCXI6kWJqN326Xyfq8XweO5b%2FrWiaAapcwF2Ou6XqAIWtCY9cE6KOmvmMAyyBJwF%2BILkB0fBOLt1qemE0qwqy7SSCTF0icmRLksWU2Ggzb78kc%2B4QYhGTIBuPji5XXJtn8f%2FOm50d4wAwJVwmZurK6FNhjfD%2BM8MOapdTO%2Fn5GY8h8VEukUNeB3f2916QREfmhszN06xkaY4xamL8uEJAKHDTszOmuqt27FNKV5t%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10024,22 +10040,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome - [Base] - Lightboard Logo Refractor</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Lightboard Logo</t>
+          <t>Lightboard Logo Refractor</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Jung-Hoo Lee, Lee Jung-Hoo</t>
+          <t>Cal Raleigh</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10049,7 +10065,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365354572985?_skw=PSA+10&amp;epid=2340616226&amp;hash=item5510d45cb9:g:GdQAAOSwEB5njrms&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYBClNTa%2BCSh8HDFggIl2jnymF4f5%2F2G9Bwb2X6l9%2BqpEPJLCIys7uQrUL%2FUExfJVEhK1w6ZUC0wtfxH%2BX%2FFeYnmYugSJXpSLbSZ3m3TrnPGBbCRUAJRCUocOaZy2ABZRVTMUNqDeRUWfKvjtGqGdHCQfHkps4pXvJZ%2BGbqNlHOggMuMCBLJ8JX3%2BgpshlNUKWHEwiEuJ%2BfAAr%2Bt8GuhLjO67iROcL8nzOroBtZSIH7TimCvB4H15IGZyDJVb6sxf4SDkTQDls6U2d3H5ejdTC%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/387766836808?_skw=PSA+10&amp;epid=12069557636&amp;hash=item5a48b45e48:g:DRYAAOSwwjRnbhq2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlZH8fVvYxjMlWGgMw2YHPGqG1s62K8p3Rd8Wi%2ByqRycc6fMAdQBAlIRNbDJqND4YiDNa5L%2Ff4fdvhpxGcmCduCE963gJNd8yaJGsDkkhZBI1vPuITGaXjYhvwNXmHMpsnh99h0VpLcAnlLTbXFK8isaffO8xa%2B6KZZx5tBA%2Fj4qWwDZqNjY8LKcS0L0QQ6mioZ7h7OwKsgGsyIxqTDLk8JfNWJxE0H4KSU8Jrvndg%2F9w%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10071,17 +10087,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Green Shimmer Refractor</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Wyatt Langford</t>
+          <t>Walker Jenkins</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>$811.01</t>
+          <t>$710.00</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10091,7 +10107,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458961738?_skw=PSA+10&amp;hash=item1b1d7ebb4a:g:gGkAAOSwQV1nl8hg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4FzH14GH2FXYOQv7OHO%2B7fJ6ikUmUGpf87xz%2BZtNkMdnolHTRh8nthVr3Sz1qF8SsRRFpEE%2BWsa4rfCu%2B6yQnNZR%2FujFFjs2mQdcmZvI0DvTr0Z3kawar35MSySWdSlCc%2FHBo7NxTAXgjYsng3cHCUiBHaqxOtCt4Oavim3IBp6WZDxtVbtulqyfOCHyuHKbygggLNpK5UiKvR%2FuzeTeUZM4GLXw1WJlMbY6qvx5XhA%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/116458967400?_skw=PSA+10&amp;epid=4067688921&amp;hash=item1b1d7ed168:g:kjsAAOSwl5hnl8ms&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlc%2FMFAgYrrRx%2F4J9X7AolbnxKdY5BqufjlAVAeI7rr6apfQ21MDsB5WcgZ4Ett5F--%2Bg6rZ%2Bc4GEwaO%2B64GI9uG5noRJw2mbg8WqIwQLnKiflBOFQlK4TeMFhWQ4QAmqLuoMsMUo7vD9O6zmtgVEaq90J%2BFtPjokNKMO1iMtUkmbNt1Arq1700o7h87wVfI7xKs2ja7gXokJViQEm0R5TBCl3On%2FnZ1B9J%2FuenOZ06cgom8FrAePeypqJokBFqdKMD4Ni%2BX306YBXv%2BUE3IuzZ%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10101,29 +10117,25 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
+      <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Bowman Chrome Prospect Autographs</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Prospect Autograph</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Jaison Chourio</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10133,7 +10145,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166878864919?_skw=PSA+10&amp;epid=23070055705&amp;hash=item26dac16617:g:d5IAAOSw~vNmRP5e&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm4eGmIvoVfWBvsBdy6n4SeFsalNxFCD2zjPGYDPCz8UEN2qDFvxo2vGKl0rq9zt2gs4SssOgJIeVU7ihjKetHCZjuDicrHrytc6FZ2MOiaO6nLO5gx0YYzjg6OkorM02zQOekXFPcFe8BDlb%2Bb4u1r5ADK%2FyXf8AnBS7eWZoj35tT1AgPi0qzp%2FZQCmthJW8DlolJK78Nf58eQm6x3He0AH1G6pyALaKq8TNl5nlq3RA%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/405155999332?_skw=PSA+10&amp;epid=25057800134&amp;hash=item5e552dee64:g:rRkAAOSwuh1mtoxw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkT0HLcpofILUWQLDKNntPThTw4S6SdDw2e0ptJ9M1QqU1F4Fh0o9GEKKUhW%2F4Nx0f1MdAh9zLBxBTn10R6%2Fn6kS%2FCt%2FU2utPa%2Bky1%2B2reu2B1vglO4H7aR5AuxUBqhBS4Vg9T1JV%2BOspjR1yWBi%2FBKuozWeRoglkk0DmdiZ%2FoPNCpPvnoF4j1uI8onePSJ%2FFCV85T8D4oJp5KLdzNKUwh0fiFHGV4Z%2BXsZCqKaTgoKGCMbihVM%2BAfgdgmbD9Ks%2B%2Fsc0XSMdqGnfNUlRwEXGXmp%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10145,27 +10157,27 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Topps Chrome NPB Nippon Professional Baseball</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Lightboard Logo</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Roki Sasaki</t>
+          <t>Jung-Hoo Lee, Lee Jung-Hoo</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10175,7 +10187,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156669873256?_skw=PSA+10&amp;epid=3057241834&amp;hash=item247a408c68:g:NsYAAOSwn7xnoECd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmXYek6OZZMThjUKoKiV0B0DX4H5GlpsH%2Fter9W8dRq0dYg3HZKfoWaHNTdtT69Evo9Ns2DZM2225tvW%2BJZppkY6If8VBwUlrlzA0uuDyjXosUXodC0zp2ZG7Wjyu6C24OtGo%2FG8Nnq1PsvFm%2BQFWpsgcHm7wXzEX%2FpO1FKDFRZ8AzComT%2FqWu7eJx6esPJatu4Ooh7Vjatc0i8X09D3gzSAUz1oJdBiOntI%2BFRMq%2BMeE%2BBihiTD3Uu2xm%2B34HkZcnVIY6rdnk6kpkmKXfgPIp%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/365354572985?_skw=PSA+10&amp;epid=2340616226&amp;hash=item5510d45cb9:g:GdQAAOSwEB5njrms&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnojFuO3fdrJZzs42%2BHZP%2BF0u1Iqc40GCob56xrizgNVoVWWaLg8WFNF0LPcYSLgg7q%2FExvrLiUayeAYBeF8QhNymQM3Hum%2BqtS4t2KtrVoH3x1%2F6e5FjO%2BT0t6LFYL3JO0lfPj0w28uVaWrd2o4Gu6827sKFFsjs%2Bn2CpNnfm3OPTelFEuAZCEIYLME6cC2430RO9BPCDEUaZgTRuUk9BXjGIquOUfb5yp8UCYlSP7uA%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10187,23 +10199,27 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Topps Finest</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Ronald Acuña Jr.</t>
+          <t>Wyatt Langford</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>$229.99</t>
+          <t>$811.01</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10213,7 +10229,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235597392218?_skw=PSA+10&amp;epid=20055974209&amp;hash=item36dab2e95a:g:0yMAAOSwTnpmYlVV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluKT8cJH2uaht4mLHnwovb%2By%2Fmkr%2Bn5og06F0EcYBEIbA6qIdv%2FJig0MjJn3ufmD26zlsgRh4QiHXPI3I1AHtO%2FpUGt2qXaJCMSJRufAsMAA2hubk6rXUKrCJXZ0Te1uLvtYB5Gt7veQ0s8c814f5bAMaBnL0AicrMEBQNBQLOx342E36fr5Hn%2BZWtxkJM6iFhYvAbEQeEyLBBq8yLDjPvM%2BYOOK4vyKiMOSSe1RVyTA%3D%3D%7Ctkp%3ABk9SR_yN25OaZQ</t>
+          <t>https://www.ebay.com/itm/116458961738?_skw=PSA+10&amp;hash=item1b1d7ebb4a:g:gGkAAOSwQV1nl8hg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4FzH14GH2FXYOQv7OHO%2B7fJ6ikUmUGpf87xz%2BZtNkMX%2BLcX5iNArlfpYu%2FkoweNoDSIMfz4uQwYd8nZdCuvjvvaaByeSlbjoaIVW9Nh2z7Wo96AauuVrbLxHV99On2F8UUK%2BxRnTsIM2HAjOgU90YBtOz0Q%2FOp4wEChEiM944RtxhibSfAkgBIeZsv2CnyvVb24imhmz5v9u2uV41zuVbPl4DYhotSuXfBT2YGgdHVA%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10223,13 +10239,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Corbin Carroll</t>
+        </is>
+      </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$275.00</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10239,7 +10271,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306083028208?_skw=PSA+10&amp;hash=item4743f85cf0:g:Tw4AAOSw8rhnnsAO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpEBL1JoSadel%2B7gowWmOGG5fQOpiT3IEeNSg%2FeJ1%2BrX7sOAJOqIIs5nzfD6QOSPkh0KtWpwZdPHazOm4OnMV9cDdkw7ylAKgtvcWI2Eor7WP%2BpITFmbQng1ymnHTASnNggdUdFxd4TUoTmN5vXelJpUYiDXwONtu1ezBeumvqMTRGgT8VPfwil0S0YSjpAJ81h7JqmeiO9DppoYxzMpOf%2BkeGz8naEJvwTTBOOXCM%2FYTNZkqy1I0%2Bb97Bdn4vHr%2FDFAXxFlthtn0P75kPvIv3%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/166878864919?_skw=PSA+10&amp;epid=23070055705&amp;hash=item26dac16617:g:d5IAAOSw~vNmRP5e&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn24Gv40Pmhftrikhz6aj8HH21IWfoYvg6IyyrS%2FCgzxP8Ld2UVOR5ENeLQs041fNwrZX6LmfFaYY0ptNFYY%2BG1755nmbeIRuYnjyBL6MEMFLqeZdM6qt9ecKZPgGp2zcbQQpTxM7Hr18hVTQy8jy3hzAyNWnEdcmQQdqVzA0BjsENcazKzlVOMsoykeuKWePNUCgsdGLfIrOZs0Q0OEl5vwS89Z%2BTN2KYmhEHtn5lCRwm4bU7vo7e1tmcLHkXorM09Se3V0aV1INEs7JHdfZHM%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10251,27 +10283,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome NPB Nippon Professional Baseball</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Aqua</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Roki Sasaki</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10281,7 +10313,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186916147949?_skw=PSA+10&amp;epid=8072226942&amp;hash=item2b851212ed:g:AeUAAOSwuf5nmDIS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkzo%2BQy9k0n5%2FXHM3bOLPqmts7EKI5yhPulQIB913xygYEaOqkyRsBhoyO4Kb3OkwKNtzgDCXpihY4tiJRSjhZEDs%2FEYaRPk96q%2BAT9BXSJnTc0n3bXL7LJhkNVJUWIFNKeh2uZxjB6FVE88rD7QJxb78rrQ4qpFWY7%2FLx%2BY67uzDoBhqdwEIEjfdviIOA2lcDIX4viFl7wsjTwi--jlzm2%2FWc5dtKZH5MUSpWHdbzaTTLL%2F3p2VNzcXsiFDyo1DPPRDyj362ck0mOdyw6HniI9%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/156669873256?_skw=PSA+10&amp;epid=3057241834&amp;hash=item247a408c68:g:NsYAAOSwn7xnoECd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmXYek6OZZMThjUKoKiV0B0DX4H5GlpsH%2Fter9W8dRq0dYg3HZKfoWaHNTdtT69Evo9Ns2DZM2225tvW%2BJZppkY6If8VBwUlrlzA0uuDyjXosUXodC0zp2ZG7Wjyu6C26r9YuSOo8NMaMeqfdMIHWZnIPkjbHZFKRrelYlrp7NTeCx4SDapKhRxGdhhA9BcmumSvMaIVfYWO8sEWV3fYRwP6j3NOn5S5R1pVv%2FdQrnMOE8akCkcT74iOWq0IBWENfUk%2Fi5sjVgqDesNqMCtof6%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10293,27 +10325,23 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Bowmans Best</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Red Refractor</t>
-        </is>
-      </c>
+          <t>Topps Finest</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Ronald Acuña Jr.</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>$999.99</t>
+          <t>$229.99</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10323,7 +10351,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205056338523?_skw=PSA+10&amp;epid=7059592996&amp;hash=item2fbe4f6a5b:g:AD4AAOSwi31nFv99&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGMI6isvsZfF0scdRw%2FYVXa4Rf8Kj7BX%2FKDr8bC8HRAGReSykkIZxfy4LN4ihGDXZT1hoYna8wjmJx0wnOH7hiVTI7HtdcO97v0dNvLqDXdULmD%2Fpbg%2BDHnivfzWe4kkthVap984xeljALkIWiWHS0Mhowy0QqiUHCuf3bt%2BZYwNq5lCrgPggUk4F8qWtTAL%2FanePcHG4Z4sApOEcsaHrQ6E40JFQy98jWTMDmAp89IA%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/235597392218?_skw=PSA+10&amp;epid=20055974209&amp;hash=item36dab2e95a:g:0yMAAOSwTnpmYlVV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZ4G67g4TU7AaFVB%2FF1UFhb9x%2FxXrrli61TorwsdOTDPJh1bOrNktbOq6cTMzH85zMyAJeiOUQiRBhdW%2FwK46W%2FyruFdtDxa7MhIM6J28dM4JdM02jl9sw5%2BLQkwKD6BZ229rCRubMmy3MwLz73p3%2FBAQLjQUwSXQn51tIjkiEfHHiJVntDuBdCeCKSrQD8R9jky8K3svnKz6ByJqF%2BfBqMwxhcoTlUA3Z22b8U%2FhrnWMeFiu7BeVE%2FkrvNe%2BX3IRLDTHAeghF%2BF%2FgzUJ0IbZ8%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10333,29 +10361,13 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Purple</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Aaron Judge</t>
-        </is>
-      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>$227.57</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10365,7 +10377,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356526307169?_skw=PSA+10&amp;hash=item53029fb761:g:cWEAAOSw2rxnLjyu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkC44vpgRukz%2FxbhCcRM6pZOaU7zxPUfePUFrYIbHQ%2BDerrgzT6SMSgxcNOTP0mRPG3eJBXesIutxal828DSU%2FraOUl9aUqHxLF16FpnEUGOZVkeimvDjtR%2B0yMYJ6Wd3kFmFykCuBSEoedNcwvQ2%2BegloM5D63wLmzLpsrQtyjHLMfW0%2Bv70zd7DUvkWwz43R1jGHkzNlS5sDOnnz2RsNkMWsiv1FcH86QOJbm0W%2Bpgw0nV768mbFOhaZXHrLWzZ9LqJNWE0smCIC4XiLQ1FzI%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/306083028208?_skw=PSA+10&amp;hash=item4743f85cf0:g:Tw4AAOSw8rhnnsAO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnW%2Bz058nFKsxbzkMLayCS9I1zWCWGsQEWEiORI1wcz8kd8q3nZjY5NPI4lC9Rpbz8IoUJTDqww9eSnPMV6BEBHt2%2FXlvV85GlshtEQ6JiKfcaYpuSXEK6OdItPOKnq7NDodmQXeKBL0v%2BZPqczMGYloz9a%2B2bhbUvMi48Oh1WDdUdExYASFfe%2FdTWkCnxOAt2mzhVawAHaKyuy7g8eXqtz0u9O%2BCiFagU9mc%2FDCQVdNw%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10377,23 +10389,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Aqua</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Mike Trout</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>$899.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10403,7 +10419,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335492790986?_skw=PSA+10&amp;epid=27055906518&amp;hash=item4e1cedbaca:g:YbEAAOSwWlBmmc3N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKljPZjC%2F7Qdv0QaT%2BtRheXvEaSVPWX3KaotURfYXlrmcyIrVN7eUWjK9PM1LW3XPn%2BUyuWkFRTxL1OuOf27jlc0qeK378yIekcefK6UsIaTwQiXt%2FRhxGD6JJsmNMYoTf5LLLPiEbm9MzHPrRFDdhhUb4UAqQTG6vPiYcuTznY8C0mcHWIoRIO%2B8yYE1f6Y%2FRdb5taC0wyAXNeMdD6%2B9RAJ7asnGEoNFL1wDOHIaUejNw%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/186916147949?_skw=PSA+10&amp;epid=8072226942&amp;hash=item2b851212ed:g:AeUAAOSwuf5nmDIS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkexlDa96NwdcLw4glPeb9uHNwCd%2FozftaXj4e5sBS4tKZ%2F6wAIWdET0G%2B3vVMmdvBxX5bgNfprw08nyFmM%2F9tW1Ll%2BxTLOdvrLvlrnEMopuvO72R13bv9TX%2BwwtPkJZl6PL%2BiVRWDMmtzRZlHhp5IY5K3aZ3mCerVJyw17gXz2OG6V9wAMsi9%2BQw8CHFvgqiMehYLQtnG0bkXvPjYQDvZyRjXzArE0sEDlIUVuSRyBiA%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10415,27 +10431,27 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
+          <t>Bowmans Best</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Red Refractor</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Samuel Basallo</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$999.99</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10445,7 +10461,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205258559520?_skw=PSA+10&amp;epid=23062864095&amp;hash=item2fca5d1020:g:gucAAOSwheRnnSjY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksqEClVQEDsqWnyaxvdIPEvZBaZ%2FQD1pvIn3WyswUbvYYldA8ITKdooMYVB50D9Haifgta0PSJFS%2FLKo0ZGPc%2B0qKhgUepSdV1VvQDovR%2FmDen9J%2FaJAeHJ6Wp%2BbQYw6wLMFpWu6q5hIJIBdB9gEzkqqxrB%2F4aVZKuxLYFVTkKNb%2FxXvloID8n4jOsl%2BUauo%2FcXX9Lau41PKABSGbsBiaDJISonMiirWd%2BjDhxRsCb7Anw7435cQZFwb8XWOIkoeTOCJOgI7C1SVoMQu3ngUN6%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/205056338523?_skw=PSA+10&amp;epid=7059592996&amp;hash=item2fbe4f6a5b:g:AD4AAOSwi31nFv99&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGMI6isvsZfF0scdRw%2FYVXa4Rf8Kj7BX%2FKDr8bC8HRAPs642LnI70zD5w8c%2BFe0Q22UaAJb0nn0KQI1NA5C0RNPly19TN8hgPteXqAXAz%2BLFDovTy9EmQw28Xm5dTehOZQg6aWiQBSIT%2B9hXVqHvH1o3cYt%2F5LFDQxZ8rENf8Xs3SGJqqfXfrO9w%2F2AgJ7jrk7Zg5N1Hggw%2Bho2ti%2B9kiWFub%2Bl1PpuRdy63O6ZJhBFg%3D%3D%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10457,27 +10473,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Yoshinobu Yamamoto</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>$549.99</t>
+          <t>$227.57</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -10487,7 +10503,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256791902957?_skw=PSA+10&amp;epid=14073107893&amp;hash=item3bc9fd7aed:g:Cy0AAOSw13dnkYao&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWlXLziSUvLiydf9XSf%2F5CS5gArlvmAJV58%2FDkeNJfHWnOOS4gzZJkOEwJXz9IdWS2kbj%2BXbjDWL250uJYMaalkGbkdfcv1no67oUrxWULYu4uHvNk18b5BstZgZiSdvL9GNRtAQnAwZIQvmbyxPLBxlVlRYu9BdW%2BGvhqDv8i%2FRSYXf1OaGBv45Yi%2FP1b0rnJEzn08dj4jyCgok%2FFjbxNJYFtDtFLaVNg5j9VMyvkaQ%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/356526307169?_skw=PSA+10&amp;hash=item53029fb761:g:cWEAAOSw2rxnLjyu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkC44vpgRukz%2FxbhCcRM6pZOaU7zxPUfePUFrYIbHQ%2BDerrgzT6SMSgxcNOTP0mRPG3eJBXesIutxal828DSU%2FraOUl9aUqHxLF16FpnEUGOZVkeimvDjtR%2B0yMYJ6Wd3lTJGAK0p936iw5TGIXk8p4xEqbmjOX1fQWO4Uq9QccL0pSoV1AuNw%2BvffDmtgDTeKrZhgTjHGcJPP5t%2B%2BZ1EQBRQRS%2BZ34g7jGZw73Ar2beu73dX3BwqyQd2dcZPQv5s75NgFCEXrUYajj0G9OGnhp%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10499,23 +10515,23 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Bowman Chrome</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Fernando Valenzuela</t>
+          <t>Mike Trout</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>$169.99</t>
+          <t>$899.99</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10525,7 +10541,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196934772053?_skw=PSA+10&amp;epid=5055959228&amp;hash=item2dda3a2555:g:wvoAAOSwxK5nfWiA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmM99kxmXx0w961gyDzxMOCKmBUdJE%2FraNqWKHMCLXeLOd2F%2FxYO3XCl2mziWaHNqSj9eVqwJTbXM3uBnTHMM%2BeBD3%2B8NFzpf1GZ4g%2B%2FnyEiz9%2FT5s6P26EqixX2TV8xjudOdetjZeFAvy5dICweJ8tHrfvGSpQQU3OGVBNnb%2FTCB8OjcgJ31OrkEHQbzTOJqQcKArpB9pjUbg6yOfuiwzXoI%2F5WsxTCQ2thmdd5eZ1fg5Vy1YltGUHG85s7f81UrVfuAeCx8%2FsG1hiPtuow%2Fp2%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/335492790986?_skw=PSA+10&amp;epid=27055906518&amp;hash=item4e1cedbaca:g:YbEAAOSwWlBmmc3N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlG%2BTGlPqA3hXbqZb0VGsCjeqdSFkAVd9tFVtHaMblBGAycpLZgOP1j2LE3c5aZn1BRauVALwah4iItRVb9bkocZSBWaoJLy%2BMgSg%2B4nGFKpm3l4lgVGtV4jsMwfXyolStws7V2bPIMTVLqHNxcSd8nau0lKz81hBWU%2BOpVA9AN%2BBP84El9ze21uwkH6UXrcy91wWXZW1%2FbzPuC1uVPuFjog4NRxzBH8fipdwW6bp70RbeqFYbV0xSKHys%2FOjGP8LGKW%2Fx5ZVG6Z%2BlPBSYLjWQP%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10537,27 +10553,27 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Topps Pristine</t>
+          <t>Bowman Chrome</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Blue Refractor</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Yoshinobu Yamamoto</t>
+          <t>Samuel Basallo</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>$175.50</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -10567,7 +10583,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146365722688?_skw=PSA+10&amp;epid=11071580712&amp;hash=item221413b040:g:eYYAAOSwkupnoDVW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1k6zKq4HzFs0V0QvCDEBPL1pN9jZdzoLITRn3ZBwUJ8Stpq%2F6BkNl0%2FIRahzvGMIx%2BPfu0kxtOX9NS9G0ntGX16rLkEcEOk1t9NmqfVZsBb7Oru0JBELEjCMIqeABqzJRQ1A%2F0bF0rG30fbfyxgxjFoK8tdXM5VuB9pNXIcYvfl8h2b0vfLZNJiC2il3hqNQGjaqbJ3Vxcq6hC3s2roTNlfUlIbpahczu558NXX0BYjCzrPM4BHVLC8LamwNGrxVVNLO5dD1TFN39D%2Fm%2BySiF%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/205258559520?_skw=PSA+10&amp;epid=23062864095&amp;hash=item2fca5d1020:g:gucAAOSwheRnnSjY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksqEClVQEDsqWnyaxvdIPEvZBaZ%2FQD1pvIn3WyswUbvYYldA8ITKdooMYVB50D9Haifgta0PSJFS%2FLKo0ZGPc%2B0qKhgUepSdV1VvQDovR%2FmDen9J%2FaJAeHJ6Wp%2BbQYw6x58MIn3qhOfm60UPZNB%2FKp%2FrUdunXa6fXM7IB2fC5NF9RtkZYCn3908IfBdjEDZWVHymjUN9sUQQOIfBH9ohSvEyVnYfIKw4dalvVJuA5Ow8QpxqR6y8gqy%2F5OIrDbBpaG938jqFK5F0f4u1QiDeWI%7Ctkp%3ABk9SR-bOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10579,23 +10595,27 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Action Packed</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr"/>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Yoshinobu Yamamoto</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>$189.99</t>
+          <t>$549.99</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10605,7 +10625,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135392679230?_skw=PSA+10&amp;hash=item1f8608553e:g:g2AAAOSwlSdnP9y-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkfAMkFADg30bvZy39e%2FAFy2CEDLBUoAhE2vlzZGH7KVQbPiqTF29zvHzoO8XIkPbeU%2FKuPQVSiYhPa4k41VmhHPHERdlI98xV9hCyNcsmfWpIo6nMnN7lLpAslHNwGrCGdd0Mqu8sP7uAMmbKZ%2By662u%2FHv3XS17HoNz3t6PpvSUzDOwZ0Go%2BBgQjrLxeMYUUPafIsUvmWzaVBYK7n55LmJ7rlDFnry86qvLptLoWpIOLMxWJXyJSaagBojF5DjwqJobxYfpYTiWjFdJbv%2BS6X%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/256791902957?_skw=PSA+10&amp;epid=14073107893&amp;hash=item3bc9fd7aed:g:Cy0AAOSw13dnkYao&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXslMVQDkVwfBfvxTMxZF9E2C52ICJ50J6Ei44pfrt1ojfNgOVJSYhZEx1X8iz8Wxf9Mniy0SNS1ajlbK9Dg6Bf9dbECkEUThNfKi4hWQThFo9s2yCtDN0zUipIQF6hgWyti%2BFBHQJ2l5dJDJ%2F8dJJK0WQAQdGBvL%2BYh%2FobSiPTOnU4SPyanFG1sgek5mfGZonWzUebf846Q6kYxejmVNZ3AK3xDLYPxv2zpXVUzCQus3h9M8Cvmt1iw0CxQ6Jp52cwc8xjV5nzQ%2BQ%2BvtFDLW4%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10617,27 +10637,23 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Topps Chrome Logofractor Edition</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Purple Refractor</t>
-        </is>
-      </c>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Fernando Valenzuela</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$169.99</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10647,7 +10663,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362587063?_skw=PSA+10&amp;epid=7062932545&amp;hash=item55114ea5b7:g:qgwAAOSwJTZnlF2h&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkC6mXrouAhnbtYaEK%2BMPpiaPqPTbTVtLgXYEgA4Fw1iHDvb7EamTr%2FKt2C5QTfZ4Ylor6SwFHlYXFbzUVb%2B0dp7yyAxwXhrDu0StyFzbqFJujWmwqopAW4vGcSoVhSudH39mOpNaAEE7BBqXelrHl91aPYH5MvPRvWkWjJREQV2u%2BjA3xfooaRsYI1fB3eBFv%2FMs2Vt1%2FZTjVcSvix6h5Ws0HkZ2OSOcFM32juqIaTSQ%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/196934772053?_skw=PSA+10&amp;epid=5055959228&amp;hash=item2dda3a2555:g:wvoAAOSwxK5nfWiA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnVoSdg3z34Qb6LByGQNwEsCYsBP37dSJf16hzkWY%2FPeE7BEP9wcwJkNBlTSx15Nj2nrMywcvQK%2FV7C%2BbJAIrgzAvPKgcqEQwCTHgyj6tIQBUySKZCPuJfA%2F4yYE%2FsLsqxFAObURCqAsV24j%2BfcGLgIohy1KJd3vK%2FgxN9TD4fDXYofLHWoMqNgYaiDAPQIoAz6C7FxleHqXcBYTWHULYd75bESiJdXCsZ90DNsOzpxqw%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10664,22 +10680,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Topps Pristine</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Gold Refractor</t>
+          <t>Blue Refractor</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Yoeilin Cespedes</t>
+          <t>Yoshinobu Yamamoto</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$175.50</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10689,7 +10705,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396031394964?_skw=PSA+10&amp;epid=13067683402&amp;hash=item5c354f8494:g:~UEAAOSwscJnZI7M&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmN9khaVyX3OVNdFwTSJw9%2BvkAc%2BaYunPOvoCb3AKVlqMHFBLt7tRjBByXfefwsL6FrMOBfd7jY0Ek6dNXTWVmGVwkyoxixSNhGQKWNnOHoTFwIbaUlOlSe0h6OFQ2m3gVU%2BimMUww8OOLEp2eJZuftcc%2FCh%2FnEEvr%2FrhURCJT%2FccHE52QjnBxES55q4esiUnkeop3%2Bsu8mKQxeMzstLYi8GY%2Fqji2ssKcQSqrbnOsccQ%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/146365722688?_skw=PSA+10&amp;epid=11071580712&amp;hash=item221413b040:g:eYYAAOSwkupnoDVW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnQlJaNOsvJB%2FaL6GpsmKAsiKQzyMqQaMTkkLPOe3mEGNBfABlIYk8mb73joUo%2BUvHntgwGsveA9htCnIpWoF5k2Qot%2FhE1PrUfmFYoKE%2FYgVkq07GLdApc6iWu6%2BL5qZDLm9pLqG2CTgu7pvs1DIbRAFDUXLGbOzLKiBRyD%2BFgo9PhAvnmzpulsFfgoDsoFWSqDBVMQg06HZCgLhNItaNs85MPc69uzODaznXg%2B4iZJw%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10701,27 +10717,23 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Topps Chrome Gilded Collection</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Gold Refractor</t>
-        </is>
-      </c>
+          <t>Action Packed</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Randy Johnson</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$189.99</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10731,7 +10743,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186923639111?_skw=PSA+10&amp;hash=item2b85846147:g:ShgAAOSwt-xnnoTy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BZ1nuny1JzD%2F2XcqR%2BHGfNDqu0sQvmCVfRObbaekTMnsE21z1RnzO%2F4ExILhVDn%2BMqluL5ratf3PWLuQnycy%2Foib5CQpQZsNoflyzyxlnqn1GLhORQdh9AbL1gOtKZs3ygY7V5oo%2B0V07Ql1aHx%2Bmsfl1qitLLe4LjDKe20tyfbkVbCIOfKrZ68FoWbxmNGRLnRA5z9YtLFIOltsxu7%2BOJIk5K14t%2FMLXHUhqGNrdKA%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/135392679230?_skw=PSA+10&amp;hash=item1f8608553e:g:g2AAAOSwlSdnP9y-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkfAMkFADg30bvZy39e%2FAFy2CEDLBUoAhE2vlzZGH7KVQbPiqTF29zvHzoO8XIkPbeU%2FKuPQVSiYhPa4k41VmhHPHERdlI98xV9hCyNcsmfWpIo6nMnN7lLpAslHNwGrCFR%2FL0CogIKoeY8F78NcTUu8mAZahZTUZEz3bTjEq8DOsQ8I%2BYY%2BwSRklA6xcf4iNTRPYz%2BKhCVqNMwX0oDS3KV4R3RYnZSjOaDgEL8FNv4O%2B6HUmyeDd9eXx6cxNgDdAxpkD22daFkAG5fEhoZB0JC%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10743,27 +10755,27 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome Logofractor Edition</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Purple Refractor</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Jackson Merrill</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10773,7 +10785,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235934923982?_skw=PSA+10&amp;epid=11069557160&amp;hash=item36eed13cce:g:~K0AAOSwwMhnBw1n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWhe829lTsP%2BHPeaEf1ISU%2Fsnh7vBGioCQBQg1EyTOIp%2FSnN08w8GmNKMAp2CCc2CZsAAhet7pFk6%2BOGfNtH1M%2BDka9NHw90YESupkPLl5Zs4Nlw4WHl%2Bv5p%2BqCXRFbDhLcXM7aggUdENh4tttNATiLF8YWk3k7dU6O71jCRr5yG3EEPmhBeQKa96uzjGtjFpwKvQOT6X9eHaL%2BHxr0pBoFI0OMF%2BGVLCCrqyIRJnqOw%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/365362587063?_skw=PSA+10&amp;epid=7062932545&amp;hash=item55114ea5b7:g:qgwAAOSwJTZnlF2h&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQXav8DeH4%2FSJFzN0rBzH9TcWNPBmyo%2Bk78gb86%2Fpyk%2F7K1Ss%2Fc6fJ3u3536MWFPOEQq6EUYKc4MlDM1oU0T6LZbChrZwujAmXrPulEMN2KIv1MzQkqAKPCV5mnPyO%2BCVryi425Ro9FMPLegNJhkVsXL%2FHUrvNi87audGiunxE%2BjOVH0xt4VXrLI9su2hzf4qrQOnItY4j2yfHCbkN5Hukz%2FC1z1yvUxvjwXqAhbXe4V5KVISMI6GC7mnxYv4dvsUZbx0TnNkkL0OHbfROimpy%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10785,27 +10797,27 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Gold Refractor</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Yoeilin Cespedes</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>$399.90</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10815,7 +10827,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375810114599?_skw=PSA+10&amp;epid=18064270766&amp;hash=item5780074427:g:kvAAAOSwr91nQNem&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZ8%2FozV99D%2B5F%2FjUf8kyMEDy1WPNCPyivxsbPSstShiqBJzhB4pjUyCvulnwZaNsMoonYBhnRkWPSUVnoZpaNPgaMPkZ70g5sSEvMYJI5KWraUOPTM8Ho1IhVZy4Jt0jBn81lwW1dSfsFv7qRDP5HQm%2FAfQbXf1khvMpJory0fM134rpAYq7rOX6vh%2FVqyCKiAT0uf%2Baf0rtJIfluKscFRnip%2FAfu312xmzPGhdzWDcQ%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/396031394964?_skw=PSA+10&amp;epid=13067683402&amp;hash=item5c354f8494:g:~UEAAOSwscJnZI7M&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKneZ5Jf6JVNvpVmNJ82ll4mJwCpAlEgCdfFj9Y73Dr8%2B1U4%2FfMVNG%2BTkFRSmedx5ADjcgjoBySXFnhaefBB4aRR7clsFVLFCR4az34KrzX80sdBJMWfQ5QLEFuuRMsKul62OM%2FaQCDfU%2B2GFGFnsuIs46%2FOjgOmLC6IK7J5LbKjP1OBKP%2FB7YnlWNzQIWbmKCbpF2pnuwCo5QBkfVrCy9ywi3VwxeTyWFi%2BW%2FBLSsLKkPCWrwp%2Bj%2BtER86OcUoUGAE2it8JFVL%2B1%2BRhD5V6jBzr%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10832,22 +10844,22 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>TOPPS CHROME BLACK ROOKIE AUTOGRAPH</t>
+          <t>Topps Chrome Gilded Collection</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Gold Refractor</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Randy Johnson</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>$209.99</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10857,7 +10869,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186660502336?_skw=PSA+10&amp;epid=26064640030&amp;hash=item2b75d53b40:g:j8YAAOSwRFFmz8yW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkSu2zM3UY9DFi2OzgZFRS%2B3ZE5WKeWBzdFeCPmTzyRQyJ9GG%2Big%2Fxz%2BExdbdLvWPCBD76wF4lYeQZETbTxEvdXZ8DzUtk8gNhJwIjuA9dcOktFyXK5QlSC5BGiqD2NBlDYd5VsU3uQ%2FWtqQ82VRCv%2B9RUuTj%2B%2BbXE5%2B3AMfNoSP7moyyvjiWmkkRCaKa3sGTyP4jQsMlYUJ5eKjW0q1Gfe5imo%2FUxxEeTvaBlct85O7A%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/186923639111?_skw=PSA+10&amp;hash=item2b85846147:g:ShgAAOSwt-xnnoTy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BZ1nuny1JzD%2F2XcqR%2BHGfNDqu0sQvmCVfRObbaekTMk20RfVGEQx7e4iQ9LgpXX5eR7ODoHpmFvclpO1L9eHuoklXBIXhA9%2FXtwvGFrtuZRrcCqF8oQGPxvFC%2FY23fnOVdvCYGyticlEXiv7bhFRbo9SoluiNld06%2FpdtJVxIA2bCCTivcVbFlL%2FSzSdY4W7736v%2FGF%2FhYUNV5frNr1j7Xbng3X2XmkEPe2BxdcosoA%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10879,17 +10891,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Radiating Rookies</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jackson Chourio</t>
+          <t>Jackson Merrill</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>$405.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10899,7 +10911,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196794174868?_skw=PSA+10&amp;epid=17069574219&amp;hash=item2dd1d8cd94:g:YiAAAOSwp1BnLukm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKns3lf%2F%2Bah7pP2iE66Nj1iurZobH2azoK4wWY7933AjjYrLzV%2FUw8%2Fq080px%2B7hsIoM%2FyehSgJwsdydoUNAswkw2acxWm2SIR99%2BBDeGjd32HQKQSD6%2FbLXjdUrLCd8Gs4NQriEG0FER94zeEh2EbqVmrhaozaUxwpw4ZpCnAWLSb7%2BuaU3LAC4FabUul2poYURFu37FyM%2BkP1vMm1YKUE5wH0dr5KtY3GouEQm%2FyzmXnT1i%2ButosSjut8ft81gunEqCkMua3vx0U%2BMOLC993P%2F%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/235934923982?_skw=PSA+10&amp;epid=11069557160&amp;hash=item36eed13cce:g:~K0AAOSwwMhnBw1n&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKknmd1y9u%2F077GjLmkcu8uKX%2FZuemU7PvmlZpe09mIjhvh%2F9FAZU25to8InIRv5T6ch1635UcZM44cT9GK%2B8j9vXzCGQ9OPhPPXyUHE4G14RakcsdRiD2Ti5%2FR0Pcj%2FBXVCbYufsFAopFaHMIi1RS4BE1BlUdRqWUxilxYF5Ffsq%2FgewEv68FKXumUFzaDMdSxZrCa3E5HwunPkBPAZZ1D3kIXX5YeSkoJA7u%2Frt%2FcScgFHHVZ8ONdBNbMC6Bx6HWhKc4TYLT7u9QBZTLZvxpSZ%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10911,23 +10923,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Leaf Trinity</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Jasson Dominguez</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>$156.00</t>
+          <t>$399.90</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10937,7 +10953,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356470914982?_skw=PSA+10&amp;epid=13060729582&amp;hash=item52ff527fa6:g:regAAOSw~YBnh9G~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSPr2bUu4mgISw3CLK1fp7i2yY1F%2FwP7ElQza6OeVCAs27kSWkAE%2FqprCoCZ%2FWLe4B596XGGXSlkswlw84sX%2FmjTk0M2ZBhIDGRXLcKge5SBSdxABEC%2FrG2WiW0aQMbGh%2FebJobqP9qcbBv0qrNI4JMf1F%2Fzp0GwriiFqFvXJt3DLs0CYNFSSIfDoNjsniX%2Bye%2BXw5FGWjSzn0GV5zi1edrTnW8QDsZs%2Bg8F8jgMSptYyWYoJjlSQOUIgO5GLwQJTCz1ngqnwP1AtoY3I7TQtO%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/375810114599?_skw=PSA+10&amp;epid=18064270766&amp;hash=item5780074427:g:kvAAAOSwr91nQNem&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZ8%2FozV99D%2B5F%2FjUf8kyMEDy1WPNCPyivxsbPSstShitngkt915V69YnVhhq9DmKRQHkfbIoLEH0BMqf4AV2LPjQDvi6vXxuVWSOEI9F%2FwZYx3KYgmCnaV1pRX99qJr0%2BgmmtcHHJcX2FanSJS%2FDMjyckb522jMwEYGaf1%2F7zpFqrjU8GkdGscZPU70dC4QVLbvqtiXdJgqBFcuJfBbB%2FTZkfqvg5X3h7Fi4sRQYnHZw%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10949,23 +10965,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Topps Traded</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>TOPPS CHROME BLACK ROOKIE AUTOGRAPH</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Miguel Cabrera</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>$335.00</t>
+          <t>$209.99</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10975,7 +10995,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235908702471?_skw=PSA+10&amp;epid=8055901585&amp;hash=item36ed412107:g:rkkAAOSwg-Znga1M&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmxNPVrc9RzPG42xTXMEKzwmg6aRBoZizhzxlfcsCm5EqoJquTBlfAyg7jsOQUuejok%2FuYOEpb1ArbyrGV%2BMCGXkyy6uA9b7yzVtn9ZGorgohQRzbsmbhqWlCO8Fnto4CS7FG2v6wTgqtQmyUc91YhGkP1uXbZ6vUE7mIhmmN49WP%2F10%2FsilL3s%2BCq51GRh39SQ2Nrm7t%2BIm7B9m%2FYcooPzWejdKmtlFH%2F1WwpuFBagwPZFkU6Y4hulpy4FLy7TYc0sXQYRcd%2BB0VzE3CK5FZ2w%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/186660502336?_skw=PSA+10&amp;epid=26064640030&amp;hash=item2b75d53b40:g:j8YAAOSwRFFmz8yW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMtR9HkjQaAMe%2Bx%2Fw5YpIfEstmA9MexiKIjMR6kCe4iqslSw%2BjdIm6c0%2FeNOvSdsU24E9PObqDWYck%2BWaJc5TVf0jH3QQVOItDTRgA57bPthRCJAWWxxo64VwwQ58nKoWSeCo6vSplj8DoTPrYvLWLRAAx29a0d7DAq%2BHmnagfo%2FJasky890FzDQXtK%2FzSOywxVvv4wVZlAvHBxoXS5RutlHVn9cN3hjJ8GEw4WBWHM5%2F1NXpUmuxQ9846nI09V2WqZIMNSPH9pz2tTa3c%2BoAo%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -10985,17 +11005,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Radiating Rookies</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>Jackson Chourio</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$405.00</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11005,7 +11037,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226551646401?_skw=PSA+10&amp;epid=13060322168&amp;hash=item34bf87c8c1:g:YksAAOSwMxdnippF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlr7Vw26lH1%2BDIi%2BlGWwCFxerKaA4QMymn3fyItL5oWt1DeVCXuIIacNra4PhALVSyFzPBiGmVUXqpySKEN7Kt9FdLn2xq3fBxRfXEDkacEAuZx%2BEXS5qvzgMKSuwiNroGGhJL%2B5MuSUNz%2F0TQgGxM9AxsfElG7Oma8%2B4Chemv43M%2BOzuTBQT%2BLi1LyV62EaBkQxJ%2FDxRCwOh15ko%2FnPmBsMBo9clvO9MaFO3CC56FZhw%3D%3D%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/196794174868?_skw=PSA+10&amp;epid=17069574219&amp;hash=item2dd1d8cd94:g:YiAAAOSwp1BnLukm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlJnxjy0loSzOvlRWG50OyvClz6yhKx3m4M8XknmYhUrAONvPmK0i25RlRkOlWnADu9AKloqa1s%2B55nazTLGHOKBvnfzck7azCyL4x%2FGp2fwKjAWs0J8A6oSM956u7w6DBKyEYntC9SqZRmrX4RL1560MLIyocqgbUh6N6d0sCPQk7SmMua1walemKi6vyZRuEgolJV8riYbXTcbAG4bZkFfLs0OVh8Kuk7qmLpzJILBA%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11017,27 +11049,23 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Topps Chrome Update Series</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>X-Fractor</t>
-        </is>
-      </c>
+          <t>Leaf Trinity</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Paul Skenes</t>
+          <t>Jasson Dominguez</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>$199.00</t>
+          <t>$156.00</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11047,7 +11075,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286299166947?_skw=PSA+10&amp;epid=21073125703&amp;hash=item42a8c298e3:g:7XsAAOSwhN5noNKR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmp2jntjFFo1WEIv%2FIpuVUR3%2BLd%2B7vXidffJgPqvLhc%2B9YQFV2r26svPWWWQCfsb%2Bs2d5iJsSb5yDX1od6MqHYV3QscaTwtBkbH90FT6MvJ45Zz%2FWIeqjBGSWJnhWY60XKYKpj7DT9efbFqaW1rdky8I3qsTluqZpagcMzFLywdfAYPVhLZtX8I5LQvH63cqz%2FgVDSK%2Fbc4DcC211mbOKSL%2Fqy4znn%2Fx4mzikOnfQ4oLWvdl6IPphMy7CbCUsW7M1lbCw%2BPBpU4HPFgcsZbDJjE%7Ctkp%3ABk9SR_6N25OaZQ</t>
+          <t>https://www.ebay.com/itm/356470914982?_skw=PSA+10&amp;epid=13060729582&amp;hash=item52ff527fa6:g:regAAOSw~YBnh9G~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSPr2bUu4mgISw3CLK1fp7i2yY1F%2FwP7ElQza6OeVCAs27kSWkAE%2FqprCoCZ%2FWLe4B596XGGXSlkswlw84sX%2FmjTk0M2ZBhIDGRXLcKge5SBSdxABEC%2FrG2WiW0aQMbGjLiYvO3uiy9kqkAWPrcvgCnMqcg9C3kyNBe3ozpgDLmxzgHBZgSw7XKDxaQpUwippUUoVZ2qc6ArOHumKazKW8OmW77o7LDdxfEJKRPDq3p0zdyvB6g%2Bo%2FwqGeXFD6J73pWugBKpsn7gFzwGQCyVSd%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11059,23 +11087,23 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Topps Finest</t>
+          <t>Topps Traded</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Derek Jeter</t>
+          <t>Miguel Cabrera</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>$484.00</t>
+          <t>$335.00</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11085,7 +11113,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156658488123?_skw=PSA+10&amp;epid=21070889225&amp;hash=item247992d33b:g:l2IAAOSwL5Znl6Nv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCukf%2BJ6QBdK%2BaAq93lVK%2FiBdNGHmfFYazizfRuPCBH7FzAeDqO18mMOxZt2dV2eQ8%2Fp0Pb8gzg6OgSnKJ7LTOBdYegr5GK1wtA82YMvmMo4WujCu8%2BpGBRqiq1y8eUx4gSdsV%2BAuWmFSqu885AhN8UKwUttGn4uUIc58gOL3GAngSRzEZESMrn6CD%2BiqtTOh%2BYUBjFmqWtCdhO7JQd%2F34TAO66jRKUnNJg81aUqDigh50bfBnw%2FpbCKMlD%2Bz0WKBR6kldd9hqqnW%2FSQT%2BtuK1%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/235908702471?_skw=PSA+10&amp;epid=8055901585&amp;hash=item36ed412107:g:rkkAAOSwg-Znga1M&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkDW0oEI47jFskHv9ey1EjvxhOxz89nl9FA%2BZ91NoGzBf8FDCKEziicuu58rG4I5p2oMgyrEGJ5yayzXbwMpGX9vMiFgT5TEFv0F3R4fdNuN2HzKXLP7Oasaz5tEKB03mAbCEVmVpAbaxOk3IsuFZMxt7%2FGumwxzmAufpTx%2FtgW47cjKdId25%2Bb0OHLPjbKXTBBxEy21oPPnMNY2xSbXBVQJbHTbrC1Rz9%2FIuOuNmp3Lw%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11095,29 +11123,17 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Blue Refractor</t>
-        </is>
-      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jose Ramirez</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11127,7 +11143,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387887545639?_skw=PSA+10&amp;epid=14055937896&amp;hash=item5a4fe63d27:g:5qYAAOSwnwJniWIY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnOdTmZ2Fx5So074GK0hL8Chlz7r4WpiTFrmOUOFugIBI4v1uERHnvmk0fslQyVbkw6r0KsyvsLdp%2Bh0xqb%2FQ38c35wbW2%2Bi7%2FwVfI%2BtzPjH0cDP%2BJaM7NOQBp07X89hbPQC%2ByFTCBllBxrmfuG1ctIZRKDBMPUQJt43jF2D%2FGGAyk0eB6%2BFMa4N5LC%2Frhq79ZFt%2Fgh3yab%2F8GpzpOy%2B71sjM%2B%2FOzN%2FBU1Ee7dk%2FlhD9g%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/226551646401?_skw=PSA+10&amp;epid=13060322168&amp;hash=item34bf87c8c1:g:YksAAOSwMxdnippF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlr7Vw26lH1%2BDIi%2BlGWwCFxerKaA4QMymn3fyItL5oWt8Q60zwD8XLOvmwfpK0Bz6emQ4%2Fl24zAXU9ZU6r1Tmk0dEWrEuCIK3q2lqhGGss7jIXi4DVa%2BhGrNS2uQnh%2BbrWGdkyEiWoxCNSNKJeq%2FEIeNYHEwpEFINngYBKGUfTkoi9jDFYM6BbspOPfSLKz9Y%2FAaq2ceGtodxuyQoIFzq0I1Muya7aKX6lzo3cPu6w3pQ%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11139,27 +11155,27 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome Update Series</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>X-Fractor</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Julio Rodriguez</t>
+          <t>Paul Skenes</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>$700.00</t>
+          <t>$199.00</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11169,7 +11185,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166833694156?_skw=PSA+10&amp;epid=23061521464&amp;hash=item26d81025cc:g:icgAAOSw3lpmdJTa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmOyePdSnxsBjH1dUN%2F5GpidVK91HRYakmQ9q02HoA1YkmCxR0miK6R%2FWuuKdFzb4%2B5TpxZuoMdcOBe1AYIUAzn6luesoGc7JMH08SyfsIf2VNJd8Kc%2BelMIiMWV%2BgfDVL5gNdvMQgfZHQcui9aAkIpk8fxb5m96q9CwOJStgPxEx2Tjmd6mHUy1WRD79LdSlo1N0fCatCOf3zC8N6dKj%2BGjrFv4xgyfN6i451RCSWprg%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/286299166947?_skw=PSA+10&amp;epid=21073125703&amp;hash=item42a8c298e3:g:7XsAAOSwhN5noNKR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlf1%2FC4t0BIgo%2Famqgho5PrOu33Uj4E2L5okm1qvJmM5uhnyXxQbDMJcdee0qeq8GsUilT6qjZmxAaTbwaZG%2B%2FXhJMZYJaeIeq7auI4W4GDbANjZyuOpt5LRLv6asaQ%2FfikjVfy5DCEgEGIoYBelj%2BC%2FzaXlQ64F%2Fw5Vn%2BAHZ%2F%2B%2FcwsXYxOYbsUSUlzw%2FrzQ0mAu9K4qloPKtEGHw6mLvVa6pEDxtGqeIT%2FtOmB7gFZAQ%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11186,22 +11202,18 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Gold Refractor</t>
-        </is>
-      </c>
+          <t>Topps Finest</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jasson Dominguez</t>
+          <t>Derek Jeter</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$484.00</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11211,7 +11223,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135531906983?_skw=PSA+10&amp;epid=5069577528&amp;hash=item1f8e54c7a7:g:Nx8AAOSwHYFneIbx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzCMZUulh1UoItETzCjdKyzBZPxd1Du4%2FSkpkMJcqImU50pgiJI0WbIumqPUM9Sc9XQU9Zh74jg8Hr6NyxzFQQj8KmCnPBXdp2I2630t8V2pduP16SHiYq7CwfGUWNTWI0QTmnW8MenpWQaUwHARz1%2BNR13UPkdsEK2AtBhQE1P4bR0woDuDBLsGzOPqzNbIoLXXFqBYyu9czDs3mHhd2cceAHSFNaqW2%2B1pd1w3Vd5A%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/156658488123?_skw=PSA+10&amp;epid=21070889225&amp;hash=item247992d33b:g:l2IAAOSwL5Znl6Nv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncd6rYvBUgEmLW2R4TOQ%2Fj3ll2%2BVEv9VxAa48OOWgZ5YFstgWiwvryjpxc7a8S3vSIsrqHTSLmSkOcSmNkqMLRSka5uP7uelIxnAbGlDzjGUNzOJRL6KnItAzCrDv5Z7ekzXf%2FT8cbjNXoX%2FD9sU8gXalvVbu%2FT46A4d%2BGjhzvdWSQI4cqJwRYcM23xQFn%2BCiuYWisFup0j06HrlInOTac1kVuKHDGG9IC%2FODeTd90Mg%3D%3D%7Ctkp%3ABk9SR-jOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11223,27 +11235,27 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Topps Finest</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Gold Refractor</t>
+          <t>Blue Refractor</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Juan Soto</t>
+          <t>Jose Ramirez</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11253,7 +11265,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326427971903?_skw=PSA+10&amp;epid=28055937719&amp;hash=item4c009f913f:g:4q4AAOSw7u9noC8C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcHVer%2BKNWnWmdSxhEurDBHcU4oBvdSSTb%2Fo13neo%2B%2FKJSnBqPPXXlqucGceMrWSK1iWdf2Hx%2FcV48kifYw6jqYZ0MV%2FFqVLc5efy8D9JjqxEL%2BSX3WOUXUMOv8xDR9LV0tB1cGNtLclEXayw%2FxIQO%2BwOFjnOMQJM5UHwPla0JSw8eOAi5Rhi9dN4GsJfGInSeXRo4nM5Jc0oZXPJk4ecPHKe%2FhYteeijHcfM0g4trEg%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/387887545639?_skw=PSA+10&amp;epid=14055937896&amp;hash=item5a4fe63d27:g:5qYAAOSwnwJniWIY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnOdTmZ2Fx5So074GK0hL8Chlz7r4WpiTFrmOUOFugIBFWehcxXPzsRmSNsAxri8wp49%2FqGqpUwWxyATmQlAPw9aYS%2BwroWafuUcHFGhIPeWU1wTeOBbfvzpjzNz%2FEy0wLkcwwYcbc%2FREMpxGjQOTDOzeD34eMK%2BtF7M0Jgca6yWk%2B1ilCqU5zLOx0rShXm9Q196Skky80p2VsY4N9TbWj2cOUD0qkFoMSDIulIyR%2Bqsw%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11263,13 +11275,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Julio Rodriguez</t>
+        </is>
+      </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>$219.00</t>
+          <t>$700.00</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11279,7 +11307,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335786930102?_skw=PSA+10&amp;epid=18060328126&amp;hash=item4e2e75efb6:g:i8IAAOSweSVnl7II&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKniZfBjoxfGXNxHOT9d91EYY3BlO2e3NFWrrz%2FuT6ZVNqUQB1z6ruGMhJqhuYHFSM7U%2BH5brvu%2F9DT%2BIkZJCcD4XXrRsD8dX6KOT4Ii4GUT2JJ9Nnhz5csv4UNG8GA55kv7NOn0UGZbdPX3yfxP64g5Le4ZRT%2B%2B7CWlK5CTtduIl2i0VDL9ycxhLq6rh%2FWZAxH%2FlGI%2Fybu26fT0%2FrZA6T99uUxqKoA%2FCCHD4O6x27qygUdwkff431o%2B%2B89yYpFwk%2FaHDvJE7JVihpCtgJHcyzSN%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/166833694156?_skw=PSA+10&amp;epid=23061521464&amp;hash=item26d81025cc:g:icgAAOSw3lpmdJTa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmOyePdSnxsBjH1dUN%2F5GpidVK91HRYakmQ9q02HoA1YgENno9r%2B5Uk84rgXDVaSxSTtUQnJuev9gXMmEek6ZcuUPHGpF%2BYy6PeXkUrWSPdw5VU0pqakbtie01eREnz2KWcr%2BmojdZqkLtljd3h1vU6x%2BXAGB3xR2TQ%2FFBzy5dXIsONiOJvKC%2BGyWXTyNbcZKTv%2B9xFkvNtj55NiZYRp4lVoWyrCVU7gag9WUm972Nzcg%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11291,27 +11319,27 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>10-2023 Topps Chrome</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Gold Refractor</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Bobby Witt Jr.</t>
+          <t>Jasson Dominguez</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$176.99</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11321,7 +11349,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286085980045?_skw=PSA+10&amp;epid=8062921393&amp;hash=item429c0d9f8d:g:jykAAOSwh0Jm-xxq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnH7zLSckE46w7KYIZSCXhwTSLrjjugFQW5tPd4Q1fxY%2FoORy7aipWlqwlfzo3oe7T8KYGBVTU2u8yBRWFHCNK5oetcsJ0K2LlMgFCyMl0OsFbhUuFQKjGplm3y5Fkxhmx4BrGBnW0hQwdoSbTwXD1ih9hxWhr3YXRTBHVHqMy4nKOm1tgfbBcIZYLazF5E5oNDdgaueOIn2NzSX%2F6vPFqJ8GBEtIPI9m6ebwVxvVhBOy3AcM4U%2BC5%2F8R4dkPlTdnmZuFaVQXiFe1T77NaGKpIw%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/135531906983?_skw=PSA+10&amp;epid=5069577528&amp;hash=item1f8e54c7a7:g:Nx8AAOSwHYFneIbx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMgVslLHYQDUnsIj8QmFmx%2Blzsl4nmHIgw7%2B%2BHShAL9AifNvKQrd4XczffiNNHcAmKhbKadjUmQASPfTMpNbVxMwZRe5W%2Bn7DuIJR6nbeN%2Fe2gMdRG%2Be0MQlyLvyA1QhYFv3QtCSrw34lyFrOjI0PcggnoV6dJoBAuwGKn937194MTu0mbDzNu8enpBo9uFabxy28CWBEVxIcagf8Dpl%2BD8X%2B8gv3KtfZ0TBkZWCDtuz7zTqSBldOkLxSzqVz%2FDwjacEoT6ixJXw1rcj8dFftJ%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11333,19 +11361,27 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Topps Finest</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Gold Refractor</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Ken Griffey Jr</t>
+          <t>Juan Soto</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11355,7 +11391,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155699563680?_skw=PSA+10&amp;hash=item24406acca0:g:A08AAOSwvrNkynoD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BDRuWVj%2FEo0MuhCQ7w80JAEow1uY8keqSEdo%2FUNaavO%2FxJXJDrvxO6gpDj5BrNUYJPugEWqMEld92zT9oeRpkTPvjRfUMzLjSi3K76N%2BnAU9vbAMyPyenYiuTIUxXFWG3z%2FBigw7IkTLKTVQoFMFpWrOtKNPkyOltqLngxsw2jNC9yUMrdbFW0YSH3LxHngbYIi3neNZqK05DG8jGJF9M2JBK3GoMEnPyU3fQgcSU1w%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/326427971903?_skw=PSA+10&amp;epid=28055937719&amp;hash=item4c009f913f:g:4q4AAOSw7u9noC8C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcHVer%2BKNWnWmdSxhEurDBHcU4oBvdSSTb%2Fo13neo%2B%2FF6BCrwb4SyyxjOKD2ox5BI3BxdHP9B6yBV2toSjM%2Bomhz3Pc%2Fxhqri5tMg26%2F2OB2g4N%2FIwnWuzFgB4zPCDyGk%2Fehao6YBI7W8Pljov%2B47gHSpw%2FMBlUqEc6ttxwGYslQtNycfNd6fVb%2Fvv4kE7fZxZHd0JWGnTdyiCwRXES62Jp3jZ%2FBV%2Bq9cl8CR1VJ7YYw%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11372,18 +11408,22 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Leaf Web Exclusives</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr"/>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Refractor</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Xavier Isaac</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$219.00</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11393,7 +11433,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135282317837?_skw=PSA+10&amp;hash=item1f7f745a0d:g:xroAAOSw8M9m~Uta&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzdkGDFtGFSSwAKM%2BJqiXFQOaQN82CdBCMhmjnmH9PGRlk9QebXGNKIyUICs66kuMz8IEPxshz4i7Aasrxplole6RR0%2Bky9CUaX5AnZEQLOw31p%2BTNqCtg0%2BbSHJjNQ6HlLSDe61nUQs5BjU8lA0bCEnFw6Da8BaYlo%2F5kQZ0avaSMU12TEuIGXwni7rWtqUFhZgpkKEyCk73ykHiqIafZXU9d7HCn1zMbm6h2dXsfCx7VoZLzGcnPltPLnNBELSX4ufJqcOe5h%2FsHZGDZojQw%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/335786930102?_skw=PSA+10&amp;epid=18060328126&amp;hash=item4e2e75efb6:g:i8IAAOSweSVnl7II&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkQ8%2F1Ue%2FvLky5JO%2FIR0rLhfSe%2BSJWCmitU%2Ft8mIJId2%2FateItTdbqlKFA%2FF6UmzPNWvO%2B%2FGcvk9Wcd3G5I1IAHS1tuvzQDjRWb%2BFD20THO5begeic8Mp7Cjr2QlBehEyNE3oqd8%2BvjJ9VMFw5AnMdLmWxVow7mmWn2wsTfmryEbESkrWocjgYBH37NqsGfsDIlnKXL61nqECnT%2BLnaiGU10d%2Bh%2FtqT7pZoTfS%2Fpj44tg%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11405,27 +11445,27 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome Logofractor Edition</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Aqua Raywave Refractor</t>
+          <t>Yellow Refractor</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Bobby Witt Jr.</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$235.83</t>
+          <t>$176.99</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11435,7 +11475,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196974873179?_skw=PSA+10&amp;epid=23069578653&amp;hash=item2ddc9e0a5b:g:iUcAAOSwtT5nl5fN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1UpucCaB0gcSqvTnkOWaTHQBasUHVMrPo90u%2BmRxFa3pBOC%2FVSidC3Ggiq%2By8Ct2UsXVb0UTaDihAfdpnhIjROeX8jbwf0Vyp36h7AQMwuhhxSH%2FxyO%2BMIVY8R9N6nE1uUDT3LPYMdsm1BVrxJjHQOH617JR%2B9z8yi2T1qpIY%2F4n8wpv2Jc7OCpIaSztXfkiV4kQbd%2FeVNF20SlUDxATwS7bTOcs0smVpDjgnImtNgg%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/286085980045?_skw=PSA+10&amp;epid=8062921393&amp;hash=item429c0d9f8d:g:jykAAOSwh0Jm-xxq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6532O6xz3hBB2tSZGIl8sPSMeqGU%2BVVLNv%2FNYR97br%2Fa4pRxHrK602HYCXtsiK80Hsbrcmg18CCdfBLreVQWpJ2J3dv5t6JsIIdzmLpfTI3QNznhCQNr8t3cO9Pqlp2M1SxIC%2Fus5KEpw64G4VGNi3kF4p8%2FRVC%2BnAmPTcc2dcDgGIaLb90sbMiEWX1txZHhoCGmluMpIWSwpCoh64KqnasoyFqZmVHGJ5ejHb2T77Q%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11447,27 +11487,19 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Topps Chrome Update</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Ken Griffey Jr</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11477,7 +11509,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135501857251?_skw=PSA+10&amp;epid=25055856985&amp;hash=item1f8c8a41e3:g:TAcAAOSw8hxniWJZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTaNBlO64v9Ykt%2FWxFBA5%2BsxpCVsyyQwXzY%2FpP0xFUhF1qsKCDyQUH0qthWqxVgj54uVpZ4AfloW6TcLPhYc1ezT9YYNvkbz29gARG4tbrMJ32uBwUeIkphFjoQhal66B0jJ6chGQOD9dLJ1vxix2dv6lfEwBYhkOp%2FNc51eyTkHlU8u26ukWhZRIpwltDDwEm%2FNLsIi7Y8vMVc4EShxMCp2Y7%2Fiwz%2FBquFCD1C6Q%2FmZ6c6myAKpVw0LxxwEpgD4mQP9Xt4AYR8PkSljVZoICn%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/155699563680?_skw=PSA+10&amp;hash=item24406acca0:g:A08AAOSwvrNkynoD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BDRuWVj%2FEo0MuhCQ7w80JAEow1uY8keqSEdo%2FUNaavPp7aNyvptI213o8sCFgf9PicPanpHARrnoojHSs03uT7pU6nrjGKojE4YPVJIZKDHt3lsqcD8RD5IkO9JRU7mCK9eMXTIYj4e43u4sF009AMkP446SO4cGD%2BL1l2VleNYqLeNlTu5bN%2FZ7KX6aLo%2B%2FF61uGBFNRC132%2FJvZ8zITHHuzEUgeFSHauycuCOUWXg%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11494,22 +11526,18 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Bowman</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
+          <t>Leaf Web Exclusives</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Roman Anthony</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$659.99</t>
+          <t>$179.99</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11519,7 +11547,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267142585552?_skw=PSA+10&amp;hash=item3e32f05cd0:g:z~cAAOSwTYVneHyW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8UZTd%2BsRxuQiKwriq1x%2BsWa%2Fg8uYFjrk%2BgDR8HswMt1ve0O8IImQwAqU68S9oPq7bH51sM6S%2BxICXXiTxZFz7I0unj%2Fa8X2n8UrTDf7OCI8UXlb4QGiyPzzDjFNCTUGYrw%2FZA2hTrIxG2F7GOrL%2B%2Bl21x2b1tVEBoJL3exrnZQPnGjVYMzvyVLW1xlR3aLCJdPEYii9PMGCmwTd6oZQMIMBNKHFLRX%2F4FA0Ct0RqjGqQOyC%2BDlePydhTWmTiD8xba7PwKFJRf%2BqAr39qgdtOG%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/135282317837?_skw=PSA+10&amp;hash=item1f7f745a0d:g:xroAAOSw8M9m~Uta&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUZ0lpPoVB0am17m%2BWLalKDdlgXmU3%2FOdV5s6Gw52K%2FUocmMGEbJoE6sWQ8tGUk8KLFzxWZu89mXNpGSf33VyqFiTyJPv%2BNgLQovaozrSayoGITAPev6VMmUosKkhbggDDej8cIzE71RRK%2BhsYgE%2FpobwReVq1x%2Bh%2BxT5x9P6ZF7rmfcgmCoXcIWVJeqi1%2Bsrse82dVCeNWE96vJqhhitRcSXSWh0wz7Xju5IawND7Sg%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11541,17 +11569,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>X-Fractor</t>
+          <t>Aqua Raywave Refractor</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Paul Skenes</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$235.83</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -11561,7 +11589,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356521549591?_skw=PSA+10&amp;epid=26073123623&amp;hash=item5302571f17:g:Yc0AAOSwG2ZnnM8Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlX6j%2FW33WS0r7IQHpgZ90LUSDIKo50H70oH3n68lWveGfPEfI85fjjcLAfFGM%2B2ySZW8Mscqd1hK3VIexhKqO%2BUJHTDHTL9yX%2BtxkhaGSFwG9J7djEPFo%2BMy8Biz%2FYih1NWOW9fEg1pHSPj%2Fs1VIFfLHdt7DQ%2Bn1eOQA4RUptFVpEY8l9vevTRUu%2FMu4tYTyakIIza7BuN0SINKhdB8BwCyt%2BvI%2FNbReB1%2BbStuTRQDLwpBIMBGAOgMfie8NZ8xjICqgknoC6IlPbonrrVOsBt%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/196974873179?_skw=PSA+10&amp;epid=23069578653&amp;hash=item2ddc9e0a5b:g:iUcAAOSwtT5nl5fN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1UpucCaB0gcSqvTnkOWaTHQBasUHVMrPo90u%2BmRxFa5B5kvunBVnhaEI9S1mTEFsb5wGislPvsaC7fAl02QBn8wi2MLh1u1u7LyUwmV%2FybMoGOaA4oElQIGiXf9kWeBFiMAPTFcgAcJS2ETKrTsuPILSL4FgvTTKQbTcbSXg4Gjrcb8M%2Fnmm%2Bj4NU4He9um08%2BxDEeRI26VAujBHWWhTpaxuQIOU50QckwfYOHIjopw%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11578,14 +11606,10 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
+          <t>Topps Chrome Update</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
           <t>Shohei Ohtani</t>
@@ -11593,7 +11617,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11603,7 +11627,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267020859885?_skw=PSA+10&amp;epid=26055873200&amp;hash=item3e2baef9ed:g:RDYAAOSwVGxnBZHi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYGm6H1eiNVc%2FyhDVrEGDE%2FIBdZ9drEKxt7HX%2FAiyJbaxKhvvA0TBURW1W12htp5jnko12%2Fij1YT2%2F4VkRueT8EQ5Nq%2BjyC5wks%2Fau3Ufb4fuZLXI4VEy1RnrCtiXjQ6qcvCFGYe0alRZ2U1oj7Hn7l3lKuuvbL9GKT8TfeyahQSQsAwtTes%2B%2B2p9aOUbWaXxtswMZrFv67Y7GTAqQj%2BoQ%2BAK8lfFQb7yia%2BRj81RB%2B7SssUWXNU2MI6Z5RJG9F64Qll3aM9BOn0T4HwXMIAGA%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/135501857251?_skw=PSA+10&amp;epid=25055856985&amp;hash=item1f8c8a41e3:g:TAcAAOSw8hxniWJZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnTsus5k0mjri7R2%2F%2BEDMg5Q2j%2FPGpPcVCGHjWYzg1syVp0n1Zp2a17MzXtRIERheRWBrDeOThlYnl%2BXNu0W8t3oFtsVcjUDxOQYwHquvM1RBaBw4c64Jp0399N3o8TcJQ3MyN5sG5tvWYQRYa44xPaMopaPQJQCzEP2eIpSivDpHWMGo3Q0qRVoelxKaKLfqnsjLfoJa56i0q5VxVVR8QuyN9YGsjUTipVMHfo8vTNOQ%3D%3D%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11613,25 +11637,29 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Bowman Draft</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Chrome Green Sparkle Refractor</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Jackson Merrill</t>
+          <t>Roman Anthony</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$319.99</t>
+          <t>$659.99</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -11641,7 +11669,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396169327983?_skw=PSA+10&amp;hash=item5c3d88356f:g:zDUAAOSwWRZnn7Gm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmtgYvYezuJ3NHiCsQYs9V7oHgeUu8f38L%2BSvLRvm1gilCHP9msVmQEj3zN137gCY9GYQXOmll7ESPK3V3gunVIDgsL73n3yvlghhO7UWlCrvKXJ5y9iWkTNruvBeNAn629dOqROokOKfZFSfxuCDvRvr2IiDYm6zgCZ14oVdkHuOQp8%2BqYFcr%2FW09AmYQFAxaMXGHzbj3FlIwTj5KXvMCyyHHOAX0hzFrYzj%2BmYu36R28c6CCfNPoFX7j63AEwc4Vbcgr5J8zClN91fZMlN8%2Fr%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/267142585552?_skw=PSA+10&amp;hash=item3e32f05cd0:g:z~cAAOSwTYVneHyW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8UZTd%2BsRxuQiKwriq1x%2BsWa%2Fg8uYFjrk%2BgDR8HswMt1ve0O8IImQwAqU68S9oPq7bH51sM6S%2BxICXXiTxZFz7I0unj%2Fa8X2n8UrTDf7OCI8UXlb4QGiyPzzDjFNCTUGY9hn0hp29uoGhTOVhhnE0pvSUDYhJY2WV8MD4zFUAEw6ZNlPGfuR9otX3IOQE592MrQvuhqB2QSyIQKnGcJHcyxoAnBdt2CJo%2BuUF5qE6LBfsGzVO0T6llvyGaFOxU6B%2FcSAilegLR9KXc36yGUjk2%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11653,27 +11681,27 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Bowman Draft</t>
+          <t>Topps Chrome Update Series</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Sparkle Refractor</t>
+          <t>X-Fractor</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Jake Cunningham</t>
+          <t>Paul Skenes</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$165.00</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -11683,7 +11711,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279261262?_skw=PSA+10&amp;epid=21064274463&amp;hash=item26f29ef64e:g:TmoAAOSwfMdlghAy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVtr0uIHi9PCZk3xlAoquaHQkvCyojbBDcwB2RicxG20KPNBoOYkDc8Y2ULU3eq0s4C5%2BASAvSWqidRV6FLLVoGIwx9PhoiVWW9Qj%2BhhiO7iyRDLxENVqQlMCUzmsWcUIDV3dLTiSy%2BgfQHlcDk6YOXB8kzSQWroWzqfY3FfFh28jCGatuIDXkW8dUjMZVRJ2C3ODJf25XPIB3vTk9yJM%2BkvYHZSKSgLdZEpArBWtMzG9zo67idMgwDGLMAUslfXkunoj8SPHjU39WaNxheg4R%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/356521549591?_skw=PSA+10&amp;epid=26073123623&amp;hash=item5302571f17:g:Yc0AAOSwG2ZnnM8Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlX6j%2FW33WS0r7IQHpgZ90LUSDIKo50H70oH3n68lWveGfPEfI85fjjcLAfFGM%2B2ySZW8Mscqd1hK3VIexhKqO%2BUJHTDHTL9yX%2BtxkhaGSFwG9J7djEPFo%2BMy8Biz%2FYih16haLaXpOai%2FVHlJKpJIXoNq9qhUZSaHOJuSStlZ%2Fq09ph%2BLqoJHkiOkjxquWlkfwoXL7Z7zOlIHbsTYtQkme4fjWPP%2FFOGQ8o%2FPjbKZOIeRiUFDBzwbVCDp2SD7dCY0qLAhu%2FA5aQxDrT004y6Kk4%7Ctkp%3ABk9SR-rOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11695,23 +11723,27 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Prism Refractor</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>$449.99</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -11721,7 +11753,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365351702949?_skw=PSA+10&amp;epid=24064624884&amp;hash=item5510a891a5:g:35wAAOSwUC1njKFL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKltp5osLD0T0MoafP1cqo9AaUYdG9LIXZD%2Br7oDF2uyCtwK464Q5UDlWK6Pr6JwPMYjfkw3xhDP%2BIy9gDHbJ7ftYAuc65OyETAuzMgcSqrdcWLJ%2FUmDsHX58fbl0ahWbTAxP8vmittjZiNA0J9yzxhH%2FzGY449awCCZUctHkAlblSp3V8hhcet3KRm48J9XTPY9VXH6Bt5EO%2BCFL3kXx9e%2BE60hlVZjfiDCvuJz8gqEZg%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/267020859885?_skw=PSA+10&amp;epid=26055873200&amp;hash=item3e2baef9ed:g:RDYAAOSwVGxnBZHi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYGm6H1eiNVc%2FyhDVrEGDE%2FIBdZ9drEKxt7HX%2FAiyJbaxKhvvA0TBURW1W12htp5jnko12%2Fij1YT2%2F4VkRueT8EQ5Nq%2BjyC5wks%2Fau3Ufb4fuZLXI4VEy1RnrCtiXjQ6r9azhL7w4pf7PiaBSDwjqLxazvXumykQBHAEw4ivuVdpcyBG5C40u6n3lon2o6PK9ruDBP7M8jOWfccxhFJ0dGKq%2FOq0W4ePChHf9TXaRoguKElmjYWvTIw%2BaiTU%2FNMqv9CcKALMN0NYmE675ckjyD%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11731,11 +11763,7 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr">
         <is>
           <t>Bowman Draft</t>
@@ -11743,17 +11771,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Orange Refractor</t>
+          <t>Chrome Green Sparkle Refractor</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Dillon Head</t>
+          <t>Jackson Merrill</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>$499.99</t>
+          <t>$319.99</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -11763,7 +11791,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335795896531?_skw=PSA+10&amp;epid=21064275108&amp;hash=item4e2efec0d3:g:UPoAAOSw5AVl86GB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmiJ8xrnmj936RBG0eGPn2V%2B4ojyDUrMpqK5YaWzeMiEJSVLN%2Fl7kMfEIEWJyy%2FHKLhTtu4kiBM7OIqAPAQCKAVx0uBhaK48LFxEyBxShGt%2FgSqriJzyluF622SlclK7G1ydggITabMMTNudrVxDdT%2FANBdAfovODf1PFK2xSfGyrJwOXM4QeH0p9%2BzjNbBQOAa7Xir6q4oFjxS46c2UhkdEaOBF1lnx418YrdCY970MQ%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/396169327983?_skw=PSA+10&amp;hash=item5c3d88356f:g:zDUAAOSwWRZnn7Gm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXOYCNLq%2F4vj%2FjItS1sfZBJbPa4UkaRtiBp9YlvY9dz%2B9Y8NFpyE4ShjL4MOfh0Vd2SekDzfPQHrSCf7xEDS0z3fRNG3TCZ4aQmNqii3%2FPkRrQdVJEWmsJvTKr2yDuHswiBsFUtpdPlJRnnu0kPhwNaXqst16V0uD9bCoU6%2FueIW4wryPRQxZzXs28D2%2BRiqO4nR0TSecfoTJtVrhib16oqz2gFvBF%2BeKRku0SALubTA%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11775,23 +11803,27 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Bowman</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>Bowman Draft</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Sparkle Refractor</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Walker Jenkins</t>
+          <t>Jake Cunningham</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$165.00</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -11801,7 +11833,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316163012151?_skw=PSA+10&amp;epid=26067699145&amp;hash=item499cc8b637:g:hDsAAOSw1KZnlul5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnxlLIqqdkaL3q%2F2rbQw89PeL6YfU8YyxTuTWqLCp1o3t2JZUw3Qnx60iXXGEfNf68ZFcV0H3D8FO6PEqkOD5La52HPVIy%2FhKX6fXHK%2F6xlhcTDTQzXdiM40FiiD1CQFjHVrLKpBx2pzhxPrRuu5T4nrJ6hEWlCBCFFFHS2YSZ5bcffsmraeJxhC3rHmSJlEt4MxJkh%2BScIibVb5Tv4cUcAvU8DHmXa67aeovHJXwlBN7l4nV6%2Brb9nM%2FIHsY5668WXC%2Bm2Nwc3opuvry5CluR%2F%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/167279261262?_skw=PSA+10&amp;epid=21064274463&amp;hash=item26f29ef64e:g:TmoAAOSwfMdlghAy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmWE7q7Qp3LCrbT%2FyuGGHKr236qaB6df4osiYo0P74PobzCHO3P4n1goxrAVReH9h%2FGLAG%2BjGYT7wv9TZHArJAVuSjkVZLrtFju3V006n3ZyNHVeiTfbTGTDbAJdZ7iOdTinGfyaDnSuNVM4k%2FpYkxwduWGC%2BNVrgCeNpscqELy3sLqf7V7x6hP7YWdFDmHtTe5RWPwEhJGDtvl%2BvN%2FXv2gFbwV5VrMTJfMeII%2BqWl3LQ%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11813,23 +11845,23 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Mojo Refractor</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr"/>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Michael Jordan</t>
+        </is>
+      </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$449.99</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -11839,7 +11871,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266617411859?_skw=PSA+10&amp;hash=item3e13a2d913:g:eG0AAOSwu4JlqCEY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnE7glV%2Fe%2BzNsg2HqTGSYaaGl0asV3QwS4TvzIiPTQ2vildZnPLU85jhCPlTopR%2FxVkKLt7aSsfDR3ncfzWosCbNA84xS%2FO%2B6YzEACDyMhPETBgKBnyMMVzvBZqropu63nHA4LJ5TyTGBuigpnMZhiLfH6IbygmWQyGcLLPir8BElFypo%2Fv%2FnPl9rdmjP%2BRNZXc6P3ovgKTeZqM8rXVzWYIlILkK2T0ngIuMeVmhvV91Q%3D%3D%7Ctkp%3ABk9SR4CO25OaZQ</t>
+          <t>https://www.ebay.com/itm/365351702949?_skw=PSA+10&amp;epid=24064624884&amp;hash=item5510a891a5:g:35wAAOSwUC1njKFL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl5IbhDFM6o%2BXil6iBOP%2F6iTzv%2Bmwm7hV9%2FzqGVF1TGnSvcevOZbfyDz2zP04pHS0%2FlhDMRfsHsO59AEwLTVOSpxbYAHgz8XXoGArh5Ys9QYqqdhd8X%2FskH6wuYu%2FRJjwglLXo5Z1AqwUiRLOf6jlXfkuDXnbPLPDE5D3vuYU4oa1uNH0kc1HuUom2sOQBWFrw1ekov%2BuOvKlfXOGu4nvOyjizuZAjZ4L0%2Bthe1c81FHwEVc3ivugXulwqgu6L1juayLoKFyYB4H8ZQLqOOvcST%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11851,27 +11883,27 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Topps Opening Day</t>
+          <t>Bowman Draft</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Orange Refractor</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>Dillon Head</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>$190.00</t>
+          <t>$499.99</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11881,7 +11913,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395093236682?_skw=PSA+10&amp;epid=11055928040&amp;hash=item5bfd645bca:g:eA0AAOSwSX9ljG~C&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmASzSR35Kdzv%2BD%2FAe6UKZElqHktbHXryNYurkI4z39kRRx%2FssrpVXNQaDMsYIfuj1W9GPP5%2F483%2FZZL6%2FF6gM2Kw15RxBEVJYjQhq3oJLM%2B1vDlLL%2Fyjd6zKOvbOeKue2UeLGnU1sqdm20QPUaNnQX%2Fy9smD7qmhdJ2nmTNAj3jSlpk%2FxlJ7y4bB%2FoifOo5E8JWmuQIN0cXfKJzkj9gAbmdOTePX%2F9QeRrdX5sZ%2BLxBH86e3%2FoLOap8aS0ldDEeEHBV8ZXp%2F2dsmJKmW9dDv6o%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/335795896531?_skw=PSA+10&amp;epid=21064275108&amp;hash=item4e2efec0d3:g:UPoAAOSw5AVl86GB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkh%2BVEmrmXyshGmJAcUfMvMuhfevam4I6rnvwjgSUFFw%2BXOh7zuXwWBZ0B2wrYltBD9yHXSFsnQE9cOSJhUYbs7PYkaBHkXS6InY%2FncdITxXyTTSCSWUicygyjmfwJZad5uV%2FeC2xb1LNBcMUh70kAJtANqtERyjo7M27DZCuyuLMlmGwPEISjE3qTiKYLRNap%2BdvkV8NFsZvMQscHzkjxPkV7Cxe3UkXMpdmWrn5MgEsMR0WG%2FaS7dHMotXnSBuCesAfWUB%2B6YihHgCJEXDSu%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11893,19 +11925,23 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Bowman</t>
+        </is>
+      </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Frank Thomas</t>
+          <t>Walker Jenkins</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>$239.99</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11915,35 +11951,35 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267129000097?_skw=PSA+10&amp;hash=item3e322110a1:g:y3kAAOSwNBhnjBuB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm4NrcNg%2Fc%2FaUiM%2FW3cyIzyFOa%2BDHQekxMMuoctysp9XuNB2GmnSkjm8geJHY2BhhqfNugpgaQmjofqucalp58GYYLbpMjf4LuD%2BOb0vCjBB90bDQc96CeSkxtIixImoAv3TDE0C0JhnHvTQzGHVEcI3XpxsU5Coy6VERwoeaB1hkde7cmU9BMaTnuHwHHR1nXYeaeHvA5hRt%2BBn7z8rDJrDtCDS7CuYRvqRieESV1lXQ%3D%3D%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/316163012151?_skw=PSA+10&amp;epid=26067699145&amp;hash=item499cc8b637:g:hDsAAOSw1KZnlul5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnxlLIqqdkaL3q%2F2rbQw89PeL6YfU8YyxTuTWqLCp1o3t2JZUw3Qnx60iXXGEfNf68ZFcV0H3D8FO6PEqkOD5La52HPVIy%2FhKX6fXHK%2F6xlhcTDTQzXdiM40FiiD1CQFjHKMtdW3A1pDZkeY1%2F5RobGt8zfQK5Oty7%2FLnFmvImhp1FKvVt6Y%2BEAiSQZ4wCWDZjgpl6hmzxSMGmM2TP2XLHrW5%2FFpC0ueaEI0XqaiEU1pQnagp%2BdrPETNscmZVkKus5biOZIujYFXhZFRFv0G9GZ%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Baseball, Golf</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Michael Jordan, Tiger Woods</t>
-        </is>
-      </c>
+          <t>Bowman Chrome</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Mojo Refractor</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>$249.95</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -11953,7 +11989,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276840481565?_skw=PSA+10&amp;hash=item4074fa831d:g:8x4AAOSwp25nn4dX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkK2LY69Z2oaIDMQK9phVnBJ5mE3JVv8UJu6JbcI155ll577Ubo1DncrZjXqEUtjmCVoJDuqJ6cqgwcmL9vZIAk5y%2BggHei5akOKeD7DWyaNpiPDszeoW508X6GPAJ7XJIAz5BgzDKeAlMwZZi7Tx6IiRCg5oHIBF82lKioG5IN1GxSViCMRJHsfk39v%2F8Kjbh0tA0THYFvYBqcWvAxXDf78av0fmMnJPU9IURUwfbRuZ5jybTWYH5NTxd3QFKhVanE1MDIEsBlpuBXQMgllbkr%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/266617411859?_skw=PSA+10&amp;hash=item3e13a2d913:g:eG0AAOSwu4JlqCEY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnE7glV%2Fe%2BzNsg2HqTGSYaaGl0asV3QwS4TvzIiPTQ2vs0sBgQHmBJYi3ZJRC7w06BZ400s6cXYIa6J3b4S%2BPtTzhfB%2F0tGKEof5a3bQOOelBXLeJWftV%2BtJcT2Ue0yQE5UDK8aXlyGk3RGtFyKctQdpwpo5xNOPREQbemI7zPIoIaRS%2Bwmhv606NI%2F0A1JPflYreZiwA%2FxLuF67Y8RWCKp5xMQXsHbRoCnLqz3NI8Cdw%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -11965,27 +12001,27 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Topps Chrome - First Pitch</t>
+          <t>Topps Opening Day</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Chrome Refractor</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>$215.00</t>
+          <t>$190.00</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11995,7 +12031,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356507134900?_skw=PSA+10&amp;hash=item53017b2bb4:g:Em0AAOSwkDhnhvmY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkg8Tyf4Xj%2FIFaq6fVMxSW%2FpeVEP6SB1buaeo5PUrp0I5GBoU3orBfiD%2BbNAVgE%2FbW%2Bo%2FvYT9M2rM0qpCj2dLEl%2BKAzV1glWiohxihmKK08OEEb0r7OeScA%2BeZQ2uXaxBuDLD4MxOKOCLcE1mjSsQw1N1fLNdbfmxRqYUwzWEEF%2FJYhv1T7EfX9ghjgNBNRe2q2xr7pqJTS%2Ff4I4km0lYvw3OdD0oQRE1WDOofqILNv7Q%3D%3D%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/395093236682?_skw=PSA+10&amp;epid=11055928040&amp;hash=item5bfd645bca:g:eA0AAOSwSX9ljG~C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlG2pxaFsC85arpIbSZV9TvG6fH6G%2FeaKOTPg8p3GZA%2Bur4OR%2FGvayQ5h3TK5ngeeHudlrKSABX2KJAjS6EF9V%2B%2FhCmAZAFyQMX%2BDkAuix4BsW3hp34sBxLamXvH%2F6pO8J%2Bzrb8ZUETzWzsl5Gnq7p%2FqJhLXwq%2BIUIk9qbgvc8KW7G%2BTeA%2F7dBsRju6HJAiKrMub7EuXq1PtRL74%2FPi8nlYbA93SfmEefsdo55sBZiyYg%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -12007,27 +12043,19 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Blue RayWave Refractor</t>
-        </is>
-      </c>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Francisco Alvarez</t>
+          <t>Frank Thomas</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$239.99</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12037,39 +12065,35 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306044491806?_skw=PSA+10&amp;epid=22061701658&amp;hash=item4741ac581e:g:rvsAAOSw7eZniKBu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2BDDT7LgMd1kvcia4FA174d%2BjI7lfHGOmrr2kfN0fdLmB6xf95VEoKCAH6KkYh637aEBaAOeRH2lEu%2FJwfulIcVKO7RT0Fj%2BwXAEXaOp8273CMzjlXYdk3S9MKj6Og53XZqkoOppeux9V3AqPqdr5UbAWXEJ1m%2Bu%2BZEb2ie03pT5HrEWMvP35AVjDE2FxGNdDHytzv7aqFN%2FN9D99CZQL1Ky8UtQN4WC0ZgmNbOzlQaMyMizfg5PrFYtwX0%2FKT7I4QpIvWqBm1HGD9A5MUg2mR%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/267129000097?_skw=PSA+10&amp;hash=item3e322110a1:g:y3kAAOSwNBhnjBuB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkbn6KKCxVXkrWo8QIlItBPsdMqOm%2FMgBmNwRLUUSCxhpaWx1VUAvwVFwFekhsXPREB3m3NHxHL8GkOLqvw8QG7VqpXKAuNqDh4BPHlvrPTfNoMvWXu2xXXTB5aiXwhbJMWTFBFUFxkeTIWV3BZzNSUbSRDixDRYSNS8SHDZUkdJkWiFqnIMxOzLn2WfBm7mZ71AgmelXG3MUBG%2FX2mk7rO%2Bxecf71GRL6dZQC23CL8ccofK%2BkYF7%2BFY4gRlsQ92lv0Op%2Bpc2he1cgNbkwklR%2Bf%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Baseball</t>
+          <t>Baseball, Golf</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Bowman Draft</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Orange Refractor</t>
-        </is>
-      </c>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Dillon Head</t>
+          <t>Michael Jordan, Tiger Woods</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>$499.99</t>
+          <t>$249.95</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12079,7 +12103,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335303651837?_skw=PSA+10&amp;epid=21064275108&amp;hash=item4e11a7b1fd:g:UPoAAOSw5AVl86GB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnu0nbY1YpU9PEH0iDmn3duXchzntnmga9ex4mvoEJhlRFe5rjtsWmbWzGhgCjgdYM3LdQy11c4wo1O6tswqw7g%2BaWHwFObaWcobo6vHgH1uu5fmhAObbWDIaPHjeFOA9q4EGnomrf5XisCJ3QfGQcpEwA3H6%2BwSXHprFyBCGQO0ZcAgoYhcXs3iq%2FHuU1r9nJTOlPz2awc2DajyrlQPlxIuz4fQcLzAPy0ZtscCYkvWiTznSvatWyf0IFFQKIHYBpusKYGZmcVjAP4SduSIBqG%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/276840481565?_skw=PSA+10&amp;hash=item4074fa831d:g:8x4AAOSwp25nn4dX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5Ye7l4UQNX1ks1wa1EFnH9%2FNv8zB5r5jVCvsTlg8bUUCqZcHcxiv2%2BBnJOl%2FEIxPeeg6ftptyXAEIz24RoyQs2P9W1Ljc52D2bK90mTq4Pu%2BLOkxnhA%2B8TJlwwBK3HwDwjMGBn4B0Gqkeyd6zqnGwLIXkXQa5ZTOEXQQDMIR63DKgOkgK%2FTHgslA35sP9lwX0s7q5SCEPbur0AMQw7OahkSYnLLXCgC7XgDyBJn6Vjw%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -12091,27 +12115,27 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Topps Pro Debut</t>
+          <t>Topps Chrome - First Pitch</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Gold Autographs</t>
+          <t>Chrome Refractor</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Max Clark</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$215.00</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12121,7 +12145,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205201731006?_skw=PSA+10&amp;epid=22071428670&amp;hash=item2fc6f9edbe:g:1BAAAOSw8aJndvEs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSFjDhH6RfUn9HC8T42oWwpbv53MD%2FouBZVFY5epjzaDpxcWBNcV1zuQq9OlKosfqDi4vUQzN0%2BAO4zT%2FgfZ4bts7HsM%2BqXhuKlITw72tF6m6zJNaFImdJroiWzzsN500GozGeOZZuav7hkbinYnENVquo0xDnhN%2BkcWlB1MGOUpecn1xSPA62Rhrk%2BpqI1sdjSHPj1omY1526MwIYR5ku0mAGxkdN0Z%2FnTVYYM%2BiSaa8FgLCum9vWxvjgyBhuNEzwyCwBtsyzwxWKyEmhIjjq%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/356507134900?_skw=PSA+10&amp;hash=item53017b2bb4:g:Em0AAOSwkDhnhvmY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkIvN--jjzZ6N48AnH0kdHZRnAdROLceCgD0ofv4gAnTAnZbSJXalsR1NjfG5VUXTcoT4cCpOjjeX93o6iSmIds%2FQUpOGnh9R5IHcd8vJ3VreSe8I8xq5eHO6GOWBePRwOHBzWWkfEGMreYKjDsmERun9G7YCPyZBvT8r1hv5nlHsVK2vsDxFbwVaMo258I0axjrEr6yRDR2XLXRbzT1w%2BKBPLu8DaG6D0qufSbKbeRJIrMffsj%2FQBGBD2zyr9bsyrXp2e19lrIy6sJNkvhEYq3%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -12133,23 +12157,27 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Bowman Draft</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Blue RayWave Refractor</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Jac Caglianone</t>
+          <t>Francisco Alvarez</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12159,7 +12187,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205242381244?_skw=PSA+10&amp;epid=8073909942&amp;hash=item2fc96633bc:g:K70AAOSwYipnkwKu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhmhY%2FCIyNqYvUJ5qtAAcMAtAn26DxFu5FqFJa773DMkzWlelw9uOw7fSdW%2FNRsNPGHaEzyorzLAzE2fZg4w%2B1%2FFOX1RPRGS%2B%2FHOJz1%2BXzMSfDh8Zp3FXQmxUIcrxCreHk6flNwiyGa61qI2x9myt0hYtm5pjYHBf4AQOcLF%2BWXmimRO1f18TkQG4aDI7fCbhlpNQeODmEpUxI%2FzCq607D5zzmgZKlZpp4jXNe1VmkHw%3D%3D%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/306044491806?_skw=PSA+10&amp;epid=22061701658&amp;hash=item4741ac581e:g:rvsAAOSw7eZniKBu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmIxZWcPMSTNwCD6jNfEPesQdYhGo2mfzxzLo5SxPucGnxCQhZ0gh3GhN7%2FNXrKhQZBDRsaG50FOxEHy8yGTy9jrd%2BC%2F5%2BFGyun02M%2FIijO6MPXl60joh4IkXn09iAkKlGYEs%2Be6Ty1S6sYuf71k5afXxnwI5kvveaZXMSyrISbNCkrYgO727eRHiOYooBOyhk7BqVYI3zDcoyuDfs47gxTqooiCF5j1cCO4nh725IQgg%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -12171,27 +12199,27 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Bowman Draft</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Blue Lunar Refractor</t>
+          <t>Orange Refractor</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Aidan Miller</t>
+          <t>Dillon Head</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$499.99</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12201,7 +12229,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126905125940?_skw=PSA+10&amp;epid=21067696145&amp;hash=item1d8c228c34:g:yu0AAOSweSVnl0z3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVASB%2BZY02P%2B5fwxwkNzYsa4P5fJF1tkbd0M5wANugVdYQ%2F9l7erZDTiKqthmG6wYe6HtE%2FU5uozsMWgldPYPgJOzij1KkhGSmHNihegSLms6YZMwvgcQ3DC6A49h9E07oZi8KZVYige7GZtidiYnix4E5UbgY1%2FaTjXO6JeT92AkmZSDImyxVoSZr0qO5hRokOMLVjREBIMTkLauNcqQzfpulqnI3oqHP30iPnFXSsDpUzgHburkH4lpG8dB%2B1k%2BlUEvvFdhH3QTgxJ0NaA2G%7Ctkp%3ABk9SR4KO25OaZQ</t>
+          <t>https://www.ebay.com/itm/335303651837?_skw=PSA+10&amp;epid=21064275108&amp;hash=item4e11a7b1fd:g:UPoAAOSw5AVl86GB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk%2BYGPavAOwlE%2BR%2B0D5aU6coUFtfm91hYrnjYwZcPQeL%2BoUkQkEw7TdA5NuJ9Nt08tGe7lKI6lCmYU1FrqmTGLL6Py24MihtrxV4nI0TwaA6Wu1L0Z%2BEQ621ktWV3cizfLI281k7crDufz9EZT9n%2FAh%2BkZC4IpogZIqTtLIR5NN7Wuc7X5hcJHLaL2C%2Bi6KGFDIxjSOSarl06tStV5uWzRep%2FlkFch%2F7yb%2FtXkc%2FqKGNQ%3D%3D%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
@@ -12218,32 +12246,154 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>Topps Pro Debut</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Gold Autographs</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Max Clark</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205201731006?_skw=PSA+10&amp;epid=22071428670&amp;hash=item2fc6f9edbe:g:1BAAAOSw8aJndvEs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSFjDhH6RfUn9HC8T42oWwpbv53MD%2FouBZVFY5epjzaDpxcWBNcV1zuQq9OlKosfqDi4vUQzN0%2BAO4zT%2FgfZ4bts7HsM%2BqXhuKlITw72tF6m6zJNaFImdJroiWzzsN501t2NClwrbVa0fr8%2F3eKRROAM4pWt45D28Ua4liigRCnWO3L6z2LROK9slHDjCooxWzya6hgxVhwXDx6%2Fh%2FOS%2FRAjis9D6VePTu%2FgE804p4hQf8GhmYnYuGoaJpuTSEkVcybb%2FkeNDjS%2B0lMxvn9Jr4%7Ctkp%3ABk9SR-zOyJeaZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Bowman Draft</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Jac Caglianone</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205242381244?_skw=PSA+10&amp;epid=8073909942&amp;hash=item2fc96633bc:g:K70AAOSwYipnkwKu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnuH%2FcWTML8rNJmc%2Fja2L4PoQCuc4H3y5WSD90FrStn39rHxOZ%2BR2y14Yd5zsgKtinenJrFn5a6GUAVAlOpgZbqfQEqxMmst68teeWKitWRsmoER1Bd1ED%2FBeH2pnG7etbxbSr87cOltf%2FKSqguT9Tklz0yqkxu2G4JZHrdXPAeby%2FzZMQ745WeSQlrRuPaB6h3cnZ8TH9vzVh8ICmPSQvvlu3YOd7J3%2B32qSWWA0IeJzaKjmmqmjl4SoJaqfdagMbULStU2IuqC50Q76pJpsuQ%7Ctkp%3ABk9SR-zOyJeaZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Blue Lunar Refractor</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Aidan Miller</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>$325.00</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/126905125940?_skw=PSA+10&amp;epid=21067696145&amp;hash=item1d8c228c34:g:yu0AAOSweSVnl0z3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVASB%2BZY02P%2B5fwxwkNzYsa4P5fJF1tkbd0M5wANugVdYQ%2F9l7erZDTiKqthmG6wYe6HtE%2FU5uozsMWgldPYPgJOzij1KkhGSmHNihegSLms6YZMwvgcQ3DC6A49h9E05404buDKM8EE%2FeeaWgBsmmfmFV7BpkG8X%2Fb08Sb8wbvGtlj02hupW8xEvJAruQTsiRFoCKFLrFb0aF2EvVtw4F6Rume21AYDpQDzWkaK35ZvAaiJ5vyTjlfxuEg049Ssv9gUKxXr35EfN%2FAsyXgOin%7Ctkp%3ABk9SR-zOyJeaZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
           <t>Bowman Sterling</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
+      <c r="D304" t="inlineStr">
         <is>
           <t>Sterling Copper Refractor</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="E304" t="inlineStr">
         <is>
           <t>Paul Skenes</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="F304" t="inlineStr">
         <is>
           <t>$499.99</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/276821397540?_skw=PSA+10&amp;epid=13072869072&amp;hash=item4073d75024:g:DFAAAOSwvpJnjC1H&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnGqOTfZmuSiOjjrYdQbEH1F0upLqgph1vXtB%2FDoaH6Mn760EWiuRHiSvaUvSiP%2BjdlBcZCtRlY1waMwKZl9gX07xT%2FUVeCCJekqxfPgPb5EPs2K%2Fty49bDnvOjezLTd0Lh4COVZMlOpgFeD%2BhnQHHu8GbCQArKShYx8q%2B%2F1PcL8Mk5qhdhESx%2FzYjiM6pKYf3fX6Ip0JUDbXi%2B4TB0G71MS9FYeR5k9h6wxNsmUSbP4A%3D%3D%7Ctkp%3ABk9SR4KO25OaZQ</t>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/276821397540?_skw=PSA+10&amp;epid=13072869072&amp;hash=item4073d75024:g:DFAAAOSwvpJnjC1H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkDOBjvO3dn180SN%2FmfWlw7Ot%2BMhIUM8Wcu%2Fr88633MEFLL2S9b0g00UggfbRTmDgY3HhaqsoDI7ACzCnN7k1IE3GKl2hlErN5HqKPOGYC%2FvorAk5REKcYWjCZ1dM9cdhuD7R4Syl1uYf%2Frha2zzUSDlmUxG5vaPH%2FUIE16EQ%2BoI%2BCL1AJBsUInLE1qAqwy5V6aUa4wHx3FGvuEoEX7RZLSgONKJ3Eub98LF695FC9sUBC4Nu0%2F97Ye11TM%2FJdY91ItCKAHJLFhKTVMARmQitaG%7Ctkp%3ABk9SR-zOyJeaZQ</t>
         </is>
       </c>
     </row>
